--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19296700</v>
+        <v>22510400</v>
       </c>
       <c r="E8" s="3">
-        <v>19895700</v>
+        <v>19721300</v>
       </c>
       <c r="F8" s="3">
-        <v>18476200</v>
+        <v>20333400</v>
       </c>
       <c r="G8" s="3">
-        <v>24521600</v>
+        <v>18882700</v>
       </c>
       <c r="H8" s="3">
-        <v>20826400</v>
+        <v>25061200</v>
       </c>
       <c r="I8" s="3">
-        <v>21142700</v>
+        <v>21284600</v>
       </c>
       <c r="J8" s="3">
+        <v>21607900</v>
+      </c>
+      <c r="K8" s="3">
         <v>19688000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24359100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20770000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20681700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18881600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23443000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19208300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14147600</v>
+        <v>16403500</v>
       </c>
       <c r="E9" s="3">
-        <v>14420400</v>
+        <v>14458900</v>
       </c>
       <c r="F9" s="3">
-        <v>13529500</v>
+        <v>14737700</v>
       </c>
       <c r="G9" s="3">
-        <v>18330900</v>
+        <v>13827100</v>
       </c>
       <c r="H9" s="3">
-        <v>15167100</v>
+        <v>18734300</v>
       </c>
       <c r="I9" s="3">
-        <v>15390200</v>
+        <v>15500800</v>
       </c>
       <c r="J9" s="3">
+        <v>15728800</v>
+      </c>
+      <c r="K9" s="3">
         <v>14420300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17804700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15290000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15148400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13830300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17433900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14170500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5149100</v>
+        <v>6107000</v>
       </c>
       <c r="E10" s="3">
-        <v>5475300</v>
+        <v>5262400</v>
       </c>
       <c r="F10" s="3">
-        <v>4946700</v>
+        <v>5595800</v>
       </c>
       <c r="G10" s="3">
-        <v>6190700</v>
+        <v>5055500</v>
       </c>
       <c r="H10" s="3">
-        <v>5659300</v>
+        <v>6326900</v>
       </c>
       <c r="I10" s="3">
-        <v>5752600</v>
+        <v>5783800</v>
       </c>
       <c r="J10" s="3">
+        <v>5879200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5267700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6554300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5479900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5533300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5051300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6009100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5037800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17947500</v>
+        <v>20501500</v>
       </c>
       <c r="E17" s="3">
-        <v>18324800</v>
+        <v>18342400</v>
       </c>
       <c r="F17" s="3">
-        <v>17345500</v>
+        <v>18728000</v>
       </c>
       <c r="G17" s="3">
-        <v>22517900</v>
+        <v>17727100</v>
       </c>
       <c r="H17" s="3">
-        <v>19099800</v>
+        <v>23013300</v>
       </c>
       <c r="I17" s="3">
-        <v>19357100</v>
+        <v>19520000</v>
       </c>
       <c r="J17" s="3">
+        <v>19783000</v>
+      </c>
+      <c r="K17" s="3">
         <v>18341400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22188700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19221300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19132200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17689700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21707800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18186600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1349200</v>
+        <v>2009000</v>
       </c>
       <c r="E18" s="3">
-        <v>1570900</v>
+        <v>1378900</v>
       </c>
       <c r="F18" s="3">
-        <v>1130700</v>
+        <v>1605500</v>
       </c>
       <c r="G18" s="3">
-        <v>2003800</v>
+        <v>1155600</v>
       </c>
       <c r="H18" s="3">
-        <v>1726600</v>
+        <v>2047900</v>
       </c>
       <c r="I18" s="3">
-        <v>1785700</v>
+        <v>1764600</v>
       </c>
       <c r="J18" s="3">
+        <v>1824900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1346700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2170300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1548600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1549500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1191800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1735100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1021800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3444900</v>
+        <v>-765100</v>
       </c>
       <c r="E20" s="3">
-        <v>-539700</v>
+        <v>-3520700</v>
       </c>
       <c r="F20" s="3">
-        <v>573500</v>
+        <v>-551600</v>
       </c>
       <c r="G20" s="3">
-        <v>-50700</v>
+        <v>586100</v>
       </c>
       <c r="H20" s="3">
-        <v>-2093900</v>
+        <v>-51800</v>
       </c>
       <c r="I20" s="3">
-        <v>-171900</v>
+        <v>-2140000</v>
       </c>
       <c r="J20" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="K20" s="3">
         <v>335400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-583700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>82700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-132600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>132400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-702400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>286900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1108100</v>
+        <v>2327700</v>
       </c>
       <c r="E21" s="3">
-        <v>1979700</v>
+        <v>-1132400</v>
       </c>
       <c r="F21" s="3">
-        <v>2644700</v>
+        <v>2023300</v>
       </c>
       <c r="G21" s="3">
-        <v>2837000</v>
+        <v>2702900</v>
       </c>
       <c r="H21" s="3">
-        <v>463700</v>
+        <v>2899400</v>
       </c>
       <c r="I21" s="3">
-        <v>2424600</v>
+        <v>473900</v>
       </c>
       <c r="J21" s="3">
+        <v>2478000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2501800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2422700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2464400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2253700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2112600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1868900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2102600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57300</v>
+        <v>53300</v>
       </c>
       <c r="E22" s="3">
-        <v>57600</v>
+        <v>58600</v>
       </c>
       <c r="F22" s="3">
-        <v>50900</v>
+        <v>58900</v>
       </c>
       <c r="G22" s="3">
-        <v>46600</v>
+        <v>52000</v>
       </c>
       <c r="H22" s="3">
-        <v>52300</v>
+        <v>47600</v>
       </c>
       <c r="I22" s="3">
-        <v>46100</v>
+        <v>53400</v>
       </c>
       <c r="J22" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K22" s="3">
         <v>41700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>38100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2153000</v>
+        <v>1190500</v>
       </c>
       <c r="E23" s="3">
-        <v>973600</v>
+        <v>-2200400</v>
       </c>
       <c r="F23" s="3">
-        <v>1653200</v>
+        <v>995000</v>
       </c>
       <c r="G23" s="3">
-        <v>1906500</v>
+        <v>1689600</v>
       </c>
       <c r="H23" s="3">
-        <v>-419600</v>
+        <v>1948500</v>
       </c>
       <c r="I23" s="3">
-        <v>1567600</v>
+        <v>-428800</v>
       </c>
       <c r="J23" s="3">
+        <v>1602100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1640400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1541300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1582800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1369600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1279600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>994600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1266600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1144500</v>
+        <v>803700</v>
       </c>
       <c r="E24" s="3">
-        <v>449200</v>
+        <v>-1169700</v>
       </c>
       <c r="F24" s="3">
-        <v>374700</v>
+        <v>459100</v>
       </c>
       <c r="G24" s="3">
-        <v>443600</v>
+        <v>383000</v>
       </c>
       <c r="H24" s="3">
-        <v>407100</v>
+        <v>453400</v>
       </c>
       <c r="I24" s="3">
-        <v>398500</v>
+        <v>416100</v>
       </c>
       <c r="J24" s="3">
+        <v>407300</v>
+      </c>
+      <c r="K24" s="3">
         <v>444600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>137800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>394200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>340500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>318200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>339400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>295300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1008500</v>
+        <v>386800</v>
       </c>
       <c r="E26" s="3">
-        <v>524300</v>
+        <v>-1030700</v>
       </c>
       <c r="F26" s="3">
-        <v>1278500</v>
+        <v>535900</v>
       </c>
       <c r="G26" s="3">
-        <v>1462900</v>
+        <v>1306600</v>
       </c>
       <c r="H26" s="3">
-        <v>-826700</v>
+        <v>1495100</v>
       </c>
       <c r="I26" s="3">
-        <v>1169100</v>
+        <v>-844900</v>
       </c>
       <c r="J26" s="3">
+        <v>1194900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1195800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1403500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1188600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1029200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>961500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>655200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>971300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1215800</v>
+        <v>306900</v>
       </c>
       <c r="E27" s="3">
-        <v>630600</v>
+        <v>-1242600</v>
       </c>
       <c r="F27" s="3">
-        <v>1097300</v>
+        <v>644500</v>
       </c>
       <c r="G27" s="3">
-        <v>1314900</v>
+        <v>1121400</v>
       </c>
       <c r="H27" s="3">
-        <v>-999600</v>
+        <v>1343800</v>
       </c>
       <c r="I27" s="3">
-        <v>887400</v>
+        <v>-1021600</v>
       </c>
       <c r="J27" s="3">
+        <v>907000</v>
+      </c>
+      <c r="K27" s="3">
         <v>903300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1089500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>873200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>784200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>679200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>399800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>697700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1693,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3600</v>
       </c>
-      <c r="E29" s="3">
-        <v>-3500</v>
-      </c>
       <c r="F29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3700</v>
       </c>
-      <c r="G29" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="K29" s="3">
+        <v>53400</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="M29" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3600</v>
       </c>
-      <c r="I29" s="3">
-        <v>-89800</v>
-      </c>
-      <c r="J29" s="3">
-        <v>53400</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-145700</v>
-      </c>
-      <c r="L29" s="3">
-        <v>12400</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-45100</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-3600</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3444900</v>
+        <v>765100</v>
       </c>
       <c r="E32" s="3">
-        <v>539700</v>
+        <v>3520700</v>
       </c>
       <c r="F32" s="3">
-        <v>-573500</v>
+        <v>551600</v>
       </c>
       <c r="G32" s="3">
-        <v>50700</v>
+        <v>-586100</v>
       </c>
       <c r="H32" s="3">
-        <v>2093900</v>
+        <v>51800</v>
       </c>
       <c r="I32" s="3">
-        <v>171900</v>
+        <v>2140000</v>
       </c>
       <c r="J32" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-335400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>583700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-82700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>132600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-132400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>702400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-286900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1219400</v>
+        <v>301500</v>
       </c>
       <c r="E33" s="3">
-        <v>627100</v>
+        <v>-1246200</v>
       </c>
       <c r="F33" s="3">
-        <v>1093600</v>
+        <v>640900</v>
       </c>
       <c r="G33" s="3">
-        <v>1271900</v>
+        <v>1117600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1003200</v>
+        <v>1299800</v>
       </c>
       <c r="I33" s="3">
-        <v>797600</v>
+        <v>-1025300</v>
       </c>
       <c r="J33" s="3">
+        <v>815200</v>
+      </c>
+      <c r="K33" s="3">
         <v>956700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>943800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>885600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>773300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>678600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>354800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>689800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1219400</v>
+        <v>301500</v>
       </c>
       <c r="E35" s="3">
-        <v>627100</v>
+        <v>-1246200</v>
       </c>
       <c r="F35" s="3">
-        <v>1093600</v>
+        <v>640900</v>
       </c>
       <c r="G35" s="3">
-        <v>1271900</v>
+        <v>1117600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1003200</v>
+        <v>1299800</v>
       </c>
       <c r="I35" s="3">
-        <v>797600</v>
+        <v>-1025300</v>
       </c>
       <c r="J35" s="3">
+        <v>815200</v>
+      </c>
+      <c r="K35" s="3">
         <v>956700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>943800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>885600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>773300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>678600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>354800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>689800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,93 +2140,97 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6312600</v>
+        <v>7546600</v>
       </c>
       <c r="E41" s="3">
-        <v>7651100</v>
+        <v>6451500</v>
       </c>
       <c r="F41" s="3">
-        <v>7577100</v>
+        <v>7819400</v>
       </c>
       <c r="G41" s="3">
-        <v>7341000</v>
+        <v>7743800</v>
       </c>
       <c r="H41" s="3">
-        <v>6442500</v>
+        <v>7502500</v>
       </c>
       <c r="I41" s="3">
-        <v>7504700</v>
+        <v>6584200</v>
       </c>
       <c r="J41" s="3">
+        <v>7669800</v>
+      </c>
+      <c r="K41" s="3">
         <v>7402900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6309600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7334400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6944300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7349700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6787700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6771500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2919200</v>
+        <v>2600700</v>
       </c>
       <c r="E42" s="3">
-        <v>2504500</v>
+        <v>2983400</v>
       </c>
       <c r="F42" s="3">
-        <v>2580500</v>
+        <v>2559600</v>
       </c>
       <c r="G42" s="3">
-        <v>2584000</v>
+        <v>2637200</v>
       </c>
       <c r="H42" s="3">
-        <v>2925300</v>
+        <v>2640800</v>
       </c>
       <c r="I42" s="3">
-        <v>2732100</v>
+        <v>2989600</v>
       </c>
       <c r="J42" s="3">
+        <v>2792200</v>
+      </c>
+      <c r="K42" s="3">
         <v>3453500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3374800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2939900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2708500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -2148,337 +2238,361 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19952000</v>
+        <v>20997300</v>
       </c>
       <c r="E43" s="3">
-        <v>19604800</v>
+        <v>20390900</v>
       </c>
       <c r="F43" s="3">
-        <v>19199500</v>
+        <v>20036100</v>
       </c>
       <c r="G43" s="3">
-        <v>21815400</v>
+        <v>19621900</v>
       </c>
       <c r="H43" s="3">
-        <v>20113100</v>
+        <v>22295400</v>
       </c>
       <c r="I43" s="3">
-        <v>20344600</v>
+        <v>20555600</v>
       </c>
       <c r="J43" s="3">
+        <v>20792200</v>
+      </c>
+      <c r="K43" s="3">
         <v>19477900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22612800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20017900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21216900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19871600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21957800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19728100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14675600</v>
+        <v>13089000</v>
       </c>
       <c r="E44" s="3">
-        <v>13467200</v>
+        <v>14998500</v>
       </c>
       <c r="F44" s="3">
-        <v>13466100</v>
+        <v>13763500</v>
       </c>
       <c r="G44" s="3">
-        <v>12333000</v>
+        <v>13762300</v>
       </c>
       <c r="H44" s="3">
-        <v>14420600</v>
+        <v>12604300</v>
       </c>
       <c r="I44" s="3">
-        <v>13522700</v>
+        <v>14737900</v>
       </c>
       <c r="J44" s="3">
+        <v>13820200</v>
+      </c>
+      <c r="K44" s="3">
         <v>13141900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12432100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14097600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12782800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12369500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10873800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12655400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6531700</v>
+        <v>4237800</v>
       </c>
       <c r="E45" s="3">
-        <v>2020500</v>
+        <v>6675400</v>
       </c>
       <c r="F45" s="3">
-        <v>2101000</v>
+        <v>2064900</v>
       </c>
       <c r="G45" s="3">
-        <v>1702000</v>
+        <v>2147200</v>
       </c>
       <c r="H45" s="3">
-        <v>2274100</v>
+        <v>1739400</v>
       </c>
       <c r="I45" s="3">
-        <v>2120000</v>
+        <v>2324100</v>
       </c>
       <c r="J45" s="3">
+        <v>2166700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2156900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1842900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2258300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2187200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2212300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4753800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4708100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50391100</v>
+        <v>48471400</v>
       </c>
       <c r="E46" s="3">
-        <v>45248000</v>
+        <v>51499800</v>
       </c>
       <c r="F46" s="3">
-        <v>44924100</v>
+        <v>46243600</v>
       </c>
       <c r="G46" s="3">
-        <v>45775400</v>
+        <v>45912600</v>
       </c>
       <c r="H46" s="3">
-        <v>46175600</v>
+        <v>46782500</v>
       </c>
       <c r="I46" s="3">
-        <v>46224100</v>
+        <v>47191600</v>
       </c>
       <c r="J46" s="3">
+        <v>47241100</v>
+      </c>
+      <c r="K46" s="3">
         <v>45633100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46572300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46648100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45839800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45304800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>44373100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>43863100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9054100</v>
+        <v>8555100</v>
       </c>
       <c r="E47" s="3">
-        <v>11955100</v>
+        <v>9253400</v>
       </c>
       <c r="F47" s="3">
-        <v>11818900</v>
+        <v>12218100</v>
       </c>
       <c r="G47" s="3">
-        <v>11751600</v>
+        <v>12078900</v>
       </c>
       <c r="H47" s="3">
-        <v>11814000</v>
+        <v>12010200</v>
       </c>
       <c r="I47" s="3">
-        <v>12459200</v>
+        <v>12073900</v>
       </c>
       <c r="J47" s="3">
+        <v>12733300</v>
+      </c>
+      <c r="K47" s="3">
         <v>12636400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13196900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13425300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13164700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12783700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12515200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13097300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20062400</v>
+        <v>20115700</v>
       </c>
       <c r="E48" s="3">
-        <v>19489300</v>
+        <v>20503900</v>
       </c>
       <c r="F48" s="3">
-        <v>19608100</v>
+        <v>19918100</v>
       </c>
       <c r="G48" s="3">
-        <v>17786300</v>
+        <v>20039500</v>
       </c>
       <c r="H48" s="3">
-        <v>17708100</v>
+        <v>18177600</v>
       </c>
       <c r="I48" s="3">
-        <v>19573100</v>
+        <v>18097700</v>
       </c>
       <c r="J48" s="3">
+        <v>20003800</v>
+      </c>
+      <c r="K48" s="3">
         <v>19357100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19208400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19232200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18881700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18246800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17725900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17662900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10455300</v>
+        <v>10365000</v>
       </c>
       <c r="E49" s="3">
-        <v>8289900</v>
+        <v>10685400</v>
       </c>
       <c r="F49" s="3">
-        <v>8703700</v>
+        <v>8472300</v>
       </c>
       <c r="G49" s="3">
-        <v>8726500</v>
+        <v>8895200</v>
       </c>
       <c r="H49" s="3">
-        <v>9001500</v>
+        <v>8918500</v>
       </c>
       <c r="I49" s="3">
-        <v>9753700</v>
+        <v>9199500</v>
       </c>
       <c r="J49" s="3">
+        <v>9968300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9621800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9531500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10139000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10111900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8483100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8153300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8193600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3494500</v>
+        <v>4743200</v>
       </c>
       <c r="E52" s="3">
-        <v>3368800</v>
+        <v>3571400</v>
       </c>
       <c r="F52" s="3">
-        <v>3415900</v>
+        <v>3442900</v>
       </c>
       <c r="G52" s="3">
-        <v>3465900</v>
+        <v>3491000</v>
       </c>
       <c r="H52" s="3">
-        <v>3414700</v>
+        <v>3542200</v>
       </c>
       <c r="I52" s="3">
-        <v>3436800</v>
+        <v>3489800</v>
       </c>
       <c r="J52" s="3">
+        <v>3512500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3057200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2854500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2728600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2784700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2792500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2951400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2691400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>93457500</v>
+        <v>92250500</v>
       </c>
       <c r="E54" s="3">
-        <v>88351100</v>
+        <v>95513800</v>
       </c>
       <c r="F54" s="3">
-        <v>88470700</v>
+        <v>90295000</v>
       </c>
       <c r="G54" s="3">
-        <v>87505700</v>
+        <v>90417300</v>
       </c>
       <c r="H54" s="3">
-        <v>88113800</v>
+        <v>89431000</v>
       </c>
       <c r="I54" s="3">
-        <v>91447000</v>
+        <v>90052500</v>
       </c>
       <c r="J54" s="3">
+        <v>93459000</v>
+      </c>
+      <c r="K54" s="3">
         <v>90305500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91363700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92173200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90782700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87610900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85718900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85508400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11802400</v>
+        <v>11804500</v>
       </c>
       <c r="E57" s="3">
-        <v>11152700</v>
+        <v>12062100</v>
       </c>
       <c r="F57" s="3">
-        <v>11836800</v>
+        <v>11398100</v>
       </c>
       <c r="G57" s="3">
-        <v>12780600</v>
+        <v>12097200</v>
       </c>
       <c r="H57" s="3">
-        <v>12311400</v>
+        <v>13061900</v>
       </c>
       <c r="I57" s="3">
-        <v>12464700</v>
+        <v>12582300</v>
       </c>
       <c r="J57" s="3">
+        <v>12738900</v>
+      </c>
+      <c r="K57" s="3">
         <v>12718200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13894300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13397100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12889700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12346100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12437800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11908500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6515300</v>
+        <v>3851100</v>
       </c>
       <c r="E58" s="3">
-        <v>4974600</v>
+        <v>6658700</v>
       </c>
       <c r="F58" s="3">
-        <v>4502100</v>
+        <v>5084000</v>
       </c>
       <c r="G58" s="3">
-        <v>2693200</v>
+        <v>4601200</v>
       </c>
       <c r="H58" s="3">
-        <v>5228400</v>
+        <v>2752500</v>
       </c>
       <c r="I58" s="3">
-        <v>4411400</v>
+        <v>5343400</v>
       </c>
       <c r="J58" s="3">
+        <v>4508500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4229900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2157200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3742700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3865500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4202800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3429100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3937900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19804200</v>
+        <v>19025600</v>
       </c>
       <c r="E59" s="3">
-        <v>16326200</v>
+        <v>20239900</v>
       </c>
       <c r="F59" s="3">
-        <v>16173600</v>
+        <v>16685400</v>
       </c>
       <c r="G59" s="3">
-        <v>17300700</v>
+        <v>16529500</v>
       </c>
       <c r="H59" s="3">
-        <v>16499000</v>
+        <v>17681400</v>
       </c>
       <c r="I59" s="3">
-        <v>17189800</v>
+        <v>16862100</v>
       </c>
       <c r="J59" s="3">
+        <v>17568000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16763300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18258800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17693700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17628000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16719600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17137200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16265100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38121900</v>
+        <v>34681200</v>
       </c>
       <c r="E60" s="3">
-        <v>32453500</v>
+        <v>38960700</v>
       </c>
       <c r="F60" s="3">
-        <v>32512500</v>
+        <v>33167500</v>
       </c>
       <c r="G60" s="3">
-        <v>32774500</v>
+        <v>33227900</v>
       </c>
       <c r="H60" s="3">
-        <v>34038800</v>
+        <v>33495700</v>
       </c>
       <c r="I60" s="3">
-        <v>34065900</v>
+        <v>34787700</v>
       </c>
       <c r="J60" s="3">
+        <v>34815400</v>
+      </c>
+      <c r="K60" s="3">
         <v>33711400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34310400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34833500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34383200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33268500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33004000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32111400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7688500</v>
+        <v>9945000</v>
       </c>
       <c r="E61" s="3">
-        <v>7636200</v>
+        <v>7857700</v>
       </c>
       <c r="F61" s="3">
-        <v>8019300</v>
+        <v>7804200</v>
       </c>
       <c r="G61" s="3">
-        <v>6440200</v>
+        <v>8195700</v>
       </c>
       <c r="H61" s="3">
-        <v>6814200</v>
+        <v>6581900</v>
       </c>
       <c r="I61" s="3">
-        <v>6509300</v>
+        <v>6964200</v>
       </c>
       <c r="J61" s="3">
+        <v>6652500</v>
+      </c>
+      <c r="K61" s="3">
         <v>6755400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7337400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7529400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7629600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7261000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7007400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7631500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7994200</v>
+        <v>7986300</v>
       </c>
       <c r="E62" s="3">
-        <v>7848700</v>
+        <v>8170100</v>
       </c>
       <c r="F62" s="3">
-        <v>7759800</v>
+        <v>8021400</v>
       </c>
       <c r="G62" s="3">
-        <v>8164100</v>
+        <v>7930500</v>
       </c>
       <c r="H62" s="3">
-        <v>8188600</v>
+        <v>8343700</v>
       </c>
       <c r="I62" s="3">
-        <v>8448400</v>
+        <v>8368800</v>
       </c>
       <c r="J62" s="3">
+        <v>8634300</v>
+      </c>
+      <c r="K62" s="3">
         <v>8575800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8930400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9587400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9519400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9427600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9367200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9692000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64101600</v>
+        <v>62894200</v>
       </c>
       <c r="E66" s="3">
-        <v>57979500</v>
+        <v>65512000</v>
       </c>
       <c r="F66" s="3">
-        <v>58580000</v>
+        <v>59255200</v>
       </c>
       <c r="G66" s="3">
-        <v>57848700</v>
+        <v>59868900</v>
       </c>
       <c r="H66" s="3">
-        <v>59550500</v>
+        <v>59121500</v>
       </c>
       <c r="I66" s="3">
-        <v>60093200</v>
+        <v>60860800</v>
       </c>
       <c r="J66" s="3">
+        <v>61415400</v>
+      </c>
+      <c r="K66" s="3">
         <v>59788500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61730400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63059800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62347900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60372500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59400900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59920500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20576000</v>
+        <v>21331800</v>
       </c>
       <c r="E72" s="3">
-        <v>22180100</v>
+        <v>21028700</v>
       </c>
       <c r="F72" s="3">
-        <v>21545100</v>
+        <v>22668100</v>
       </c>
       <c r="G72" s="3">
-        <v>20794200</v>
+        <v>22019100</v>
       </c>
       <c r="H72" s="3">
-        <v>19402000</v>
+        <v>21251700</v>
       </c>
       <c r="I72" s="3">
-        <v>20744700</v>
+        <v>19828900</v>
       </c>
       <c r="J72" s="3">
+        <v>21201100</v>
+      </c>
+      <c r="K72" s="3">
         <v>19948300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19032800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18040300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17443200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16664700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>15909000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15530900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29355900</v>
+        <v>29356300</v>
       </c>
       <c r="E76" s="3">
-        <v>30371600</v>
+        <v>30001800</v>
       </c>
       <c r="F76" s="3">
-        <v>29890700</v>
+        <v>31039900</v>
       </c>
       <c r="G76" s="3">
-        <v>29657100</v>
+        <v>30548400</v>
       </c>
       <c r="H76" s="3">
-        <v>28563300</v>
+        <v>30309600</v>
       </c>
       <c r="I76" s="3">
-        <v>31353700</v>
+        <v>29191800</v>
       </c>
       <c r="J76" s="3">
+        <v>32043600</v>
+      </c>
+      <c r="K76" s="3">
         <v>30517000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29633300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29113400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28434800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27238300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26318000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25587900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1219400</v>
+        <v>301500</v>
       </c>
       <c r="E81" s="3">
-        <v>627100</v>
+        <v>-1246200</v>
       </c>
       <c r="F81" s="3">
-        <v>1093600</v>
+        <v>640900</v>
       </c>
       <c r="G81" s="3">
-        <v>1271900</v>
+        <v>1117600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1003200</v>
+        <v>1299800</v>
       </c>
       <c r="I81" s="3">
-        <v>797600</v>
+        <v>-1025300</v>
       </c>
       <c r="J81" s="3">
+        <v>815200</v>
+      </c>
+      <c r="K81" s="3">
         <v>956700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>943800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>885600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>773300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>678600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>354800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>689800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>987600</v>
+        <v>1083900</v>
       </c>
       <c r="E83" s="3">
-        <v>948600</v>
+        <v>1009400</v>
       </c>
       <c r="F83" s="3">
-        <v>940600</v>
+        <v>969400</v>
       </c>
       <c r="G83" s="3">
-        <v>883900</v>
+        <v>961300</v>
       </c>
       <c r="H83" s="3">
-        <v>831000</v>
+        <v>903300</v>
       </c>
       <c r="I83" s="3">
-        <v>810900</v>
+        <v>849300</v>
       </c>
       <c r="J83" s="3">
+        <v>828800</v>
+      </c>
+      <c r="K83" s="3">
         <v>819700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>836100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>833100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>836900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>788400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>836200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>793900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>928600</v>
+        <v>2351000</v>
       </c>
       <c r="E89" s="3">
-        <v>1152900</v>
+        <v>949100</v>
       </c>
       <c r="F89" s="3">
-        <v>716800</v>
+        <v>1178200</v>
       </c>
       <c r="G89" s="3">
-        <v>3705800</v>
+        <v>732600</v>
       </c>
       <c r="H89" s="3">
-        <v>-87700</v>
+        <v>3787300</v>
       </c>
       <c r="I89" s="3">
-        <v>705700</v>
+        <v>-89600</v>
       </c>
       <c r="J89" s="3">
+        <v>721300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1221300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2295800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1760400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1369900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1147500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2221100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>835800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-594600</v>
+        <v>-837400</v>
       </c>
       <c r="E91" s="3">
-        <v>-803000</v>
+        <v>-607700</v>
       </c>
       <c r="F91" s="3">
-        <v>-718100</v>
+        <v>-820700</v>
       </c>
       <c r="G91" s="3">
-        <v>-811500</v>
+        <v>-733900</v>
       </c>
       <c r="H91" s="3">
-        <v>-865400</v>
+        <v>-829300</v>
       </c>
       <c r="I91" s="3">
-        <v>-864000</v>
+        <v>-884500</v>
       </c>
       <c r="J91" s="3">
+        <v>-883000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-934700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-889100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2590100</v>
+        <v>-314000</v>
       </c>
       <c r="E94" s="3">
-        <v>-926900</v>
+        <v>-2647100</v>
       </c>
       <c r="F94" s="3">
-        <v>-955500</v>
+        <v>-947200</v>
       </c>
       <c r="G94" s="3">
-        <v>114700</v>
+        <v>-976500</v>
       </c>
       <c r="H94" s="3">
-        <v>-300200</v>
+        <v>117300</v>
       </c>
       <c r="I94" s="3">
-        <v>-350200</v>
+        <v>-306800</v>
       </c>
       <c r="J94" s="3">
+        <v>-357900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-944800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-721200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-945800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>141000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-396400</v>
+        <v>600</v>
       </c>
       <c r="E96" s="3">
+        <v>-405100</v>
+      </c>
+      <c r="F96" s="3">
         <v>1500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-439300</v>
-      </c>
       <c r="G96" s="3">
+        <v>-449000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-359300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-351500</v>
+      </c>
+      <c r="L96" s="3">
+        <v>400</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="N96" s="3">
         <v>600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-351500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-351500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="P96" s="3">
         <v>400</v>
       </c>
-      <c r="L96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="M96" s="3">
-        <v>600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="R96" s="3">
         <v>400</v>
       </c>
-      <c r="P96" s="3">
-        <v>-257400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>152200</v>
+        <v>-780800</v>
       </c>
       <c r="E100" s="3">
-        <v>-25500</v>
+        <v>155600</v>
       </c>
       <c r="F100" s="3">
-        <v>663000</v>
+        <v>-26000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2947700</v>
+        <v>677600</v>
       </c>
       <c r="H100" s="3">
-        <v>-510100</v>
+        <v>-3012600</v>
       </c>
       <c r="I100" s="3">
-        <v>-252800</v>
+        <v>-521300</v>
       </c>
       <c r="J100" s="3">
+        <v>-258300</v>
+      </c>
+      <c r="K100" s="3">
         <v>797900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-748700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-709100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-864900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>170900</v>
+        <v>-161200</v>
       </c>
       <c r="E101" s="3">
-        <v>-126600</v>
+        <v>174600</v>
       </c>
       <c r="F101" s="3">
-        <v>-188300</v>
+        <v>-129400</v>
       </c>
       <c r="G101" s="3">
-        <v>25800</v>
+        <v>-192400</v>
       </c>
       <c r="H101" s="3">
-        <v>-164300</v>
+        <v>26300</v>
       </c>
       <c r="I101" s="3">
-        <v>-900</v>
+        <v>-167900</v>
       </c>
       <c r="J101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-254800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>99500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>107600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-122100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>530100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1338400</v>
+        <v>1095000</v>
       </c>
       <c r="E102" s="3">
-        <v>74000</v>
+        <v>-1367900</v>
       </c>
       <c r="F102" s="3">
-        <v>236100</v>
+        <v>75600</v>
       </c>
       <c r="G102" s="3">
-        <v>898500</v>
+        <v>241300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1062200</v>
+        <v>918300</v>
       </c>
       <c r="I102" s="3">
-        <v>101800</v>
+        <v>-1085600</v>
       </c>
       <c r="J102" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1058400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>390000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-405400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>431900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-781600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22510400</v>
+        <v>15050000</v>
       </c>
       <c r="E8" s="3">
-        <v>19721300</v>
+        <v>22873900</v>
       </c>
       <c r="F8" s="3">
-        <v>20333400</v>
+        <v>20039700</v>
       </c>
       <c r="G8" s="3">
-        <v>18882700</v>
+        <v>20661800</v>
       </c>
       <c r="H8" s="3">
-        <v>25061200</v>
+        <v>19187600</v>
       </c>
       <c r="I8" s="3">
-        <v>21284600</v>
+        <v>25465800</v>
       </c>
       <c r="J8" s="3">
+        <v>21628300</v>
+      </c>
+      <c r="K8" s="3">
         <v>21607900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19688000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24359100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20770000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20681700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18881600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23443000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19208300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16403500</v>
+        <v>11133800</v>
       </c>
       <c r="E9" s="3">
-        <v>14458900</v>
+        <v>16668300</v>
       </c>
       <c r="F9" s="3">
-        <v>14737700</v>
+        <v>14692300</v>
       </c>
       <c r="G9" s="3">
-        <v>13827100</v>
+        <v>14975600</v>
       </c>
       <c r="H9" s="3">
-        <v>18734300</v>
+        <v>14050400</v>
       </c>
       <c r="I9" s="3">
-        <v>15500800</v>
+        <v>19036800</v>
       </c>
       <c r="J9" s="3">
+        <v>15751100</v>
+      </c>
+      <c r="K9" s="3">
         <v>15728800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14420300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17804700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15290000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15148400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13830300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17433900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14170500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6107000</v>
+        <v>3916200</v>
       </c>
       <c r="E10" s="3">
-        <v>5262400</v>
+        <v>6205600</v>
       </c>
       <c r="F10" s="3">
-        <v>5595800</v>
+        <v>5347400</v>
       </c>
       <c r="G10" s="3">
-        <v>5055500</v>
+        <v>5686100</v>
       </c>
       <c r="H10" s="3">
-        <v>6326900</v>
+        <v>5137200</v>
       </c>
       <c r="I10" s="3">
-        <v>5783800</v>
+        <v>6429100</v>
       </c>
       <c r="J10" s="3">
+        <v>5877200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5879200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5267700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6554300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5479900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5533300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5051300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6009100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5037800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20501500</v>
+        <v>14499000</v>
       </c>
       <c r="E17" s="3">
-        <v>18342400</v>
+        <v>20832500</v>
       </c>
       <c r="F17" s="3">
-        <v>18728000</v>
+        <v>18638600</v>
       </c>
       <c r="G17" s="3">
-        <v>17727100</v>
+        <v>19030400</v>
       </c>
       <c r="H17" s="3">
-        <v>23013300</v>
+        <v>18013400</v>
       </c>
       <c r="I17" s="3">
-        <v>19520000</v>
+        <v>23384900</v>
       </c>
       <c r="J17" s="3">
+        <v>19835200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19783000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18341400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22188700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19221300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19132200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17689700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21707800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18186600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2009000</v>
+        <v>551000</v>
       </c>
       <c r="E18" s="3">
-        <v>1378900</v>
+        <v>2041400</v>
       </c>
       <c r="F18" s="3">
-        <v>1605500</v>
+        <v>1401200</v>
       </c>
       <c r="G18" s="3">
-        <v>1155600</v>
+        <v>1631400</v>
       </c>
       <c r="H18" s="3">
-        <v>2047900</v>
+        <v>1174200</v>
       </c>
       <c r="I18" s="3">
-        <v>1764600</v>
+        <v>2080900</v>
       </c>
       <c r="J18" s="3">
+        <v>1793100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1824900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1346700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2170300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1548600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1549500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1191800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1735100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1021800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-765100</v>
+        <v>2697000</v>
       </c>
       <c r="E20" s="3">
-        <v>-3520700</v>
+        <v>-777500</v>
       </c>
       <c r="F20" s="3">
-        <v>-551600</v>
+        <v>-3577600</v>
       </c>
       <c r="G20" s="3">
-        <v>586100</v>
+        <v>-560500</v>
       </c>
       <c r="H20" s="3">
-        <v>-51800</v>
+        <v>595500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2140000</v>
+        <v>-52600</v>
       </c>
       <c r="J20" s="3">
+        <v>-2174600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-175700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>335400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-583700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>82700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-132600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>132400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-702400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>286900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2327700</v>
+        <v>4177400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1132400</v>
+        <v>2365300</v>
       </c>
       <c r="F21" s="3">
-        <v>2023300</v>
+        <v>-1150700</v>
       </c>
       <c r="G21" s="3">
-        <v>2702900</v>
+        <v>2056000</v>
       </c>
       <c r="H21" s="3">
-        <v>2899400</v>
+        <v>2746600</v>
       </c>
       <c r="I21" s="3">
-        <v>473900</v>
+        <v>2946200</v>
       </c>
       <c r="J21" s="3">
+        <v>481600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2478000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2501800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2422700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2464400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2253700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2112600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1868900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2102600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53300</v>
+        <v>41200</v>
       </c>
       <c r="E22" s="3">
-        <v>58600</v>
+        <v>54200</v>
       </c>
       <c r="F22" s="3">
-        <v>58900</v>
+        <v>59500</v>
       </c>
       <c r="G22" s="3">
-        <v>52000</v>
+        <v>59800</v>
       </c>
       <c r="H22" s="3">
-        <v>47600</v>
+        <v>52900</v>
       </c>
       <c r="I22" s="3">
-        <v>53400</v>
+        <v>48400</v>
       </c>
       <c r="J22" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K22" s="3">
         <v>47100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>38100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1190500</v>
+        <v>3206900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2200400</v>
+        <v>1209700</v>
       </c>
       <c r="F23" s="3">
-        <v>995000</v>
+        <v>-2235900</v>
       </c>
       <c r="G23" s="3">
-        <v>1689600</v>
+        <v>1011100</v>
       </c>
       <c r="H23" s="3">
-        <v>1948500</v>
+        <v>1716900</v>
       </c>
       <c r="I23" s="3">
-        <v>-428800</v>
+        <v>1980000</v>
       </c>
       <c r="J23" s="3">
+        <v>-435700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1602100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1640400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1541300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1582800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1369600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1279600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>994600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1266600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>803700</v>
+        <v>1065600</v>
       </c>
       <c r="E24" s="3">
-        <v>-1169700</v>
+        <v>816700</v>
       </c>
       <c r="F24" s="3">
-        <v>459100</v>
+        <v>-1188600</v>
       </c>
       <c r="G24" s="3">
-        <v>383000</v>
+        <v>466500</v>
       </c>
       <c r="H24" s="3">
-        <v>453400</v>
+        <v>389200</v>
       </c>
       <c r="I24" s="3">
-        <v>416100</v>
+        <v>460700</v>
       </c>
       <c r="J24" s="3">
+        <v>422800</v>
+      </c>
+      <c r="K24" s="3">
         <v>407300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>444600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>137800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>394200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>340500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>318200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>339400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>295300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>386800</v>
+        <v>2141300</v>
       </c>
       <c r="E26" s="3">
-        <v>-1030700</v>
+        <v>393000</v>
       </c>
       <c r="F26" s="3">
-        <v>535900</v>
+        <v>-1047300</v>
       </c>
       <c r="G26" s="3">
-        <v>1306600</v>
+        <v>544500</v>
       </c>
       <c r="H26" s="3">
-        <v>1495100</v>
+        <v>1327700</v>
       </c>
       <c r="I26" s="3">
-        <v>-844900</v>
+        <v>1519300</v>
       </c>
       <c r="J26" s="3">
+        <v>-858600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1194900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1195800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1403500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1188600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1029200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>961500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>655200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>971300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>306900</v>
+        <v>2110700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1242600</v>
+        <v>311900</v>
       </c>
       <c r="F27" s="3">
-        <v>644500</v>
+        <v>-1262700</v>
       </c>
       <c r="G27" s="3">
-        <v>1121400</v>
+        <v>654900</v>
       </c>
       <c r="H27" s="3">
-        <v>1343800</v>
+        <v>1139500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1021600</v>
+        <v>1365500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1038100</v>
+      </c>
+      <c r="K27" s="3">
         <v>907000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>903300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1089500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>873200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>784200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>679200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>399800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>697700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,58 +1754,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5500</v>
+        <v>-3200</v>
       </c>
       <c r="E29" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="L29" s="3">
+        <v>53400</v>
+      </c>
+      <c r="M29" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="N29" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="R29" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3600</v>
       </c>
-      <c r="F29" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-44000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="K29" s="3">
-        <v>53400</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-145700</v>
-      </c>
-      <c r="M29" s="3">
-        <v>12400</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-45100</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-3600</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>765100</v>
+        <v>-2697000</v>
       </c>
       <c r="E32" s="3">
-        <v>3520700</v>
+        <v>777500</v>
       </c>
       <c r="F32" s="3">
-        <v>551600</v>
+        <v>3577600</v>
       </c>
       <c r="G32" s="3">
-        <v>-586100</v>
+        <v>560500</v>
       </c>
       <c r="H32" s="3">
-        <v>51800</v>
+        <v>-595500</v>
       </c>
       <c r="I32" s="3">
-        <v>2140000</v>
+        <v>52600</v>
       </c>
       <c r="J32" s="3">
+        <v>2174600</v>
+      </c>
+      <c r="K32" s="3">
         <v>175700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-335400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>583700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-82700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>132600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-132400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>702400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-286900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>301500</v>
+        <v>2107500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1246200</v>
+        <v>306300</v>
       </c>
       <c r="F33" s="3">
-        <v>640900</v>
+        <v>-1266300</v>
       </c>
       <c r="G33" s="3">
-        <v>1117600</v>
+        <v>651300</v>
       </c>
       <c r="H33" s="3">
-        <v>1299800</v>
+        <v>1135700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1025300</v>
+        <v>1320800</v>
       </c>
       <c r="J33" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="K33" s="3">
         <v>815200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>956700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>943800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>885600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>773300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>678600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>354800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>689800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>301500</v>
+        <v>2107500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1246200</v>
+        <v>306300</v>
       </c>
       <c r="F35" s="3">
-        <v>640900</v>
+        <v>-1266300</v>
       </c>
       <c r="G35" s="3">
-        <v>1117600</v>
+        <v>651300</v>
       </c>
       <c r="H35" s="3">
-        <v>1299800</v>
+        <v>1135700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1025300</v>
+        <v>1320800</v>
       </c>
       <c r="J35" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="K35" s="3">
         <v>815200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>956700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>943800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>885600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>773300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>678600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>354800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>689800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,99 +2227,103 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7546600</v>
+        <v>17474200</v>
       </c>
       <c r="E41" s="3">
-        <v>6451500</v>
+        <v>7668400</v>
       </c>
       <c r="F41" s="3">
-        <v>7819400</v>
+        <v>6555700</v>
       </c>
       <c r="G41" s="3">
-        <v>7743800</v>
+        <v>7945700</v>
       </c>
       <c r="H41" s="3">
-        <v>7502500</v>
+        <v>7868900</v>
       </c>
       <c r="I41" s="3">
-        <v>6584200</v>
+        <v>7623700</v>
       </c>
       <c r="J41" s="3">
+        <v>6690600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7669800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7402900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6309600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7334400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6944300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7349700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6787700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6771500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2600700</v>
+        <v>2411800</v>
       </c>
       <c r="E42" s="3">
-        <v>2983400</v>
+        <v>2642700</v>
       </c>
       <c r="F42" s="3">
-        <v>2559600</v>
+        <v>3031600</v>
       </c>
       <c r="G42" s="3">
-        <v>2637200</v>
+        <v>2600900</v>
       </c>
       <c r="H42" s="3">
-        <v>2640800</v>
+        <v>2679800</v>
       </c>
       <c r="I42" s="3">
-        <v>2989600</v>
+        <v>2683500</v>
       </c>
       <c r="J42" s="3">
+        <v>3037900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2792200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3453500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3374800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2939900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2708500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2241,358 +2331,382 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20997300</v>
+        <v>16460300</v>
       </c>
       <c r="E43" s="3">
-        <v>20390900</v>
+        <v>21336300</v>
       </c>
       <c r="F43" s="3">
-        <v>20036100</v>
+        <v>20720200</v>
       </c>
       <c r="G43" s="3">
-        <v>19621900</v>
+        <v>20359600</v>
       </c>
       <c r="H43" s="3">
-        <v>22295400</v>
+        <v>19938800</v>
       </c>
       <c r="I43" s="3">
-        <v>20555600</v>
+        <v>22655400</v>
       </c>
       <c r="J43" s="3">
+        <v>20887500</v>
+      </c>
+      <c r="K43" s="3">
         <v>20792200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19477900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>22612800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20017900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21216900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19871600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21957800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19728100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13089000</v>
+        <v>13665500</v>
       </c>
       <c r="E44" s="3">
-        <v>14998500</v>
+        <v>13300400</v>
       </c>
       <c r="F44" s="3">
-        <v>13763500</v>
+        <v>15240700</v>
       </c>
       <c r="G44" s="3">
-        <v>13762300</v>
+        <v>13985700</v>
       </c>
       <c r="H44" s="3">
-        <v>12604300</v>
+        <v>13984600</v>
       </c>
       <c r="I44" s="3">
-        <v>14737900</v>
+        <v>12807800</v>
       </c>
       <c r="J44" s="3">
+        <v>14975900</v>
+      </c>
+      <c r="K44" s="3">
         <v>13820200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13141900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12432100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14097600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12782800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12369500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10873800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12655400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4237800</v>
+        <v>4552300</v>
       </c>
       <c r="E45" s="3">
-        <v>6675400</v>
+        <v>4306200</v>
       </c>
       <c r="F45" s="3">
-        <v>2064900</v>
+        <v>6783200</v>
       </c>
       <c r="G45" s="3">
-        <v>2147200</v>
+        <v>2098300</v>
       </c>
       <c r="H45" s="3">
-        <v>1739400</v>
+        <v>2181900</v>
       </c>
       <c r="I45" s="3">
-        <v>2324100</v>
+        <v>1767500</v>
       </c>
       <c r="J45" s="3">
+        <v>2361700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2166700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2156900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1842900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2258300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2187200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2212300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4753800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4708100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48471400</v>
+        <v>54564200</v>
       </c>
       <c r="E46" s="3">
-        <v>51499800</v>
+        <v>49254000</v>
       </c>
       <c r="F46" s="3">
-        <v>46243600</v>
+        <v>52331300</v>
       </c>
       <c r="G46" s="3">
-        <v>45912600</v>
+        <v>46990200</v>
       </c>
       <c r="H46" s="3">
-        <v>46782500</v>
+        <v>46653900</v>
       </c>
       <c r="I46" s="3">
-        <v>47191600</v>
+        <v>47537900</v>
       </c>
       <c r="J46" s="3">
+        <v>47953500</v>
+      </c>
+      <c r="K46" s="3">
         <v>47241100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45633100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46572300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46648100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45839800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45304800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44373100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>43863100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8555100</v>
+        <v>8521300</v>
       </c>
       <c r="E47" s="3">
-        <v>9253400</v>
+        <v>8693200</v>
       </c>
       <c r="F47" s="3">
-        <v>12218100</v>
+        <v>9402800</v>
       </c>
       <c r="G47" s="3">
-        <v>12078900</v>
+        <v>12415400</v>
       </c>
       <c r="H47" s="3">
-        <v>12010200</v>
+        <v>12274000</v>
       </c>
       <c r="I47" s="3">
-        <v>12073900</v>
+        <v>12204100</v>
       </c>
       <c r="J47" s="3">
+        <v>12268900</v>
+      </c>
+      <c r="K47" s="3">
         <v>12733300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12636400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13196900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13425300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13164700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12783700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12515200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13097300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20115700</v>
+        <v>18280100</v>
       </c>
       <c r="E48" s="3">
-        <v>20503900</v>
+        <v>20440500</v>
       </c>
       <c r="F48" s="3">
-        <v>19918100</v>
+        <v>20834900</v>
       </c>
       <c r="G48" s="3">
-        <v>20039500</v>
+        <v>20239700</v>
       </c>
       <c r="H48" s="3">
-        <v>18177600</v>
+        <v>20363100</v>
       </c>
       <c r="I48" s="3">
-        <v>18097700</v>
+        <v>18471100</v>
       </c>
       <c r="J48" s="3">
+        <v>18389900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20003800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19357100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19208400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19232200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18881700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18246800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17725900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17662900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10365000</v>
+        <v>10002400</v>
       </c>
       <c r="E49" s="3">
-        <v>10685400</v>
+        <v>10532400</v>
       </c>
       <c r="F49" s="3">
-        <v>8472300</v>
+        <v>10857900</v>
       </c>
       <c r="G49" s="3">
-        <v>8895200</v>
+        <v>8609100</v>
       </c>
       <c r="H49" s="3">
-        <v>8918500</v>
+        <v>9038900</v>
       </c>
       <c r="I49" s="3">
-        <v>9199500</v>
+        <v>9062600</v>
       </c>
       <c r="J49" s="3">
+        <v>9348100</v>
+      </c>
+      <c r="K49" s="3">
         <v>9968300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9621800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9531500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10139000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10111900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8483100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8153300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8193600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4743200</v>
+        <v>4547300</v>
       </c>
       <c r="E52" s="3">
-        <v>3571400</v>
+        <v>4819800</v>
       </c>
       <c r="F52" s="3">
-        <v>3442900</v>
+        <v>3629100</v>
       </c>
       <c r="G52" s="3">
-        <v>3491000</v>
+        <v>3498500</v>
       </c>
       <c r="H52" s="3">
-        <v>3542200</v>
+        <v>3547400</v>
       </c>
       <c r="I52" s="3">
-        <v>3489800</v>
+        <v>3599400</v>
       </c>
       <c r="J52" s="3">
+        <v>3546200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3512500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3057200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2854500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2728600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2784700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2792500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2951400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2691400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92250500</v>
+        <v>95915300</v>
       </c>
       <c r="E54" s="3">
-        <v>95513800</v>
+        <v>93740000</v>
       </c>
       <c r="F54" s="3">
-        <v>90295000</v>
+        <v>97056000</v>
       </c>
       <c r="G54" s="3">
-        <v>90417300</v>
+        <v>91753000</v>
       </c>
       <c r="H54" s="3">
-        <v>89431000</v>
+        <v>91877200</v>
       </c>
       <c r="I54" s="3">
-        <v>90052500</v>
+        <v>90875000</v>
       </c>
       <c r="J54" s="3">
+        <v>91506600</v>
+      </c>
+      <c r="K54" s="3">
         <v>93459000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90305500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91363700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92173200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90782700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87610900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85718900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85508400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11804500</v>
+        <v>10367800</v>
       </c>
       <c r="E57" s="3">
-        <v>12062100</v>
+        <v>11995100</v>
       </c>
       <c r="F57" s="3">
-        <v>11398100</v>
+        <v>12256800</v>
       </c>
       <c r="G57" s="3">
-        <v>12097200</v>
+        <v>11582100</v>
       </c>
       <c r="H57" s="3">
-        <v>13061900</v>
+        <v>12292500</v>
       </c>
       <c r="I57" s="3">
-        <v>12582300</v>
+        <v>13272800</v>
       </c>
       <c r="J57" s="3">
+        <v>12785400</v>
+      </c>
+      <c r="K57" s="3">
         <v>12738900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12718200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13894300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13397100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12889700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12346100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12437800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11908500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3851100</v>
+        <v>13632300</v>
       </c>
       <c r="E58" s="3">
-        <v>6658700</v>
+        <v>3913300</v>
       </c>
       <c r="F58" s="3">
-        <v>5084000</v>
+        <v>6766200</v>
       </c>
       <c r="G58" s="3">
-        <v>4601200</v>
+        <v>5166100</v>
       </c>
       <c r="H58" s="3">
-        <v>2752500</v>
+        <v>4675500</v>
       </c>
       <c r="I58" s="3">
-        <v>5343400</v>
+        <v>2796900</v>
       </c>
       <c r="J58" s="3">
+        <v>5429700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4508500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4229900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2157200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3742700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3865500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4202800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3429100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3937900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19025600</v>
+        <v>19759000</v>
       </c>
       <c r="E59" s="3">
-        <v>20239900</v>
+        <v>19332800</v>
       </c>
       <c r="F59" s="3">
-        <v>16685400</v>
+        <v>20566700</v>
       </c>
       <c r="G59" s="3">
-        <v>16529500</v>
+        <v>16954800</v>
       </c>
       <c r="H59" s="3">
-        <v>17681400</v>
+        <v>16796400</v>
       </c>
       <c r="I59" s="3">
-        <v>16862100</v>
+        <v>17966800</v>
       </c>
       <c r="J59" s="3">
+        <v>17134300</v>
+      </c>
+      <c r="K59" s="3">
         <v>17568000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16763300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18258800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17693700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17628000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16719600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17137200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16265100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34681200</v>
+        <v>43759100</v>
       </c>
       <c r="E60" s="3">
-        <v>38960700</v>
+        <v>35241200</v>
       </c>
       <c r="F60" s="3">
-        <v>33167500</v>
+        <v>39589800</v>
       </c>
       <c r="G60" s="3">
-        <v>33227900</v>
+        <v>33703100</v>
       </c>
       <c r="H60" s="3">
-        <v>33495700</v>
+        <v>33764400</v>
       </c>
       <c r="I60" s="3">
-        <v>34787700</v>
+        <v>34036500</v>
       </c>
       <c r="J60" s="3">
+        <v>35349400</v>
+      </c>
+      <c r="K60" s="3">
         <v>34815400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>33711400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34310400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34833500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34383200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33268500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33004000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32111400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9945000</v>
+        <v>9412800</v>
       </c>
       <c r="E61" s="3">
-        <v>7857700</v>
+        <v>10105500</v>
       </c>
       <c r="F61" s="3">
-        <v>7804200</v>
+        <v>7984600</v>
       </c>
       <c r="G61" s="3">
-        <v>8195700</v>
+        <v>7930200</v>
       </c>
       <c r="H61" s="3">
-        <v>6581900</v>
+        <v>8328000</v>
       </c>
       <c r="I61" s="3">
-        <v>6964200</v>
+        <v>6688100</v>
       </c>
       <c r="J61" s="3">
+        <v>7076600</v>
+      </c>
+      <c r="K61" s="3">
         <v>6652500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6755400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7337400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7529400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7629600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7261000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7007400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7631500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7986300</v>
+        <v>7807400</v>
       </c>
       <c r="E62" s="3">
-        <v>8170100</v>
+        <v>8115200</v>
       </c>
       <c r="F62" s="3">
-        <v>8021400</v>
+        <v>8302000</v>
       </c>
       <c r="G62" s="3">
-        <v>7930500</v>
+        <v>8150900</v>
       </c>
       <c r="H62" s="3">
-        <v>8343700</v>
+        <v>8058600</v>
       </c>
       <c r="I62" s="3">
-        <v>8368800</v>
+        <v>8478400</v>
       </c>
       <c r="J62" s="3">
+        <v>8503900</v>
+      </c>
+      <c r="K62" s="3">
         <v>8634300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8575800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8930400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9587400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9519400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9427600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9367200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9692000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62894200</v>
+        <v>67250400</v>
       </c>
       <c r="E66" s="3">
-        <v>65512000</v>
+        <v>63909700</v>
       </c>
       <c r="F66" s="3">
-        <v>59255200</v>
+        <v>66569800</v>
       </c>
       <c r="G66" s="3">
-        <v>59868900</v>
+        <v>60212000</v>
       </c>
       <c r="H66" s="3">
-        <v>59121500</v>
+        <v>60835600</v>
       </c>
       <c r="I66" s="3">
-        <v>60860800</v>
+        <v>60076100</v>
       </c>
       <c r="J66" s="3">
+        <v>61843400</v>
+      </c>
+      <c r="K66" s="3">
         <v>61415400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59788500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61730400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>63059800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>62347900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60372500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59400900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59920500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21331800</v>
+        <v>23373300</v>
       </c>
       <c r="E72" s="3">
-        <v>21028700</v>
+        <v>21676200</v>
       </c>
       <c r="F72" s="3">
-        <v>22668100</v>
+        <v>21368300</v>
       </c>
       <c r="G72" s="3">
-        <v>22019100</v>
+        <v>23034100</v>
       </c>
       <c r="H72" s="3">
-        <v>21251700</v>
+        <v>22374700</v>
       </c>
       <c r="I72" s="3">
-        <v>19828900</v>
+        <v>21594800</v>
       </c>
       <c r="J72" s="3">
+        <v>20149100</v>
+      </c>
+      <c r="K72" s="3">
         <v>21201100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19948300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19032800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18040300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17443200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16664700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>15909000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15530900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29356300</v>
+        <v>28664900</v>
       </c>
       <c r="E76" s="3">
-        <v>30001800</v>
+        <v>29830300</v>
       </c>
       <c r="F76" s="3">
-        <v>31039900</v>
+        <v>30486200</v>
       </c>
       <c r="G76" s="3">
-        <v>30548400</v>
+        <v>31541000</v>
       </c>
       <c r="H76" s="3">
-        <v>30309600</v>
+        <v>31041600</v>
       </c>
       <c r="I76" s="3">
-        <v>29191800</v>
+        <v>30799000</v>
       </c>
       <c r="J76" s="3">
+        <v>29663100</v>
+      </c>
+      <c r="K76" s="3">
         <v>32043600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30517000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29633300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29113400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28434800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27238300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26318000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25587900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>301500</v>
+        <v>2107500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1246200</v>
+        <v>306300</v>
       </c>
       <c r="F81" s="3">
-        <v>640900</v>
+        <v>-1266300</v>
       </c>
       <c r="G81" s="3">
-        <v>1117600</v>
+        <v>651300</v>
       </c>
       <c r="H81" s="3">
-        <v>1299800</v>
+        <v>1135700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1025300</v>
+        <v>1320800</v>
       </c>
       <c r="J81" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="K81" s="3">
         <v>815200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>956700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>943800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>885600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>773300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>678600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>354800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>689800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1083900</v>
+        <v>929400</v>
       </c>
       <c r="E83" s="3">
-        <v>1009400</v>
+        <v>1101400</v>
       </c>
       <c r="F83" s="3">
-        <v>969400</v>
+        <v>1025700</v>
       </c>
       <c r="G83" s="3">
-        <v>961300</v>
+        <v>985100</v>
       </c>
       <c r="H83" s="3">
-        <v>903300</v>
+        <v>976800</v>
       </c>
       <c r="I83" s="3">
-        <v>849300</v>
+        <v>917900</v>
       </c>
       <c r="J83" s="3">
+        <v>863000</v>
+      </c>
+      <c r="K83" s="3">
         <v>828800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>819700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>836100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>833100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>836900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>788400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>836200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>793900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2351000</v>
+        <v>1451800</v>
       </c>
       <c r="E89" s="3">
-        <v>949100</v>
+        <v>2389000</v>
       </c>
       <c r="F89" s="3">
-        <v>1178200</v>
+        <v>964400</v>
       </c>
       <c r="G89" s="3">
-        <v>732600</v>
+        <v>1197200</v>
       </c>
       <c r="H89" s="3">
-        <v>3787300</v>
+        <v>744400</v>
       </c>
       <c r="I89" s="3">
-        <v>-89600</v>
+        <v>3848400</v>
       </c>
       <c r="J89" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="K89" s="3">
         <v>721300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1221300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2295800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1760400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1369900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1147500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2221100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>835800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-837400</v>
+        <v>-501600</v>
       </c>
       <c r="E91" s="3">
-        <v>-607700</v>
+        <v>-850900</v>
       </c>
       <c r="F91" s="3">
-        <v>-820700</v>
+        <v>-617500</v>
       </c>
       <c r="G91" s="3">
-        <v>-733900</v>
+        <v>-833900</v>
       </c>
       <c r="H91" s="3">
-        <v>-829300</v>
+        <v>-745800</v>
       </c>
       <c r="I91" s="3">
-        <v>-884500</v>
+        <v>-842700</v>
       </c>
       <c r="J91" s="3">
+        <v>-898800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-883000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-934700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-889100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-314000</v>
+        <v>3374400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2647100</v>
+        <v>-319100</v>
       </c>
       <c r="F94" s="3">
-        <v>-947200</v>
+        <v>-2689900</v>
       </c>
       <c r="G94" s="3">
-        <v>-976500</v>
+        <v>-962500</v>
       </c>
       <c r="H94" s="3">
-        <v>117300</v>
+        <v>-992300</v>
       </c>
       <c r="I94" s="3">
-        <v>-306800</v>
+        <v>119200</v>
       </c>
       <c r="J94" s="3">
+        <v>-311700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-357900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-944800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-721200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-945800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>141000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-456600</v>
+      </c>
+      <c r="E96" s="3">
         <v>600</v>
       </c>
-      <c r="E96" s="3">
-        <v>-405100</v>
-      </c>
       <c r="F96" s="3">
-        <v>1500</v>
+        <v>-411600</v>
       </c>
       <c r="G96" s="3">
-        <v>-449000</v>
+        <v>1600</v>
       </c>
       <c r="H96" s="3">
+        <v>-456200</v>
+      </c>
+      <c r="I96" s="3">
         <v>700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-359300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-365100</v>
+      </c>
+      <c r="K96" s="3">
         <v>700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-351500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-305900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-305900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-257400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-780800</v>
+        <v>4971900</v>
       </c>
       <c r="E100" s="3">
-        <v>155600</v>
+        <v>-793400</v>
       </c>
       <c r="F100" s="3">
-        <v>-26000</v>
+        <v>158100</v>
       </c>
       <c r="G100" s="3">
-        <v>677600</v>
+        <v>-26400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3012600</v>
+        <v>688500</v>
       </c>
       <c r="I100" s="3">
-        <v>-521300</v>
+        <v>-3061200</v>
       </c>
       <c r="J100" s="3">
+        <v>-529700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-258300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>797900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-748700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-709100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-864900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-161200</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>174600</v>
+        <v>-163800</v>
       </c>
       <c r="F101" s="3">
-        <v>-129400</v>
+        <v>177400</v>
       </c>
       <c r="G101" s="3">
-        <v>-192400</v>
+        <v>-131500</v>
       </c>
       <c r="H101" s="3">
-        <v>26300</v>
+        <v>-195500</v>
       </c>
       <c r="I101" s="3">
-        <v>-167900</v>
+        <v>26800</v>
       </c>
       <c r="J101" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-254800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>99500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>107600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>59800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-122100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>530100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1095000</v>
+        <v>9805800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1367900</v>
+        <v>1112700</v>
       </c>
       <c r="F102" s="3">
-        <v>75600</v>
+        <v>-1390000</v>
       </c>
       <c r="G102" s="3">
-        <v>241300</v>
+        <v>76800</v>
       </c>
       <c r="H102" s="3">
-        <v>918300</v>
+        <v>245200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1085600</v>
+        <v>933100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1103100</v>
+      </c>
+      <c r="K102" s="3">
         <v>104000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1058400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>390000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-405400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>431900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-781600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15050000</v>
+        <v>20813100</v>
       </c>
       <c r="E8" s="3">
-        <v>22873900</v>
+        <v>15321000</v>
       </c>
       <c r="F8" s="3">
-        <v>20039700</v>
+        <v>23285800</v>
       </c>
       <c r="G8" s="3">
-        <v>20661800</v>
+        <v>20400600</v>
       </c>
       <c r="H8" s="3">
-        <v>19187600</v>
+        <v>21033800</v>
       </c>
       <c r="I8" s="3">
-        <v>25465800</v>
+        <v>19533100</v>
       </c>
       <c r="J8" s="3">
+        <v>25924400</v>
+      </c>
+      <c r="K8" s="3">
         <v>21628300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21607900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19688000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24359100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20770000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20681700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18881600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23443000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19208300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11133800</v>
+        <v>15587200</v>
       </c>
       <c r="E9" s="3">
-        <v>16668300</v>
+        <v>11334300</v>
       </c>
       <c r="F9" s="3">
-        <v>14692300</v>
+        <v>16968500</v>
       </c>
       <c r="G9" s="3">
-        <v>14975600</v>
+        <v>14956900</v>
       </c>
       <c r="H9" s="3">
-        <v>14050400</v>
+        <v>15245300</v>
       </c>
       <c r="I9" s="3">
-        <v>19036800</v>
+        <v>14303400</v>
       </c>
       <c r="J9" s="3">
+        <v>19379600</v>
+      </c>
+      <c r="K9" s="3">
         <v>15751100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15728800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14420300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17804700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15290000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15148400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13830300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17433900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14170500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3916200</v>
+        <v>5225900</v>
       </c>
       <c r="E10" s="3">
-        <v>6205600</v>
+        <v>3986700</v>
       </c>
       <c r="F10" s="3">
-        <v>5347400</v>
+        <v>6317300</v>
       </c>
       <c r="G10" s="3">
-        <v>5686100</v>
+        <v>5443700</v>
       </c>
       <c r="H10" s="3">
-        <v>5137200</v>
+        <v>5788500</v>
       </c>
       <c r="I10" s="3">
-        <v>6429100</v>
+        <v>5229700</v>
       </c>
       <c r="J10" s="3">
+        <v>6544800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5877200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5879200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5267700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6554300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5479900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5533300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5051300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6009100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5037800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14499000</v>
+        <v>19636700</v>
       </c>
       <c r="E17" s="3">
-        <v>20832500</v>
+        <v>14760100</v>
       </c>
       <c r="F17" s="3">
-        <v>18638600</v>
+        <v>21207700</v>
       </c>
       <c r="G17" s="3">
-        <v>19030400</v>
+        <v>18974200</v>
       </c>
       <c r="H17" s="3">
-        <v>18013400</v>
+        <v>19373100</v>
       </c>
       <c r="I17" s="3">
-        <v>23384900</v>
+        <v>18337700</v>
       </c>
       <c r="J17" s="3">
+        <v>23806000</v>
+      </c>
+      <c r="K17" s="3">
         <v>19835200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19783000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18341400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22188700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19221300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19132200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17689700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21707800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18186600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>551000</v>
+        <v>1176400</v>
       </c>
       <c r="E18" s="3">
-        <v>2041400</v>
+        <v>560900</v>
       </c>
       <c r="F18" s="3">
-        <v>1401200</v>
+        <v>2078200</v>
       </c>
       <c r="G18" s="3">
-        <v>1631400</v>
+        <v>1426400</v>
       </c>
       <c r="H18" s="3">
-        <v>1174200</v>
+        <v>1660800</v>
       </c>
       <c r="I18" s="3">
-        <v>2080900</v>
+        <v>1195400</v>
       </c>
       <c r="J18" s="3">
+        <v>2118400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1793100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1824900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1346700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2170300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1548600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1549500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1191800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1735100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1021800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1313,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2697000</v>
+        <v>-692700</v>
       </c>
       <c r="E20" s="3">
-        <v>-777500</v>
+        <v>2745600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3577600</v>
+        <v>-791500</v>
       </c>
       <c r="G20" s="3">
-        <v>-560500</v>
+        <v>-3642000</v>
       </c>
       <c r="H20" s="3">
-        <v>595500</v>
+        <v>-570600</v>
       </c>
       <c r="I20" s="3">
-        <v>-52600</v>
+        <v>606300</v>
       </c>
       <c r="J20" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-175700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>335400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-583700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>82700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-132600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>132400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-702400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>286900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4177400</v>
+        <v>1708100</v>
       </c>
       <c r="E21" s="3">
-        <v>2365300</v>
+        <v>4252600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1150700</v>
+        <v>2407900</v>
       </c>
       <c r="G21" s="3">
-        <v>2056000</v>
+        <v>-1171400</v>
       </c>
       <c r="H21" s="3">
-        <v>2746600</v>
+        <v>2093000</v>
       </c>
       <c r="I21" s="3">
-        <v>2946200</v>
+        <v>2796000</v>
       </c>
       <c r="J21" s="3">
+        <v>2999300</v>
+      </c>
+      <c r="K21" s="3">
         <v>481600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2478000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2501800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2422700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2464400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2253700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2112600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1868900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2102600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41200</v>
+        <v>55600</v>
       </c>
       <c r="E22" s="3">
-        <v>54200</v>
+        <v>41900</v>
       </c>
       <c r="F22" s="3">
-        <v>59500</v>
+        <v>55200</v>
       </c>
       <c r="G22" s="3">
-        <v>59800</v>
+        <v>60600</v>
       </c>
       <c r="H22" s="3">
-        <v>52900</v>
+        <v>60900</v>
       </c>
       <c r="I22" s="3">
-        <v>48400</v>
+        <v>53800</v>
       </c>
       <c r="J22" s="3">
+        <v>49200</v>
+      </c>
+      <c r="K22" s="3">
         <v>54300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3206900</v>
+        <v>428100</v>
       </c>
       <c r="E23" s="3">
-        <v>1209700</v>
+        <v>3264600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2235900</v>
+        <v>1231500</v>
       </c>
       <c r="G23" s="3">
-        <v>1011100</v>
+        <v>-2276200</v>
       </c>
       <c r="H23" s="3">
-        <v>1716900</v>
+        <v>1029300</v>
       </c>
       <c r="I23" s="3">
-        <v>1980000</v>
+        <v>1747800</v>
       </c>
       <c r="J23" s="3">
+        <v>2015600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-435700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1602100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1640400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1541300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1582800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1369600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1279600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>994600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1266600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1065600</v>
+        <v>230400</v>
       </c>
       <c r="E24" s="3">
-        <v>816700</v>
+        <v>1084800</v>
       </c>
       <c r="F24" s="3">
-        <v>-1188600</v>
+        <v>831400</v>
       </c>
       <c r="G24" s="3">
-        <v>466500</v>
+        <v>-1210000</v>
       </c>
       <c r="H24" s="3">
-        <v>389200</v>
+        <v>474900</v>
       </c>
       <c r="I24" s="3">
-        <v>460700</v>
+        <v>396200</v>
       </c>
       <c r="J24" s="3">
+        <v>469000</v>
+      </c>
+      <c r="K24" s="3">
         <v>422800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>407300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>444600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>137800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>394200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>340500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>318200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>339400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>295300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2141300</v>
+        <v>197700</v>
       </c>
       <c r="E26" s="3">
-        <v>393000</v>
+        <v>2179800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1047300</v>
+        <v>400100</v>
       </c>
       <c r="G26" s="3">
-        <v>544500</v>
+        <v>-1066200</v>
       </c>
       <c r="H26" s="3">
-        <v>1327700</v>
+        <v>554300</v>
       </c>
       <c r="I26" s="3">
-        <v>1519300</v>
+        <v>1351600</v>
       </c>
       <c r="J26" s="3">
+        <v>1546600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-858600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1194900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1195800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1403500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1188600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1029200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>961500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>655200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>971300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2110700</v>
+        <v>267700</v>
       </c>
       <c r="E27" s="3">
-        <v>311900</v>
+        <v>2148700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1262700</v>
+        <v>317500</v>
       </c>
       <c r="G27" s="3">
-        <v>654900</v>
+        <v>-1285400</v>
       </c>
       <c r="H27" s="3">
-        <v>1139500</v>
+        <v>666700</v>
       </c>
       <c r="I27" s="3">
-        <v>1365500</v>
+        <v>1160000</v>
       </c>
       <c r="J27" s="3">
+        <v>1390100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>907000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>903300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1089500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>873200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>784200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>679200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>399800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>697700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,61 +1815,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-3200</v>
       </c>
-      <c r="E29" s="3">
-        <v>-5600</v>
-      </c>
       <c r="F29" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H29" s="3">
         <v>-3700</v>
       </c>
-      <c r="G29" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3900</v>
       </c>
-      <c r="I29" s="3">
-        <v>-44700</v>
-      </c>
       <c r="J29" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-91800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>53400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-145700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>12400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-10900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-45100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-7900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2697000</v>
+        <v>692700</v>
       </c>
       <c r="E32" s="3">
-        <v>777500</v>
+        <v>-2745600</v>
       </c>
       <c r="F32" s="3">
-        <v>3577600</v>
+        <v>791500</v>
       </c>
       <c r="G32" s="3">
-        <v>560500</v>
+        <v>3642000</v>
       </c>
       <c r="H32" s="3">
-        <v>-595500</v>
+        <v>570600</v>
       </c>
       <c r="I32" s="3">
-        <v>52600</v>
+        <v>-606300</v>
       </c>
       <c r="J32" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2174600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>175700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-335400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>583700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-82700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>132600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-132400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>702400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-286900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2107500</v>
+        <v>264300</v>
       </c>
       <c r="E33" s="3">
-        <v>306300</v>
+        <v>2145400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1266300</v>
+        <v>311800</v>
       </c>
       <c r="G33" s="3">
-        <v>651300</v>
+        <v>-1289200</v>
       </c>
       <c r="H33" s="3">
-        <v>1135700</v>
+        <v>663000</v>
       </c>
       <c r="I33" s="3">
-        <v>1320800</v>
+        <v>1156100</v>
       </c>
       <c r="J33" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>815200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>956700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>943800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>885600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>773300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>678600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>354800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>689800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2107500</v>
+        <v>264300</v>
       </c>
       <c r="E35" s="3">
-        <v>306300</v>
+        <v>2145400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1266300</v>
+        <v>311800</v>
       </c>
       <c r="G35" s="3">
-        <v>651300</v>
+        <v>-1289200</v>
       </c>
       <c r="H35" s="3">
-        <v>1135700</v>
+        <v>663000</v>
       </c>
       <c r="I35" s="3">
-        <v>1320800</v>
+        <v>1156100</v>
       </c>
       <c r="J35" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>815200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>956700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>943800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>885600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>773300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>678600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>354800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>689800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,105 +2314,109 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17474200</v>
+        <v>7302500</v>
       </c>
       <c r="E41" s="3">
-        <v>7668400</v>
+        <v>17788900</v>
       </c>
       <c r="F41" s="3">
-        <v>6555700</v>
+        <v>7806500</v>
       </c>
       <c r="G41" s="3">
-        <v>7945700</v>
+        <v>6673800</v>
       </c>
       <c r="H41" s="3">
-        <v>7868900</v>
+        <v>8088800</v>
       </c>
       <c r="I41" s="3">
-        <v>7623700</v>
+        <v>8010600</v>
       </c>
       <c r="J41" s="3">
+        <v>7761000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6690600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7669800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7402900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6309600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7334400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6944300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7349700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6787700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6771500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2411800</v>
+        <v>2764500</v>
       </c>
       <c r="E42" s="3">
-        <v>2642700</v>
+        <v>2455200</v>
       </c>
       <c r="F42" s="3">
-        <v>3031600</v>
+        <v>2690300</v>
       </c>
       <c r="G42" s="3">
-        <v>2600900</v>
+        <v>3086200</v>
       </c>
       <c r="H42" s="3">
-        <v>2679800</v>
+        <v>2647700</v>
       </c>
       <c r="I42" s="3">
-        <v>2683500</v>
+        <v>2728100</v>
       </c>
       <c r="J42" s="3">
+        <v>2731800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3037900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2792200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3453500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3374800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2939900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2708500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -2334,379 +2424,403 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16460300</v>
+        <v>22079500</v>
       </c>
       <c r="E43" s="3">
-        <v>21336300</v>
+        <v>16756700</v>
       </c>
       <c r="F43" s="3">
-        <v>20720200</v>
+        <v>21720600</v>
       </c>
       <c r="G43" s="3">
-        <v>20359600</v>
+        <v>21093300</v>
       </c>
       <c r="H43" s="3">
-        <v>19938800</v>
+        <v>20726300</v>
       </c>
       <c r="I43" s="3">
-        <v>22655400</v>
+        <v>20297800</v>
       </c>
       <c r="J43" s="3">
+        <v>23063400</v>
+      </c>
+      <c r="K43" s="3">
         <v>20887500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20792200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19477900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22612800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20017900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21216900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19871600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21957800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19728100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13665500</v>
+        <v>15065800</v>
       </c>
       <c r="E44" s="3">
-        <v>13300400</v>
+        <v>13911600</v>
       </c>
       <c r="F44" s="3">
-        <v>15240700</v>
+        <v>13539900</v>
       </c>
       <c r="G44" s="3">
-        <v>13985700</v>
+        <v>15515100</v>
       </c>
       <c r="H44" s="3">
-        <v>13984600</v>
+        <v>14237600</v>
       </c>
       <c r="I44" s="3">
-        <v>12807800</v>
+        <v>14236400</v>
       </c>
       <c r="J44" s="3">
+        <v>13038500</v>
+      </c>
+      <c r="K44" s="3">
         <v>14975900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13820200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13141900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12432100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14097600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12782800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12369500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10873800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12655400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4552300</v>
+        <v>2261000</v>
       </c>
       <c r="E45" s="3">
-        <v>4306200</v>
+        <v>4634300</v>
       </c>
       <c r="F45" s="3">
-        <v>6783200</v>
+        <v>4383700</v>
       </c>
       <c r="G45" s="3">
-        <v>2098300</v>
+        <v>6905400</v>
       </c>
       <c r="H45" s="3">
-        <v>2181900</v>
+        <v>2136100</v>
       </c>
       <c r="I45" s="3">
-        <v>1767500</v>
+        <v>2221200</v>
       </c>
       <c r="J45" s="3">
+        <v>1799400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2361700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2166700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2156900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1842900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2258300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2187200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2212300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4753800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4708100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54564200</v>
+        <v>49473300</v>
       </c>
       <c r="E46" s="3">
-        <v>49254000</v>
+        <v>55546800</v>
       </c>
       <c r="F46" s="3">
-        <v>52331300</v>
+        <v>50141000</v>
       </c>
       <c r="G46" s="3">
-        <v>46990200</v>
+        <v>53273800</v>
       </c>
       <c r="H46" s="3">
-        <v>46653900</v>
+        <v>47836400</v>
       </c>
       <c r="I46" s="3">
-        <v>47537900</v>
+        <v>47494100</v>
       </c>
       <c r="J46" s="3">
+        <v>48394000</v>
+      </c>
+      <c r="K46" s="3">
         <v>47953500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47241100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45633100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46572300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46648100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45839800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45304800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>44373100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>43863100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8521300</v>
+        <v>8713200</v>
       </c>
       <c r="E47" s="3">
-        <v>8693200</v>
+        <v>8674700</v>
       </c>
       <c r="F47" s="3">
-        <v>9402800</v>
+        <v>8849700</v>
       </c>
       <c r="G47" s="3">
-        <v>12415400</v>
+        <v>9572100</v>
       </c>
       <c r="H47" s="3">
-        <v>12274000</v>
+        <v>12639000</v>
       </c>
       <c r="I47" s="3">
-        <v>12204100</v>
+        <v>12495000</v>
       </c>
       <c r="J47" s="3">
+        <v>12423900</v>
+      </c>
+      <c r="K47" s="3">
         <v>12268900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12733300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12636400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13196900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13425300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13164700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12783700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12515200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13097300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18280100</v>
+        <v>20594600</v>
       </c>
       <c r="E48" s="3">
-        <v>20440500</v>
+        <v>18609300</v>
       </c>
       <c r="F48" s="3">
-        <v>20834900</v>
+        <v>20808600</v>
       </c>
       <c r="G48" s="3">
-        <v>20239700</v>
+        <v>21210100</v>
       </c>
       <c r="H48" s="3">
-        <v>20363100</v>
+        <v>20604200</v>
       </c>
       <c r="I48" s="3">
-        <v>18471100</v>
+        <v>20729800</v>
       </c>
       <c r="J48" s="3">
+        <v>18803700</v>
+      </c>
+      <c r="K48" s="3">
         <v>18389900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20003800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19357100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19208400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19232200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18881700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18246800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17725900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17662900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10002400</v>
+        <v>18678900</v>
       </c>
       <c r="E49" s="3">
-        <v>10532400</v>
+        <v>10182500</v>
       </c>
       <c r="F49" s="3">
-        <v>10857900</v>
+        <v>10722100</v>
       </c>
       <c r="G49" s="3">
-        <v>8609100</v>
+        <v>11053500</v>
       </c>
       <c r="H49" s="3">
-        <v>9038900</v>
+        <v>8764200</v>
       </c>
       <c r="I49" s="3">
-        <v>9062600</v>
+        <v>9201600</v>
       </c>
       <c r="J49" s="3">
+        <v>9225800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9348100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9968300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9621800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9531500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10139000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10111900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8483100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8153300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8193600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4547300</v>
+        <v>4559900</v>
       </c>
       <c r="E52" s="3">
-        <v>4819800</v>
+        <v>4629200</v>
       </c>
       <c r="F52" s="3">
-        <v>3629100</v>
+        <v>4906600</v>
       </c>
       <c r="G52" s="3">
-        <v>3498500</v>
+        <v>3694400</v>
       </c>
       <c r="H52" s="3">
-        <v>3547400</v>
+        <v>3561500</v>
       </c>
       <c r="I52" s="3">
-        <v>3599400</v>
+        <v>3611300</v>
       </c>
       <c r="J52" s="3">
+        <v>3664200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3546200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3512500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3057200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2854500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2728600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2784700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2792500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2951400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2691400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>95915300</v>
+        <v>102019900</v>
       </c>
       <c r="E54" s="3">
-        <v>93740000</v>
+        <v>97642600</v>
       </c>
       <c r="F54" s="3">
-        <v>97056000</v>
+        <v>95428100</v>
       </c>
       <c r="G54" s="3">
-        <v>91753000</v>
+        <v>98803800</v>
       </c>
       <c r="H54" s="3">
-        <v>91877200</v>
+        <v>93405300</v>
       </c>
       <c r="I54" s="3">
-        <v>90875000</v>
+        <v>93531800</v>
       </c>
       <c r="J54" s="3">
+        <v>92511500</v>
+      </c>
+      <c r="K54" s="3">
         <v>91506600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93459000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>90305500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91363700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92173200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>90782700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>87610900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85718900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85508400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10367800</v>
+        <v>12086100</v>
       </c>
       <c r="E57" s="3">
-        <v>11995100</v>
+        <v>10554500</v>
       </c>
       <c r="F57" s="3">
-        <v>12256800</v>
+        <v>12211100</v>
       </c>
       <c r="G57" s="3">
-        <v>11582100</v>
+        <v>12477600</v>
       </c>
       <c r="H57" s="3">
-        <v>12292500</v>
+        <v>11790700</v>
       </c>
       <c r="I57" s="3">
-        <v>13272800</v>
+        <v>12513900</v>
       </c>
       <c r="J57" s="3">
+        <v>13511800</v>
+      </c>
+      <c r="K57" s="3">
         <v>12785400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12738900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12718200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13894300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13397100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12889700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12346100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12437800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11908500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13632300</v>
+        <v>15154200</v>
       </c>
       <c r="E58" s="3">
-        <v>3913300</v>
+        <v>13877800</v>
       </c>
       <c r="F58" s="3">
-        <v>6766200</v>
+        <v>3983700</v>
       </c>
       <c r="G58" s="3">
-        <v>5166100</v>
+        <v>6888100</v>
       </c>
       <c r="H58" s="3">
-        <v>4675500</v>
+        <v>5259100</v>
       </c>
       <c r="I58" s="3">
-        <v>2796900</v>
+        <v>4759700</v>
       </c>
       <c r="J58" s="3">
+        <v>2847300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5429700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4508500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4229900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2157200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3742700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3865500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4202800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3429100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3937900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19759000</v>
+        <v>19887000</v>
       </c>
       <c r="E59" s="3">
-        <v>19332800</v>
+        <v>20114800</v>
       </c>
       <c r="F59" s="3">
-        <v>20566700</v>
+        <v>19681000</v>
       </c>
       <c r="G59" s="3">
-        <v>16954800</v>
+        <v>20937100</v>
       </c>
       <c r="H59" s="3">
-        <v>16796400</v>
+        <v>17260200</v>
       </c>
       <c r="I59" s="3">
-        <v>17966800</v>
+        <v>17098900</v>
       </c>
       <c r="J59" s="3">
+        <v>18290400</v>
+      </c>
+      <c r="K59" s="3">
         <v>17134300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17568000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16763300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18258800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17693700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17628000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16719600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17137200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16265100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43759100</v>
+        <v>47127300</v>
       </c>
       <c r="E60" s="3">
-        <v>35241200</v>
+        <v>44547100</v>
       </c>
       <c r="F60" s="3">
-        <v>39589800</v>
+        <v>35875800</v>
       </c>
       <c r="G60" s="3">
-        <v>33703100</v>
+        <v>40302700</v>
       </c>
       <c r="H60" s="3">
-        <v>33764400</v>
+        <v>34310000</v>
       </c>
       <c r="I60" s="3">
-        <v>34036500</v>
+        <v>34372400</v>
       </c>
       <c r="J60" s="3">
+        <v>34649400</v>
+      </c>
+      <c r="K60" s="3">
         <v>35349400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34815400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33711400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34310400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34833500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34383200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33268500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33004000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32111400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9412800</v>
+        <v>8975100</v>
       </c>
       <c r="E61" s="3">
-        <v>10105500</v>
+        <v>9582300</v>
       </c>
       <c r="F61" s="3">
-        <v>7984600</v>
+        <v>10287500</v>
       </c>
       <c r="G61" s="3">
-        <v>7930200</v>
+        <v>8128400</v>
       </c>
       <c r="H61" s="3">
-        <v>8328000</v>
+        <v>8073000</v>
       </c>
       <c r="I61" s="3">
-        <v>6688100</v>
+        <v>8478000</v>
       </c>
       <c r="J61" s="3">
+        <v>6808600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7076600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6652500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6755400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7337400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7529400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7629600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7261000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7007400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7631500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7807400</v>
+        <v>11583100</v>
       </c>
       <c r="E62" s="3">
-        <v>8115200</v>
+        <v>7948000</v>
       </c>
       <c r="F62" s="3">
-        <v>8302000</v>
+        <v>8261400</v>
       </c>
       <c r="G62" s="3">
-        <v>8150900</v>
+        <v>8451500</v>
       </c>
       <c r="H62" s="3">
-        <v>8058600</v>
+        <v>8297700</v>
       </c>
       <c r="I62" s="3">
-        <v>8478400</v>
+        <v>8203700</v>
       </c>
       <c r="J62" s="3">
+        <v>8631100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8503900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8634300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8575800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8930400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9587400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9519400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9427600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9367200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9692000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67250400</v>
+        <v>73997600</v>
       </c>
       <c r="E66" s="3">
-        <v>63909700</v>
+        <v>68461500</v>
       </c>
       <c r="F66" s="3">
-        <v>66569800</v>
+        <v>65060600</v>
       </c>
       <c r="G66" s="3">
-        <v>60212000</v>
+        <v>67768600</v>
       </c>
       <c r="H66" s="3">
-        <v>60835600</v>
+        <v>61296300</v>
       </c>
       <c r="I66" s="3">
-        <v>60076100</v>
+        <v>61931200</v>
       </c>
       <c r="J66" s="3">
+        <v>61157900</v>
+      </c>
+      <c r="K66" s="3">
         <v>61843400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61415400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59788500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61730400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>63059800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>62347900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60372500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59400900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59920500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23373300</v>
+        <v>23963500</v>
       </c>
       <c r="E72" s="3">
-        <v>21676200</v>
+        <v>23794200</v>
       </c>
       <c r="F72" s="3">
-        <v>21368300</v>
+        <v>22066600</v>
       </c>
       <c r="G72" s="3">
-        <v>23034100</v>
+        <v>21753100</v>
       </c>
       <c r="H72" s="3">
-        <v>22374700</v>
+        <v>23448900</v>
       </c>
       <c r="I72" s="3">
-        <v>21594800</v>
+        <v>22777600</v>
       </c>
       <c r="J72" s="3">
+        <v>21983700</v>
+      </c>
+      <c r="K72" s="3">
         <v>20149100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21201100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19948300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19032800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18040300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17443200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16664700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>15909000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15530900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28664900</v>
+        <v>28022300</v>
       </c>
       <c r="E76" s="3">
-        <v>29830300</v>
+        <v>29181100</v>
       </c>
       <c r="F76" s="3">
-        <v>30486200</v>
+        <v>30367500</v>
       </c>
       <c r="G76" s="3">
-        <v>31541000</v>
+        <v>31035200</v>
       </c>
       <c r="H76" s="3">
-        <v>31041600</v>
+        <v>32109000</v>
       </c>
       <c r="I76" s="3">
-        <v>30799000</v>
+        <v>31600600</v>
       </c>
       <c r="J76" s="3">
+        <v>31353600</v>
+      </c>
+      <c r="K76" s="3">
         <v>29663100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32043600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30517000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29633300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29113400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28434800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27238300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26318000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25587900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2107500</v>
+        <v>264300</v>
       </c>
       <c r="E81" s="3">
-        <v>306300</v>
+        <v>2145400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1266300</v>
+        <v>311800</v>
       </c>
       <c r="G81" s="3">
-        <v>651300</v>
+        <v>-1289200</v>
       </c>
       <c r="H81" s="3">
-        <v>1135700</v>
+        <v>663000</v>
       </c>
       <c r="I81" s="3">
-        <v>1320800</v>
+        <v>1156100</v>
       </c>
       <c r="J81" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>815200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>956700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>943800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>885600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>773300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>678600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>354800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>689800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>929400</v>
+        <v>1224400</v>
       </c>
       <c r="E83" s="3">
-        <v>1101400</v>
+        <v>946100</v>
       </c>
       <c r="F83" s="3">
-        <v>1025700</v>
+        <v>1121300</v>
       </c>
       <c r="G83" s="3">
-        <v>985100</v>
+        <v>1044100</v>
       </c>
       <c r="H83" s="3">
-        <v>976800</v>
+        <v>1002800</v>
       </c>
       <c r="I83" s="3">
-        <v>917900</v>
+        <v>994400</v>
       </c>
       <c r="J83" s="3">
+        <v>934400</v>
+      </c>
+      <c r="K83" s="3">
         <v>863000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>828800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>819700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>836100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>833100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>836900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>788400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>836200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>793900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1451800</v>
+        <v>583300</v>
       </c>
       <c r="E89" s="3">
-        <v>2389000</v>
+        <v>1478000</v>
       </c>
       <c r="F89" s="3">
-        <v>964400</v>
+        <v>2432000</v>
       </c>
       <c r="G89" s="3">
-        <v>1197200</v>
+        <v>981700</v>
       </c>
       <c r="H89" s="3">
-        <v>744400</v>
+        <v>1218800</v>
       </c>
       <c r="I89" s="3">
-        <v>3848400</v>
+        <v>757900</v>
       </c>
       <c r="J89" s="3">
+        <v>3917700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-91000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>721300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1221300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2295800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1760400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1369900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1147500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2221100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>835800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-501600</v>
+        <v>-581400</v>
       </c>
       <c r="E91" s="3">
-        <v>-850900</v>
+        <v>-510600</v>
       </c>
       <c r="F91" s="3">
-        <v>-617500</v>
+        <v>-866200</v>
       </c>
       <c r="G91" s="3">
-        <v>-833900</v>
+        <v>-628600</v>
       </c>
       <c r="H91" s="3">
-        <v>-745800</v>
+        <v>-848900</v>
       </c>
       <c r="I91" s="3">
-        <v>-842700</v>
+        <v>-759200</v>
       </c>
       <c r="J91" s="3">
+        <v>-857900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-898800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-883000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-934700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-889100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3374400</v>
+        <v>-10199500</v>
       </c>
       <c r="E94" s="3">
-        <v>-319100</v>
+        <v>3435200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2689900</v>
+        <v>-324900</v>
       </c>
       <c r="G94" s="3">
-        <v>-962500</v>
+        <v>-2738300</v>
       </c>
       <c r="H94" s="3">
-        <v>-992300</v>
+        <v>-979900</v>
       </c>
       <c r="I94" s="3">
-        <v>119200</v>
+        <v>-1010200</v>
       </c>
       <c r="J94" s="3">
+        <v>121300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-311700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-357900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-944800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-721200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-945800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>141000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5083,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-456600</v>
+        <v>1400</v>
       </c>
       <c r="E96" s="3">
+        <v>-464800</v>
+      </c>
+      <c r="F96" s="3">
         <v>600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-411600</v>
-      </c>
       <c r="G96" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="H96" s="3">
         <v>1600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-456200</v>
-      </c>
       <c r="I96" s="3">
+        <v>-464400</v>
+      </c>
+      <c r="J96" s="3">
         <v>700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-365100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-351500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-305900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-257400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4971900</v>
+        <v>-892400</v>
       </c>
       <c r="E100" s="3">
-        <v>-793400</v>
+        <v>5061400</v>
       </c>
       <c r="F100" s="3">
-        <v>158100</v>
+        <v>-807700</v>
       </c>
       <c r="G100" s="3">
-        <v>-26400</v>
+        <v>160900</v>
       </c>
       <c r="H100" s="3">
-        <v>688500</v>
+        <v>-26900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3061200</v>
+        <v>700900</v>
       </c>
       <c r="J100" s="3">
+        <v>-3116400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-529700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-258300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>797900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-748700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-709100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>170400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-864900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>22200</v>
       </c>
       <c r="E101" s="3">
-        <v>-163800</v>
+        <v>7900</v>
       </c>
       <c r="F101" s="3">
-        <v>177400</v>
+        <v>-166800</v>
       </c>
       <c r="G101" s="3">
-        <v>-131500</v>
+        <v>180600</v>
       </c>
       <c r="H101" s="3">
-        <v>-195500</v>
+        <v>-133800</v>
       </c>
       <c r="I101" s="3">
-        <v>26800</v>
+        <v>-199000</v>
       </c>
       <c r="J101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-170600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-254800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>99500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>107600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>59800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-122100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>530100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9805800</v>
+        <v>-10486400</v>
       </c>
       <c r="E102" s="3">
-        <v>1112700</v>
+        <v>9982400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1390000</v>
+        <v>1132700</v>
       </c>
       <c r="G102" s="3">
-        <v>76800</v>
+        <v>-1415000</v>
       </c>
       <c r="H102" s="3">
-        <v>245200</v>
+        <v>78200</v>
       </c>
       <c r="I102" s="3">
-        <v>933100</v>
+        <v>249600</v>
       </c>
       <c r="J102" s="3">
+        <v>949900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>104000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1058400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>390000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-405400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>431900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-781600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,257 +666,270 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20813100</v>
+        <v>20325500</v>
       </c>
       <c r="E8" s="3">
-        <v>15321000</v>
+        <v>19838500</v>
       </c>
       <c r="F8" s="3">
-        <v>23285800</v>
+        <v>14603600</v>
       </c>
       <c r="G8" s="3">
-        <v>20400600</v>
+        <v>22195400</v>
       </c>
       <c r="H8" s="3">
-        <v>21033800</v>
+        <v>19445300</v>
       </c>
       <c r="I8" s="3">
-        <v>19533100</v>
+        <v>20048900</v>
       </c>
       <c r="J8" s="3">
+        <v>18618500</v>
+      </c>
+      <c r="K8" s="3">
         <v>25924400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21628300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21607900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19688000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24359100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20770000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20681700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18881600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23443000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19208300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15587200</v>
+        <v>15120300</v>
       </c>
       <c r="E9" s="3">
-        <v>11334300</v>
+        <v>14857300</v>
       </c>
       <c r="F9" s="3">
-        <v>16968500</v>
+        <v>10803600</v>
       </c>
       <c r="G9" s="3">
-        <v>14956900</v>
+        <v>16173900</v>
       </c>
       <c r="H9" s="3">
-        <v>15245300</v>
+        <v>14256600</v>
       </c>
       <c r="I9" s="3">
-        <v>14303400</v>
+        <v>14531400</v>
       </c>
       <c r="J9" s="3">
+        <v>13633700</v>
+      </c>
+      <c r="K9" s="3">
         <v>19379600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15751100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15728800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14420300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17804700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15290000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15148400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13830300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17433900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14170500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5225900</v>
+        <v>5205200</v>
       </c>
       <c r="E10" s="3">
-        <v>3986700</v>
+        <v>4981200</v>
       </c>
       <c r="F10" s="3">
-        <v>6317300</v>
+        <v>3800000</v>
       </c>
       <c r="G10" s="3">
-        <v>5443700</v>
+        <v>6021500</v>
       </c>
       <c r="H10" s="3">
-        <v>5788500</v>
+        <v>5188800</v>
       </c>
       <c r="I10" s="3">
-        <v>5229700</v>
+        <v>5517500</v>
       </c>
       <c r="J10" s="3">
+        <v>4984800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6544800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5877200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5879200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5267700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6554300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5479900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5533300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5051300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6009100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5037800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -993,8 +1007,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1066,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1125,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19636700</v>
+        <v>19078600</v>
       </c>
       <c r="E17" s="3">
-        <v>14760100</v>
+        <v>18717200</v>
       </c>
       <c r="F17" s="3">
-        <v>21207700</v>
+        <v>14068900</v>
       </c>
       <c r="G17" s="3">
-        <v>18974200</v>
+        <v>20214600</v>
       </c>
       <c r="H17" s="3">
-        <v>19373100</v>
+        <v>18085700</v>
       </c>
       <c r="I17" s="3">
-        <v>18337700</v>
+        <v>18465900</v>
       </c>
       <c r="J17" s="3">
+        <v>17479100</v>
+      </c>
+      <c r="K17" s="3">
         <v>23806000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19835200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19783000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18341400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22188700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19221300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19132200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17689700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>21707800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18186600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1176400</v>
+        <v>1246900</v>
       </c>
       <c r="E18" s="3">
-        <v>560900</v>
+        <v>1121300</v>
       </c>
       <c r="F18" s="3">
-        <v>2078200</v>
+        <v>534700</v>
       </c>
       <c r="G18" s="3">
-        <v>1426400</v>
+        <v>1980800</v>
       </c>
       <c r="H18" s="3">
-        <v>1660800</v>
+        <v>1359600</v>
       </c>
       <c r="I18" s="3">
-        <v>1195400</v>
+        <v>1583000</v>
       </c>
       <c r="J18" s="3">
+        <v>1139400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2118400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1793100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1824900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1346700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2170300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1548600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1549500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1191800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1735100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1021800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,288 +1347,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-692700</v>
+        <v>-133500</v>
       </c>
       <c r="E20" s="3">
-        <v>2745600</v>
+        <v>-660300</v>
       </c>
       <c r="F20" s="3">
-        <v>-791500</v>
+        <v>2617000</v>
       </c>
       <c r="G20" s="3">
-        <v>-3642000</v>
+        <v>-754400</v>
       </c>
       <c r="H20" s="3">
-        <v>-570600</v>
+        <v>-3471500</v>
       </c>
       <c r="I20" s="3">
-        <v>606300</v>
+        <v>-543900</v>
       </c>
       <c r="J20" s="3">
+        <v>577900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-53600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-175700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>335400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-583700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>82700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>132400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-702400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>286900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1708100</v>
+        <v>2260800</v>
       </c>
       <c r="E21" s="3">
-        <v>4252600</v>
+        <v>1628100</v>
       </c>
       <c r="F21" s="3">
-        <v>2407900</v>
+        <v>4053500</v>
       </c>
       <c r="G21" s="3">
-        <v>-1171400</v>
+        <v>2295200</v>
       </c>
       <c r="H21" s="3">
-        <v>2093000</v>
+        <v>-1116600</v>
       </c>
       <c r="I21" s="3">
-        <v>2796000</v>
+        <v>1995000</v>
       </c>
       <c r="J21" s="3">
+        <v>2665100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2999300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>481600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2478000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2501800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2422700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2464400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2253700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2112600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1868900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2102600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55600</v>
+        <v>62700</v>
       </c>
       <c r="E22" s="3">
-        <v>41900</v>
+        <v>53000</v>
       </c>
       <c r="F22" s="3">
-        <v>55200</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="3">
-        <v>60600</v>
+        <v>52600</v>
       </c>
       <c r="H22" s="3">
-        <v>60900</v>
+        <v>57700</v>
       </c>
       <c r="I22" s="3">
-        <v>53800</v>
+        <v>58000</v>
       </c>
       <c r="J22" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K22" s="3">
         <v>49200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>41700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>428100</v>
+        <v>1050700</v>
       </c>
       <c r="E23" s="3">
-        <v>3264600</v>
+        <v>408000</v>
       </c>
       <c r="F23" s="3">
-        <v>1231500</v>
+        <v>3111700</v>
       </c>
       <c r="G23" s="3">
-        <v>-2276200</v>
+        <v>1173800</v>
       </c>
       <c r="H23" s="3">
-        <v>1029300</v>
+        <v>-2169600</v>
       </c>
       <c r="I23" s="3">
-        <v>1747800</v>
+        <v>981100</v>
       </c>
       <c r="J23" s="3">
+        <v>1665900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2015600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-435700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1602100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1640400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1541300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1582800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1369600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1279600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>994600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1266600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>230400</v>
+        <v>433700</v>
       </c>
       <c r="E24" s="3">
-        <v>1084800</v>
+        <v>219600</v>
       </c>
       <c r="F24" s="3">
-        <v>831400</v>
+        <v>1034000</v>
       </c>
       <c r="G24" s="3">
-        <v>-1210000</v>
+        <v>792400</v>
       </c>
       <c r="H24" s="3">
-        <v>474900</v>
+        <v>-1153400</v>
       </c>
       <c r="I24" s="3">
-        <v>396200</v>
+        <v>452700</v>
       </c>
       <c r="J24" s="3">
+        <v>377600</v>
+      </c>
+      <c r="K24" s="3">
         <v>469000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>422800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>407300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>444600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>137800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>394200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>340500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>318200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>339400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>295300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>197700</v>
+        <v>617000</v>
       </c>
       <c r="E26" s="3">
-        <v>2179800</v>
+        <v>188400</v>
       </c>
       <c r="F26" s="3">
-        <v>400100</v>
+        <v>2077700</v>
       </c>
       <c r="G26" s="3">
-        <v>-1066200</v>
+        <v>381400</v>
       </c>
       <c r="H26" s="3">
-        <v>554300</v>
+        <v>-1016200</v>
       </c>
       <c r="I26" s="3">
-        <v>1351600</v>
+        <v>528400</v>
       </c>
       <c r="J26" s="3">
+        <v>1288300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1546600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-858600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1194900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1195800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1403500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1188600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1029200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>961500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>655200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>971300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>267700</v>
+        <v>523200</v>
       </c>
       <c r="E27" s="3">
-        <v>2148700</v>
+        <v>255100</v>
       </c>
       <c r="F27" s="3">
-        <v>317500</v>
+        <v>2048100</v>
       </c>
       <c r="G27" s="3">
-        <v>-1285400</v>
+        <v>302600</v>
       </c>
       <c r="H27" s="3">
-        <v>666700</v>
+        <v>-1225200</v>
       </c>
       <c r="I27" s="3">
-        <v>1160000</v>
+        <v>635500</v>
       </c>
       <c r="J27" s="3">
+        <v>1105700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1390100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>907000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>903300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1089500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>873200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>784200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>679200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>399800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>697700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,64 +1876,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>-3200</v>
       </c>
       <c r="F29" s="3">
-        <v>-5700</v>
+        <v>-3100</v>
       </c>
       <c r="G29" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3800</v>
       </c>
-      <c r="H29" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-91800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>53400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-145700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>12400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-45100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-7900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2053,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>692700</v>
+        <v>133500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2745600</v>
+        <v>660300</v>
       </c>
       <c r="F32" s="3">
-        <v>791500</v>
+        <v>-2617000</v>
       </c>
       <c r="G32" s="3">
-        <v>3642000</v>
+        <v>754400</v>
       </c>
       <c r="H32" s="3">
-        <v>570600</v>
+        <v>3471500</v>
       </c>
       <c r="I32" s="3">
-        <v>-606300</v>
+        <v>543900</v>
       </c>
       <c r="J32" s="3">
+        <v>-577900</v>
+      </c>
+      <c r="K32" s="3">
         <v>53600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2174600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>175700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-335400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>583700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-82700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>132600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-132400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>702400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-286900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>264300</v>
+        <v>523200</v>
       </c>
       <c r="E33" s="3">
-        <v>2145400</v>
+        <v>251900</v>
       </c>
       <c r="F33" s="3">
-        <v>311800</v>
+        <v>2045000</v>
       </c>
       <c r="G33" s="3">
-        <v>-1289200</v>
+        <v>297200</v>
       </c>
       <c r="H33" s="3">
-        <v>663000</v>
+        <v>-1228800</v>
       </c>
       <c r="I33" s="3">
-        <v>1156100</v>
+        <v>631900</v>
       </c>
       <c r="J33" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1344600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>815200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>956700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>943800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>885600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>773300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>678600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>354800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>689800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>264300</v>
+        <v>523200</v>
       </c>
       <c r="E35" s="3">
-        <v>2145400</v>
+        <v>251900</v>
       </c>
       <c r="F35" s="3">
-        <v>311800</v>
+        <v>2045000</v>
       </c>
       <c r="G35" s="3">
-        <v>-1289200</v>
+        <v>297200</v>
       </c>
       <c r="H35" s="3">
-        <v>663000</v>
+        <v>-1228800</v>
       </c>
       <c r="I35" s="3">
-        <v>1156100</v>
+        <v>631900</v>
       </c>
       <c r="J35" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1344600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>815200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>956700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>943800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>885600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>773300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>678600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>354800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>689800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,111 +2401,115 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7302500</v>
+        <v>8401900</v>
       </c>
       <c r="E41" s="3">
-        <v>17788900</v>
+        <v>6960500</v>
       </c>
       <c r="F41" s="3">
-        <v>7806500</v>
+        <v>16955900</v>
       </c>
       <c r="G41" s="3">
-        <v>6673800</v>
+        <v>7441000</v>
       </c>
       <c r="H41" s="3">
-        <v>8088800</v>
+        <v>6361300</v>
       </c>
       <c r="I41" s="3">
-        <v>8010600</v>
+        <v>7710000</v>
       </c>
       <c r="J41" s="3">
+        <v>7635500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7761000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6690600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7669800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7402900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6309600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7334400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6944300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7349700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6787700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6771500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2764500</v>
+        <v>2797200</v>
       </c>
       <c r="E42" s="3">
-        <v>2455200</v>
+        <v>2635100</v>
       </c>
       <c r="F42" s="3">
-        <v>2690300</v>
+        <v>2340300</v>
       </c>
       <c r="G42" s="3">
-        <v>3086200</v>
+        <v>2564400</v>
       </c>
       <c r="H42" s="3">
-        <v>2647700</v>
+        <v>2941600</v>
       </c>
       <c r="I42" s="3">
-        <v>2728100</v>
+        <v>2523800</v>
       </c>
       <c r="J42" s="3">
+        <v>2600300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2731800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3037900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2792200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3453500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3374800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2939900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2708500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -2427,400 +2517,424 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22079500</v>
+        <v>21638400</v>
       </c>
       <c r="E43" s="3">
-        <v>16756700</v>
+        <v>21045600</v>
       </c>
       <c r="F43" s="3">
-        <v>21720600</v>
+        <v>15972100</v>
       </c>
       <c r="G43" s="3">
-        <v>21093300</v>
+        <v>20703500</v>
       </c>
       <c r="H43" s="3">
-        <v>20726300</v>
+        <v>20105600</v>
       </c>
       <c r="I43" s="3">
-        <v>20297800</v>
+        <v>19755800</v>
       </c>
       <c r="J43" s="3">
+        <v>19347400</v>
+      </c>
+      <c r="K43" s="3">
         <v>23063400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20887500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20792200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19477900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22612800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20017900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21216900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19871600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21957800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19728100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15065800</v>
+        <v>15281800</v>
       </c>
       <c r="E44" s="3">
-        <v>13911600</v>
+        <v>14360300</v>
       </c>
       <c r="F44" s="3">
-        <v>13539900</v>
+        <v>13260200</v>
       </c>
       <c r="G44" s="3">
-        <v>15515100</v>
+        <v>12905900</v>
       </c>
       <c r="H44" s="3">
-        <v>14237600</v>
+        <v>14788600</v>
       </c>
       <c r="I44" s="3">
-        <v>14236400</v>
+        <v>13570900</v>
       </c>
       <c r="J44" s="3">
+        <v>13569800</v>
+      </c>
+      <c r="K44" s="3">
         <v>13038500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14975900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13820200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13141900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12432100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14097600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12782800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12369500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10873800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12655400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2261000</v>
+        <v>2100800</v>
       </c>
       <c r="E45" s="3">
-        <v>4634300</v>
+        <v>2155200</v>
       </c>
       <c r="F45" s="3">
-        <v>4383700</v>
+        <v>4417300</v>
       </c>
       <c r="G45" s="3">
-        <v>6905400</v>
+        <v>4178500</v>
       </c>
       <c r="H45" s="3">
-        <v>2136100</v>
+        <v>6582000</v>
       </c>
       <c r="I45" s="3">
-        <v>2221200</v>
+        <v>2036000</v>
       </c>
       <c r="J45" s="3">
+        <v>2117200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1799400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2361700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2166700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2156900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1842900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2258300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2187200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2212300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4753800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4708100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49473300</v>
+        <v>50220100</v>
       </c>
       <c r="E46" s="3">
-        <v>55546800</v>
+        <v>47156700</v>
       </c>
       <c r="F46" s="3">
-        <v>50141000</v>
+        <v>52945800</v>
       </c>
       <c r="G46" s="3">
-        <v>53273800</v>
+        <v>47793100</v>
       </c>
       <c r="H46" s="3">
-        <v>47836400</v>
+        <v>50779100</v>
       </c>
       <c r="I46" s="3">
-        <v>47494100</v>
+        <v>45596400</v>
       </c>
       <c r="J46" s="3">
+        <v>45270100</v>
+      </c>
+      <c r="K46" s="3">
         <v>48394000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47953500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47241100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45633100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46572300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46648100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45839800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45304800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44373100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>43863100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8713200</v>
+        <v>8332100</v>
       </c>
       <c r="E47" s="3">
-        <v>8674700</v>
+        <v>8305200</v>
       </c>
       <c r="F47" s="3">
-        <v>8849700</v>
+        <v>8268500</v>
       </c>
       <c r="G47" s="3">
-        <v>9572100</v>
+        <v>8435300</v>
       </c>
       <c r="H47" s="3">
-        <v>12639000</v>
+        <v>9123900</v>
       </c>
       <c r="I47" s="3">
-        <v>12495000</v>
+        <v>12047100</v>
       </c>
       <c r="J47" s="3">
+        <v>11909900</v>
+      </c>
+      <c r="K47" s="3">
         <v>12423900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12268900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12733300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12636400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13196900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13425300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13164700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12783700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12515200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13097300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20594600</v>
+        <v>19597100</v>
       </c>
       <c r="E48" s="3">
-        <v>18609300</v>
+        <v>19630300</v>
       </c>
       <c r="F48" s="3">
-        <v>20808600</v>
+        <v>17737900</v>
       </c>
       <c r="G48" s="3">
-        <v>21210100</v>
+        <v>19834200</v>
       </c>
       <c r="H48" s="3">
-        <v>20604200</v>
+        <v>20216900</v>
       </c>
       <c r="I48" s="3">
-        <v>20729800</v>
+        <v>19639400</v>
       </c>
       <c r="J48" s="3">
+        <v>19759100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18803700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18389900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20003800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19357100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19208400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19232200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18881700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18246800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17725900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17662900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18678900</v>
+        <v>17735300</v>
       </c>
       <c r="E49" s="3">
-        <v>10182500</v>
+        <v>17804200</v>
       </c>
       <c r="F49" s="3">
-        <v>10722100</v>
+        <v>9705700</v>
       </c>
       <c r="G49" s="3">
-        <v>11053500</v>
+        <v>10220000</v>
       </c>
       <c r="H49" s="3">
-        <v>8764200</v>
+        <v>10535900</v>
       </c>
       <c r="I49" s="3">
-        <v>9201600</v>
+        <v>8353800</v>
       </c>
       <c r="J49" s="3">
+        <v>8770800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9225800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9348100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9968300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9621800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9531500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10139000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10111900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8483100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8153300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8193600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3048,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4559900</v>
+        <v>4338800</v>
       </c>
       <c r="E52" s="3">
-        <v>4629200</v>
+        <v>4346300</v>
       </c>
       <c r="F52" s="3">
-        <v>4906600</v>
+        <v>4412500</v>
       </c>
       <c r="G52" s="3">
-        <v>3694400</v>
+        <v>4676800</v>
       </c>
       <c r="H52" s="3">
-        <v>3561500</v>
+        <v>3521400</v>
       </c>
       <c r="I52" s="3">
-        <v>3611300</v>
+        <v>3394800</v>
       </c>
       <c r="J52" s="3">
+        <v>3442200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3664200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3546200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3512500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3057200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2854500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2728600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2784700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2792500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2951400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2691400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>102019900</v>
+        <v>100223500</v>
       </c>
       <c r="E54" s="3">
-        <v>97642600</v>
+        <v>97242700</v>
       </c>
       <c r="F54" s="3">
-        <v>95428100</v>
+        <v>93070300</v>
       </c>
       <c r="G54" s="3">
-        <v>98803800</v>
+        <v>90959500</v>
       </c>
       <c r="H54" s="3">
-        <v>93405300</v>
+        <v>94177200</v>
       </c>
       <c r="I54" s="3">
-        <v>93531800</v>
+        <v>89031500</v>
       </c>
       <c r="J54" s="3">
+        <v>89152000</v>
+      </c>
+      <c r="K54" s="3">
         <v>92511500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91506600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93459000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>90305500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91363700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92173200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90782700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>87610900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85718900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85508400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3273,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12086100</v>
+        <v>12259000</v>
       </c>
       <c r="E57" s="3">
-        <v>10554500</v>
+        <v>11520100</v>
       </c>
       <c r="F57" s="3">
-        <v>12211100</v>
+        <v>10060300</v>
       </c>
       <c r="G57" s="3">
-        <v>12477600</v>
+        <v>11639300</v>
       </c>
       <c r="H57" s="3">
-        <v>11790700</v>
+        <v>11893300</v>
       </c>
       <c r="I57" s="3">
-        <v>12513900</v>
+        <v>11238600</v>
       </c>
       <c r="J57" s="3">
+        <v>11927900</v>
+      </c>
+      <c r="K57" s="3">
         <v>13511800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12785400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12738900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12718200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13894300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13397100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12889700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12346100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12437800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11908500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15154200</v>
+        <v>11343500</v>
       </c>
       <c r="E58" s="3">
-        <v>13877800</v>
+        <v>14444600</v>
       </c>
       <c r="F58" s="3">
-        <v>3983700</v>
+        <v>13227900</v>
       </c>
       <c r="G58" s="3">
-        <v>6888100</v>
+        <v>3797200</v>
       </c>
       <c r="H58" s="3">
-        <v>5259100</v>
+        <v>6565500</v>
       </c>
       <c r="I58" s="3">
-        <v>4759700</v>
+        <v>5012900</v>
       </c>
       <c r="J58" s="3">
+        <v>4536800</v>
+      </c>
+      <c r="K58" s="3">
         <v>2847300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5429700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4508500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4229900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2157200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3742700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3865500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4202800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3429100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3937900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19887000</v>
+        <v>19940400</v>
       </c>
       <c r="E59" s="3">
-        <v>20114800</v>
+        <v>18955800</v>
       </c>
       <c r="F59" s="3">
-        <v>19681000</v>
+        <v>19172900</v>
       </c>
       <c r="G59" s="3">
-        <v>20937100</v>
+        <v>18759400</v>
       </c>
       <c r="H59" s="3">
-        <v>17260200</v>
+        <v>19956700</v>
       </c>
       <c r="I59" s="3">
-        <v>17098900</v>
+        <v>16451900</v>
       </c>
       <c r="J59" s="3">
+        <v>16298200</v>
+      </c>
+      <c r="K59" s="3">
         <v>18290400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17134300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17568000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16763300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18258800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17693700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17628000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16719600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17137200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16265100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47127300</v>
+        <v>43542900</v>
       </c>
       <c r="E60" s="3">
-        <v>44547100</v>
+        <v>44920500</v>
       </c>
       <c r="F60" s="3">
-        <v>35875800</v>
+        <v>42461200</v>
       </c>
       <c r="G60" s="3">
-        <v>40302700</v>
+        <v>34195900</v>
       </c>
       <c r="H60" s="3">
-        <v>34310000</v>
+        <v>38415500</v>
       </c>
       <c r="I60" s="3">
-        <v>34372400</v>
+        <v>32703400</v>
       </c>
       <c r="J60" s="3">
+        <v>32762900</v>
+      </c>
+      <c r="K60" s="3">
         <v>34649400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35349400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34815400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33711400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34310400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34833500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34383200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33268500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33004000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32111400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8975100</v>
+        <v>12476300</v>
       </c>
       <c r="E61" s="3">
-        <v>9582300</v>
+        <v>8554800</v>
       </c>
       <c r="F61" s="3">
-        <v>10287500</v>
+        <v>9133600</v>
       </c>
       <c r="G61" s="3">
-        <v>8128400</v>
+        <v>9805800</v>
       </c>
       <c r="H61" s="3">
-        <v>8073000</v>
+        <v>7747800</v>
       </c>
       <c r="I61" s="3">
-        <v>8478000</v>
+        <v>7695000</v>
       </c>
       <c r="J61" s="3">
+        <v>8081000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6808600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7076600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6652500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6755400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7337400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7529400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7629600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7261000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7007400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7631500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11583100</v>
+        <v>10798500</v>
       </c>
       <c r="E62" s="3">
-        <v>7948000</v>
+        <v>11040700</v>
       </c>
       <c r="F62" s="3">
-        <v>8261400</v>
+        <v>7575800</v>
       </c>
       <c r="G62" s="3">
-        <v>8451500</v>
+        <v>7874500</v>
       </c>
       <c r="H62" s="3">
-        <v>8297700</v>
+        <v>8055700</v>
       </c>
       <c r="I62" s="3">
-        <v>8203700</v>
+        <v>7909200</v>
       </c>
       <c r="J62" s="3">
+        <v>7819600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8631100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8503900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8634300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8575800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8930400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9587400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9519400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9427600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9367200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9692000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73997600</v>
+        <v>73400000</v>
       </c>
       <c r="E66" s="3">
-        <v>68461500</v>
+        <v>70532500</v>
       </c>
       <c r="F66" s="3">
-        <v>65060600</v>
+        <v>65255700</v>
       </c>
       <c r="G66" s="3">
-        <v>67768600</v>
+        <v>62014100</v>
       </c>
       <c r="H66" s="3">
-        <v>61296300</v>
+        <v>64595300</v>
       </c>
       <c r="I66" s="3">
-        <v>61931200</v>
+        <v>58426000</v>
       </c>
       <c r="J66" s="3">
+        <v>59031200</v>
+      </c>
+      <c r="K66" s="3">
         <v>61157900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61843400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61415400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59788500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61730400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>63059800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>62347900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60372500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59400900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59920500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23963500</v>
+        <v>22824800</v>
       </c>
       <c r="E72" s="3">
-        <v>23794200</v>
+        <v>22841400</v>
       </c>
       <c r="F72" s="3">
-        <v>22066600</v>
+        <v>22680000</v>
       </c>
       <c r="G72" s="3">
-        <v>21753100</v>
+        <v>21033300</v>
       </c>
       <c r="H72" s="3">
-        <v>23448900</v>
+        <v>20734400</v>
       </c>
       <c r="I72" s="3">
-        <v>22777600</v>
+        <v>22350900</v>
       </c>
       <c r="J72" s="3">
+        <v>21711000</v>
+      </c>
+      <c r="K72" s="3">
         <v>21983700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20149100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21201100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19948300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19032800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18040300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17443200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16664700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>15909000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15530900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28022300</v>
+        <v>26823500</v>
       </c>
       <c r="E76" s="3">
-        <v>29181100</v>
+        <v>26710100</v>
       </c>
       <c r="F76" s="3">
-        <v>30367500</v>
+        <v>27814600</v>
       </c>
       <c r="G76" s="3">
-        <v>31035200</v>
+        <v>28945500</v>
       </c>
       <c r="H76" s="3">
-        <v>32109000</v>
+        <v>29582000</v>
       </c>
       <c r="I76" s="3">
-        <v>31600600</v>
+        <v>30605500</v>
       </c>
       <c r="J76" s="3">
+        <v>30120900</v>
+      </c>
+      <c r="K76" s="3">
         <v>31353600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29663100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32043600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30517000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29633300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29113400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28434800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27238300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26318000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25587900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>264300</v>
+        <v>523200</v>
       </c>
       <c r="E81" s="3">
-        <v>2145400</v>
+        <v>251900</v>
       </c>
       <c r="F81" s="3">
-        <v>311800</v>
+        <v>2045000</v>
       </c>
       <c r="G81" s="3">
-        <v>-1289200</v>
+        <v>297200</v>
       </c>
       <c r="H81" s="3">
-        <v>663000</v>
+        <v>-1228800</v>
       </c>
       <c r="I81" s="3">
-        <v>1156100</v>
+        <v>631900</v>
       </c>
       <c r="J81" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1344600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>815200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>956700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>943800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>885600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>773300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>678600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>354800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>689800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4622,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1224400</v>
+        <v>1147400</v>
       </c>
       <c r="E83" s="3">
-        <v>946100</v>
+        <v>1167100</v>
       </c>
       <c r="F83" s="3">
-        <v>1121300</v>
+        <v>901800</v>
       </c>
       <c r="G83" s="3">
-        <v>1044100</v>
+        <v>1068800</v>
       </c>
       <c r="H83" s="3">
-        <v>1002800</v>
+        <v>995300</v>
       </c>
       <c r="I83" s="3">
-        <v>994400</v>
+        <v>955900</v>
       </c>
       <c r="J83" s="3">
+        <v>947800</v>
+      </c>
+      <c r="K83" s="3">
         <v>934400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>863000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>828800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>819700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>836100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>833100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>836900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>788400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>836200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>793900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>583300</v>
+        <v>1941100</v>
       </c>
       <c r="E89" s="3">
-        <v>1478000</v>
+        <v>556000</v>
       </c>
       <c r="F89" s="3">
-        <v>2432000</v>
+        <v>1408800</v>
       </c>
       <c r="G89" s="3">
-        <v>981700</v>
+        <v>2318100</v>
       </c>
       <c r="H89" s="3">
-        <v>1218800</v>
+        <v>935800</v>
       </c>
       <c r="I89" s="3">
-        <v>757900</v>
+        <v>1161700</v>
       </c>
       <c r="J89" s="3">
+        <v>722400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3917700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-91000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>721300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1221300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2295800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1760400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1369900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1147500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2221100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>835800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5058,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-581400</v>
+        <v>-480800</v>
       </c>
       <c r="E91" s="3">
-        <v>-510600</v>
+        <v>-554200</v>
       </c>
       <c r="F91" s="3">
-        <v>-866200</v>
+        <v>-486700</v>
       </c>
       <c r="G91" s="3">
-        <v>-628600</v>
+        <v>-825600</v>
       </c>
       <c r="H91" s="3">
-        <v>-848900</v>
+        <v>-599200</v>
       </c>
       <c r="I91" s="3">
-        <v>-759200</v>
+        <v>-809200</v>
       </c>
       <c r="J91" s="3">
+        <v>-723700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-857900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-898800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-883000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-934700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-889100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10199500</v>
+        <v>-569700</v>
       </c>
       <c r="E94" s="3">
-        <v>3435200</v>
+        <v>-9721900</v>
       </c>
       <c r="F94" s="3">
-        <v>-324900</v>
+        <v>3274300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2738300</v>
+        <v>-309600</v>
       </c>
       <c r="H94" s="3">
-        <v>-979900</v>
+        <v>-2610100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1010200</v>
+        <v>-934000</v>
       </c>
       <c r="J94" s="3">
+        <v>-962900</v>
+      </c>
+      <c r="K94" s="3">
         <v>121300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-311700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-357900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-944800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-721200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-945800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>141000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,64 +5317,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>1400</v>
+        <v>-444000</v>
       </c>
       <c r="E96" s="3">
-        <v>-464800</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="G96" s="3">
         <v>600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-419000</v>
-      </c>
       <c r="H96" s="3">
-        <v>1600</v>
+        <v>-399400</v>
       </c>
       <c r="I96" s="3">
-        <v>-464400</v>
+        <v>1500</v>
       </c>
       <c r="J96" s="3">
+        <v>-442700</v>
+      </c>
+      <c r="K96" s="3">
         <v>700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-365100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-351500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-305900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-305900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-257400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5551,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-892400</v>
+        <v>12400</v>
       </c>
       <c r="E100" s="3">
-        <v>5061400</v>
+        <v>-850600</v>
       </c>
       <c r="F100" s="3">
-        <v>-807700</v>
+        <v>4824400</v>
       </c>
       <c r="G100" s="3">
-        <v>160900</v>
+        <v>-769900</v>
       </c>
       <c r="H100" s="3">
-        <v>-26900</v>
+        <v>153400</v>
       </c>
       <c r="I100" s="3">
-        <v>700900</v>
+        <v>-25600</v>
       </c>
       <c r="J100" s="3">
+        <v>668100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-529700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-258300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>797900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-748700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-709100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>170400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-864900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22200</v>
+        <v>57600</v>
       </c>
       <c r="E101" s="3">
-        <v>7900</v>
+        <v>21100</v>
       </c>
       <c r="F101" s="3">
-        <v>-166800</v>
+        <v>7500</v>
       </c>
       <c r="G101" s="3">
-        <v>180600</v>
+        <v>-158900</v>
       </c>
       <c r="H101" s="3">
-        <v>-133800</v>
+        <v>172200</v>
       </c>
       <c r="I101" s="3">
-        <v>-199000</v>
+        <v>-127600</v>
       </c>
       <c r="J101" s="3">
+        <v>-189700</v>
+      </c>
+      <c r="K101" s="3">
         <v>27200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-170600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-254800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>99500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>107600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>59800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-122100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>530100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10486400</v>
+        <v>1441400</v>
       </c>
       <c r="E102" s="3">
-        <v>9982400</v>
+        <v>-9995400</v>
       </c>
       <c r="F102" s="3">
-        <v>1132700</v>
+        <v>9515000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1415000</v>
+        <v>1079700</v>
       </c>
       <c r="H102" s="3">
-        <v>78200</v>
+        <v>-1348700</v>
       </c>
       <c r="I102" s="3">
-        <v>249600</v>
+        <v>74500</v>
       </c>
       <c r="J102" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K102" s="3">
         <v>949900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1058400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>390000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-405400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>431900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-781600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20325500</v>
+        <v>25274300</v>
       </c>
       <c r="E8" s="3">
-        <v>19838500</v>
+        <v>20392100</v>
       </c>
       <c r="F8" s="3">
-        <v>14603600</v>
+        <v>19903500</v>
       </c>
       <c r="G8" s="3">
-        <v>22195400</v>
+        <v>14651400</v>
       </c>
       <c r="H8" s="3">
-        <v>19445300</v>
+        <v>22268100</v>
       </c>
       <c r="I8" s="3">
-        <v>20048900</v>
+        <v>19509000</v>
       </c>
       <c r="J8" s="3">
+        <v>20114600</v>
+      </c>
+      <c r="K8" s="3">
         <v>18618500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25924400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21628300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21607900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19688000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24359100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20770000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20681700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18881600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>23443000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19208300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15120300</v>
+        <v>19131600</v>
       </c>
       <c r="E9" s="3">
-        <v>14857300</v>
+        <v>15169900</v>
       </c>
       <c r="F9" s="3">
-        <v>10803600</v>
+        <v>14906000</v>
       </c>
       <c r="G9" s="3">
-        <v>16173900</v>
+        <v>10838900</v>
       </c>
       <c r="H9" s="3">
-        <v>14256600</v>
+        <v>16226900</v>
       </c>
       <c r="I9" s="3">
-        <v>14531400</v>
+        <v>14303300</v>
       </c>
       <c r="J9" s="3">
+        <v>14579000</v>
+      </c>
+      <c r="K9" s="3">
         <v>13633700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19379600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15751100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15728800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14420300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17804700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15290000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15148400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13830300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17433900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14170500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5205200</v>
+        <v>6142700</v>
       </c>
       <c r="E10" s="3">
-        <v>4981200</v>
+        <v>5222200</v>
       </c>
       <c r="F10" s="3">
-        <v>3800000</v>
+        <v>4997500</v>
       </c>
       <c r="G10" s="3">
-        <v>6021500</v>
+        <v>3812500</v>
       </c>
       <c r="H10" s="3">
-        <v>5188800</v>
+        <v>6041200</v>
       </c>
       <c r="I10" s="3">
-        <v>5517500</v>
+        <v>5205800</v>
       </c>
       <c r="J10" s="3">
+        <v>5535500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4984800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6544800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5877200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5879200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5267700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6554300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5479900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5533300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5051300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6009100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5037800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19078600</v>
+        <v>23636000</v>
       </c>
       <c r="E17" s="3">
-        <v>18717200</v>
+        <v>19141100</v>
       </c>
       <c r="F17" s="3">
-        <v>14068900</v>
+        <v>18778500</v>
       </c>
       <c r="G17" s="3">
-        <v>20214600</v>
+        <v>14115000</v>
       </c>
       <c r="H17" s="3">
-        <v>18085700</v>
+        <v>20280800</v>
       </c>
       <c r="I17" s="3">
-        <v>18465900</v>
+        <v>18144900</v>
       </c>
       <c r="J17" s="3">
+        <v>18526400</v>
+      </c>
+      <c r="K17" s="3">
         <v>17479100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23806000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19835200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19783000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18341400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22188700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19221300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19132200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17689700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>21707800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18186600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1246900</v>
+        <v>1638300</v>
       </c>
       <c r="E18" s="3">
-        <v>1121300</v>
+        <v>1251000</v>
       </c>
       <c r="F18" s="3">
-        <v>534700</v>
+        <v>1125000</v>
       </c>
       <c r="G18" s="3">
-        <v>1980800</v>
+        <v>536400</v>
       </c>
       <c r="H18" s="3">
-        <v>1359600</v>
+        <v>1987300</v>
       </c>
       <c r="I18" s="3">
-        <v>1583000</v>
+        <v>1364100</v>
       </c>
       <c r="J18" s="3">
+        <v>1588200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1139400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2118400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1793100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1824900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1346700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2170300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1548600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1549500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1191800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1735100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1021800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-133500</v>
+        <v>1589800</v>
       </c>
       <c r="E20" s="3">
-        <v>-660300</v>
+        <v>-133900</v>
       </c>
       <c r="F20" s="3">
-        <v>2617000</v>
+        <v>-662400</v>
       </c>
       <c r="G20" s="3">
-        <v>-754400</v>
+        <v>2625600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3471500</v>
+        <v>-756900</v>
       </c>
       <c r="I20" s="3">
-        <v>-543900</v>
+        <v>-3482800</v>
       </c>
       <c r="J20" s="3">
+        <v>-545700</v>
+      </c>
+      <c r="K20" s="3">
         <v>577900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-53600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-175700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>335400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-583700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>82700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-132600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>132400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-702400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>286900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2260800</v>
+        <v>4519700</v>
       </c>
       <c r="E21" s="3">
-        <v>1628100</v>
+        <v>2268200</v>
       </c>
       <c r="F21" s="3">
-        <v>4053500</v>
+        <v>1633500</v>
       </c>
       <c r="G21" s="3">
-        <v>2295200</v>
+        <v>4066800</v>
       </c>
       <c r="H21" s="3">
-        <v>-1116600</v>
+        <v>2302700</v>
       </c>
       <c r="I21" s="3">
-        <v>1995000</v>
+        <v>-1120300</v>
       </c>
       <c r="J21" s="3">
+        <v>2001500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2665100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2999300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>481600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2478000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2501800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2422700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2464400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2253700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2112600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1868900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2102600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62700</v>
+        <v>53100</v>
       </c>
       <c r="E22" s="3">
-        <v>53000</v>
+        <v>62900</v>
       </c>
       <c r="F22" s="3">
-        <v>40000</v>
+        <v>53200</v>
       </c>
       <c r="G22" s="3">
-        <v>52600</v>
+        <v>40100</v>
       </c>
       <c r="H22" s="3">
-        <v>57700</v>
+        <v>52800</v>
       </c>
       <c r="I22" s="3">
-        <v>58000</v>
+        <v>57900</v>
       </c>
       <c r="J22" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K22" s="3">
         <v>51300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>41700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1050700</v>
+        <v>3175000</v>
       </c>
       <c r="E23" s="3">
-        <v>408000</v>
+        <v>1054100</v>
       </c>
       <c r="F23" s="3">
-        <v>3111700</v>
+        <v>409400</v>
       </c>
       <c r="G23" s="3">
-        <v>1173800</v>
+        <v>3121900</v>
       </c>
       <c r="H23" s="3">
-        <v>-2169600</v>
+        <v>1177700</v>
       </c>
       <c r="I23" s="3">
-        <v>981100</v>
+        <v>-2176700</v>
       </c>
       <c r="J23" s="3">
+        <v>984300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1665900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2015600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-435700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1602100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1640400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1541300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1582800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1369600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1279600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>994600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1266600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>433700</v>
+        <v>1296200</v>
       </c>
       <c r="E24" s="3">
-        <v>219600</v>
+        <v>435100</v>
       </c>
       <c r="F24" s="3">
-        <v>1034000</v>
+        <v>220300</v>
       </c>
       <c r="G24" s="3">
-        <v>792400</v>
+        <v>1037400</v>
       </c>
       <c r="H24" s="3">
-        <v>-1153400</v>
+        <v>795000</v>
       </c>
       <c r="I24" s="3">
-        <v>452700</v>
+        <v>-1157100</v>
       </c>
       <c r="J24" s="3">
+        <v>454200</v>
+      </c>
+      <c r="K24" s="3">
         <v>377600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>469000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>422800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>407300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>444600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>137800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>394200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>340500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>318200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>339400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>295300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>617000</v>
+        <v>1878800</v>
       </c>
       <c r="E26" s="3">
-        <v>188400</v>
+        <v>619000</v>
       </c>
       <c r="F26" s="3">
-        <v>2077700</v>
+        <v>189000</v>
       </c>
       <c r="G26" s="3">
-        <v>381400</v>
+        <v>2084500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1016200</v>
+        <v>382600</v>
       </c>
       <c r="I26" s="3">
-        <v>528400</v>
+        <v>-1019600</v>
       </c>
       <c r="J26" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1288300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1546600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-858600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1194900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1195800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1403500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1188600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1029200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>961500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>655200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>971300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>523200</v>
+        <v>1780400</v>
       </c>
       <c r="E27" s="3">
-        <v>255100</v>
+        <v>525000</v>
       </c>
       <c r="F27" s="3">
-        <v>2048100</v>
+        <v>256000</v>
       </c>
       <c r="G27" s="3">
-        <v>302600</v>
+        <v>2054800</v>
       </c>
       <c r="H27" s="3">
-        <v>-1225200</v>
+        <v>303600</v>
       </c>
       <c r="I27" s="3">
-        <v>635500</v>
+        <v>-1229200</v>
       </c>
       <c r="J27" s="3">
+        <v>637600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1105700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1390100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>907000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>903300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1089500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>873200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>784200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>679200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>399800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>697700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1888,58 +1948,61 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-3200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-3100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-5400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-3600</v>
       </c>
-      <c r="I29" s="3">
-        <v>-3500</v>
-      </c>
       <c r="J29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-45500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-91800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>53400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-145700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>12400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-10900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-45100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-7900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>133500</v>
+        <v>-1589800</v>
       </c>
       <c r="E32" s="3">
-        <v>660300</v>
+        <v>133900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2617000</v>
+        <v>662400</v>
       </c>
       <c r="G32" s="3">
-        <v>754400</v>
+        <v>-2625600</v>
       </c>
       <c r="H32" s="3">
-        <v>3471500</v>
+        <v>756900</v>
       </c>
       <c r="I32" s="3">
-        <v>543900</v>
+        <v>3482800</v>
       </c>
       <c r="J32" s="3">
+        <v>545700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-577900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>53600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2174600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>175700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-335400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>583700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-82700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>132600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-132400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>702400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-286900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>523200</v>
+        <v>1780400</v>
       </c>
       <c r="E33" s="3">
-        <v>251900</v>
+        <v>525000</v>
       </c>
       <c r="F33" s="3">
-        <v>2045000</v>
+        <v>252800</v>
       </c>
       <c r="G33" s="3">
-        <v>297200</v>
+        <v>2051700</v>
       </c>
       <c r="H33" s="3">
-        <v>-1228800</v>
+        <v>298200</v>
       </c>
       <c r="I33" s="3">
-        <v>631900</v>
+        <v>-1232800</v>
       </c>
       <c r="J33" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1102000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1344600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>815200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>956700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>943800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>885600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>773300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>678600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>354800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>689800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>523200</v>
+        <v>1780400</v>
       </c>
       <c r="E35" s="3">
-        <v>251900</v>
+        <v>525000</v>
       </c>
       <c r="F35" s="3">
-        <v>2045000</v>
+        <v>252800</v>
       </c>
       <c r="G35" s="3">
-        <v>297200</v>
+        <v>2051700</v>
       </c>
       <c r="H35" s="3">
-        <v>-1228800</v>
+        <v>298200</v>
       </c>
       <c r="I35" s="3">
-        <v>631900</v>
+        <v>-1232800</v>
       </c>
       <c r="J35" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1102000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1344600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>815200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>956700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>943800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>885600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>773300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>678600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>354800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>689800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,117 +2487,121 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8401900</v>
+        <v>9336000</v>
       </c>
       <c r="E41" s="3">
-        <v>6960500</v>
+        <v>8429400</v>
       </c>
       <c r="F41" s="3">
-        <v>16955900</v>
+        <v>6983300</v>
       </c>
       <c r="G41" s="3">
-        <v>7441000</v>
+        <v>17011500</v>
       </c>
       <c r="H41" s="3">
-        <v>6361300</v>
+        <v>7465300</v>
       </c>
       <c r="I41" s="3">
-        <v>7710000</v>
+        <v>6382100</v>
       </c>
       <c r="J41" s="3">
+        <v>7735200</v>
+      </c>
+      <c r="K41" s="3">
         <v>7635500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7761000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6690600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7669800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7402900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6309600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7334400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6944300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7349700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6787700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6771500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2797200</v>
+        <v>3015700</v>
       </c>
       <c r="E42" s="3">
-        <v>2635100</v>
+        <v>2806300</v>
       </c>
       <c r="F42" s="3">
-        <v>2340300</v>
+        <v>2643700</v>
       </c>
       <c r="G42" s="3">
-        <v>2564400</v>
+        <v>2347900</v>
       </c>
       <c r="H42" s="3">
-        <v>2941600</v>
+        <v>2572700</v>
       </c>
       <c r="I42" s="3">
-        <v>2523800</v>
+        <v>2951300</v>
       </c>
       <c r="J42" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2600300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2731800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3037900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2792200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3453500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3374800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2939900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2708500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -2520,421 +2609,445 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21638400</v>
+        <v>25129800</v>
       </c>
       <c r="E43" s="3">
-        <v>21045600</v>
+        <v>21709300</v>
       </c>
       <c r="F43" s="3">
-        <v>15972100</v>
+        <v>21114500</v>
       </c>
       <c r="G43" s="3">
-        <v>20703500</v>
+        <v>16024400</v>
       </c>
       <c r="H43" s="3">
-        <v>20105600</v>
+        <v>20771300</v>
       </c>
       <c r="I43" s="3">
-        <v>19755800</v>
+        <v>20171400</v>
       </c>
       <c r="J43" s="3">
+        <v>19820500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19347400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>23063400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20887500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20792200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19477900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22612800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20017900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21216900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19871600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21957800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19728100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15281800</v>
+        <v>15194700</v>
       </c>
       <c r="E44" s="3">
-        <v>14360300</v>
+        <v>15331800</v>
       </c>
       <c r="F44" s="3">
-        <v>13260200</v>
+        <v>14407400</v>
       </c>
       <c r="G44" s="3">
-        <v>12905900</v>
+        <v>13303600</v>
       </c>
       <c r="H44" s="3">
-        <v>14788600</v>
+        <v>12948100</v>
       </c>
       <c r="I44" s="3">
-        <v>13570900</v>
+        <v>14837100</v>
       </c>
       <c r="J44" s="3">
+        <v>13615300</v>
+      </c>
+      <c r="K44" s="3">
         <v>13569800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13038500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14975900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13820200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13141900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12432100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14097600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12782800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12369500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10873800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12655400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100800</v>
+        <v>1942700</v>
       </c>
       <c r="E45" s="3">
-        <v>2155200</v>
+        <v>2107700</v>
       </c>
       <c r="F45" s="3">
-        <v>4417300</v>
+        <v>2162200</v>
       </c>
       <c r="G45" s="3">
-        <v>4178500</v>
+        <v>4431800</v>
       </c>
       <c r="H45" s="3">
-        <v>6582000</v>
+        <v>4192200</v>
       </c>
       <c r="I45" s="3">
-        <v>2036000</v>
+        <v>6603600</v>
       </c>
       <c r="J45" s="3">
+        <v>2042700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2117200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1799400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2361700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2166700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2156900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1842900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2258300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2187200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2212300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4753800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4708100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50220100</v>
+        <v>54618900</v>
       </c>
       <c r="E46" s="3">
-        <v>47156700</v>
+        <v>50384600</v>
       </c>
       <c r="F46" s="3">
-        <v>52945800</v>
+        <v>47311100</v>
       </c>
       <c r="G46" s="3">
-        <v>47793100</v>
+        <v>53119200</v>
       </c>
       <c r="H46" s="3">
-        <v>50779100</v>
+        <v>47949600</v>
       </c>
       <c r="I46" s="3">
-        <v>45596400</v>
+        <v>50945500</v>
       </c>
       <c r="J46" s="3">
+        <v>45745800</v>
+      </c>
+      <c r="K46" s="3">
         <v>45270100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48394000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>47953500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47241100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45633100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46572300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46648100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45839800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45304800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44373100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>43863100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8332100</v>
+        <v>9249100</v>
       </c>
       <c r="E47" s="3">
-        <v>8305200</v>
+        <v>8359400</v>
       </c>
       <c r="F47" s="3">
-        <v>8268500</v>
+        <v>8332400</v>
       </c>
       <c r="G47" s="3">
-        <v>8435300</v>
+        <v>8295600</v>
       </c>
       <c r="H47" s="3">
-        <v>9123900</v>
+        <v>8463000</v>
       </c>
       <c r="I47" s="3">
-        <v>12047100</v>
+        <v>9153700</v>
       </c>
       <c r="J47" s="3">
+        <v>12086600</v>
+      </c>
+      <c r="K47" s="3">
         <v>11909900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12423900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12268900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12733300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12636400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>13196900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13425300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13164700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12783700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12515200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13097300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19597100</v>
+        <v>22137700</v>
       </c>
       <c r="E48" s="3">
-        <v>19630300</v>
+        <v>19661300</v>
       </c>
       <c r="F48" s="3">
-        <v>17737900</v>
+        <v>19694600</v>
       </c>
       <c r="G48" s="3">
-        <v>19834200</v>
+        <v>17795900</v>
       </c>
       <c r="H48" s="3">
-        <v>20216900</v>
+        <v>19899200</v>
       </c>
       <c r="I48" s="3">
-        <v>19639400</v>
+        <v>20283100</v>
       </c>
       <c r="J48" s="3">
+        <v>19703700</v>
+      </c>
+      <c r="K48" s="3">
         <v>19759100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18803700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18389900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20003800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19357100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19208400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19232200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18881700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18246800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17725900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17662900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17735300</v>
+        <v>19538300</v>
       </c>
       <c r="E49" s="3">
-        <v>17804200</v>
+        <v>17793400</v>
       </c>
       <c r="F49" s="3">
-        <v>9705700</v>
+        <v>17862500</v>
       </c>
       <c r="G49" s="3">
-        <v>10220000</v>
+        <v>9737500</v>
       </c>
       <c r="H49" s="3">
-        <v>10535900</v>
+        <v>10253500</v>
       </c>
       <c r="I49" s="3">
-        <v>8353800</v>
+        <v>10570400</v>
       </c>
       <c r="J49" s="3">
+        <v>8381100</v>
+      </c>
+      <c r="K49" s="3">
         <v>8770800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9225800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9348100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9968300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9621800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9531500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10139000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10111900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8483100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8153300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8193600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4338800</v>
+        <v>3383700</v>
       </c>
       <c r="E52" s="3">
-        <v>4346300</v>
+        <v>4353000</v>
       </c>
       <c r="F52" s="3">
-        <v>4412500</v>
+        <v>4360600</v>
       </c>
       <c r="G52" s="3">
-        <v>4676800</v>
+        <v>4426900</v>
       </c>
       <c r="H52" s="3">
-        <v>3521400</v>
+        <v>4692100</v>
       </c>
       <c r="I52" s="3">
-        <v>3394800</v>
+        <v>3533000</v>
       </c>
       <c r="J52" s="3">
+        <v>3405900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3442200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3664200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3546200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3512500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3057200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2854500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2728600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2784700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2792500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2951400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2691400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100223500</v>
+        <v>108927700</v>
       </c>
       <c r="E54" s="3">
-        <v>97242700</v>
+        <v>100551700</v>
       </c>
       <c r="F54" s="3">
-        <v>93070300</v>
+        <v>97561200</v>
       </c>
       <c r="G54" s="3">
-        <v>90959500</v>
+        <v>93375100</v>
       </c>
       <c r="H54" s="3">
-        <v>94177200</v>
+        <v>91257400</v>
       </c>
       <c r="I54" s="3">
-        <v>89031500</v>
+        <v>94485700</v>
       </c>
       <c r="J54" s="3">
+        <v>89323100</v>
+      </c>
+      <c r="K54" s="3">
         <v>89152000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92511500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91506600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93459000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>90305500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91363700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92173200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>90782700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>87610900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85718900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>85508400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12259000</v>
+        <v>13931600</v>
       </c>
       <c r="E57" s="3">
-        <v>11520100</v>
+        <v>12299200</v>
       </c>
       <c r="F57" s="3">
-        <v>10060300</v>
+        <v>11557900</v>
       </c>
       <c r="G57" s="3">
-        <v>11639300</v>
+        <v>10093200</v>
       </c>
       <c r="H57" s="3">
-        <v>11893300</v>
+        <v>11677400</v>
       </c>
       <c r="I57" s="3">
-        <v>11238600</v>
+        <v>11932200</v>
       </c>
       <c r="J57" s="3">
+        <v>11275400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11927900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>13511800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12785400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12738900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12718200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13894300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13397100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12889700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12346100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12437800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11908500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11343500</v>
+        <v>6350500</v>
       </c>
       <c r="E58" s="3">
-        <v>14444600</v>
+        <v>11380600</v>
       </c>
       <c r="F58" s="3">
-        <v>13227900</v>
+        <v>14491900</v>
       </c>
       <c r="G58" s="3">
-        <v>3797200</v>
+        <v>13271300</v>
       </c>
       <c r="H58" s="3">
-        <v>6565500</v>
+        <v>3809600</v>
       </c>
       <c r="I58" s="3">
-        <v>5012900</v>
+        <v>6587000</v>
       </c>
       <c r="J58" s="3">
+        <v>5029300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4536800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2847300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5429700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4508500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4229900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2157200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3742700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3865500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4202800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3429100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3937900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19940400</v>
+        <v>21963600</v>
       </c>
       <c r="E59" s="3">
-        <v>18955800</v>
+        <v>20005700</v>
       </c>
       <c r="F59" s="3">
-        <v>19172900</v>
+        <v>19017900</v>
       </c>
       <c r="G59" s="3">
-        <v>18759400</v>
+        <v>19235700</v>
       </c>
       <c r="H59" s="3">
-        <v>19956700</v>
+        <v>18820800</v>
       </c>
       <c r="I59" s="3">
-        <v>16451900</v>
+        <v>20022100</v>
       </c>
       <c r="J59" s="3">
+        <v>16505800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16298200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18290400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17134300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17568000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16763300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18258800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17693700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17628000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16719600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17137200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16265100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43542900</v>
+        <v>42245800</v>
       </c>
       <c r="E60" s="3">
-        <v>44920500</v>
+        <v>43685500</v>
       </c>
       <c r="F60" s="3">
-        <v>42461200</v>
+        <v>45067600</v>
       </c>
       <c r="G60" s="3">
-        <v>34195900</v>
+        <v>42600200</v>
       </c>
       <c r="H60" s="3">
-        <v>38415500</v>
+        <v>34307900</v>
       </c>
       <c r="I60" s="3">
-        <v>32703400</v>
+        <v>38541300</v>
       </c>
       <c r="J60" s="3">
+        <v>32810500</v>
+      </c>
+      <c r="K60" s="3">
         <v>32762900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34649400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35349400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34815400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>33711400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34310400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34833500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34383200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33268500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33004000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32111400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12476300</v>
+        <v>15681200</v>
       </c>
       <c r="E61" s="3">
-        <v>8554800</v>
+        <v>12517200</v>
       </c>
       <c r="F61" s="3">
-        <v>9133600</v>
+        <v>8582900</v>
       </c>
       <c r="G61" s="3">
-        <v>9805800</v>
+        <v>9163500</v>
       </c>
       <c r="H61" s="3">
-        <v>7747800</v>
+        <v>9837900</v>
       </c>
       <c r="I61" s="3">
-        <v>7695000</v>
+        <v>7773100</v>
       </c>
       <c r="J61" s="3">
+        <v>7720200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8081000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6808600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7076600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6652500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6755400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7337400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7529400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7629600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7261000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7007400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7631500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10798500</v>
+        <v>10029600</v>
       </c>
       <c r="E62" s="3">
-        <v>11040700</v>
+        <v>10833900</v>
       </c>
       <c r="F62" s="3">
-        <v>7575800</v>
+        <v>11076900</v>
       </c>
       <c r="G62" s="3">
-        <v>7874500</v>
+        <v>7600600</v>
       </c>
       <c r="H62" s="3">
-        <v>8055700</v>
+        <v>7900300</v>
       </c>
       <c r="I62" s="3">
-        <v>7909200</v>
+        <v>8082100</v>
       </c>
       <c r="J62" s="3">
+        <v>7935100</v>
+      </c>
+      <c r="K62" s="3">
         <v>7819600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8631100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8503900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8634300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8575800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8930400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9587400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9519400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9427600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9367200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9692000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73400000</v>
+        <v>76528400</v>
       </c>
       <c r="E66" s="3">
-        <v>70532500</v>
+        <v>73640400</v>
       </c>
       <c r="F66" s="3">
-        <v>65255700</v>
+        <v>70763600</v>
       </c>
       <c r="G66" s="3">
-        <v>62014100</v>
+        <v>65469400</v>
       </c>
       <c r="H66" s="3">
-        <v>64595300</v>
+        <v>62217200</v>
       </c>
       <c r="I66" s="3">
-        <v>58426000</v>
+        <v>64806800</v>
       </c>
       <c r="J66" s="3">
+        <v>58617400</v>
+      </c>
+      <c r="K66" s="3">
         <v>59031200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61157900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61843400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61415400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59788500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61730400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>63059800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>62347900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60372500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59400900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59920500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>22824800</v>
+        <v>24910500</v>
       </c>
       <c r="E72" s="3">
-        <v>22841400</v>
+        <v>22899600</v>
       </c>
       <c r="F72" s="3">
-        <v>22680000</v>
+        <v>22916200</v>
       </c>
       <c r="G72" s="3">
-        <v>21033300</v>
+        <v>22754300</v>
       </c>
       <c r="H72" s="3">
-        <v>20734400</v>
+        <v>21102200</v>
       </c>
       <c r="I72" s="3">
-        <v>22350900</v>
+        <v>20802400</v>
       </c>
       <c r="J72" s="3">
+        <v>22424100</v>
+      </c>
+      <c r="K72" s="3">
         <v>21711000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21983700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20149100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21201100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19948300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19032800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18040300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17443200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16664700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>15909000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15530900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>26823500</v>
+        <v>32399400</v>
       </c>
       <c r="E76" s="3">
-        <v>26710100</v>
+        <v>26911300</v>
       </c>
       <c r="F76" s="3">
-        <v>27814600</v>
+        <v>26797600</v>
       </c>
       <c r="G76" s="3">
-        <v>28945500</v>
+        <v>27905700</v>
       </c>
       <c r="H76" s="3">
-        <v>29582000</v>
+        <v>29040300</v>
       </c>
       <c r="I76" s="3">
-        <v>30605500</v>
+        <v>29678900</v>
       </c>
       <c r="J76" s="3">
+        <v>30705700</v>
+      </c>
+      <c r="K76" s="3">
         <v>30120900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31353600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29663100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32043600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30517000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29633300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29113400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28434800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27238300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26318000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25587900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>523200</v>
+        <v>1780400</v>
       </c>
       <c r="E81" s="3">
-        <v>251900</v>
+        <v>525000</v>
       </c>
       <c r="F81" s="3">
-        <v>2045000</v>
+        <v>252800</v>
       </c>
       <c r="G81" s="3">
-        <v>297200</v>
+        <v>2051700</v>
       </c>
       <c r="H81" s="3">
-        <v>-1228800</v>
+        <v>298200</v>
       </c>
       <c r="I81" s="3">
-        <v>631900</v>
+        <v>-1232800</v>
       </c>
       <c r="J81" s="3">
+        <v>634000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1102000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1344600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>815200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>956700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>943800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>885600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>773300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>678600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>354800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>689800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1147400</v>
+        <v>1291600</v>
       </c>
       <c r="E83" s="3">
-        <v>1167100</v>
+        <v>1151100</v>
       </c>
       <c r="F83" s="3">
-        <v>901800</v>
+        <v>1170900</v>
       </c>
       <c r="G83" s="3">
-        <v>1068800</v>
+        <v>904700</v>
       </c>
       <c r="H83" s="3">
-        <v>995300</v>
+        <v>1072300</v>
       </c>
       <c r="I83" s="3">
-        <v>955900</v>
+        <v>998500</v>
       </c>
       <c r="J83" s="3">
+        <v>959000</v>
+      </c>
+      <c r="K83" s="3">
         <v>947800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>934400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>863000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>828800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>819700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>836100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>833100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>836900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>788400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>836200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>793900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1941100</v>
+        <v>3370200</v>
       </c>
       <c r="E89" s="3">
-        <v>556000</v>
+        <v>1947400</v>
       </c>
       <c r="F89" s="3">
-        <v>1408800</v>
+        <v>557800</v>
       </c>
       <c r="G89" s="3">
-        <v>2318100</v>
+        <v>1413400</v>
       </c>
       <c r="H89" s="3">
-        <v>935800</v>
+        <v>2325700</v>
       </c>
       <c r="I89" s="3">
-        <v>1161700</v>
+        <v>938800</v>
       </c>
       <c r="J89" s="3">
+        <v>1165500</v>
+      </c>
+      <c r="K89" s="3">
         <v>722400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3917700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-91000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>721300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1221300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2295800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1760400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1369900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1147500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2221100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>835800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-480800</v>
+        <v>-814400</v>
       </c>
       <c r="E91" s="3">
-        <v>-554200</v>
+        <v>-482400</v>
       </c>
       <c r="F91" s="3">
-        <v>-486700</v>
+        <v>-556000</v>
       </c>
       <c r="G91" s="3">
-        <v>-825600</v>
+        <v>-488300</v>
       </c>
       <c r="H91" s="3">
-        <v>-599200</v>
+        <v>-828300</v>
       </c>
       <c r="I91" s="3">
-        <v>-809200</v>
+        <v>-601200</v>
       </c>
       <c r="J91" s="3">
+        <v>-811800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-723700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-857900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-898800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-883000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-934700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-889100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-569700</v>
+        <v>2823500</v>
       </c>
       <c r="E94" s="3">
-        <v>-9721900</v>
+        <v>-571500</v>
       </c>
       <c r="F94" s="3">
-        <v>3274300</v>
+        <v>-9753700</v>
       </c>
       <c r="G94" s="3">
-        <v>-309600</v>
+        <v>3285000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2610100</v>
+        <v>-310700</v>
       </c>
       <c r="I94" s="3">
-        <v>-934000</v>
+        <v>-2618600</v>
       </c>
       <c r="J94" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-962900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>121300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-311700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-357900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-944800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-721200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-945800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>141000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-444000</v>
+        <v>700</v>
       </c>
       <c r="E96" s="3">
+        <v>-445400</v>
+      </c>
+      <c r="F96" s="3">
         <v>1300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-443000</v>
-      </c>
       <c r="G96" s="3">
+        <v>-444500</v>
+      </c>
+      <c r="H96" s="3">
         <v>600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-399400</v>
-      </c>
       <c r="I96" s="3">
+        <v>-400700</v>
+      </c>
+      <c r="J96" s="3">
         <v>1500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-442700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-365100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-351500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-305900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-257400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5697900</v>
+      </c>
+      <c r="E100" s="3">
         <v>12400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-850600</v>
-      </c>
       <c r="F100" s="3">
-        <v>4824400</v>
+        <v>-853400</v>
       </c>
       <c r="G100" s="3">
-        <v>-769900</v>
+        <v>4840200</v>
       </c>
       <c r="H100" s="3">
-        <v>153400</v>
+        <v>-772400</v>
       </c>
       <c r="I100" s="3">
-        <v>-25600</v>
+        <v>153900</v>
       </c>
       <c r="J100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="K100" s="3">
         <v>668100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-529700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-258300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>797900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-748700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-709100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>170400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-864900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57600</v>
+        <v>410800</v>
       </c>
       <c r="E101" s="3">
-        <v>21100</v>
+        <v>57700</v>
       </c>
       <c r="F101" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G101" s="3">
         <v>7500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-158900</v>
-      </c>
       <c r="H101" s="3">
-        <v>172200</v>
+        <v>-159500</v>
       </c>
       <c r="I101" s="3">
-        <v>-127600</v>
+        <v>172700</v>
       </c>
       <c r="J101" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-189700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-170600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-254800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>99500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>107600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>59800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-122100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>530100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1441400</v>
+        <v>906600</v>
       </c>
       <c r="E102" s="3">
-        <v>-9995400</v>
+        <v>1446100</v>
       </c>
       <c r="F102" s="3">
-        <v>9515000</v>
+        <v>-10028100</v>
       </c>
       <c r="G102" s="3">
-        <v>1079700</v>
+        <v>9546100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1348700</v>
+        <v>1083200</v>
       </c>
       <c r="I102" s="3">
-        <v>74500</v>
+        <v>-1353200</v>
       </c>
       <c r="J102" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K102" s="3">
         <v>237900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>949900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1058400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>390000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-405400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>431900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-781600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,282 +666,294 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>25274300</v>
+        <v>21567400</v>
       </c>
       <c r="E8" s="3">
-        <v>20392100</v>
+        <v>25054300</v>
       </c>
       <c r="F8" s="3">
-        <v>19903500</v>
+        <v>20214600</v>
       </c>
       <c r="G8" s="3">
-        <v>14651400</v>
+        <v>19730300</v>
       </c>
       <c r="H8" s="3">
-        <v>22268100</v>
+        <v>14523900</v>
       </c>
       <c r="I8" s="3">
-        <v>19509000</v>
+        <v>22074300</v>
       </c>
       <c r="J8" s="3">
+        <v>19339200</v>
+      </c>
+      <c r="K8" s="3">
         <v>20114600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18618500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25924400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21628300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21607900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19688000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24359100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20770000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20681700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18881600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23443000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19208300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19131600</v>
+        <v>16313000</v>
       </c>
       <c r="E9" s="3">
-        <v>15169900</v>
+        <v>18965100</v>
       </c>
       <c r="F9" s="3">
-        <v>14906000</v>
+        <v>15037800</v>
       </c>
       <c r="G9" s="3">
-        <v>10838900</v>
+        <v>14776200</v>
       </c>
       <c r="H9" s="3">
-        <v>16226900</v>
+        <v>10744600</v>
       </c>
       <c r="I9" s="3">
-        <v>14303300</v>
+        <v>16085600</v>
       </c>
       <c r="J9" s="3">
+        <v>14178700</v>
+      </c>
+      <c r="K9" s="3">
         <v>14579000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13633700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19379600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15751100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15728800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14420300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17804700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15290000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15148400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13830300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17433900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14170500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6142700</v>
+        <v>5254300</v>
       </c>
       <c r="E10" s="3">
-        <v>5222200</v>
+        <v>6089200</v>
       </c>
       <c r="F10" s="3">
-        <v>4997500</v>
+        <v>5176800</v>
       </c>
       <c r="G10" s="3">
-        <v>3812500</v>
+        <v>4954000</v>
       </c>
       <c r="H10" s="3">
-        <v>6041200</v>
+        <v>3779300</v>
       </c>
       <c r="I10" s="3">
-        <v>5205800</v>
+        <v>5988600</v>
       </c>
       <c r="J10" s="3">
+        <v>5160500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5535500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4984800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6544800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5877200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5879200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5267700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6554300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5479900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5533300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5051300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6009100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5037800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23636000</v>
+        <v>20378700</v>
       </c>
       <c r="E17" s="3">
-        <v>19141100</v>
+        <v>23430300</v>
       </c>
       <c r="F17" s="3">
-        <v>18778500</v>
+        <v>18974500</v>
       </c>
       <c r="G17" s="3">
-        <v>14115000</v>
+        <v>18615000</v>
       </c>
       <c r="H17" s="3">
-        <v>20280800</v>
+        <v>13992100</v>
       </c>
       <c r="I17" s="3">
-        <v>18144900</v>
+        <v>20104200</v>
       </c>
       <c r="J17" s="3">
+        <v>17987000</v>
+      </c>
+      <c r="K17" s="3">
         <v>18526400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17479100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23806000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19835200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19783000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18341400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22188700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19221300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19132200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17689700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21707800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18186600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1638300</v>
+        <v>1188700</v>
       </c>
       <c r="E18" s="3">
-        <v>1251000</v>
+        <v>1624000</v>
       </c>
       <c r="F18" s="3">
-        <v>1125000</v>
+        <v>1240100</v>
       </c>
       <c r="G18" s="3">
-        <v>536400</v>
+        <v>1115200</v>
       </c>
       <c r="H18" s="3">
-        <v>1987300</v>
+        <v>531800</v>
       </c>
       <c r="I18" s="3">
-        <v>1364100</v>
+        <v>1970000</v>
       </c>
       <c r="J18" s="3">
+        <v>1352200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1588200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1139400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2118400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1793100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1824900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1346700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2170300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1548600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1549500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1191800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1735100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1021800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1589800</v>
+        <v>390100</v>
       </c>
       <c r="E20" s="3">
-        <v>-133900</v>
+        <v>1575900</v>
       </c>
       <c r="F20" s="3">
-        <v>-662400</v>
+        <v>-132700</v>
       </c>
       <c r="G20" s="3">
-        <v>2625600</v>
+        <v>-656700</v>
       </c>
       <c r="H20" s="3">
-        <v>-756900</v>
+        <v>2602800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3482800</v>
+        <v>-750300</v>
       </c>
       <c r="J20" s="3">
+        <v>-3452500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-545700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>577900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-53600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-175700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>335400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-583700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>82700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-132600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>132400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-702400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>286900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4519700</v>
+        <v>2771600</v>
       </c>
       <c r="E21" s="3">
-        <v>2268200</v>
+        <v>4480400</v>
       </c>
       <c r="F21" s="3">
-        <v>1633500</v>
+        <v>2248400</v>
       </c>
       <c r="G21" s="3">
-        <v>4066800</v>
+        <v>1619200</v>
       </c>
       <c r="H21" s="3">
-        <v>2302700</v>
+        <v>4031400</v>
       </c>
       <c r="I21" s="3">
-        <v>-1120300</v>
+        <v>2282600</v>
       </c>
       <c r="J21" s="3">
+        <v>-1110500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2001500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2665100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2999300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>481600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2478000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2501800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2422700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2464400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2253700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2112600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1868900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2102600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53100</v>
+        <v>58800</v>
       </c>
       <c r="E22" s="3">
-        <v>62900</v>
+        <v>52600</v>
       </c>
       <c r="F22" s="3">
-        <v>53200</v>
+        <v>62400</v>
       </c>
       <c r="G22" s="3">
-        <v>40100</v>
+        <v>52700</v>
       </c>
       <c r="H22" s="3">
-        <v>52800</v>
+        <v>39800</v>
       </c>
       <c r="I22" s="3">
-        <v>57900</v>
+        <v>52300</v>
       </c>
       <c r="J22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K22" s="3">
         <v>58200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>44600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3175000</v>
+        <v>1520000</v>
       </c>
       <c r="E23" s="3">
-        <v>1054100</v>
+        <v>3147400</v>
       </c>
       <c r="F23" s="3">
-        <v>409400</v>
+        <v>1045000</v>
       </c>
       <c r="G23" s="3">
-        <v>3121900</v>
+        <v>405800</v>
       </c>
       <c r="H23" s="3">
-        <v>1177700</v>
+        <v>3094700</v>
       </c>
       <c r="I23" s="3">
-        <v>-2176700</v>
+        <v>1167400</v>
       </c>
       <c r="J23" s="3">
+        <v>-2157700</v>
+      </c>
+      <c r="K23" s="3">
         <v>984300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1665900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2015600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-435700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1602100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1640400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1541300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1582800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1369600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1279600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>994600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1266600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1296200</v>
+        <v>272400</v>
       </c>
       <c r="E24" s="3">
-        <v>435100</v>
+        <v>1284900</v>
       </c>
       <c r="F24" s="3">
-        <v>220300</v>
+        <v>431300</v>
       </c>
       <c r="G24" s="3">
-        <v>1037400</v>
+        <v>218400</v>
       </c>
       <c r="H24" s="3">
-        <v>795000</v>
+        <v>1028300</v>
       </c>
       <c r="I24" s="3">
-        <v>-1157100</v>
+        <v>788100</v>
       </c>
       <c r="J24" s="3">
+        <v>-1147100</v>
+      </c>
+      <c r="K24" s="3">
         <v>454200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>377600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>469000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>422800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>407300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>444600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>137800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>394200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>340500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>318200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>339400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>295300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1878800</v>
+        <v>1247600</v>
       </c>
       <c r="E26" s="3">
-        <v>619000</v>
+        <v>1862500</v>
       </c>
       <c r="F26" s="3">
-        <v>189000</v>
+        <v>613600</v>
       </c>
       <c r="G26" s="3">
-        <v>2084500</v>
+        <v>187400</v>
       </c>
       <c r="H26" s="3">
-        <v>382600</v>
+        <v>2066400</v>
       </c>
       <c r="I26" s="3">
-        <v>-1019600</v>
+        <v>379300</v>
       </c>
       <c r="J26" s="3">
+        <v>-1010700</v>
+      </c>
+      <c r="K26" s="3">
         <v>530100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1288300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1546600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-858600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1194900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1195800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1403500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1188600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1029200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>961500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>655200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>971300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1780400</v>
+        <v>1113500</v>
       </c>
       <c r="E27" s="3">
-        <v>525000</v>
+        <v>1764900</v>
       </c>
       <c r="F27" s="3">
-        <v>256000</v>
+        <v>520400</v>
       </c>
       <c r="G27" s="3">
-        <v>2054800</v>
+        <v>253700</v>
       </c>
       <c r="H27" s="3">
-        <v>303600</v>
+        <v>2036900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1229200</v>
+        <v>301000</v>
       </c>
       <c r="J27" s="3">
+        <v>-1218500</v>
+      </c>
+      <c r="K27" s="3">
         <v>637600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1105700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1390100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>907000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>903300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1089500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>873200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>784200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>679200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>399800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>697700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,58 +2011,61 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-3200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-3100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-5400</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-3600</v>
       </c>
       <c r="J29" s="3">
         <v>-3600</v>
       </c>
       <c r="K29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="L29" s="3">
         <v>-3700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-45500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-91800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>53400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-145700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>12400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-10900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-45100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-7900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1589800</v>
+        <v>-390100</v>
       </c>
       <c r="E32" s="3">
-        <v>133900</v>
+        <v>-1575900</v>
       </c>
       <c r="F32" s="3">
-        <v>662400</v>
+        <v>132700</v>
       </c>
       <c r="G32" s="3">
-        <v>-2625600</v>
+        <v>656700</v>
       </c>
       <c r="H32" s="3">
-        <v>756900</v>
+        <v>-2602800</v>
       </c>
       <c r="I32" s="3">
-        <v>3482800</v>
+        <v>750300</v>
       </c>
       <c r="J32" s="3">
+        <v>3452500</v>
+      </c>
+      <c r="K32" s="3">
         <v>545700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-577900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>53600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2174600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>175700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-335400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>583700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-82700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>132600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-132400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>702400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-286900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1780400</v>
+        <v>1113500</v>
       </c>
       <c r="E33" s="3">
-        <v>525000</v>
+        <v>1764900</v>
       </c>
       <c r="F33" s="3">
-        <v>252800</v>
+        <v>520400</v>
       </c>
       <c r="G33" s="3">
-        <v>2051700</v>
+        <v>250600</v>
       </c>
       <c r="H33" s="3">
-        <v>298200</v>
+        <v>2033800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1232800</v>
+        <v>295600</v>
       </c>
       <c r="J33" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="K33" s="3">
         <v>634000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1102000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1344600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>815200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>956700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>943800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>885600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>773300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>678600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>354800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>689800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1780400</v>
+        <v>1113500</v>
       </c>
       <c r="E35" s="3">
-        <v>525000</v>
+        <v>1764900</v>
       </c>
       <c r="F35" s="3">
-        <v>252800</v>
+        <v>520400</v>
       </c>
       <c r="G35" s="3">
-        <v>2051700</v>
+        <v>250600</v>
       </c>
       <c r="H35" s="3">
-        <v>298200</v>
+        <v>2033800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1232800</v>
+        <v>295600</v>
       </c>
       <c r="J35" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="K35" s="3">
         <v>634000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1102000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1344600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>815200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>956700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>943800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>885600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>773300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>678600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>354800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>689800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,123 +2573,127 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9336000</v>
+        <v>10585700</v>
       </c>
       <c r="E41" s="3">
-        <v>8429400</v>
+        <v>9254700</v>
       </c>
       <c r="F41" s="3">
-        <v>6983300</v>
+        <v>8356000</v>
       </c>
       <c r="G41" s="3">
-        <v>17011500</v>
+        <v>6922500</v>
       </c>
       <c r="H41" s="3">
-        <v>7465300</v>
+        <v>16863400</v>
       </c>
       <c r="I41" s="3">
-        <v>6382100</v>
+        <v>7400300</v>
       </c>
       <c r="J41" s="3">
+        <v>6326500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7735200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7635500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7761000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6690600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7669800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7402900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6309600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7334400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6944300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7349700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6787700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6771500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3015700</v>
+        <v>2994900</v>
       </c>
       <c r="E42" s="3">
-        <v>2806300</v>
+        <v>2989500</v>
       </c>
       <c r="F42" s="3">
-        <v>2643700</v>
+        <v>2781900</v>
       </c>
       <c r="G42" s="3">
-        <v>2347900</v>
+        <v>2620700</v>
       </c>
       <c r="H42" s="3">
-        <v>2572700</v>
+        <v>2327500</v>
       </c>
       <c r="I42" s="3">
-        <v>2951300</v>
+        <v>2550400</v>
       </c>
       <c r="J42" s="3">
+        <v>2925600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2532000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2600300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2731800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3037900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2792200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3453500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3374800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2939900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2708500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -2612,442 +2701,466 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25129800</v>
+        <v>22709700</v>
       </c>
       <c r="E43" s="3">
-        <v>21709300</v>
+        <v>24911100</v>
       </c>
       <c r="F43" s="3">
-        <v>21114500</v>
+        <v>21520300</v>
       </c>
       <c r="G43" s="3">
-        <v>16024400</v>
+        <v>20930700</v>
       </c>
       <c r="H43" s="3">
-        <v>20771300</v>
+        <v>15884900</v>
       </c>
       <c r="I43" s="3">
-        <v>20171400</v>
+        <v>20590500</v>
       </c>
       <c r="J43" s="3">
+        <v>19995800</v>
+      </c>
+      <c r="K43" s="3">
         <v>19820500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19347400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>23063400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20887500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20792200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19477900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22612800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20017900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21216900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19871600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21957800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19728100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15194700</v>
+        <v>16375000</v>
       </c>
       <c r="E44" s="3">
-        <v>15331800</v>
+        <v>15062400</v>
       </c>
       <c r="F44" s="3">
-        <v>14407400</v>
+        <v>15198300</v>
       </c>
       <c r="G44" s="3">
-        <v>13303600</v>
+        <v>14282000</v>
       </c>
       <c r="H44" s="3">
-        <v>12948100</v>
+        <v>13187800</v>
       </c>
       <c r="I44" s="3">
-        <v>14837100</v>
+        <v>12835400</v>
       </c>
       <c r="J44" s="3">
+        <v>14707900</v>
+      </c>
+      <c r="K44" s="3">
         <v>13615300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13569800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13038500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14975900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13820200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13141900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12432100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14097600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12782800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12369500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10873800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12655400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1942700</v>
+        <v>2253700</v>
       </c>
       <c r="E45" s="3">
-        <v>2107700</v>
+        <v>1925800</v>
       </c>
       <c r="F45" s="3">
-        <v>2162200</v>
+        <v>2089400</v>
       </c>
       <c r="G45" s="3">
-        <v>4431800</v>
+        <v>2143400</v>
       </c>
       <c r="H45" s="3">
-        <v>4192200</v>
+        <v>4393200</v>
       </c>
       <c r="I45" s="3">
-        <v>6603600</v>
+        <v>4155700</v>
       </c>
       <c r="J45" s="3">
+        <v>6546100</v>
+      </c>
+      <c r="K45" s="3">
         <v>2042700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2117200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1799400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2361700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2166700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2156900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1842900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2258300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2187200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2212300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4753800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4708100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54618900</v>
+        <v>54919000</v>
       </c>
       <c r="E46" s="3">
-        <v>50384600</v>
+        <v>54143500</v>
       </c>
       <c r="F46" s="3">
-        <v>47311100</v>
+        <v>49946000</v>
       </c>
       <c r="G46" s="3">
-        <v>53119200</v>
+        <v>46899300</v>
       </c>
       <c r="H46" s="3">
-        <v>47949600</v>
+        <v>52656800</v>
       </c>
       <c r="I46" s="3">
-        <v>50945500</v>
+        <v>47532200</v>
       </c>
       <c r="J46" s="3">
+        <v>50502000</v>
+      </c>
+      <c r="K46" s="3">
         <v>45745800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45270100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48394000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>47953500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47241100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45633100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46572300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46648100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45839800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45304800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44373100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>43863100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9249100</v>
+        <v>8797600</v>
       </c>
       <c r="E47" s="3">
-        <v>8359400</v>
+        <v>9168600</v>
       </c>
       <c r="F47" s="3">
-        <v>8332400</v>
+        <v>8286600</v>
       </c>
       <c r="G47" s="3">
-        <v>8295600</v>
+        <v>8259900</v>
       </c>
       <c r="H47" s="3">
-        <v>8463000</v>
+        <v>8223400</v>
       </c>
       <c r="I47" s="3">
-        <v>9153700</v>
+        <v>8389300</v>
       </c>
       <c r="J47" s="3">
+        <v>9074100</v>
+      </c>
+      <c r="K47" s="3">
         <v>12086600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11909900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12423900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12268900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12733300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12636400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>13196900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13425300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13164700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12783700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12515200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13097300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22137700</v>
+        <v>21879300</v>
       </c>
       <c r="E48" s="3">
-        <v>19661300</v>
+        <v>21945000</v>
       </c>
       <c r="F48" s="3">
-        <v>19694600</v>
+        <v>19490200</v>
       </c>
       <c r="G48" s="3">
-        <v>17795900</v>
+        <v>19523100</v>
       </c>
       <c r="H48" s="3">
-        <v>19899200</v>
+        <v>17641000</v>
       </c>
       <c r="I48" s="3">
-        <v>20283100</v>
+        <v>19726000</v>
       </c>
       <c r="J48" s="3">
+        <v>20106600</v>
+      </c>
+      <c r="K48" s="3">
         <v>19703700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19759100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18803700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18389900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20003800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19357100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19208400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19232200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18881700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18246800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17725900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17662900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19538300</v>
+        <v>19356900</v>
       </c>
       <c r="E49" s="3">
-        <v>17793400</v>
+        <v>19368200</v>
       </c>
       <c r="F49" s="3">
-        <v>17862500</v>
+        <v>17638500</v>
       </c>
       <c r="G49" s="3">
-        <v>9737500</v>
+        <v>17707000</v>
       </c>
       <c r="H49" s="3">
-        <v>10253500</v>
+        <v>9652800</v>
       </c>
       <c r="I49" s="3">
-        <v>10570400</v>
+        <v>10164200</v>
       </c>
       <c r="J49" s="3">
+        <v>10478300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8381100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8770800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9225800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9348100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9968300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9621800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9531500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10139000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10111900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8483100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8153300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8193600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3383700</v>
+        <v>3453900</v>
       </c>
       <c r="E52" s="3">
-        <v>4353000</v>
+        <v>3354300</v>
       </c>
       <c r="F52" s="3">
-        <v>4360600</v>
+        <v>4315100</v>
       </c>
       <c r="G52" s="3">
-        <v>4426900</v>
+        <v>4322600</v>
       </c>
       <c r="H52" s="3">
-        <v>4692100</v>
+        <v>4388400</v>
       </c>
       <c r="I52" s="3">
-        <v>3533000</v>
+        <v>4651300</v>
       </c>
       <c r="J52" s="3">
+        <v>3502200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3405900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3442200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3664200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3546200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3512500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3057200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2854500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2728600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2784700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2792500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2951400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2691400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108927700</v>
+        <v>108406700</v>
       </c>
       <c r="E54" s="3">
-        <v>100551700</v>
+        <v>107979500</v>
       </c>
       <c r="F54" s="3">
-        <v>97561200</v>
+        <v>99676400</v>
       </c>
       <c r="G54" s="3">
-        <v>93375100</v>
+        <v>96711900</v>
       </c>
       <c r="H54" s="3">
-        <v>91257400</v>
+        <v>92562300</v>
       </c>
       <c r="I54" s="3">
-        <v>94485700</v>
+        <v>90463000</v>
       </c>
       <c r="J54" s="3">
+        <v>93663200</v>
+      </c>
+      <c r="K54" s="3">
         <v>89323100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89152000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92511500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91506600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93459000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>90305500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91363700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92173200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>90782700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>87610900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>85718900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>85508400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13931600</v>
+        <v>13812400</v>
       </c>
       <c r="E57" s="3">
-        <v>12299200</v>
+        <v>13810300</v>
       </c>
       <c r="F57" s="3">
-        <v>11557900</v>
+        <v>12192100</v>
       </c>
       <c r="G57" s="3">
-        <v>10093200</v>
+        <v>11457300</v>
       </c>
       <c r="H57" s="3">
-        <v>11677400</v>
+        <v>10005400</v>
       </c>
       <c r="I57" s="3">
-        <v>11932200</v>
+        <v>11575800</v>
       </c>
       <c r="J57" s="3">
+        <v>11828400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11275400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11927900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>13511800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>12785400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12738900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12718200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13894300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13397100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12889700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12346100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12437800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>11908500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6350500</v>
+        <v>8117100</v>
       </c>
       <c r="E58" s="3">
-        <v>11380600</v>
+        <v>6295300</v>
       </c>
       <c r="F58" s="3">
-        <v>14491900</v>
+        <v>11281500</v>
       </c>
       <c r="G58" s="3">
-        <v>13271300</v>
+        <v>14365700</v>
       </c>
       <c r="H58" s="3">
-        <v>3809600</v>
+        <v>13155700</v>
       </c>
       <c r="I58" s="3">
-        <v>6587000</v>
+        <v>3776500</v>
       </c>
       <c r="J58" s="3">
+        <v>6529700</v>
+      </c>
+      <c r="K58" s="3">
         <v>5029300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4536800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2847300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5429700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4508500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4229900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2157200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3742700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3865500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4202800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3429100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3937900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21963600</v>
+        <v>20696300</v>
       </c>
       <c r="E59" s="3">
-        <v>20005700</v>
+        <v>21772400</v>
       </c>
       <c r="F59" s="3">
-        <v>19017900</v>
+        <v>19831500</v>
       </c>
       <c r="G59" s="3">
-        <v>19235700</v>
+        <v>18852300</v>
       </c>
       <c r="H59" s="3">
-        <v>18820800</v>
+        <v>19068300</v>
       </c>
       <c r="I59" s="3">
-        <v>20022100</v>
+        <v>18657000</v>
       </c>
       <c r="J59" s="3">
+        <v>19847800</v>
+      </c>
+      <c r="K59" s="3">
         <v>16505800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16298200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18290400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17134300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17568000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16763300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18258800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17693700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17628000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16719600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17137200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16265100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42245800</v>
+        <v>42625800</v>
       </c>
       <c r="E60" s="3">
-        <v>43685500</v>
+        <v>41878000</v>
       </c>
       <c r="F60" s="3">
-        <v>45067600</v>
+        <v>43305200</v>
       </c>
       <c r="G60" s="3">
-        <v>42600200</v>
+        <v>44675300</v>
       </c>
       <c r="H60" s="3">
-        <v>34307900</v>
+        <v>42229400</v>
       </c>
       <c r="I60" s="3">
-        <v>38541300</v>
+        <v>34009300</v>
       </c>
       <c r="J60" s="3">
+        <v>38205800</v>
+      </c>
+      <c r="K60" s="3">
         <v>32810500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32762900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34649400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35349400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34815400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>33711400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34310400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34833500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34383200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33268500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33004000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>32111400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15681200</v>
+        <v>14949300</v>
       </c>
       <c r="E61" s="3">
-        <v>12517200</v>
+        <v>15544700</v>
       </c>
       <c r="F61" s="3">
-        <v>8582900</v>
+        <v>12408200</v>
       </c>
       <c r="G61" s="3">
-        <v>9163500</v>
+        <v>8508100</v>
       </c>
       <c r="H61" s="3">
-        <v>9837900</v>
+        <v>9083700</v>
       </c>
       <c r="I61" s="3">
-        <v>7773100</v>
+        <v>9752300</v>
       </c>
       <c r="J61" s="3">
+        <v>7705500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7720200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8081000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6808600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7076600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6652500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6755400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7337400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7529400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7629600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7261000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7007400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7631500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10029600</v>
+        <v>9808200</v>
       </c>
       <c r="E62" s="3">
-        <v>10833900</v>
+        <v>9942300</v>
       </c>
       <c r="F62" s="3">
-        <v>11076900</v>
+        <v>10739600</v>
       </c>
       <c r="G62" s="3">
-        <v>7600600</v>
+        <v>10980500</v>
       </c>
       <c r="H62" s="3">
-        <v>7900300</v>
+        <v>7534400</v>
       </c>
       <c r="I62" s="3">
-        <v>8082100</v>
+        <v>7831500</v>
       </c>
       <c r="J62" s="3">
+        <v>8011800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7935100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7819600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8631100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8503900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8634300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8575800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8930400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9587400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9519400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9427600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9367200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9692000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76528400</v>
+        <v>75665300</v>
       </c>
       <c r="E66" s="3">
-        <v>73640400</v>
+        <v>75862200</v>
       </c>
       <c r="F66" s="3">
-        <v>70763600</v>
+        <v>72999400</v>
       </c>
       <c r="G66" s="3">
-        <v>65469400</v>
+        <v>70147500</v>
       </c>
       <c r="H66" s="3">
-        <v>62217200</v>
+        <v>64899500</v>
       </c>
       <c r="I66" s="3">
-        <v>64806800</v>
+        <v>61675600</v>
       </c>
       <c r="J66" s="3">
+        <v>64242700</v>
+      </c>
+      <c r="K66" s="3">
         <v>58617400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59031200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61157900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61843400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61415400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59788500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61730400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>63059800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62347900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60372500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59400900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59920500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24910500</v>
+        <v>25375400</v>
       </c>
       <c r="E72" s="3">
-        <v>22899600</v>
+        <v>24693600</v>
       </c>
       <c r="F72" s="3">
-        <v>22916200</v>
+        <v>22700200</v>
       </c>
       <c r="G72" s="3">
-        <v>22754300</v>
+        <v>22716700</v>
       </c>
       <c r="H72" s="3">
-        <v>21102200</v>
+        <v>22556200</v>
       </c>
       <c r="I72" s="3">
-        <v>20802400</v>
+        <v>20918500</v>
       </c>
       <c r="J72" s="3">
+        <v>20621300</v>
+      </c>
+      <c r="K72" s="3">
         <v>22424100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21711000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21983700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20149100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21201100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19948300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19032800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18040300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>17443200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16664700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>15909000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15530900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32399400</v>
+        <v>32741400</v>
       </c>
       <c r="E76" s="3">
-        <v>26911300</v>
+        <v>32117300</v>
       </c>
       <c r="F76" s="3">
-        <v>26797600</v>
+        <v>26677100</v>
       </c>
       <c r="G76" s="3">
-        <v>27905700</v>
+        <v>26564400</v>
       </c>
       <c r="H76" s="3">
-        <v>29040300</v>
+        <v>27662800</v>
       </c>
       <c r="I76" s="3">
-        <v>29678900</v>
+        <v>28787500</v>
       </c>
       <c r="J76" s="3">
+        <v>29420500</v>
+      </c>
+      <c r="K76" s="3">
         <v>30705700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30120900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31353600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29663100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32043600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30517000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29633300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29113400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28434800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27238300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26318000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25587900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1780400</v>
+        <v>1113500</v>
       </c>
       <c r="E81" s="3">
-        <v>525000</v>
+        <v>1764900</v>
       </c>
       <c r="F81" s="3">
-        <v>252800</v>
+        <v>520400</v>
       </c>
       <c r="G81" s="3">
-        <v>2051700</v>
+        <v>250600</v>
       </c>
       <c r="H81" s="3">
-        <v>298200</v>
+        <v>2033800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1232800</v>
+        <v>295600</v>
       </c>
       <c r="J81" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="K81" s="3">
         <v>634000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1102000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1344600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>815200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>956700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>943800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>885600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>773300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>678600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>354800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>689800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1291600</v>
+        <v>1192800</v>
       </c>
       <c r="E83" s="3">
-        <v>1151100</v>
+        <v>1280400</v>
       </c>
       <c r="F83" s="3">
-        <v>1170900</v>
+        <v>1141100</v>
       </c>
       <c r="G83" s="3">
-        <v>904700</v>
+        <v>1160700</v>
       </c>
       <c r="H83" s="3">
-        <v>1072300</v>
+        <v>896900</v>
       </c>
       <c r="I83" s="3">
-        <v>998500</v>
+        <v>1062900</v>
       </c>
       <c r="J83" s="3">
+        <v>989800</v>
+      </c>
+      <c r="K83" s="3">
         <v>959000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>947800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>934400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>863000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>828800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>819700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>836100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>833100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>836900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>788400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>836200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>793900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3370200</v>
+        <v>1248700</v>
       </c>
       <c r="E89" s="3">
-        <v>1947400</v>
+        <v>3340900</v>
       </c>
       <c r="F89" s="3">
-        <v>557800</v>
+        <v>1930500</v>
       </c>
       <c r="G89" s="3">
-        <v>1413400</v>
+        <v>552900</v>
       </c>
       <c r="H89" s="3">
-        <v>2325700</v>
+        <v>1401100</v>
       </c>
       <c r="I89" s="3">
-        <v>938800</v>
+        <v>2305500</v>
       </c>
       <c r="J89" s="3">
+        <v>930700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1165500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>722400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3917700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-91000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>721300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1221300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2295800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1760400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1369900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1147500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2221100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>835800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-814400</v>
+        <v>-606000</v>
       </c>
       <c r="E91" s="3">
-        <v>-482400</v>
+        <v>-807300</v>
       </c>
       <c r="F91" s="3">
-        <v>-556000</v>
+        <v>-478200</v>
       </c>
       <c r="G91" s="3">
-        <v>-488300</v>
+        <v>-551200</v>
       </c>
       <c r="H91" s="3">
-        <v>-828300</v>
+        <v>-484100</v>
       </c>
       <c r="I91" s="3">
-        <v>-601200</v>
+        <v>-821100</v>
       </c>
       <c r="J91" s="3">
+        <v>-595900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-811800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-723700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-857900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-898800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-883000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-934700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-889100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2823500</v>
+        <v>-64300</v>
       </c>
       <c r="E94" s="3">
-        <v>-571500</v>
+        <v>2798900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9753700</v>
+        <v>-566600</v>
       </c>
       <c r="G94" s="3">
-        <v>3285000</v>
+        <v>-9668800</v>
       </c>
       <c r="H94" s="3">
-        <v>-310700</v>
+        <v>3256400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2618600</v>
+        <v>-308000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2595800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-937000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-962900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>121300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-311700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-357900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-944800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-721200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-945800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>141000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-485000</v>
+      </c>
+      <c r="E96" s="3">
         <v>700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-445400</v>
-      </c>
       <c r="F96" s="3">
+        <v>-441500</v>
+      </c>
+      <c r="G96" s="3">
         <v>1300</v>
       </c>
-      <c r="G96" s="3">
-        <v>-444500</v>
-      </c>
       <c r="H96" s="3">
+        <v>-440600</v>
+      </c>
+      <c r="I96" s="3">
         <v>600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-400700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="K96" s="3">
         <v>1500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-442700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-365100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-351500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-305900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-305900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-257400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5697900</v>
+        <v>97500</v>
       </c>
       <c r="E100" s="3">
-        <v>12400</v>
+        <v>-5648300</v>
       </c>
       <c r="F100" s="3">
-        <v>-853400</v>
+        <v>12300</v>
       </c>
       <c r="G100" s="3">
-        <v>4840200</v>
+        <v>-846000</v>
       </c>
       <c r="H100" s="3">
-        <v>-772400</v>
+        <v>4798100</v>
       </c>
       <c r="I100" s="3">
-        <v>153900</v>
+        <v>-765700</v>
       </c>
       <c r="J100" s="3">
+        <v>152600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-25700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>668100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-529700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-258300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>797900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-748700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-709100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>170400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-864900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>410800</v>
+        <v>49100</v>
       </c>
       <c r="E101" s="3">
-        <v>57700</v>
+        <v>407200</v>
       </c>
       <c r="F101" s="3">
-        <v>21200</v>
+        <v>57200</v>
       </c>
       <c r="G101" s="3">
+        <v>21000</v>
+      </c>
+      <c r="H101" s="3">
         <v>7500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-159500</v>
-      </c>
       <c r="I101" s="3">
-        <v>172700</v>
+        <v>-158100</v>
       </c>
       <c r="J101" s="3">
+        <v>171200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-128000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-189700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-170600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-254800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>99500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>107600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>59800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-122100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>530100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>906600</v>
+        <v>1331000</v>
       </c>
       <c r="E102" s="3">
-        <v>1446100</v>
+        <v>898700</v>
       </c>
       <c r="F102" s="3">
-        <v>-10028100</v>
+        <v>1433500</v>
       </c>
       <c r="G102" s="3">
-        <v>9546100</v>
+        <v>-9940800</v>
       </c>
       <c r="H102" s="3">
-        <v>1083200</v>
+        <v>9463000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1353200</v>
+        <v>1073800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1341400</v>
+      </c>
+      <c r="K102" s="3">
         <v>74800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>237900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>949900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>104000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1058400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>390000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-405400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>431900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-781600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21567400</v>
+        <v>21718700</v>
       </c>
       <c r="E8" s="3">
-        <v>25054300</v>
+        <v>20857100</v>
       </c>
       <c r="F8" s="3">
-        <v>20214600</v>
+        <v>24229200</v>
       </c>
       <c r="G8" s="3">
-        <v>19730300</v>
+        <v>19548900</v>
       </c>
       <c r="H8" s="3">
-        <v>14523900</v>
+        <v>19080500</v>
       </c>
       <c r="I8" s="3">
-        <v>22074300</v>
+        <v>14045600</v>
       </c>
       <c r="J8" s="3">
+        <v>21347400</v>
+      </c>
+      <c r="K8" s="3">
         <v>19339200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20114600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18618500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25924400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21628300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21607900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19688000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24359100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20770000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20681700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18881600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23443000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19208300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16313000</v>
+        <v>16357600</v>
       </c>
       <c r="E9" s="3">
-        <v>18965100</v>
+        <v>15775800</v>
       </c>
       <c r="F9" s="3">
-        <v>15037800</v>
+        <v>18340600</v>
       </c>
       <c r="G9" s="3">
-        <v>14776200</v>
+        <v>14542600</v>
       </c>
       <c r="H9" s="3">
-        <v>10744600</v>
+        <v>14289700</v>
       </c>
       <c r="I9" s="3">
-        <v>16085600</v>
+        <v>10390800</v>
       </c>
       <c r="J9" s="3">
+        <v>15555900</v>
+      </c>
+      <c r="K9" s="3">
         <v>14178700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14579000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13633700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19379600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15751100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15728800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14420300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>17804700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15290000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15148400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13830300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17433900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14170500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5254300</v>
+        <v>5361000</v>
       </c>
       <c r="E10" s="3">
-        <v>6089200</v>
+        <v>5081300</v>
       </c>
       <c r="F10" s="3">
-        <v>5176800</v>
+        <v>5888700</v>
       </c>
       <c r="G10" s="3">
-        <v>4954000</v>
+        <v>5006300</v>
       </c>
       <c r="H10" s="3">
-        <v>3779300</v>
+        <v>4790900</v>
       </c>
       <c r="I10" s="3">
-        <v>5988600</v>
+        <v>3654800</v>
       </c>
       <c r="J10" s="3">
+        <v>5791400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5160500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5535500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4984800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6544800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5877200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5879200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5267700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6554300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5479900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5533300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5051300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6009100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5037800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1123,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>11800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20378700</v>
+        <v>20143100</v>
       </c>
       <c r="E17" s="3">
-        <v>23430300</v>
+        <v>19719400</v>
       </c>
       <c r="F17" s="3">
-        <v>18974500</v>
+        <v>22658700</v>
       </c>
       <c r="G17" s="3">
-        <v>18615000</v>
+        <v>18349600</v>
       </c>
       <c r="H17" s="3">
-        <v>13992100</v>
+        <v>18002000</v>
       </c>
       <c r="I17" s="3">
-        <v>20104200</v>
+        <v>13531300</v>
       </c>
       <c r="J17" s="3">
+        <v>19442200</v>
+      </c>
+      <c r="K17" s="3">
         <v>17987000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18526400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17479100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23806000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19835200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19783000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18341400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22188700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19221300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19132200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17689700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21707800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18186600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1188700</v>
+        <v>1575600</v>
       </c>
       <c r="E18" s="3">
-        <v>1624000</v>
+        <v>1137700</v>
       </c>
       <c r="F18" s="3">
-        <v>1240100</v>
+        <v>1570500</v>
       </c>
       <c r="G18" s="3">
-        <v>1115200</v>
+        <v>1199300</v>
       </c>
       <c r="H18" s="3">
-        <v>531800</v>
+        <v>1078500</v>
       </c>
       <c r="I18" s="3">
-        <v>1970000</v>
+        <v>514200</v>
       </c>
       <c r="J18" s="3">
+        <v>1905200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1352200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1588200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1139400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2118400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1793100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1824900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1346700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2170300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1548600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1549500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1191800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1735100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1021800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>390100</v>
+        <v>713400</v>
       </c>
       <c r="E20" s="3">
-        <v>1575900</v>
+        <v>389100</v>
       </c>
       <c r="F20" s="3">
-        <v>-132700</v>
+        <v>1524100</v>
       </c>
       <c r="G20" s="3">
-        <v>-656700</v>
+        <v>-128400</v>
       </c>
       <c r="H20" s="3">
-        <v>2602800</v>
+        <v>-635100</v>
       </c>
       <c r="I20" s="3">
-        <v>-750300</v>
+        <v>2517100</v>
       </c>
       <c r="J20" s="3">
+        <v>-725600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-545700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>577900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-53600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-175700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>335400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-583700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>82700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-132600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>132400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-702400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>286900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2771600</v>
+        <v>3453000</v>
       </c>
       <c r="E21" s="3">
-        <v>4480400</v>
+        <v>2680300</v>
       </c>
       <c r="F21" s="3">
-        <v>2248400</v>
+        <v>4332800</v>
       </c>
       <c r="G21" s="3">
-        <v>1619200</v>
+        <v>2174400</v>
       </c>
       <c r="H21" s="3">
-        <v>4031400</v>
+        <v>1565900</v>
       </c>
       <c r="I21" s="3">
-        <v>2282600</v>
+        <v>3898600</v>
       </c>
       <c r="J21" s="3">
+        <v>2207500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2001500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2665100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2999300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>481600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2478000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2501800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2422700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2464400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2253700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2112600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1868900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2102600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58800</v>
+        <v>57800</v>
       </c>
       <c r="E22" s="3">
-        <v>52600</v>
+        <v>56900</v>
       </c>
       <c r="F22" s="3">
-        <v>62400</v>
+        <v>50900</v>
       </c>
       <c r="G22" s="3">
-        <v>52700</v>
+        <v>60300</v>
       </c>
       <c r="H22" s="3">
-        <v>39800</v>
+        <v>51000</v>
       </c>
       <c r="I22" s="3">
-        <v>52300</v>
+        <v>38500</v>
       </c>
       <c r="J22" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K22" s="3">
         <v>57400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>38100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>42000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1520000</v>
+        <v>2231200</v>
       </c>
       <c r="E23" s="3">
-        <v>3147400</v>
+        <v>1470000</v>
       </c>
       <c r="F23" s="3">
-        <v>1045000</v>
+        <v>3043700</v>
       </c>
       <c r="G23" s="3">
-        <v>405800</v>
+        <v>1010600</v>
       </c>
       <c r="H23" s="3">
-        <v>3094700</v>
+        <v>392400</v>
       </c>
       <c r="I23" s="3">
-        <v>1167400</v>
+        <v>2992800</v>
       </c>
       <c r="J23" s="3">
+        <v>1129000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>984300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1665900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2015600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-435700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1602100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1640400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1541300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1582800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1369600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1279600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>994600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1266600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>272400</v>
+        <v>227200</v>
       </c>
       <c r="E24" s="3">
-        <v>1284900</v>
+        <v>263500</v>
       </c>
       <c r="F24" s="3">
-        <v>431300</v>
+        <v>1242600</v>
       </c>
       <c r="G24" s="3">
-        <v>218400</v>
+        <v>417100</v>
       </c>
       <c r="H24" s="3">
-        <v>1028300</v>
+        <v>211200</v>
       </c>
       <c r="I24" s="3">
-        <v>788100</v>
+        <v>994500</v>
       </c>
       <c r="J24" s="3">
+        <v>762200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>454200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>377600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>469000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>422800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>407300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>444600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>137800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>394200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>340500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>318200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>339400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>295300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1247600</v>
+        <v>2004000</v>
       </c>
       <c r="E26" s="3">
-        <v>1862500</v>
+        <v>1206500</v>
       </c>
       <c r="F26" s="3">
-        <v>613600</v>
+        <v>1801100</v>
       </c>
       <c r="G26" s="3">
-        <v>187400</v>
+        <v>593400</v>
       </c>
       <c r="H26" s="3">
-        <v>2066400</v>
+        <v>181200</v>
       </c>
       <c r="I26" s="3">
-        <v>379300</v>
+        <v>1998400</v>
       </c>
       <c r="J26" s="3">
+        <v>366800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>530100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1288300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1546600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-858600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1194900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1195800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1403500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1188600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1029200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>961500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>655200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>971300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1113500</v>
+        <v>1763900</v>
       </c>
       <c r="E27" s="3">
-        <v>1764900</v>
+        <v>1076900</v>
       </c>
       <c r="F27" s="3">
-        <v>520400</v>
+        <v>1706800</v>
       </c>
       <c r="G27" s="3">
-        <v>253700</v>
+        <v>503300</v>
       </c>
       <c r="H27" s="3">
-        <v>2036900</v>
+        <v>245400</v>
       </c>
       <c r="I27" s="3">
-        <v>301000</v>
+        <v>1969800</v>
       </c>
       <c r="J27" s="3">
+        <v>291100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>637600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1105700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1390100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>907000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>903300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1089500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>873200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>784200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>679200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>399800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>697700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,58 +2074,61 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>-3100</v>
       </c>
       <c r="I29" s="3">
-        <v>-5400</v>
+        <v>-3000</v>
       </c>
       <c r="J29" s="3">
-        <v>-3600</v>
+        <v>-5200</v>
       </c>
       <c r="K29" s="3">
         <v>-3600</v>
       </c>
       <c r="L29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-45500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-91800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>53400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-145700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>12400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-10900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-45100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-7900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-390100</v>
+        <v>-713400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1575900</v>
+        <v>-389100</v>
       </c>
       <c r="F32" s="3">
-        <v>132700</v>
+        <v>-1524100</v>
       </c>
       <c r="G32" s="3">
-        <v>656700</v>
+        <v>128400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2602800</v>
+        <v>635100</v>
       </c>
       <c r="I32" s="3">
-        <v>750300</v>
+        <v>-2517100</v>
       </c>
       <c r="J32" s="3">
+        <v>725600</v>
+      </c>
+      <c r="K32" s="3">
         <v>3452500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>545700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-577900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>53600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2174600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>175700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-335400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>583700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-82700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>132600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-132400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>702400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-286900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1113500</v>
+        <v>1763900</v>
       </c>
       <c r="E33" s="3">
-        <v>1764900</v>
+        <v>1076900</v>
       </c>
       <c r="F33" s="3">
-        <v>520400</v>
+        <v>1706800</v>
       </c>
       <c r="G33" s="3">
-        <v>250600</v>
+        <v>503300</v>
       </c>
       <c r="H33" s="3">
-        <v>2033800</v>
+        <v>242300</v>
       </c>
       <c r="I33" s="3">
-        <v>295600</v>
+        <v>1966800</v>
       </c>
       <c r="J33" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>634000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1102000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1344600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>815200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>956700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>943800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>885600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>773300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>678600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>354800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>689800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1113500</v>
+        <v>1763900</v>
       </c>
       <c r="E35" s="3">
-        <v>1764900</v>
+        <v>1076900</v>
       </c>
       <c r="F35" s="3">
-        <v>520400</v>
+        <v>1706800</v>
       </c>
       <c r="G35" s="3">
-        <v>250600</v>
+        <v>503300</v>
       </c>
       <c r="H35" s="3">
-        <v>2033800</v>
+        <v>242300</v>
       </c>
       <c r="I35" s="3">
-        <v>295600</v>
+        <v>1966800</v>
       </c>
       <c r="J35" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>634000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1102000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1344600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>815200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>956700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>943800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>885600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>773300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>678600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>354800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>689800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,129 +2659,133 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10585700</v>
+        <v>7761300</v>
       </c>
       <c r="E41" s="3">
-        <v>9254700</v>
+        <v>10237100</v>
       </c>
       <c r="F41" s="3">
-        <v>8356000</v>
+        <v>8950000</v>
       </c>
       <c r="G41" s="3">
-        <v>6922500</v>
+        <v>8080900</v>
       </c>
       <c r="H41" s="3">
-        <v>16863400</v>
+        <v>6694600</v>
       </c>
       <c r="I41" s="3">
-        <v>7400300</v>
+        <v>16308000</v>
       </c>
       <c r="J41" s="3">
+        <v>7156600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6326500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7735200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7635500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7761000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6690600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7669800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7402900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6309600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7334400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6944300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7349700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6787700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6771500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2994900</v>
+        <v>2980400</v>
       </c>
       <c r="E42" s="3">
-        <v>2989500</v>
+        <v>2896300</v>
       </c>
       <c r="F42" s="3">
-        <v>2781900</v>
+        <v>2891000</v>
       </c>
       <c r="G42" s="3">
-        <v>2620700</v>
+        <v>2690300</v>
       </c>
       <c r="H42" s="3">
-        <v>2327500</v>
+        <v>2534400</v>
       </c>
       <c r="I42" s="3">
-        <v>2550400</v>
+        <v>2250800</v>
       </c>
       <c r="J42" s="3">
+        <v>2466400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2925600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2532000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2600300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2731800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3037900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2792200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3453500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3374800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2939900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2708500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -2704,463 +2793,487 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22709700</v>
+        <v>22572200</v>
       </c>
       <c r="E43" s="3">
-        <v>24911100</v>
+        <v>21961800</v>
       </c>
       <c r="F43" s="3">
-        <v>21520300</v>
+        <v>24090700</v>
       </c>
       <c r="G43" s="3">
-        <v>20930700</v>
+        <v>20811600</v>
       </c>
       <c r="H43" s="3">
-        <v>15884900</v>
+        <v>20241500</v>
       </c>
       <c r="I43" s="3">
-        <v>20590500</v>
+        <v>15361800</v>
       </c>
       <c r="J43" s="3">
+        <v>19912400</v>
+      </c>
+      <c r="K43" s="3">
         <v>19995800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19820500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19347400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>23063400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20887500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20792200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19477900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>22612800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20017900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21216900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19871600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21957800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19728100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16375000</v>
+        <v>16344800</v>
       </c>
       <c r="E44" s="3">
-        <v>15062400</v>
+        <v>15835800</v>
       </c>
       <c r="F44" s="3">
-        <v>15198300</v>
+        <v>14566400</v>
       </c>
       <c r="G44" s="3">
-        <v>14282000</v>
+        <v>14697900</v>
       </c>
       <c r="H44" s="3">
-        <v>13187800</v>
+        <v>13811600</v>
       </c>
       <c r="I44" s="3">
-        <v>12835400</v>
+        <v>12753500</v>
       </c>
       <c r="J44" s="3">
+        <v>12412700</v>
+      </c>
+      <c r="K44" s="3">
         <v>14707900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13615300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13569800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13038500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14975900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13820200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13141900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12432100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14097600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12782800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12369500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10873800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12655400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2253700</v>
+        <v>2530100</v>
       </c>
       <c r="E45" s="3">
-        <v>1925800</v>
+        <v>2179500</v>
       </c>
       <c r="F45" s="3">
-        <v>2089400</v>
+        <v>1862300</v>
       </c>
       <c r="G45" s="3">
-        <v>2143400</v>
+        <v>2020600</v>
       </c>
       <c r="H45" s="3">
-        <v>4393200</v>
+        <v>2072800</v>
       </c>
       <c r="I45" s="3">
-        <v>4155700</v>
+        <v>4248500</v>
       </c>
       <c r="J45" s="3">
+        <v>4018800</v>
+      </c>
+      <c r="K45" s="3">
         <v>6546100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2042700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2117200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1799400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2361700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2166700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2156900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1842900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2258300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2187200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2212300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4753800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4708100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54919000</v>
+        <v>52188800</v>
       </c>
       <c r="E46" s="3">
-        <v>54143500</v>
+        <v>53110400</v>
       </c>
       <c r="F46" s="3">
-        <v>49946000</v>
+        <v>52360500</v>
       </c>
       <c r="G46" s="3">
-        <v>46899300</v>
+        <v>48301200</v>
       </c>
       <c r="H46" s="3">
-        <v>52656800</v>
+        <v>45354900</v>
       </c>
       <c r="I46" s="3">
-        <v>47532200</v>
+        <v>50922700</v>
       </c>
       <c r="J46" s="3">
+        <v>45967000</v>
+      </c>
+      <c r="K46" s="3">
         <v>50502000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45745800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45270100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48394000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47953500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47241100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45633100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>46572300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46648100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45839800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45304800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>44373100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>43863100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8797600</v>
+        <v>8682700</v>
       </c>
       <c r="E47" s="3">
-        <v>9168600</v>
+        <v>8507900</v>
       </c>
       <c r="F47" s="3">
-        <v>8286600</v>
+        <v>8866600</v>
       </c>
       <c r="G47" s="3">
-        <v>8259900</v>
+        <v>8013800</v>
       </c>
       <c r="H47" s="3">
-        <v>8223400</v>
+        <v>7987900</v>
       </c>
       <c r="I47" s="3">
-        <v>8389300</v>
+        <v>7952600</v>
       </c>
       <c r="J47" s="3">
+        <v>8113000</v>
+      </c>
+      <c r="K47" s="3">
         <v>9074100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12086600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11909900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12423900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12268900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12733300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12636400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>13196900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13425300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13164700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12783700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12515200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13097300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21879300</v>
+        <v>21062900</v>
       </c>
       <c r="E48" s="3">
-        <v>21945000</v>
+        <v>21158800</v>
       </c>
       <c r="F48" s="3">
-        <v>19490200</v>
+        <v>21222300</v>
       </c>
       <c r="G48" s="3">
-        <v>19523100</v>
+        <v>18848300</v>
       </c>
       <c r="H48" s="3">
-        <v>17641000</v>
+        <v>18880200</v>
       </c>
       <c r="I48" s="3">
-        <v>19726000</v>
+        <v>17060100</v>
       </c>
       <c r="J48" s="3">
+        <v>19076400</v>
+      </c>
+      <c r="K48" s="3">
         <v>20106600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19703700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19759100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18803700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18389900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20003800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19357100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19208400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19232200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18881700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18246800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17725900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17662900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19356900</v>
+        <v>28234700</v>
       </c>
       <c r="E49" s="3">
-        <v>19368200</v>
+        <v>18719400</v>
       </c>
       <c r="F49" s="3">
-        <v>17638500</v>
+        <v>18730400</v>
       </c>
       <c r="G49" s="3">
-        <v>17707000</v>
+        <v>17057700</v>
       </c>
       <c r="H49" s="3">
-        <v>9652800</v>
+        <v>17123900</v>
       </c>
       <c r="I49" s="3">
-        <v>10164200</v>
+        <v>9334900</v>
       </c>
       <c r="J49" s="3">
+        <v>9829500</v>
+      </c>
+      <c r="K49" s="3">
         <v>10478300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8381100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8770800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9225800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9348100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9968300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9621800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9531500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10139000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10111900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8483100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8153300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8193600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3453900</v>
+        <v>3299500</v>
       </c>
       <c r="E52" s="3">
-        <v>3354300</v>
+        <v>3340200</v>
       </c>
       <c r="F52" s="3">
-        <v>4315100</v>
+        <v>3243800</v>
       </c>
       <c r="G52" s="3">
-        <v>4322600</v>
+        <v>4173000</v>
       </c>
       <c r="H52" s="3">
-        <v>4388400</v>
+        <v>4180300</v>
       </c>
       <c r="I52" s="3">
-        <v>4651300</v>
+        <v>4243900</v>
       </c>
       <c r="J52" s="3">
+        <v>4498100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3502200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3405900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3442200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3664200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3546200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3512500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3057200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2854500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2728600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2784700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2792500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2951400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2691400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108406700</v>
+        <v>113468600</v>
       </c>
       <c r="E54" s="3">
-        <v>107979500</v>
+        <v>104836800</v>
       </c>
       <c r="F54" s="3">
-        <v>99676400</v>
+        <v>104423600</v>
       </c>
       <c r="G54" s="3">
-        <v>96711900</v>
+        <v>96394000</v>
       </c>
       <c r="H54" s="3">
-        <v>92562300</v>
+        <v>93527100</v>
       </c>
       <c r="I54" s="3">
-        <v>90463000</v>
+        <v>89514100</v>
       </c>
       <c r="J54" s="3">
+        <v>87484000</v>
+      </c>
+      <c r="K54" s="3">
         <v>93663200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89323100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89152000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92511500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91506600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93459000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>90305500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91363700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92173200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>90782700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>87610900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>85718900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>85508400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13812400</v>
+        <v>13181500</v>
       </c>
       <c r="E57" s="3">
-        <v>13810300</v>
+        <v>13357600</v>
       </c>
       <c r="F57" s="3">
-        <v>12192100</v>
+        <v>13355600</v>
       </c>
       <c r="G57" s="3">
-        <v>11457300</v>
+        <v>11790600</v>
       </c>
       <c r="H57" s="3">
-        <v>10005400</v>
+        <v>11080000</v>
       </c>
       <c r="I57" s="3">
-        <v>11575800</v>
+        <v>9675900</v>
       </c>
       <c r="J57" s="3">
+        <v>11194600</v>
+      </c>
+      <c r="K57" s="3">
         <v>11828400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11275400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11927900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13511800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12785400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12738900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12718200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13894300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13397100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12889700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12346100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12437800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>11908500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8117100</v>
+        <v>14768900</v>
       </c>
       <c r="E58" s="3">
-        <v>6295300</v>
+        <v>7849800</v>
       </c>
       <c r="F58" s="3">
-        <v>11281500</v>
+        <v>6087900</v>
       </c>
       <c r="G58" s="3">
-        <v>14365700</v>
+        <v>10910000</v>
       </c>
       <c r="H58" s="3">
-        <v>13155700</v>
+        <v>13892600</v>
       </c>
       <c r="I58" s="3">
-        <v>3776500</v>
+        <v>12722500</v>
       </c>
       <c r="J58" s="3">
+        <v>3652100</v>
+      </c>
+      <c r="K58" s="3">
         <v>6529700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5029300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4536800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2847300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5429700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4508500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4229900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2157200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3742700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3865500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4202800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3429100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3937900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20696300</v>
+        <v>19607500</v>
       </c>
       <c r="E59" s="3">
-        <v>21772400</v>
+        <v>20014700</v>
       </c>
       <c r="F59" s="3">
-        <v>19831500</v>
+        <v>21055500</v>
       </c>
       <c r="G59" s="3">
-        <v>18852300</v>
+        <v>19178500</v>
       </c>
       <c r="H59" s="3">
-        <v>19068300</v>
+        <v>18231500</v>
       </c>
       <c r="I59" s="3">
-        <v>18657000</v>
+        <v>18440300</v>
       </c>
       <c r="J59" s="3">
+        <v>18042600</v>
+      </c>
+      <c r="K59" s="3">
         <v>19847800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16505800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16298200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18290400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17134300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17568000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16763300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18258800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17693700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17628000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16719600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17137200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16265100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42625800</v>
+        <v>47557900</v>
       </c>
       <c r="E60" s="3">
-        <v>41878000</v>
+        <v>41222100</v>
       </c>
       <c r="F60" s="3">
-        <v>43305200</v>
+        <v>40499000</v>
       </c>
       <c r="G60" s="3">
-        <v>44675300</v>
+        <v>41879100</v>
       </c>
       <c r="H60" s="3">
-        <v>42229400</v>
+        <v>43204100</v>
       </c>
       <c r="I60" s="3">
-        <v>34009300</v>
+        <v>40838700</v>
       </c>
       <c r="J60" s="3">
+        <v>32889300</v>
+      </c>
+      <c r="K60" s="3">
         <v>38205800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32810500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32762900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34649400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>35349400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34815400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>33711400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34310400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34833500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34383200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33268500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33004000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>32111400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14949300</v>
+        <v>14424400</v>
       </c>
       <c r="E61" s="3">
-        <v>15544700</v>
+        <v>14457000</v>
       </c>
       <c r="F61" s="3">
-        <v>12408200</v>
+        <v>15032800</v>
       </c>
       <c r="G61" s="3">
-        <v>8508100</v>
+        <v>11999600</v>
       </c>
       <c r="H61" s="3">
-        <v>9083700</v>
+        <v>8228000</v>
       </c>
       <c r="I61" s="3">
-        <v>9752300</v>
+        <v>8784600</v>
       </c>
       <c r="J61" s="3">
+        <v>9431100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7705500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7720200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8081000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6808600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7076600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6652500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6755400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7337400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7529400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7629600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7261000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7007400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7631500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9808200</v>
+        <v>9636800</v>
       </c>
       <c r="E62" s="3">
-        <v>9942300</v>
+        <v>9485200</v>
       </c>
       <c r="F62" s="3">
-        <v>10739600</v>
+        <v>9614900</v>
       </c>
       <c r="G62" s="3">
-        <v>10980500</v>
+        <v>10385900</v>
       </c>
       <c r="H62" s="3">
-        <v>7534400</v>
+        <v>10618900</v>
       </c>
       <c r="I62" s="3">
-        <v>7831500</v>
+        <v>7286300</v>
       </c>
       <c r="J62" s="3">
+        <v>7573600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8011800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7935100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7819600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8631100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8503900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8634300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8575800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8930400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9587400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9519400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9427600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9367200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9692000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>75665300</v>
+        <v>79771300</v>
       </c>
       <c r="E66" s="3">
-        <v>75862200</v>
+        <v>73173600</v>
       </c>
       <c r="F66" s="3">
-        <v>72999400</v>
+        <v>73364000</v>
       </c>
       <c r="G66" s="3">
-        <v>70147500</v>
+        <v>70595400</v>
       </c>
       <c r="H66" s="3">
-        <v>64899500</v>
+        <v>67837500</v>
       </c>
       <c r="I66" s="3">
-        <v>61675600</v>
+        <v>62762300</v>
       </c>
       <c r="J66" s="3">
+        <v>59644500</v>
+      </c>
+      <c r="K66" s="3">
         <v>64242700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58617400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59031200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>61157900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61843400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61415400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59788500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61730400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>63059800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62347900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60372500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59400900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59920500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25375400</v>
+        <v>26296100</v>
       </c>
       <c r="E72" s="3">
-        <v>24693600</v>
+        <v>24539700</v>
       </c>
       <c r="F72" s="3">
-        <v>22700200</v>
+        <v>23880400</v>
       </c>
       <c r="G72" s="3">
-        <v>22716700</v>
+        <v>21952700</v>
       </c>
       <c r="H72" s="3">
-        <v>22556200</v>
+        <v>21968600</v>
       </c>
       <c r="I72" s="3">
-        <v>20918500</v>
+        <v>21813400</v>
       </c>
       <c r="J72" s="3">
+        <v>20229600</v>
+      </c>
+      <c r="K72" s="3">
         <v>20621300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>22424100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21711000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21983700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20149100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21201100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19948300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19032800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18040300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>17443200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16664700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>15909000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15530900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32741400</v>
+        <v>33697300</v>
       </c>
       <c r="E76" s="3">
-        <v>32117300</v>
+        <v>31663200</v>
       </c>
       <c r="F76" s="3">
-        <v>26677100</v>
+        <v>31059700</v>
       </c>
       <c r="G76" s="3">
-        <v>26564400</v>
+        <v>25798600</v>
       </c>
       <c r="H76" s="3">
-        <v>27662800</v>
+        <v>25689600</v>
       </c>
       <c r="I76" s="3">
-        <v>28787500</v>
+        <v>26751900</v>
       </c>
       <c r="J76" s="3">
+        <v>27839500</v>
+      </c>
+      <c r="K76" s="3">
         <v>29420500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30705700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30120900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31353600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29663100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32043600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30517000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29633300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29113400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28434800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27238300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26318000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25587900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1113500</v>
+        <v>1763900</v>
       </c>
       <c r="E81" s="3">
-        <v>1764900</v>
+        <v>1076900</v>
       </c>
       <c r="F81" s="3">
-        <v>520400</v>
+        <v>1706800</v>
       </c>
       <c r="G81" s="3">
-        <v>250600</v>
+        <v>503300</v>
       </c>
       <c r="H81" s="3">
-        <v>2033800</v>
+        <v>242300</v>
       </c>
       <c r="I81" s="3">
-        <v>295600</v>
+        <v>1966800</v>
       </c>
       <c r="J81" s="3">
+        <v>285900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>634000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1102000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1344600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>815200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>956700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>943800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>885600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>773300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>678600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>354800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>689800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1192800</v>
+        <v>1164000</v>
       </c>
       <c r="E83" s="3">
-        <v>1280400</v>
+        <v>1153500</v>
       </c>
       <c r="F83" s="3">
-        <v>1141100</v>
+        <v>1238200</v>
       </c>
       <c r="G83" s="3">
-        <v>1160700</v>
+        <v>1103500</v>
       </c>
       <c r="H83" s="3">
-        <v>896900</v>
+        <v>1122500</v>
       </c>
       <c r="I83" s="3">
-        <v>1062900</v>
+        <v>867300</v>
       </c>
       <c r="J83" s="3">
+        <v>1027900</v>
+      </c>
+      <c r="K83" s="3">
         <v>989800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>959000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>947800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>934400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>863000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>828800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>819700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>836100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>833100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>836900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>788400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>836200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>793900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1248700</v>
+        <v>214900</v>
       </c>
       <c r="E89" s="3">
-        <v>3340900</v>
+        <v>1207600</v>
       </c>
       <c r="F89" s="3">
-        <v>1930500</v>
+        <v>3230900</v>
       </c>
       <c r="G89" s="3">
-        <v>552900</v>
+        <v>1866900</v>
       </c>
       <c r="H89" s="3">
-        <v>1401100</v>
+        <v>534700</v>
       </c>
       <c r="I89" s="3">
-        <v>2305500</v>
+        <v>1354900</v>
       </c>
       <c r="J89" s="3">
+        <v>2229600</v>
+      </c>
+      <c r="K89" s="3">
         <v>930700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1165500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>722400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3917700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-91000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>721300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1221300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2295800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1760400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1369900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1147500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2221100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>835800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-606000</v>
+        <v>-637100</v>
       </c>
       <c r="E91" s="3">
-        <v>-807300</v>
+        <v>-586000</v>
       </c>
       <c r="F91" s="3">
-        <v>-478200</v>
+        <v>-780700</v>
       </c>
       <c r="G91" s="3">
-        <v>-551200</v>
+        <v>-462500</v>
       </c>
       <c r="H91" s="3">
-        <v>-484100</v>
+        <v>-533000</v>
       </c>
       <c r="I91" s="3">
-        <v>-821100</v>
+        <v>-468100</v>
       </c>
       <c r="J91" s="3">
+        <v>-794100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-595900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-811800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-723700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-857900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-898800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-883000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-934700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-889100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-64300</v>
+        <v>-8319900</v>
       </c>
       <c r="E94" s="3">
-        <v>2798900</v>
+        <v>-62100</v>
       </c>
       <c r="F94" s="3">
-        <v>-566600</v>
+        <v>2706700</v>
       </c>
       <c r="G94" s="3">
-        <v>-9668800</v>
+        <v>-547900</v>
       </c>
       <c r="H94" s="3">
-        <v>3256400</v>
+        <v>-9350400</v>
       </c>
       <c r="I94" s="3">
-        <v>-308000</v>
+        <v>3149200</v>
       </c>
       <c r="J94" s="3">
+        <v>-297800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-937000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-962900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>121300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-311700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-357900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-944800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-721200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-945800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>141000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6016,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-485000</v>
+        <v>900</v>
       </c>
       <c r="E96" s="3">
+        <v>-469000</v>
+      </c>
+      <c r="F96" s="3">
         <v>700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-441500</v>
-      </c>
       <c r="G96" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="H96" s="3">
         <v>1300</v>
       </c>
-      <c r="H96" s="3">
-        <v>-440600</v>
-      </c>
       <c r="I96" s="3">
+        <v>-426100</v>
+      </c>
+      <c r="J96" s="3">
         <v>600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-397200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>1500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-442700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-365100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-351500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-305900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-305900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-257400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>97500</v>
+        <v>5601800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5648300</v>
+        <v>94200</v>
       </c>
       <c r="F100" s="3">
-        <v>12300</v>
+        <v>-5462300</v>
       </c>
       <c r="G100" s="3">
-        <v>-846000</v>
+        <v>11900</v>
       </c>
       <c r="H100" s="3">
-        <v>4798100</v>
+        <v>-818100</v>
       </c>
       <c r="I100" s="3">
-        <v>-765700</v>
+        <v>4640100</v>
       </c>
       <c r="J100" s="3">
+        <v>-740400</v>
+      </c>
+      <c r="K100" s="3">
         <v>152600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>668100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-529700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-258300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>797900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-748700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-709100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>170400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-864900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49100</v>
+        <v>27400</v>
       </c>
       <c r="E101" s="3">
-        <v>407200</v>
+        <v>47500</v>
       </c>
       <c r="F101" s="3">
-        <v>57200</v>
+        <v>393800</v>
       </c>
       <c r="G101" s="3">
-        <v>21000</v>
+        <v>55400</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>20300</v>
       </c>
       <c r="I101" s="3">
-        <v>-158100</v>
+        <v>7200</v>
       </c>
       <c r="J101" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="K101" s="3">
         <v>171200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-128000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-189700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-170600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-254800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>99500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>107600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>59800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-122100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>530100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1331000</v>
+        <v>-2475800</v>
       </c>
       <c r="E102" s="3">
-        <v>898700</v>
+        <v>1287200</v>
       </c>
       <c r="F102" s="3">
-        <v>1433500</v>
+        <v>869100</v>
       </c>
       <c r="G102" s="3">
-        <v>-9940800</v>
+        <v>1386300</v>
       </c>
       <c r="H102" s="3">
-        <v>9463000</v>
+        <v>-9613500</v>
       </c>
       <c r="I102" s="3">
-        <v>1073800</v>
+        <v>9151400</v>
       </c>
       <c r="J102" s="3">
+        <v>1038400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>237900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>949900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>104000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1058400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>390000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-405400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>431900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>16200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-781600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21718700</v>
+        <v>21444400</v>
       </c>
       <c r="E8" s="3">
-        <v>20857100</v>
+        <v>21028400</v>
       </c>
       <c r="F8" s="3">
-        <v>24229200</v>
+        <v>20194200</v>
       </c>
       <c r="G8" s="3">
-        <v>19548900</v>
+        <v>23459200</v>
       </c>
       <c r="H8" s="3">
-        <v>19080500</v>
+        <v>18927600</v>
       </c>
       <c r="I8" s="3">
-        <v>14045600</v>
+        <v>18474100</v>
       </c>
       <c r="J8" s="3">
+        <v>13599200</v>
+      </c>
+      <c r="K8" s="3">
         <v>21347400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19339200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20114600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18618500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25924400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21628300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21607900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19688000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24359100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20770000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20681700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>18881600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23443000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19208300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16357600</v>
+        <v>16077700</v>
       </c>
       <c r="E9" s="3">
-        <v>15775800</v>
+        <v>15837700</v>
       </c>
       <c r="F9" s="3">
-        <v>18340600</v>
+        <v>15274400</v>
       </c>
       <c r="G9" s="3">
-        <v>14542600</v>
+        <v>17757700</v>
       </c>
       <c r="H9" s="3">
-        <v>14289700</v>
+        <v>14080400</v>
       </c>
       <c r="I9" s="3">
-        <v>10390800</v>
+        <v>13835500</v>
       </c>
       <c r="J9" s="3">
+        <v>10060500</v>
+      </c>
+      <c r="K9" s="3">
         <v>15555900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14178700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14579000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13633700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19379600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15751100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15728800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14420300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>17804700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15290000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15148400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>13830300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17433900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14170500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5361000</v>
+        <v>5366800</v>
       </c>
       <c r="E10" s="3">
-        <v>5081300</v>
+        <v>5190700</v>
       </c>
       <c r="F10" s="3">
-        <v>5888700</v>
+        <v>4919800</v>
       </c>
       <c r="G10" s="3">
-        <v>5006300</v>
+        <v>5701500</v>
       </c>
       <c r="H10" s="3">
-        <v>4790900</v>
+        <v>4847200</v>
       </c>
       <c r="I10" s="3">
-        <v>3654800</v>
+        <v>4638600</v>
       </c>
       <c r="J10" s="3">
+        <v>3538700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5791400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5160500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5535500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4984800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6544800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5877200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5879200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5267700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6554300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5479900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5533300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5051300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6009100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5037800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,35 +1142,38 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6400</v>
+        <v>68400</v>
       </c>
       <c r="E14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>-506400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-1026800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>298500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>356600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-2389500</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1194,8 +1213,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20143100</v>
+        <v>20025100</v>
       </c>
       <c r="E17" s="3">
-        <v>19719400</v>
+        <v>18990200</v>
       </c>
       <c r="F17" s="3">
-        <v>22658700</v>
+        <v>18796100</v>
       </c>
       <c r="G17" s="3">
-        <v>18349600</v>
+        <v>20911700</v>
       </c>
       <c r="H17" s="3">
-        <v>18002000</v>
+        <v>18064900</v>
       </c>
       <c r="I17" s="3">
-        <v>13531300</v>
+        <v>17786500</v>
       </c>
       <c r="J17" s="3">
+        <v>10711800</v>
+      </c>
+      <c r="K17" s="3">
         <v>19442200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17987000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18526400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17479100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23806000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19835200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19783000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18341400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>22188700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19221300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19132200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17689700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>21707800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18186600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1575600</v>
+        <v>1419300</v>
       </c>
       <c r="E18" s="3">
-        <v>1137700</v>
+        <v>2038100</v>
       </c>
       <c r="F18" s="3">
-        <v>1570500</v>
+        <v>1398200</v>
       </c>
       <c r="G18" s="3">
-        <v>1199300</v>
+        <v>2547500</v>
       </c>
       <c r="H18" s="3">
-        <v>1078500</v>
+        <v>862700</v>
       </c>
       <c r="I18" s="3">
-        <v>514200</v>
+        <v>687600</v>
       </c>
       <c r="J18" s="3">
+        <v>2887400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1905200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1352200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1588200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1139400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2118400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1793100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1824900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1346700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2170300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1548600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1549500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1191800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1735100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1021800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>713400</v>
+        <v>113000</v>
       </c>
       <c r="E20" s="3">
-        <v>389100</v>
+        <v>178100</v>
       </c>
       <c r="F20" s="3">
-        <v>1524100</v>
+        <v>80200</v>
       </c>
       <c r="G20" s="3">
-        <v>-128400</v>
+        <v>448800</v>
       </c>
       <c r="H20" s="3">
-        <v>-635100</v>
+        <v>174200</v>
       </c>
       <c r="I20" s="3">
-        <v>2517100</v>
+        <v>-258200</v>
       </c>
       <c r="J20" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-725600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-545700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>577900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-53600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-175700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>335400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-583700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>82700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-132600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>132400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-702400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>286900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3453000</v>
+        <v>2682000</v>
       </c>
       <c r="E21" s="3">
-        <v>2680300</v>
+        <v>3343200</v>
       </c>
       <c r="F21" s="3">
-        <v>4332800</v>
+        <v>2595200</v>
       </c>
       <c r="G21" s="3">
-        <v>2174400</v>
+        <v>4195100</v>
       </c>
       <c r="H21" s="3">
-        <v>1565900</v>
+        <v>2105300</v>
       </c>
       <c r="I21" s="3">
-        <v>3898600</v>
+        <v>1516100</v>
       </c>
       <c r="J21" s="3">
+        <v>3774700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2207500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2001500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2665100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2999300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>481600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2478000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2501800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2422700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2464400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2253700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2112600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1868900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2102600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57800</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>56900</v>
+        <v>56000</v>
       </c>
       <c r="F22" s="3">
-        <v>50900</v>
+        <v>55100</v>
       </c>
       <c r="G22" s="3">
-        <v>60300</v>
+        <v>49300</v>
       </c>
       <c r="H22" s="3">
-        <v>51000</v>
+        <v>58400</v>
       </c>
       <c r="I22" s="3">
-        <v>38500</v>
+        <v>49400</v>
       </c>
       <c r="J22" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K22" s="3">
         <v>50600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>57400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>41700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>48500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>44600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>38100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>42000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2231200</v>
+        <v>1477000</v>
       </c>
       <c r="E23" s="3">
-        <v>1470000</v>
+        <v>2160200</v>
       </c>
       <c r="F23" s="3">
-        <v>3043700</v>
+        <v>1423300</v>
       </c>
       <c r="G23" s="3">
-        <v>1010600</v>
+        <v>2947000</v>
       </c>
       <c r="H23" s="3">
-        <v>392400</v>
+        <v>978400</v>
       </c>
       <c r="I23" s="3">
-        <v>2992800</v>
+        <v>380000</v>
       </c>
       <c r="J23" s="3">
+        <v>2897700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1129000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>984300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1665900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2015600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-435700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1602100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1640400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1541300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1582800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1369600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1279600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>994600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1266600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227200</v>
+        <v>216000</v>
       </c>
       <c r="E24" s="3">
-        <v>263500</v>
+        <v>220000</v>
       </c>
       <c r="F24" s="3">
-        <v>1242600</v>
+        <v>255100</v>
       </c>
       <c r="G24" s="3">
-        <v>417100</v>
+        <v>1203100</v>
       </c>
       <c r="H24" s="3">
-        <v>211200</v>
+        <v>403900</v>
       </c>
       <c r="I24" s="3">
-        <v>994500</v>
+        <v>204500</v>
       </c>
       <c r="J24" s="3">
+        <v>962900</v>
+      </c>
+      <c r="K24" s="3">
         <v>762200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>454200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>377600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>469000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>422800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>407300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>444600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>137800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>394200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>340500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>318200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>339400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>295300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2004000</v>
+        <v>1261000</v>
       </c>
       <c r="E26" s="3">
-        <v>1206500</v>
+        <v>1940300</v>
       </c>
       <c r="F26" s="3">
-        <v>1801100</v>
+        <v>1168200</v>
       </c>
       <c r="G26" s="3">
-        <v>593400</v>
+        <v>1743900</v>
       </c>
       <c r="H26" s="3">
-        <v>181200</v>
+        <v>574500</v>
       </c>
       <c r="I26" s="3">
-        <v>1998400</v>
+        <v>175500</v>
       </c>
       <c r="J26" s="3">
+        <v>1934800</v>
+      </c>
+      <c r="K26" s="3">
         <v>366800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>530100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1288300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1546600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-858600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1194900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1195800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1403500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1188600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1029200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>961500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>655200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>971300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1763900</v>
+        <v>1094700</v>
       </c>
       <c r="E27" s="3">
-        <v>1076900</v>
+        <v>1707800</v>
       </c>
       <c r="F27" s="3">
-        <v>1706800</v>
+        <v>1042600</v>
       </c>
       <c r="G27" s="3">
-        <v>503300</v>
+        <v>1652600</v>
       </c>
       <c r="H27" s="3">
-        <v>245400</v>
+        <v>487300</v>
       </c>
       <c r="I27" s="3">
-        <v>1969800</v>
+        <v>237600</v>
       </c>
       <c r="J27" s="3">
+        <v>1907200</v>
+      </c>
+      <c r="K27" s="3">
         <v>291100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>637600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1105700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1390100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>907000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>903300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1089500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>873200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>784200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>679200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>399800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>697700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,58 +2137,61 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-3100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>-3000</v>
       </c>
       <c r="J29" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-3600</v>
       </c>
       <c r="L29" s="3">
         <v>-3600</v>
       </c>
       <c r="M29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-45500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-91800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>53400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-145700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>12400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-10900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-45100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-7900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-713400</v>
+        <v>-113000</v>
       </c>
       <c r="E32" s="3">
-        <v>-389100</v>
+        <v>-178100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1524100</v>
+        <v>-80200</v>
       </c>
       <c r="G32" s="3">
-        <v>128400</v>
+        <v>-448800</v>
       </c>
       <c r="H32" s="3">
-        <v>635100</v>
+        <v>-174200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2517100</v>
+        <v>258200</v>
       </c>
       <c r="J32" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="K32" s="3">
         <v>725600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3452500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>545700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-577900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>53600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2174600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>175700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-335400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>583700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-82700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>132600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-132400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>702400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-286900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1763900</v>
+        <v>1094700</v>
       </c>
       <c r="E33" s="3">
-        <v>1076900</v>
+        <v>1707800</v>
       </c>
       <c r="F33" s="3">
-        <v>1706800</v>
+        <v>1042600</v>
       </c>
       <c r="G33" s="3">
-        <v>503300</v>
+        <v>1652600</v>
       </c>
       <c r="H33" s="3">
-        <v>242300</v>
+        <v>487300</v>
       </c>
       <c r="I33" s="3">
-        <v>1966800</v>
+        <v>234600</v>
       </c>
       <c r="J33" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="K33" s="3">
         <v>285900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>634000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1102000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1344600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>815200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>956700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>943800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>885600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>773300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>678600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>354800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>689800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1763900</v>
+        <v>1094700</v>
       </c>
       <c r="E35" s="3">
-        <v>1076900</v>
+        <v>1707800</v>
       </c>
       <c r="F35" s="3">
-        <v>1706800</v>
+        <v>1042600</v>
       </c>
       <c r="G35" s="3">
-        <v>503300</v>
+        <v>1652600</v>
       </c>
       <c r="H35" s="3">
-        <v>242300</v>
+        <v>487300</v>
       </c>
       <c r="I35" s="3">
-        <v>1966800</v>
+        <v>234600</v>
       </c>
       <c r="J35" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="K35" s="3">
         <v>285900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>634000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1102000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1344600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>815200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>956700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>943800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>885600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>773300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>678600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>354800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>689800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,135 +2745,139 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7761300</v>
+        <v>8446400</v>
       </c>
       <c r="E41" s="3">
-        <v>10237100</v>
+        <v>7514600</v>
       </c>
       <c r="F41" s="3">
-        <v>8950000</v>
+        <v>9911800</v>
       </c>
       <c r="G41" s="3">
-        <v>8080900</v>
+        <v>8665500</v>
       </c>
       <c r="H41" s="3">
-        <v>6694600</v>
+        <v>7824000</v>
       </c>
       <c r="I41" s="3">
-        <v>16308000</v>
+        <v>6481800</v>
       </c>
       <c r="J41" s="3">
+        <v>15789700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7156600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6326500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7735200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7635500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7761000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6690600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7669800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7402900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6309600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7334400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6944300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7349700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6787700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6771500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2980400</v>
+        <v>2555900</v>
       </c>
       <c r="E42" s="3">
-        <v>2896300</v>
+        <v>2885700</v>
       </c>
       <c r="F42" s="3">
-        <v>2891000</v>
+        <v>2804200</v>
       </c>
       <c r="G42" s="3">
-        <v>2690300</v>
+        <v>2799100</v>
       </c>
       <c r="H42" s="3">
-        <v>2534400</v>
+        <v>2604800</v>
       </c>
       <c r="I42" s="3">
-        <v>2250800</v>
+        <v>2453800</v>
       </c>
       <c r="J42" s="3">
+        <v>2179300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2466400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2925600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2532000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2600300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2731800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3037900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2792200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3453500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3374800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2939900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2708500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
@@ -2796,484 +2885,508 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22572200</v>
+        <v>22876300</v>
       </c>
       <c r="E43" s="3">
-        <v>21961800</v>
+        <v>21854800</v>
       </c>
       <c r="F43" s="3">
-        <v>24090700</v>
+        <v>21263800</v>
       </c>
       <c r="G43" s="3">
-        <v>20811600</v>
+        <v>23325100</v>
       </c>
       <c r="H43" s="3">
-        <v>20241500</v>
+        <v>20150200</v>
       </c>
       <c r="I43" s="3">
-        <v>15361800</v>
+        <v>19598200</v>
       </c>
       <c r="J43" s="3">
+        <v>14873600</v>
+      </c>
+      <c r="K43" s="3">
         <v>19912400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19995800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19820500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19347400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>23063400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20887500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20792200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19477900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22612800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20017900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21216900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19871600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21957800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19728100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16344800</v>
+        <v>17238200</v>
       </c>
       <c r="E44" s="3">
-        <v>15835800</v>
+        <v>15825300</v>
       </c>
       <c r="F44" s="3">
-        <v>14566400</v>
+        <v>15332500</v>
       </c>
       <c r="G44" s="3">
-        <v>14697900</v>
+        <v>14103500</v>
       </c>
       <c r="H44" s="3">
-        <v>13811600</v>
+        <v>14230700</v>
       </c>
       <c r="I44" s="3">
-        <v>12753500</v>
+        <v>13372700</v>
       </c>
       <c r="J44" s="3">
+        <v>12348200</v>
+      </c>
+      <c r="K44" s="3">
         <v>12412700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>14707900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13615300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13569800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13038500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14975900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13820200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13141900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12432100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14097600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12782800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12369500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10873800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12655400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2530100</v>
+        <v>3174700</v>
       </c>
       <c r="E45" s="3">
-        <v>2179500</v>
+        <v>2449700</v>
       </c>
       <c r="F45" s="3">
-        <v>1862300</v>
+        <v>2110200</v>
       </c>
       <c r="G45" s="3">
-        <v>2020600</v>
+        <v>1803200</v>
       </c>
       <c r="H45" s="3">
-        <v>2072800</v>
+        <v>1956400</v>
       </c>
       <c r="I45" s="3">
-        <v>4248500</v>
+        <v>2006900</v>
       </c>
       <c r="J45" s="3">
+        <v>4113500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4018800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6546100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2042700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2117200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1799400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2361700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2166700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2156900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1842900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2258300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2187200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2212300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4753800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4708100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52188800</v>
+        <v>54291500</v>
       </c>
       <c r="E46" s="3">
-        <v>53110400</v>
+        <v>50530200</v>
       </c>
       <c r="F46" s="3">
-        <v>52360500</v>
+        <v>51422500</v>
       </c>
       <c r="G46" s="3">
-        <v>48301200</v>
+        <v>50696300</v>
       </c>
       <c r="H46" s="3">
-        <v>45354900</v>
+        <v>46766100</v>
       </c>
       <c r="I46" s="3">
-        <v>50922700</v>
+        <v>43913400</v>
       </c>
       <c r="J46" s="3">
+        <v>49304300</v>
+      </c>
+      <c r="K46" s="3">
         <v>45967000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50502000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45745800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45270100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>48394000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47953500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47241100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45633100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>46572300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46648100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45839800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45304800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>44373100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>43863100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8682700</v>
+        <v>8472900</v>
       </c>
       <c r="E47" s="3">
-        <v>8507900</v>
+        <v>8406700</v>
       </c>
       <c r="F47" s="3">
-        <v>8866600</v>
+        <v>8237500</v>
       </c>
       <c r="G47" s="3">
-        <v>8013800</v>
+        <v>8584800</v>
       </c>
       <c r="H47" s="3">
-        <v>7987900</v>
+        <v>7759100</v>
       </c>
       <c r="I47" s="3">
-        <v>7952600</v>
+        <v>7734000</v>
       </c>
       <c r="J47" s="3">
+        <v>7699800</v>
+      </c>
+      <c r="K47" s="3">
         <v>8113000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9074100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12086600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11909900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12423900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12268900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12733300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12636400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13196900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13425300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13164700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12783700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12515200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13097300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21062900</v>
+        <v>20647900</v>
       </c>
       <c r="E48" s="3">
-        <v>21158800</v>
+        <v>20393500</v>
       </c>
       <c r="F48" s="3">
-        <v>21222300</v>
+        <v>20486400</v>
       </c>
       <c r="G48" s="3">
-        <v>18848300</v>
+        <v>20547800</v>
       </c>
       <c r="H48" s="3">
-        <v>18880200</v>
+        <v>18249300</v>
       </c>
       <c r="I48" s="3">
-        <v>17060100</v>
+        <v>18280200</v>
       </c>
       <c r="J48" s="3">
+        <v>16517900</v>
+      </c>
+      <c r="K48" s="3">
         <v>19076400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20106600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19703700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19759100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18803700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18389900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20003800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19357100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19208400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19232200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18881700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18246800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17725900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17662900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28234700</v>
+        <v>27699100</v>
       </c>
       <c r="E49" s="3">
-        <v>18719400</v>
+        <v>27337300</v>
       </c>
       <c r="F49" s="3">
-        <v>18730400</v>
+        <v>18124500</v>
       </c>
       <c r="G49" s="3">
-        <v>17057700</v>
+        <v>18135100</v>
       </c>
       <c r="H49" s="3">
-        <v>17123900</v>
+        <v>16515500</v>
       </c>
       <c r="I49" s="3">
-        <v>9334900</v>
+        <v>16579700</v>
       </c>
       <c r="J49" s="3">
+        <v>9038200</v>
+      </c>
+      <c r="K49" s="3">
         <v>9829500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10478300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8381100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8770800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9225800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9348100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9968300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9621800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9531500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10139000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10111900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8483100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8153300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8193600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3299500</v>
+        <v>3394200</v>
       </c>
       <c r="E52" s="3">
-        <v>3340200</v>
+        <v>3194600</v>
       </c>
       <c r="F52" s="3">
-        <v>3243800</v>
+        <v>3234000</v>
       </c>
       <c r="G52" s="3">
-        <v>4173000</v>
+        <v>3140700</v>
       </c>
       <c r="H52" s="3">
-        <v>4180300</v>
+        <v>4040400</v>
       </c>
       <c r="I52" s="3">
-        <v>4243900</v>
+        <v>4047400</v>
       </c>
       <c r="J52" s="3">
+        <v>4109000</v>
+      </c>
+      <c r="K52" s="3">
         <v>4498100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3502200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3405900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3442200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3664200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3546200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3512500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3057200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2854500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2728600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2784700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2792500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2951400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2691400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113468600</v>
+        <v>114505700</v>
       </c>
       <c r="E54" s="3">
-        <v>104836800</v>
+        <v>109862300</v>
       </c>
       <c r="F54" s="3">
-        <v>104423600</v>
+        <v>101504800</v>
       </c>
       <c r="G54" s="3">
-        <v>96394000</v>
+        <v>101104800</v>
       </c>
       <c r="H54" s="3">
-        <v>93527100</v>
+        <v>93330400</v>
       </c>
       <c r="I54" s="3">
-        <v>89514100</v>
+        <v>90554600</v>
       </c>
       <c r="J54" s="3">
+        <v>86669200</v>
+      </c>
+      <c r="K54" s="3">
         <v>87484000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93663200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89323100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89152000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>92511500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>91506600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93459000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>90305500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91363700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92173200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>90782700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>87610900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>85718900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>85508400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13181500</v>
+        <v>13605700</v>
       </c>
       <c r="E57" s="3">
-        <v>13357600</v>
+        <v>12762500</v>
       </c>
       <c r="F57" s="3">
-        <v>13355600</v>
+        <v>12933000</v>
       </c>
       <c r="G57" s="3">
-        <v>11790600</v>
+        <v>12931100</v>
       </c>
       <c r="H57" s="3">
-        <v>11080000</v>
+        <v>11415900</v>
       </c>
       <c r="I57" s="3">
-        <v>9675900</v>
+        <v>10727800</v>
       </c>
       <c r="J57" s="3">
+        <v>9368400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11194600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11828400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11275400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11927900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13511800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12785400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12738900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12718200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13894300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13397100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12889700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12346100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12437800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>11908500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14768900</v>
+        <v>16192600</v>
       </c>
       <c r="E58" s="3">
-        <v>7849800</v>
+        <v>14299500</v>
       </c>
       <c r="F58" s="3">
-        <v>6087900</v>
+        <v>7600300</v>
       </c>
       <c r="G58" s="3">
-        <v>10910000</v>
+        <v>5894500</v>
       </c>
       <c r="H58" s="3">
-        <v>13892600</v>
+        <v>10563300</v>
       </c>
       <c r="I58" s="3">
-        <v>12722500</v>
+        <v>13451100</v>
       </c>
       <c r="J58" s="3">
+        <v>12318200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3652100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6529700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5029300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4536800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2847300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5429700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4508500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4229900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2157200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3742700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3865500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4202800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3429100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3937900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19607500</v>
+        <v>19630200</v>
       </c>
       <c r="E59" s="3">
-        <v>20014700</v>
+        <v>18984300</v>
       </c>
       <c r="F59" s="3">
-        <v>21055500</v>
+        <v>19378600</v>
       </c>
       <c r="G59" s="3">
-        <v>19178500</v>
+        <v>20386300</v>
       </c>
       <c r="H59" s="3">
-        <v>18231500</v>
+        <v>18568900</v>
       </c>
       <c r="I59" s="3">
-        <v>18440300</v>
+        <v>17652100</v>
       </c>
       <c r="J59" s="3">
+        <v>17854300</v>
+      </c>
+      <c r="K59" s="3">
         <v>18042600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19847800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16505800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16298200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18290400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17134300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17568000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16763300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18258800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17693700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17628000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16719600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17137200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16265100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47557900</v>
+        <v>49428500</v>
       </c>
       <c r="E60" s="3">
-        <v>41222100</v>
+        <v>46046400</v>
       </c>
       <c r="F60" s="3">
-        <v>40499000</v>
+        <v>39912000</v>
       </c>
       <c r="G60" s="3">
-        <v>41879100</v>
+        <v>39211800</v>
       </c>
       <c r="H60" s="3">
-        <v>43204100</v>
+        <v>40548100</v>
       </c>
       <c r="I60" s="3">
-        <v>40838700</v>
+        <v>41831000</v>
       </c>
       <c r="J60" s="3">
+        <v>39540800</v>
+      </c>
+      <c r="K60" s="3">
         <v>32889300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38205800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32810500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32762900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34649400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>35349400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34815400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>33711400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34310400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34833500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34383200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33268500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33004000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>32111400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14424400</v>
+        <v>13805500</v>
       </c>
       <c r="E61" s="3">
-        <v>14457000</v>
+        <v>13966000</v>
       </c>
       <c r="F61" s="3">
-        <v>15032800</v>
+        <v>13997600</v>
       </c>
       <c r="G61" s="3">
-        <v>11999600</v>
+        <v>14555000</v>
       </c>
       <c r="H61" s="3">
-        <v>8228000</v>
+        <v>11618200</v>
       </c>
       <c r="I61" s="3">
-        <v>8784600</v>
+        <v>7966500</v>
       </c>
       <c r="J61" s="3">
+        <v>8505400</v>
+      </c>
+      <c r="K61" s="3">
         <v>9431100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7705500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7720200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8081000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6808600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7076600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6652500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6755400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7337400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7529400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7629600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7261000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7007400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7631500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9636800</v>
+        <v>9462900</v>
       </c>
       <c r="E62" s="3">
-        <v>9485200</v>
+        <v>9330500</v>
       </c>
       <c r="F62" s="3">
-        <v>9614900</v>
+        <v>9183800</v>
       </c>
       <c r="G62" s="3">
-        <v>10385900</v>
+        <v>9309300</v>
       </c>
       <c r="H62" s="3">
-        <v>10618900</v>
+        <v>10055800</v>
       </c>
       <c r="I62" s="3">
-        <v>7286300</v>
+        <v>10281400</v>
       </c>
       <c r="J62" s="3">
+        <v>7054800</v>
+      </c>
+      <c r="K62" s="3">
         <v>7573600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8011800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7935100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7819600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8631100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8503900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8634300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8575800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8930400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9587400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9519400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9427600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9367200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9692000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>79771300</v>
+        <v>80810900</v>
       </c>
       <c r="E66" s="3">
-        <v>73173600</v>
+        <v>77236000</v>
       </c>
       <c r="F66" s="3">
-        <v>73364000</v>
+        <v>70848000</v>
       </c>
       <c r="G66" s="3">
-        <v>70595400</v>
+        <v>71032300</v>
       </c>
       <c r="H66" s="3">
-        <v>67837500</v>
+        <v>68351800</v>
       </c>
       <c r="I66" s="3">
-        <v>62762300</v>
+        <v>65681500</v>
       </c>
       <c r="J66" s="3">
+        <v>60767600</v>
+      </c>
+      <c r="K66" s="3">
         <v>59644500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64242700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58617400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59031200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>61157900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61843400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61415400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59788500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61730400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>63059800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62347900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60372500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59400900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59920500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26296100</v>
+        <v>26058300</v>
       </c>
       <c r="E72" s="3">
-        <v>24539700</v>
+        <v>25460300</v>
       </c>
       <c r="F72" s="3">
-        <v>23880400</v>
+        <v>23759800</v>
       </c>
       <c r="G72" s="3">
-        <v>21952700</v>
+        <v>23121500</v>
       </c>
       <c r="H72" s="3">
-        <v>21968600</v>
+        <v>21255000</v>
       </c>
       <c r="I72" s="3">
-        <v>21813400</v>
+        <v>21270400</v>
       </c>
       <c r="J72" s="3">
+        <v>21120100</v>
+      </c>
+      <c r="K72" s="3">
         <v>20229600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20621300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22424100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21711000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21983700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20149100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21201100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19948300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19032800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18040300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>17443200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16664700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>15909000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15530900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33697300</v>
+        <v>33694800</v>
       </c>
       <c r="E76" s="3">
-        <v>31663200</v>
+        <v>32626300</v>
       </c>
       <c r="F76" s="3">
-        <v>31059700</v>
+        <v>30656800</v>
       </c>
       <c r="G76" s="3">
-        <v>25798600</v>
+        <v>30072500</v>
       </c>
       <c r="H76" s="3">
-        <v>25689600</v>
+        <v>24978600</v>
       </c>
       <c r="I76" s="3">
-        <v>26751900</v>
+        <v>24873100</v>
       </c>
       <c r="J76" s="3">
+        <v>25901600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27839500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29420500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30705700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30120900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31353600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29663100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32043600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30517000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29633300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29113400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28434800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27238300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26318000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25587900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1763900</v>
+        <v>1094700</v>
       </c>
       <c r="E81" s="3">
-        <v>1076900</v>
+        <v>1707800</v>
       </c>
       <c r="F81" s="3">
-        <v>1706800</v>
+        <v>1042600</v>
       </c>
       <c r="G81" s="3">
-        <v>503300</v>
+        <v>1652600</v>
       </c>
       <c r="H81" s="3">
-        <v>242300</v>
+        <v>487300</v>
       </c>
       <c r="I81" s="3">
-        <v>1966800</v>
+        <v>234600</v>
       </c>
       <c r="J81" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="K81" s="3">
         <v>285900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>634000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1102000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1344600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>815200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>956700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>943800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>885600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>773300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>678600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>354800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>689800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1164000</v>
+        <v>1149700</v>
       </c>
       <c r="E83" s="3">
-        <v>1153500</v>
+        <v>1127000</v>
       </c>
       <c r="F83" s="3">
-        <v>1238200</v>
+        <v>1116800</v>
       </c>
       <c r="G83" s="3">
-        <v>1103500</v>
+        <v>1198900</v>
       </c>
       <c r="H83" s="3">
-        <v>1122500</v>
+        <v>1068500</v>
       </c>
       <c r="I83" s="3">
-        <v>867300</v>
+        <v>1086800</v>
       </c>
       <c r="J83" s="3">
+        <v>839800</v>
+      </c>
+      <c r="K83" s="3">
         <v>1027900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>989800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>959000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>947800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>934400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>863000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>828800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>819700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>836100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>833100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>836900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>788400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>836200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>793900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>214900</v>
+        <v>816200</v>
       </c>
       <c r="E89" s="3">
-        <v>1207600</v>
+        <v>208100</v>
       </c>
       <c r="F89" s="3">
-        <v>3230900</v>
+        <v>1169200</v>
       </c>
       <c r="G89" s="3">
-        <v>1866900</v>
+        <v>3128200</v>
       </c>
       <c r="H89" s="3">
-        <v>534700</v>
+        <v>1807600</v>
       </c>
       <c r="I89" s="3">
-        <v>1354900</v>
+        <v>517700</v>
       </c>
       <c r="J89" s="3">
+        <v>1311900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2229600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>930700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1165500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>722400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3917700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-91000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>721300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1221300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2295800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1760400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1369900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1147500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2221100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>835800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-637100</v>
+        <v>-590100</v>
       </c>
       <c r="E91" s="3">
-        <v>-586000</v>
+        <v>-616800</v>
       </c>
       <c r="F91" s="3">
-        <v>-780700</v>
+        <v>-567400</v>
       </c>
       <c r="G91" s="3">
-        <v>-462500</v>
+        <v>-755900</v>
       </c>
       <c r="H91" s="3">
-        <v>-533000</v>
+        <v>-447800</v>
       </c>
       <c r="I91" s="3">
-        <v>-468100</v>
+        <v>-516100</v>
       </c>
       <c r="J91" s="3">
+        <v>-453200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-794100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-595900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-811800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-723700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-857900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-898800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-883000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-934700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-889100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8319900</v>
+        <v>-650800</v>
       </c>
       <c r="E94" s="3">
-        <v>-62100</v>
+        <v>-8055500</v>
       </c>
       <c r="F94" s="3">
-        <v>2706700</v>
+        <v>-60200</v>
       </c>
       <c r="G94" s="3">
-        <v>-547900</v>
+        <v>2620700</v>
       </c>
       <c r="H94" s="3">
-        <v>-9350400</v>
+        <v>-530500</v>
       </c>
       <c r="I94" s="3">
-        <v>3149200</v>
+        <v>-9053200</v>
       </c>
       <c r="J94" s="3">
+        <v>3049100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-297800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-937000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-962900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>121300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-311700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-944800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-721200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-945800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>141000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,76 +6249,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-495600</v>
+      </c>
+      <c r="E96" s="3">
         <v>900</v>
       </c>
-      <c r="E96" s="3">
-        <v>-469000</v>
-      </c>
       <c r="F96" s="3">
+        <v>-454100</v>
+      </c>
+      <c r="G96" s="3">
         <v>700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-427000</v>
-      </c>
       <c r="H96" s="3">
-        <v>1300</v>
+        <v>-413400</v>
       </c>
       <c r="I96" s="3">
-        <v>-426100</v>
+        <v>1200</v>
       </c>
       <c r="J96" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="K96" s="3">
         <v>600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-397200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>1500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-442700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-365100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-351500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-305900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-305900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-257400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5601800</v>
+        <v>542400</v>
       </c>
       <c r="E100" s="3">
-        <v>94200</v>
+        <v>5423700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5462300</v>
+        <v>91300</v>
       </c>
       <c r="G100" s="3">
-        <v>11900</v>
+        <v>-5288700</v>
       </c>
       <c r="H100" s="3">
-        <v>-818100</v>
+        <v>11500</v>
       </c>
       <c r="I100" s="3">
-        <v>4640100</v>
+        <v>-792100</v>
       </c>
       <c r="J100" s="3">
+        <v>4492600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-740400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>152600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>668100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-529700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-258300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>797900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-748700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-709100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>170400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-864900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27400</v>
+        <v>223900</v>
       </c>
       <c r="E101" s="3">
-        <v>47500</v>
+        <v>26600</v>
       </c>
       <c r="F101" s="3">
-        <v>393800</v>
+        <v>46000</v>
       </c>
       <c r="G101" s="3">
-        <v>55400</v>
+        <v>381300</v>
       </c>
       <c r="H101" s="3">
-        <v>20300</v>
+        <v>53600</v>
       </c>
       <c r="I101" s="3">
-        <v>7200</v>
+        <v>19700</v>
       </c>
       <c r="J101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-152900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>171200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-128000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-189700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-170600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-254800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>99500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>107600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>59800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-122100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>530100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2475800</v>
+        <v>931800</v>
       </c>
       <c r="E102" s="3">
-        <v>1287200</v>
+        <v>-2397100</v>
       </c>
       <c r="F102" s="3">
-        <v>869100</v>
+        <v>1246300</v>
       </c>
       <c r="G102" s="3">
-        <v>1386300</v>
+        <v>841500</v>
       </c>
       <c r="H102" s="3">
-        <v>-9613500</v>
+        <v>1342200</v>
       </c>
       <c r="I102" s="3">
-        <v>9151400</v>
+        <v>-9307900</v>
       </c>
       <c r="J102" s="3">
+        <v>8860600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1038400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>74800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>237900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>949900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>104000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1058400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>390000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-405400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>431900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-781600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,333 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21444400</v>
+        <v>22730700</v>
       </c>
       <c r="E8" s="3">
-        <v>21028400</v>
+        <v>19584100</v>
       </c>
       <c r="F8" s="3">
-        <v>20194200</v>
+        <v>19204100</v>
       </c>
       <c r="G8" s="3">
-        <v>23459200</v>
+        <v>18442300</v>
       </c>
       <c r="H8" s="3">
-        <v>18927600</v>
+        <v>21424000</v>
       </c>
       <c r="I8" s="3">
-        <v>18474100</v>
+        <v>17285600</v>
       </c>
       <c r="J8" s="3">
+        <v>16871400</v>
+      </c>
+      <c r="K8" s="3">
         <v>13599200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21347400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19339200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20114600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18618500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25924400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21628300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21607900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19688000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>24359100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20770000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20681700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>18881600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23443000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19208300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16077700</v>
+        <v>16933600</v>
       </c>
       <c r="E9" s="3">
-        <v>15837700</v>
+        <v>14682900</v>
       </c>
       <c r="F9" s="3">
-        <v>15274400</v>
+        <v>14463800</v>
       </c>
       <c r="G9" s="3">
-        <v>17757700</v>
+        <v>13949300</v>
       </c>
       <c r="H9" s="3">
-        <v>14080400</v>
+        <v>16217100</v>
       </c>
       <c r="I9" s="3">
-        <v>13835500</v>
+        <v>12858900</v>
       </c>
       <c r="J9" s="3">
+        <v>12635200</v>
+      </c>
+      <c r="K9" s="3">
         <v>10060500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15555900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14178700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14579000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13633700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19379600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15751100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15728800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14420300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>17804700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15290000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15148400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13830300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17433900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14170500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5366800</v>
+        <v>5797100</v>
       </c>
       <c r="E10" s="3">
-        <v>5190700</v>
+        <v>4901200</v>
       </c>
       <c r="F10" s="3">
-        <v>4919800</v>
+        <v>4740400</v>
       </c>
       <c r="G10" s="3">
-        <v>5701500</v>
+        <v>4493000</v>
       </c>
       <c r="H10" s="3">
-        <v>4847200</v>
+        <v>5206900</v>
       </c>
       <c r="I10" s="3">
-        <v>4638600</v>
+        <v>4426700</v>
       </c>
       <c r="J10" s="3">
+        <v>4236200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3538700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5791400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5160500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5535500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4984800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6544800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5877200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5879200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5267700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6554300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5479900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5533300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5051300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6009100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5037800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,38 +1163,41 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>68400</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-506400</v>
+        <v>62400</v>
       </c>
       <c r="F14" s="3">
-        <v>-285100</v>
+        <v>-462500</v>
       </c>
       <c r="G14" s="3">
-        <v>-1026800</v>
+        <v>-260400</v>
       </c>
       <c r="H14" s="3">
-        <v>298500</v>
+        <v>-937800</v>
       </c>
       <c r="I14" s="3">
-        <v>356600</v>
+        <v>272600</v>
       </c>
       <c r="J14" s="3">
+        <v>325700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2389500</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1216,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20025100</v>
+        <v>20753800</v>
       </c>
       <c r="E17" s="3">
-        <v>18990200</v>
+        <v>18287900</v>
       </c>
       <c r="F17" s="3">
-        <v>18796100</v>
+        <v>17342800</v>
       </c>
       <c r="G17" s="3">
-        <v>20911700</v>
+        <v>17165500</v>
       </c>
       <c r="H17" s="3">
-        <v>18064900</v>
+        <v>19097600</v>
       </c>
       <c r="I17" s="3">
-        <v>17786500</v>
+        <v>16497700</v>
       </c>
       <c r="J17" s="3">
+        <v>16243500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10711800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19442200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17987000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18526400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17479100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23806000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19835200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19783000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18341400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22188700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19221300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19132200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17689700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>21707800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18186600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1419300</v>
+        <v>1976900</v>
       </c>
       <c r="E18" s="3">
-        <v>2038100</v>
+        <v>1296200</v>
       </c>
       <c r="F18" s="3">
-        <v>1398200</v>
+        <v>1861300</v>
       </c>
       <c r="G18" s="3">
-        <v>2547500</v>
+        <v>1276900</v>
       </c>
       <c r="H18" s="3">
-        <v>862700</v>
+        <v>2326500</v>
       </c>
       <c r="I18" s="3">
-        <v>687600</v>
+        <v>787800</v>
       </c>
       <c r="J18" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2887400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1905200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1352200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1588200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1139400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2118400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1793100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1824900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1346700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2170300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1548600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1549500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1191800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1735100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1021800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>113000</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>178100</v>
+        <v>103200</v>
       </c>
       <c r="F20" s="3">
-        <v>80200</v>
+        <v>162600</v>
       </c>
       <c r="G20" s="3">
-        <v>448800</v>
+        <v>73200</v>
       </c>
       <c r="H20" s="3">
-        <v>174200</v>
+        <v>409800</v>
       </c>
       <c r="I20" s="3">
-        <v>-258200</v>
+        <v>159100</v>
       </c>
       <c r="J20" s="3">
+        <v>-235800</v>
+      </c>
+      <c r="K20" s="3">
         <v>47600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-725600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-545700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>577900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-53600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-175700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>335400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-583700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>82700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-132600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>132400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-702400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>286900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2682000</v>
+        <v>3085600</v>
       </c>
       <c r="E21" s="3">
-        <v>3343200</v>
+        <v>2449400</v>
       </c>
       <c r="F21" s="3">
-        <v>2595200</v>
+        <v>3053200</v>
       </c>
       <c r="G21" s="3">
-        <v>4195100</v>
+        <v>2370000</v>
       </c>
       <c r="H21" s="3">
-        <v>2105300</v>
+        <v>3831200</v>
       </c>
       <c r="I21" s="3">
-        <v>1516100</v>
+        <v>1922700</v>
       </c>
       <c r="J21" s="3">
+        <v>1384600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3774700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2207500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2001500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2665100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2999300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>481600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2478000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2501800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2422700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2464400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2253700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2112600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1868900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2102600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>59200</v>
       </c>
       <c r="E22" s="3">
-        <v>56000</v>
+        <v>50600</v>
       </c>
       <c r="F22" s="3">
-        <v>55100</v>
+        <v>51100</v>
       </c>
       <c r="G22" s="3">
-        <v>49300</v>
+        <v>50300</v>
       </c>
       <c r="H22" s="3">
-        <v>58400</v>
+        <v>45000</v>
       </c>
       <c r="I22" s="3">
-        <v>49400</v>
+        <v>53300</v>
       </c>
       <c r="J22" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K22" s="3">
         <v>37200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>57400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>41700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>48500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>44600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>38100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>42000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1477000</v>
+        <v>1916900</v>
       </c>
       <c r="E23" s="3">
-        <v>2160200</v>
+        <v>1348800</v>
       </c>
       <c r="F23" s="3">
-        <v>1423300</v>
+        <v>1972800</v>
       </c>
       <c r="G23" s="3">
-        <v>2947000</v>
+        <v>1299800</v>
       </c>
       <c r="H23" s="3">
-        <v>978400</v>
+        <v>2691300</v>
       </c>
       <c r="I23" s="3">
-        <v>380000</v>
+        <v>893600</v>
       </c>
       <c r="J23" s="3">
+        <v>347000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2897700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1129000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>984300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1665900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2015600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-435700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1602100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1640400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1541300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1582800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1369600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1279600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>994600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1266600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>216000</v>
+        <v>681300</v>
       </c>
       <c r="E24" s="3">
-        <v>220000</v>
+        <v>197300</v>
       </c>
       <c r="F24" s="3">
-        <v>255100</v>
+        <v>200900</v>
       </c>
       <c r="G24" s="3">
-        <v>1203100</v>
+        <v>233000</v>
       </c>
       <c r="H24" s="3">
-        <v>403900</v>
+        <v>1098700</v>
       </c>
       <c r="I24" s="3">
-        <v>204500</v>
+        <v>368800</v>
       </c>
       <c r="J24" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K24" s="3">
         <v>962900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>762200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>454200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>377600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>469000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>422800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>407300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>444600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>137800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>394200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>340500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>318200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>339400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>295300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1261000</v>
+        <v>1235700</v>
       </c>
       <c r="E26" s="3">
-        <v>1940300</v>
+        <v>1151600</v>
       </c>
       <c r="F26" s="3">
-        <v>1168200</v>
+        <v>1772000</v>
       </c>
       <c r="G26" s="3">
-        <v>1743900</v>
+        <v>1066800</v>
       </c>
       <c r="H26" s="3">
-        <v>574500</v>
+        <v>1592600</v>
       </c>
       <c r="I26" s="3">
-        <v>175500</v>
+        <v>524700</v>
       </c>
       <c r="J26" s="3">
+        <v>160200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1934800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>366800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>530100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1288300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1546600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-858600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1194900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1195800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1403500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1188600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1029200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>961500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>655200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>971300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1094700</v>
+        <v>1033600</v>
       </c>
       <c r="E27" s="3">
-        <v>1707800</v>
+        <v>999800</v>
       </c>
       <c r="F27" s="3">
-        <v>1042600</v>
+        <v>1559700</v>
       </c>
       <c r="G27" s="3">
-        <v>1652600</v>
+        <v>952200</v>
       </c>
       <c r="H27" s="3">
-        <v>487300</v>
+        <v>1509200</v>
       </c>
       <c r="I27" s="3">
-        <v>237600</v>
+        <v>445000</v>
       </c>
       <c r="J27" s="3">
+        <v>217000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1907200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>291100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>637600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1105700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1390100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>907000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>903300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1089500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>873200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>784200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>679200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>399800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>697700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,58 +2202,61 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-3600</v>
       </c>
       <c r="M29" s="3">
         <v>-3600</v>
       </c>
       <c r="N29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-45500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-91800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>53400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-145700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>12400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-10900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-45100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-7900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-113000</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>-178100</v>
+        <v>-103200</v>
       </c>
       <c r="F32" s="3">
-        <v>-80200</v>
+        <v>-162600</v>
       </c>
       <c r="G32" s="3">
-        <v>-448800</v>
+        <v>-73200</v>
       </c>
       <c r="H32" s="3">
-        <v>-174200</v>
+        <v>-409800</v>
       </c>
       <c r="I32" s="3">
-        <v>258200</v>
+        <v>-159100</v>
       </c>
       <c r="J32" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-47600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>725600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3452500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>545700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-577900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>53600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2174600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>175700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-335400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>583700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-82700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>132600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-132400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>702400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-286900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1094700</v>
+        <v>1033600</v>
       </c>
       <c r="E33" s="3">
-        <v>1707800</v>
+        <v>999800</v>
       </c>
       <c r="F33" s="3">
-        <v>1042600</v>
+        <v>1559700</v>
       </c>
       <c r="G33" s="3">
-        <v>1652600</v>
+        <v>952200</v>
       </c>
       <c r="H33" s="3">
-        <v>487300</v>
+        <v>1509200</v>
       </c>
       <c r="I33" s="3">
-        <v>234600</v>
+        <v>445000</v>
       </c>
       <c r="J33" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1904300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>285900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>634000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1102000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1344600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>815200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>956700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>943800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>885600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>773300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>678600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>354800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>689800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1094700</v>
+        <v>1033600</v>
       </c>
       <c r="E35" s="3">
-        <v>1707800</v>
+        <v>999800</v>
       </c>
       <c r="F35" s="3">
-        <v>1042600</v>
+        <v>1559700</v>
       </c>
       <c r="G35" s="3">
-        <v>1652600</v>
+        <v>952200</v>
       </c>
       <c r="H35" s="3">
-        <v>487300</v>
+        <v>1509200</v>
       </c>
       <c r="I35" s="3">
-        <v>234600</v>
+        <v>445000</v>
       </c>
       <c r="J35" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1904300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>285900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>634000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1102000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1344600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>815200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>956700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>943800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>885600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>773300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>678600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>354800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>689800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,141 +2833,145 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8446400</v>
+        <v>7547200</v>
       </c>
       <c r="E41" s="3">
-        <v>7514600</v>
+        <v>7713700</v>
       </c>
       <c r="F41" s="3">
-        <v>9911800</v>
+        <v>6862700</v>
       </c>
       <c r="G41" s="3">
-        <v>8665500</v>
+        <v>9051900</v>
       </c>
       <c r="H41" s="3">
-        <v>7824000</v>
+        <v>7913800</v>
       </c>
       <c r="I41" s="3">
-        <v>6481800</v>
+        <v>7145300</v>
       </c>
       <c r="J41" s="3">
+        <v>5919500</v>
+      </c>
+      <c r="K41" s="3">
         <v>15789700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7156600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6326500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7735200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7635500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7761000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6690600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7669800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7402900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6309600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7334400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6944300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7349700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6787700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6771500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2555900</v>
+        <v>2931500</v>
       </c>
       <c r="E42" s="3">
-        <v>2885700</v>
+        <v>2334100</v>
       </c>
       <c r="F42" s="3">
-        <v>2804200</v>
+        <v>2635300</v>
       </c>
       <c r="G42" s="3">
-        <v>2799100</v>
+        <v>2561000</v>
       </c>
       <c r="H42" s="3">
-        <v>2604800</v>
+        <v>2556300</v>
       </c>
       <c r="I42" s="3">
-        <v>2453800</v>
+        <v>2378800</v>
       </c>
       <c r="J42" s="3">
+        <v>2240900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2179300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2466400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2925600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2532000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2731800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3037900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2792200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3453500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3374800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2939900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2708500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
@@ -2888,505 +2979,529 @@
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22876300</v>
+        <v>23199800</v>
       </c>
       <c r="E43" s="3">
-        <v>21854800</v>
+        <v>20891700</v>
       </c>
       <c r="F43" s="3">
-        <v>21263800</v>
+        <v>19958800</v>
       </c>
       <c r="G43" s="3">
-        <v>23325100</v>
+        <v>19419100</v>
       </c>
       <c r="H43" s="3">
-        <v>20150200</v>
+        <v>21301600</v>
       </c>
       <c r="I43" s="3">
-        <v>19598200</v>
+        <v>18402100</v>
       </c>
       <c r="J43" s="3">
+        <v>17898000</v>
+      </c>
+      <c r="K43" s="3">
         <v>14873600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19912400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19995800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19820500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19347400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>23063400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20887500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20792200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19477900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22612800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20017900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21216900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19871600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21957800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19728100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17238200</v>
+        <v>15910500</v>
       </c>
       <c r="E44" s="3">
-        <v>15825300</v>
+        <v>15742800</v>
       </c>
       <c r="F44" s="3">
-        <v>15332500</v>
+        <v>14452500</v>
       </c>
       <c r="G44" s="3">
-        <v>14103500</v>
+        <v>14002300</v>
       </c>
       <c r="H44" s="3">
-        <v>14230700</v>
+        <v>12879900</v>
       </c>
       <c r="I44" s="3">
-        <v>13372700</v>
+        <v>12996200</v>
       </c>
       <c r="J44" s="3">
+        <v>12212600</v>
+      </c>
+      <c r="K44" s="3">
         <v>12348200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12412700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>14707900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13615300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13569800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13038500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14975900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13820200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13141900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12432100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>14097600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12782800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12369500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10873800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12655400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3174700</v>
+        <v>1820600</v>
       </c>
       <c r="E45" s="3">
-        <v>2449700</v>
+        <v>2899300</v>
       </c>
       <c r="F45" s="3">
-        <v>2110200</v>
+        <v>2237200</v>
       </c>
       <c r="G45" s="3">
-        <v>1803200</v>
+        <v>1927100</v>
       </c>
       <c r="H45" s="3">
-        <v>1956400</v>
+        <v>1646700</v>
       </c>
       <c r="I45" s="3">
-        <v>2006900</v>
+        <v>1786600</v>
       </c>
       <c r="J45" s="3">
+        <v>1832800</v>
+      </c>
+      <c r="K45" s="3">
         <v>4113500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4018800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6546100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2042700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2117200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1799400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2361700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2166700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2156900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1842900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2258300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2187200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2212300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4753800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4708100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54291500</v>
+        <v>51409600</v>
       </c>
       <c r="E46" s="3">
-        <v>50530200</v>
+        <v>49581600</v>
       </c>
       <c r="F46" s="3">
-        <v>51422500</v>
+        <v>46146500</v>
       </c>
       <c r="G46" s="3">
-        <v>50696300</v>
+        <v>46961400</v>
       </c>
       <c r="H46" s="3">
-        <v>46766100</v>
+        <v>46298300</v>
       </c>
       <c r="I46" s="3">
-        <v>43913400</v>
+        <v>42709000</v>
       </c>
       <c r="J46" s="3">
+        <v>40103800</v>
+      </c>
+      <c r="K46" s="3">
         <v>49304300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45967000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50502000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45745800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45270100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>48394000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47953500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47241100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45633100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>46572300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46648100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45839800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45304800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>44373100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>43863100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8472900</v>
+        <v>7758900</v>
       </c>
       <c r="E47" s="3">
-        <v>8406700</v>
+        <v>7737900</v>
       </c>
       <c r="F47" s="3">
-        <v>8237500</v>
+        <v>7677400</v>
       </c>
       <c r="G47" s="3">
-        <v>8584800</v>
+        <v>7522800</v>
       </c>
       <c r="H47" s="3">
-        <v>7759100</v>
+        <v>7840100</v>
       </c>
       <c r="I47" s="3">
-        <v>7734000</v>
+        <v>7085900</v>
       </c>
       <c r="J47" s="3">
+        <v>7063000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7699800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8113000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9074100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>12086600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11909900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12423900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12268900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12733300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12636400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13196900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13425300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13164700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12783700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12515200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13097300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20647900</v>
+        <v>19310600</v>
       </c>
       <c r="E48" s="3">
-        <v>20393500</v>
+        <v>18856600</v>
       </c>
       <c r="F48" s="3">
-        <v>20486400</v>
+        <v>18624300</v>
       </c>
       <c r="G48" s="3">
-        <v>20547800</v>
+        <v>18709100</v>
       </c>
       <c r="H48" s="3">
-        <v>18249300</v>
+        <v>18765200</v>
       </c>
       <c r="I48" s="3">
-        <v>18280200</v>
+        <v>16666100</v>
       </c>
       <c r="J48" s="3">
+        <v>16694300</v>
+      </c>
+      <c r="K48" s="3">
         <v>16517900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19076400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20106600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19703700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19759100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18803700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18389900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20003800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19357100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19208400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19232200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18881700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18246800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17725900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17662900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27699100</v>
+        <v>26570400</v>
       </c>
       <c r="E49" s="3">
-        <v>27337300</v>
+        <v>25296200</v>
       </c>
       <c r="F49" s="3">
-        <v>18124500</v>
+        <v>24965700</v>
       </c>
       <c r="G49" s="3">
-        <v>18135100</v>
+        <v>16552100</v>
       </c>
       <c r="H49" s="3">
-        <v>16515500</v>
+        <v>16561900</v>
       </c>
       <c r="I49" s="3">
-        <v>16579700</v>
+        <v>15082800</v>
       </c>
       <c r="J49" s="3">
+        <v>15141300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9038200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9829500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10478300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8381100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8770800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9225800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9348100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9968300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9621800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9531500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10139000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10111900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8483100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8153300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8193600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3394200</v>
+        <v>3134100</v>
       </c>
       <c r="E52" s="3">
-        <v>3194600</v>
+        <v>3099700</v>
       </c>
       <c r="F52" s="3">
-        <v>3234000</v>
+        <v>2917500</v>
       </c>
       <c r="G52" s="3">
-        <v>3140700</v>
+        <v>2953500</v>
       </c>
       <c r="H52" s="3">
-        <v>4040400</v>
+        <v>2868300</v>
       </c>
       <c r="I52" s="3">
-        <v>4047400</v>
+        <v>3689900</v>
       </c>
       <c r="J52" s="3">
+        <v>3696300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4109000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4498100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3502200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3405900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3442200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3664200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3546200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3512500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3057200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2854500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2728600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2784700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2792500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2951400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2691400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114505700</v>
+        <v>108183600</v>
       </c>
       <c r="E54" s="3">
-        <v>109862300</v>
+        <v>104572000</v>
       </c>
       <c r="F54" s="3">
-        <v>101504800</v>
+        <v>100331500</v>
       </c>
       <c r="G54" s="3">
-        <v>101104800</v>
+        <v>92699000</v>
       </c>
       <c r="H54" s="3">
-        <v>93330400</v>
+        <v>92333700</v>
       </c>
       <c r="I54" s="3">
-        <v>90554600</v>
+        <v>85233700</v>
       </c>
       <c r="J54" s="3">
+        <v>82698800</v>
+      </c>
+      <c r="K54" s="3">
         <v>86669200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87484000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93663200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89323100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89152000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92511500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>91506600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93459000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>90305500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91363700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92173200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>90782700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>87610900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>85718900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>85508400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13605700</v>
+        <v>13668600</v>
       </c>
       <c r="E57" s="3">
-        <v>12762500</v>
+        <v>12425400</v>
       </c>
       <c r="F57" s="3">
-        <v>12933000</v>
+        <v>11655400</v>
       </c>
       <c r="G57" s="3">
-        <v>12931100</v>
+        <v>11811100</v>
       </c>
       <c r="H57" s="3">
-        <v>11415900</v>
+        <v>11809300</v>
       </c>
       <c r="I57" s="3">
-        <v>10727800</v>
+        <v>10425500</v>
       </c>
       <c r="J57" s="3">
+        <v>9797100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9368400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11194600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11828400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11275400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11927900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13511800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>12785400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12738900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12718200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13894300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13397100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12889700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12346100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12437800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>11908500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16192600</v>
+        <v>12234500</v>
       </c>
       <c r="E58" s="3">
-        <v>14299500</v>
+        <v>14787800</v>
       </c>
       <c r="F58" s="3">
-        <v>7600300</v>
+        <v>13059000</v>
       </c>
       <c r="G58" s="3">
-        <v>5894500</v>
+        <v>6941000</v>
       </c>
       <c r="H58" s="3">
-        <v>10563300</v>
+        <v>5383100</v>
       </c>
       <c r="I58" s="3">
-        <v>13451100</v>
+        <v>9646900</v>
       </c>
       <c r="J58" s="3">
+        <v>12284200</v>
+      </c>
+      <c r="K58" s="3">
         <v>12318200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3652100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6529700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5029300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4536800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2847300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5429700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4508500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4229900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2157200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3742700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3865500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4202800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3429100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3937900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19630200</v>
+        <v>19700100</v>
       </c>
       <c r="E59" s="3">
-        <v>18984300</v>
+        <v>17927200</v>
       </c>
       <c r="F59" s="3">
-        <v>19378600</v>
+        <v>17337400</v>
       </c>
       <c r="G59" s="3">
-        <v>20386300</v>
+        <v>17697500</v>
       </c>
       <c r="H59" s="3">
-        <v>18568900</v>
+        <v>18617700</v>
       </c>
       <c r="I59" s="3">
-        <v>17652100</v>
+        <v>16958000</v>
       </c>
       <c r="J59" s="3">
+        <v>16120700</v>
+      </c>
+      <c r="K59" s="3">
         <v>17854300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18042600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19847800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16505800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16298200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18290400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17134300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17568000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16763300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18258800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17693700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17628000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16719600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17137200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16265100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>49428500</v>
+        <v>45603200</v>
       </c>
       <c r="E60" s="3">
-        <v>46046400</v>
+        <v>45140400</v>
       </c>
       <c r="F60" s="3">
-        <v>39912000</v>
+        <v>42051700</v>
       </c>
       <c r="G60" s="3">
-        <v>39211800</v>
+        <v>36449500</v>
       </c>
       <c r="H60" s="3">
-        <v>40548100</v>
+        <v>35810100</v>
       </c>
       <c r="I60" s="3">
-        <v>41831000</v>
+        <v>37030500</v>
       </c>
       <c r="J60" s="3">
+        <v>38202100</v>
+      </c>
+      <c r="K60" s="3">
         <v>39540800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32889300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38205800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32810500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32762900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34649400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>35349400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34815400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>33711400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34310400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34833500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34383200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33268500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33004000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>32111400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13805500</v>
+        <v>12122600</v>
       </c>
       <c r="E61" s="3">
-        <v>13966000</v>
+        <v>12607900</v>
       </c>
       <c r="F61" s="3">
-        <v>13997600</v>
+        <v>12754400</v>
       </c>
       <c r="G61" s="3">
-        <v>14555000</v>
+        <v>12783200</v>
       </c>
       <c r="H61" s="3">
-        <v>11618200</v>
+        <v>13292300</v>
       </c>
       <c r="I61" s="3">
-        <v>7966500</v>
+        <v>10610300</v>
       </c>
       <c r="J61" s="3">
+        <v>7275300</v>
+      </c>
+      <c r="K61" s="3">
         <v>8505400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9431100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7705500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7720200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8081000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6808600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7076600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6652500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6755400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7337400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7529400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7629600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7261000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7007400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7631500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9462900</v>
+        <v>8740300</v>
       </c>
       <c r="E62" s="3">
-        <v>9330500</v>
+        <v>8642000</v>
       </c>
       <c r="F62" s="3">
-        <v>9183800</v>
+        <v>8521000</v>
       </c>
       <c r="G62" s="3">
-        <v>9309300</v>
+        <v>8387000</v>
       </c>
       <c r="H62" s="3">
-        <v>10055800</v>
+        <v>8501700</v>
       </c>
       <c r="I62" s="3">
-        <v>10281400</v>
+        <v>9183500</v>
       </c>
       <c r="J62" s="3">
+        <v>9389500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7054800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7573600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8011800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7935100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7819600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8631100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8503900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8634300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8575800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8930400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9587400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9519400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9427600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9367200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9692000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80810900</v>
+        <v>74360700</v>
       </c>
       <c r="E66" s="3">
-        <v>77236000</v>
+        <v>73800300</v>
       </c>
       <c r="F66" s="3">
-        <v>70848000</v>
+        <v>70535600</v>
       </c>
       <c r="G66" s="3">
-        <v>71032300</v>
+        <v>64701700</v>
       </c>
       <c r="H66" s="3">
-        <v>68351800</v>
+        <v>64870100</v>
       </c>
       <c r="I66" s="3">
-        <v>65681500</v>
+        <v>62422100</v>
       </c>
       <c r="J66" s="3">
+        <v>59983500</v>
+      </c>
+      <c r="K66" s="3">
         <v>60767600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59644500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64242700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58617400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59031200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>61157900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61843400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61415400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59788500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61730400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>63059800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62347900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>60372500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59400900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59920500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26058300</v>
+        <v>24910300</v>
       </c>
       <c r="E72" s="3">
-        <v>25460300</v>
+        <v>23797600</v>
       </c>
       <c r="F72" s="3">
-        <v>23759800</v>
+        <v>23251600</v>
       </c>
       <c r="G72" s="3">
-        <v>23121500</v>
+        <v>21698600</v>
       </c>
       <c r="H72" s="3">
-        <v>21255000</v>
+        <v>21115600</v>
       </c>
       <c r="I72" s="3">
-        <v>21270400</v>
+        <v>19411100</v>
       </c>
       <c r="J72" s="3">
+        <v>19425200</v>
+      </c>
+      <c r="K72" s="3">
         <v>21120100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20229600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20621300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>22424100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21711000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21983700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20149100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21201100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19948300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19032800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18040300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>17443200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16664700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>15909000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15530900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33694800</v>
+        <v>33822900</v>
       </c>
       <c r="E76" s="3">
-        <v>32626300</v>
+        <v>30771700</v>
       </c>
       <c r="F76" s="3">
-        <v>30656800</v>
+        <v>29795900</v>
       </c>
       <c r="G76" s="3">
-        <v>30072500</v>
+        <v>27997300</v>
       </c>
       <c r="H76" s="3">
-        <v>24978600</v>
+        <v>27463700</v>
       </c>
       <c r="I76" s="3">
-        <v>24873100</v>
+        <v>22811700</v>
       </c>
       <c r="J76" s="3">
+        <v>22715300</v>
+      </c>
+      <c r="K76" s="3">
         <v>25901600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27839500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29420500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30705700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30120900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31353600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29663100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32043600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30517000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29633300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29113400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28434800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27238300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26318000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25587900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1094700</v>
+        <v>1033600</v>
       </c>
       <c r="E81" s="3">
-        <v>1707800</v>
+        <v>999800</v>
       </c>
       <c r="F81" s="3">
-        <v>1042600</v>
+        <v>1559700</v>
       </c>
       <c r="G81" s="3">
-        <v>1652600</v>
+        <v>952200</v>
       </c>
       <c r="H81" s="3">
-        <v>487300</v>
+        <v>1509200</v>
       </c>
       <c r="I81" s="3">
-        <v>234600</v>
+        <v>445000</v>
       </c>
       <c r="J81" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1904300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>285900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>634000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1102000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1344600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>815200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>956700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>943800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>885600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>773300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>678600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>354800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>689800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1149700</v>
+        <v>1109400</v>
       </c>
       <c r="E83" s="3">
-        <v>1127000</v>
+        <v>1050000</v>
       </c>
       <c r="F83" s="3">
-        <v>1116800</v>
+        <v>1029200</v>
       </c>
       <c r="G83" s="3">
-        <v>1198900</v>
+        <v>1019900</v>
       </c>
       <c r="H83" s="3">
-        <v>1068500</v>
+        <v>1094900</v>
       </c>
       <c r="I83" s="3">
-        <v>1086800</v>
+        <v>975800</v>
       </c>
       <c r="J83" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K83" s="3">
         <v>839800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1027900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>989800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>959000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>947800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>934400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>863000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>828800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>819700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>836100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>833100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>836900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>788400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>836200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>793900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>816200</v>
+        <v>3683000</v>
       </c>
       <c r="E89" s="3">
-        <v>208100</v>
+        <v>745400</v>
       </c>
       <c r="F89" s="3">
-        <v>1169200</v>
+        <v>190100</v>
       </c>
       <c r="G89" s="3">
-        <v>3128200</v>
+        <v>1067800</v>
       </c>
       <c r="H89" s="3">
-        <v>1807600</v>
+        <v>2856800</v>
       </c>
       <c r="I89" s="3">
-        <v>517700</v>
+        <v>1650800</v>
       </c>
       <c r="J89" s="3">
+        <v>472800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1311900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2229600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>930700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1165500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>722400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3917700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>721300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1221300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2295800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1760400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1369900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1147500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2221100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>835800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-590100</v>
+        <v>-693000</v>
       </c>
       <c r="E91" s="3">
-        <v>-616800</v>
+        <v>-538900</v>
       </c>
       <c r="F91" s="3">
-        <v>-567400</v>
+        <v>-563300</v>
       </c>
       <c r="G91" s="3">
-        <v>-755900</v>
+        <v>-518200</v>
       </c>
       <c r="H91" s="3">
-        <v>-447800</v>
+        <v>-690300</v>
       </c>
       <c r="I91" s="3">
-        <v>-516100</v>
+        <v>-408900</v>
       </c>
       <c r="J91" s="3">
+        <v>-471300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-453200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-794100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-595900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-811800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-723700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-857900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-898800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-883000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-934700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-889100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-650800</v>
+        <v>-164700</v>
       </c>
       <c r="E94" s="3">
-        <v>-8055500</v>
+        <v>-594400</v>
       </c>
       <c r="F94" s="3">
-        <v>-60200</v>
+        <v>-7356700</v>
       </c>
       <c r="G94" s="3">
-        <v>2620700</v>
+        <v>-55000</v>
       </c>
       <c r="H94" s="3">
-        <v>-530500</v>
+        <v>2393400</v>
       </c>
       <c r="I94" s="3">
-        <v>-9053200</v>
+        <v>-484500</v>
       </c>
       <c r="J94" s="3">
+        <v>-8267800</v>
+      </c>
+      <c r="K94" s="3">
         <v>3049100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-297800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-937000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-962900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>121300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-311700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-357900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-944800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-721200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-945800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>141000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-495600</v>
+        <v>600</v>
       </c>
       <c r="E96" s="3">
-        <v>900</v>
+        <v>-452600</v>
       </c>
       <c r="F96" s="3">
-        <v>-454100</v>
+        <v>800</v>
       </c>
       <c r="G96" s="3">
+        <v>-414700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-377600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>600</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-442700</v>
+      </c>
+      <c r="P96" s="3">
         <v>700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-413400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-412600</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="Q96" s="3">
+        <v>-365100</v>
+      </c>
+      <c r="R96" s="3">
+        <v>700</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-351500</v>
+      </c>
+      <c r="T96" s="3">
+        <v>400</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="V96" s="3">
         <v>600</v>
       </c>
-      <c r="L96" s="3">
-        <v>-397200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-442700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-365100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>700</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-351500</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="W96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="X96" s="3">
         <v>400</v>
       </c>
-      <c r="T96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="U96" s="3">
-        <v>600</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>400</v>
       </c>
-      <c r="X96" s="3">
-        <v>-257400</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>542400</v>
+        <v>-3952600</v>
       </c>
       <c r="E100" s="3">
-        <v>5423700</v>
+        <v>495400</v>
       </c>
       <c r="F100" s="3">
-        <v>91300</v>
+        <v>4953200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5288700</v>
+        <v>83300</v>
       </c>
       <c r="H100" s="3">
-        <v>11500</v>
+        <v>-4829900</v>
       </c>
       <c r="I100" s="3">
-        <v>-792100</v>
+        <v>10500</v>
       </c>
       <c r="J100" s="3">
+        <v>-723400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4492600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-740400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>668100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-529700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-258300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>797900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-748700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-709100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>170400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-864900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>223900</v>
+        <v>267700</v>
       </c>
       <c r="E101" s="3">
-        <v>26600</v>
+        <v>204500</v>
       </c>
       <c r="F101" s="3">
-        <v>46000</v>
+        <v>24300</v>
       </c>
       <c r="G101" s="3">
-        <v>381300</v>
+        <v>42000</v>
       </c>
       <c r="H101" s="3">
-        <v>53600</v>
+        <v>348200</v>
       </c>
       <c r="I101" s="3">
-        <v>19700</v>
+        <v>49000</v>
       </c>
       <c r="J101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-152900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>171200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-128000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-189700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-170600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-254800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>99500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>107600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>59800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-122100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>530100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>931800</v>
+        <v>-166500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2397100</v>
+        <v>850900</v>
       </c>
       <c r="F102" s="3">
-        <v>1246300</v>
+        <v>-2189200</v>
       </c>
       <c r="G102" s="3">
-        <v>841500</v>
+        <v>1138100</v>
       </c>
       <c r="H102" s="3">
-        <v>1342200</v>
+        <v>768500</v>
       </c>
       <c r="I102" s="3">
-        <v>-9307900</v>
+        <v>1225800</v>
       </c>
       <c r="J102" s="3">
+        <v>-8500500</v>
+      </c>
+      <c r="K102" s="3">
         <v>8860600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1038400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>74800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>237900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>949900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>104000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1058400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>390000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-405400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>431900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>16200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-781600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22730700</v>
+        <v>18836800</v>
       </c>
       <c r="E8" s="3">
-        <v>19584100</v>
+        <v>21388500</v>
       </c>
       <c r="F8" s="3">
-        <v>19204100</v>
+        <v>18427600</v>
       </c>
       <c r="G8" s="3">
-        <v>18442300</v>
+        <v>18070100</v>
       </c>
       <c r="H8" s="3">
-        <v>21424000</v>
+        <v>17353300</v>
       </c>
       <c r="I8" s="3">
-        <v>17285600</v>
+        <v>20158900</v>
       </c>
       <c r="J8" s="3">
+        <v>16264900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16871400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13599200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21347400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19339200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20114600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18618500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>25924400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21628300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21607900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19688000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>24359100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20770000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20681700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>18881600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>23443000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19208300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16933600</v>
+        <v>14325300</v>
       </c>
       <c r="E9" s="3">
-        <v>14682900</v>
+        <v>15933700</v>
       </c>
       <c r="F9" s="3">
-        <v>14463800</v>
+        <v>13815800</v>
       </c>
       <c r="G9" s="3">
-        <v>13949300</v>
+        <v>13609700</v>
       </c>
       <c r="H9" s="3">
-        <v>16217100</v>
+        <v>13125600</v>
       </c>
       <c r="I9" s="3">
-        <v>12858900</v>
+        <v>15259500</v>
       </c>
       <c r="J9" s="3">
+        <v>12099600</v>
+      </c>
+      <c r="K9" s="3">
         <v>12635200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10060500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15555900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14178700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14579000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13633700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19379600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15751100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15728800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14420300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>17804700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15290000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15148400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>13830300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>17433900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>14170500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5797100</v>
+        <v>4511400</v>
       </c>
       <c r="E10" s="3">
-        <v>4901200</v>
+        <v>5454800</v>
       </c>
       <c r="F10" s="3">
-        <v>4740400</v>
+        <v>4611800</v>
       </c>
       <c r="G10" s="3">
-        <v>4493000</v>
+        <v>4460400</v>
       </c>
       <c r="H10" s="3">
-        <v>5206900</v>
+        <v>4227700</v>
       </c>
       <c r="I10" s="3">
-        <v>4426700</v>
+        <v>4899400</v>
       </c>
       <c r="J10" s="3">
+        <v>4165300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4236200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3538700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5791400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5160500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5535500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4984800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6544800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5877200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5879200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5267700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6554300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5479900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5533300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5051300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6009100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5037800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,41 +1183,44 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>194300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>58700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-435200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-882400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K14" s="3">
+        <v>325700</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-2389500</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>62400</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-462500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-260400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-937800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>272600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>325700</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-2389500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20753800</v>
+        <v>17976600</v>
       </c>
       <c r="E17" s="3">
-        <v>18287900</v>
+        <v>19722600</v>
       </c>
       <c r="F17" s="3">
-        <v>17342800</v>
+        <v>17208000</v>
       </c>
       <c r="G17" s="3">
-        <v>17165500</v>
+        <v>16318700</v>
       </c>
       <c r="H17" s="3">
-        <v>19097600</v>
+        <v>16151800</v>
       </c>
       <c r="I17" s="3">
-        <v>16497700</v>
+        <v>17969900</v>
       </c>
       <c r="J17" s="3">
+        <v>15523600</v>
+      </c>
+      <c r="K17" s="3">
         <v>16243500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10711800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19442200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17987000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18526400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17479100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23806000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19835200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19783000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18341400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22188700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19221300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19132200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>17689700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>21707800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>18186600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1976900</v>
+        <v>860200</v>
       </c>
       <c r="E18" s="3">
-        <v>1296200</v>
+        <v>1665900</v>
       </c>
       <c r="F18" s="3">
-        <v>1861300</v>
+        <v>1219700</v>
       </c>
       <c r="G18" s="3">
-        <v>1276900</v>
+        <v>1751400</v>
       </c>
       <c r="H18" s="3">
-        <v>2326500</v>
+        <v>1201500</v>
       </c>
       <c r="I18" s="3">
-        <v>787800</v>
+        <v>2189100</v>
       </c>
       <c r="J18" s="3">
+        <v>741300</v>
+      </c>
+      <c r="K18" s="3">
         <v>628000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2887400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1905200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1352200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1588200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1139400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2118400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1793100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1824900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1346700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2170300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1548600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1549500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1191800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1735100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1021800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>-230700</v>
       </c>
       <c r="E20" s="3">
-        <v>103200</v>
+        <v>193600</v>
       </c>
       <c r="F20" s="3">
-        <v>162600</v>
+        <v>97100</v>
       </c>
       <c r="G20" s="3">
-        <v>73200</v>
+        <v>153000</v>
       </c>
       <c r="H20" s="3">
-        <v>409800</v>
+        <v>68900</v>
       </c>
       <c r="I20" s="3">
-        <v>159100</v>
+        <v>385600</v>
       </c>
       <c r="J20" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-235800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-725600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-545700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>577900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-175700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>335400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-583700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>82700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-132600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>132400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-702400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>286900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3085600</v>
+        <v>1668700</v>
       </c>
       <c r="E21" s="3">
-        <v>2449400</v>
+        <v>2903400</v>
       </c>
       <c r="F21" s="3">
-        <v>3053200</v>
+        <v>2304700</v>
       </c>
       <c r="G21" s="3">
-        <v>2370000</v>
+        <v>2872900</v>
       </c>
       <c r="H21" s="3">
-        <v>3831200</v>
+        <v>2230100</v>
       </c>
       <c r="I21" s="3">
-        <v>1922700</v>
+        <v>3604900</v>
       </c>
       <c r="J21" s="3">
+        <v>1809100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1384600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3774700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2207500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2001500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2665100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2999300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>481600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2478000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2501800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2422700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2464400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2253700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2112600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1868900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2102600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>59200</v>
+        <v>68000</v>
       </c>
       <c r="E22" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>47600</v>
+      </c>
+      <c r="G22" s="3">
+        <v>48100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>45100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>37200</v>
+      </c>
+      <c r="M22" s="3">
         <v>50600</v>
       </c>
-      <c r="F22" s="3">
-        <v>51100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>50300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>53300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>45100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>37200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>50600</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>57400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>48500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>47200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>44600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>38100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>42000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1916900</v>
+        <v>561500</v>
       </c>
       <c r="E23" s="3">
-        <v>1348800</v>
+        <v>1803700</v>
       </c>
       <c r="F23" s="3">
-        <v>1972800</v>
+        <v>1269200</v>
       </c>
       <c r="G23" s="3">
-        <v>1299800</v>
+        <v>1856300</v>
       </c>
       <c r="H23" s="3">
-        <v>2691300</v>
+        <v>1223000</v>
       </c>
       <c r="I23" s="3">
-        <v>893600</v>
+        <v>2532400</v>
       </c>
       <c r="J23" s="3">
+        <v>840800</v>
+      </c>
+      <c r="K23" s="3">
         <v>347000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2897700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1129000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>984300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1665900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2015600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-435700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1602100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1640400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1541300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1582800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1369600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1279600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>994600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1266600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>681300</v>
+        <v>216700</v>
       </c>
       <c r="E24" s="3">
-        <v>197300</v>
+        <v>641000</v>
       </c>
       <c r="F24" s="3">
-        <v>200900</v>
+        <v>185600</v>
       </c>
       <c r="G24" s="3">
-        <v>233000</v>
+        <v>189000</v>
       </c>
       <c r="H24" s="3">
-        <v>1098700</v>
+        <v>219200</v>
       </c>
       <c r="I24" s="3">
-        <v>368800</v>
+        <v>1033800</v>
       </c>
       <c r="J24" s="3">
+        <v>347100</v>
+      </c>
+      <c r="K24" s="3">
         <v>186800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>962900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>762200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>454200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>377600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>469000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>422800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>407300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>444600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>137800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>394200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>340500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>318200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>339400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>295300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1235700</v>
+        <v>344900</v>
       </c>
       <c r="E26" s="3">
-        <v>1151600</v>
+        <v>1162700</v>
       </c>
       <c r="F26" s="3">
-        <v>1772000</v>
+        <v>1083600</v>
       </c>
       <c r="G26" s="3">
-        <v>1066800</v>
+        <v>1667300</v>
       </c>
       <c r="H26" s="3">
-        <v>1592600</v>
+        <v>1003800</v>
       </c>
       <c r="I26" s="3">
-        <v>524700</v>
+        <v>1498600</v>
       </c>
       <c r="J26" s="3">
+        <v>493700</v>
+      </c>
+      <c r="K26" s="3">
         <v>160200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1934800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>366800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>530100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1288300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1546600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-858600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1194900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1195800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1403500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1188600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1029200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>961500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>655200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>971300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1033600</v>
+        <v>272400</v>
       </c>
       <c r="E27" s="3">
-        <v>999800</v>
+        <v>972600</v>
       </c>
       <c r="F27" s="3">
-        <v>1559700</v>
+        <v>940700</v>
       </c>
       <c r="G27" s="3">
-        <v>952200</v>
+        <v>1467600</v>
       </c>
       <c r="H27" s="3">
-        <v>1509200</v>
+        <v>896000</v>
       </c>
       <c r="I27" s="3">
-        <v>445000</v>
+        <v>1420100</v>
       </c>
       <c r="J27" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K27" s="3">
         <v>217000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1907200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>291100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>637600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1105700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1390100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>907000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>903300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1089500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>873200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>784200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>679200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>399800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>697700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,13 +2239,16 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2205,58 +2266,61 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-3600</v>
       </c>
       <c r="N29" s="3">
         <v>-3600</v>
       </c>
       <c r="O29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-91800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>53400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-145700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>12400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-10900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-7900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>230700</v>
       </c>
       <c r="E32" s="3">
-        <v>-103200</v>
+        <v>-193600</v>
       </c>
       <c r="F32" s="3">
-        <v>-162600</v>
+        <v>-97100</v>
       </c>
       <c r="G32" s="3">
-        <v>-73200</v>
+        <v>-153000</v>
       </c>
       <c r="H32" s="3">
-        <v>-409800</v>
+        <v>-68900</v>
       </c>
       <c r="I32" s="3">
-        <v>-159100</v>
+        <v>-385600</v>
       </c>
       <c r="J32" s="3">
+        <v>-149700</v>
+      </c>
+      <c r="K32" s="3">
         <v>235800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>725600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3452500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>545700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-577900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>53600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2174600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>175700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-335400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>583700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-82700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>132600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-132400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>702400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-286900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1033600</v>
+        <v>272400</v>
       </c>
       <c r="E33" s="3">
-        <v>999800</v>
+        <v>972600</v>
       </c>
       <c r="F33" s="3">
-        <v>1559700</v>
+        <v>940700</v>
       </c>
       <c r="G33" s="3">
-        <v>952200</v>
+        <v>1467600</v>
       </c>
       <c r="H33" s="3">
-        <v>1509200</v>
+        <v>896000</v>
       </c>
       <c r="I33" s="3">
-        <v>445000</v>
+        <v>1420100</v>
       </c>
       <c r="J33" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K33" s="3">
         <v>214300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1904300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>285900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>634000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1102000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1344600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>815200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>956700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>943800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>885600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>773300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>678600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>354800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>689800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1033600</v>
+        <v>272400</v>
       </c>
       <c r="E35" s="3">
-        <v>999800</v>
+        <v>972600</v>
       </c>
       <c r="F35" s="3">
-        <v>1559700</v>
+        <v>940700</v>
       </c>
       <c r="G35" s="3">
-        <v>952200</v>
+        <v>1467600</v>
       </c>
       <c r="H35" s="3">
-        <v>1509200</v>
+        <v>896000</v>
       </c>
       <c r="I35" s="3">
-        <v>445000</v>
+        <v>1420100</v>
       </c>
       <c r="J35" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K35" s="3">
         <v>214300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1904300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>285900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>634000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1102000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1344600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>815200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>956700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>943800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>885600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>773300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>678600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>354800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>689800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,147 +2920,151 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7547200</v>
+        <v>7911200</v>
       </c>
       <c r="E41" s="3">
-        <v>7713700</v>
+        <v>7101500</v>
       </c>
       <c r="F41" s="3">
-        <v>6862700</v>
+        <v>7258200</v>
       </c>
       <c r="G41" s="3">
-        <v>9051900</v>
+        <v>6457500</v>
       </c>
       <c r="H41" s="3">
-        <v>7913800</v>
+        <v>8517400</v>
       </c>
       <c r="I41" s="3">
-        <v>7145300</v>
+        <v>7446400</v>
       </c>
       <c r="J41" s="3">
+        <v>6723400</v>
+      </c>
+      <c r="K41" s="3">
         <v>5919500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15789700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7156600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6326500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7735200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7635500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7761000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6690600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7669800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7402900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6309600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7334400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6944300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7349700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6787700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6771500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2931500</v>
+        <v>3023700</v>
       </c>
       <c r="E42" s="3">
-        <v>2334100</v>
+        <v>2758400</v>
       </c>
       <c r="F42" s="3">
-        <v>2635300</v>
+        <v>2196300</v>
       </c>
       <c r="G42" s="3">
-        <v>2561000</v>
+        <v>2479700</v>
       </c>
       <c r="H42" s="3">
-        <v>2556300</v>
+        <v>2409700</v>
       </c>
       <c r="I42" s="3">
-        <v>2378800</v>
+        <v>2405400</v>
       </c>
       <c r="J42" s="3">
+        <v>2238300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2240900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2179300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2466400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2925600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2532000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2731800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3037900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2792200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3453500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3374800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2939900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2708500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23199800</v>
+        <v>20260100</v>
       </c>
       <c r="E43" s="3">
-        <v>20891700</v>
+        <v>21829800</v>
       </c>
       <c r="F43" s="3">
-        <v>19958800</v>
+        <v>19658000</v>
       </c>
       <c r="G43" s="3">
-        <v>19419100</v>
+        <v>18780300</v>
       </c>
       <c r="H43" s="3">
-        <v>21301600</v>
+        <v>18272400</v>
       </c>
       <c r="I43" s="3">
-        <v>18402100</v>
+        <v>20043700</v>
       </c>
       <c r="J43" s="3">
+        <v>17315500</v>
+      </c>
+      <c r="K43" s="3">
         <v>17898000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14873600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19912400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19995800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19820500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19347400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>23063400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20887500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20792200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19477900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22612800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20017900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21216900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19871600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21957800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19728100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15910500</v>
+        <v>17077900</v>
       </c>
       <c r="E44" s="3">
-        <v>15742800</v>
+        <v>14971000</v>
       </c>
       <c r="F44" s="3">
-        <v>14452500</v>
+        <v>14813200</v>
       </c>
       <c r="G44" s="3">
-        <v>14002300</v>
+        <v>13599000</v>
       </c>
       <c r="H44" s="3">
-        <v>12879900</v>
+        <v>13175500</v>
       </c>
       <c r="I44" s="3">
-        <v>12996200</v>
+        <v>12119400</v>
       </c>
       <c r="J44" s="3">
+        <v>12228700</v>
+      </c>
+      <c r="K44" s="3">
         <v>12212600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12348200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12412700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>14707900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13615300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13569800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13038500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14975900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13820200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13141900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12432100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>14097600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12782800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12369500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10873800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12655400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1820600</v>
+        <v>2218700</v>
       </c>
       <c r="E45" s="3">
-        <v>2899300</v>
+        <v>1713100</v>
       </c>
       <c r="F45" s="3">
-        <v>2237200</v>
+        <v>2728100</v>
       </c>
       <c r="G45" s="3">
-        <v>1927100</v>
+        <v>2105100</v>
       </c>
       <c r="H45" s="3">
-        <v>1646700</v>
+        <v>1813300</v>
       </c>
       <c r="I45" s="3">
-        <v>1786600</v>
+        <v>1549500</v>
       </c>
       <c r="J45" s="3">
+        <v>1681100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1832800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4113500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4018800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6546100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2042700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2117200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1799400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2361700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2166700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2156900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1842900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2258300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2187200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2212300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4753800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4708100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51409600</v>
+        <v>50491600</v>
       </c>
       <c r="E46" s="3">
-        <v>49581600</v>
+        <v>48373800</v>
       </c>
       <c r="F46" s="3">
-        <v>46146500</v>
+        <v>46653800</v>
       </c>
       <c r="G46" s="3">
-        <v>46961400</v>
+        <v>43421600</v>
       </c>
       <c r="H46" s="3">
-        <v>46298300</v>
+        <v>44188400</v>
       </c>
       <c r="I46" s="3">
-        <v>42709000</v>
+        <v>43564400</v>
       </c>
       <c r="J46" s="3">
+        <v>40187000</v>
+      </c>
+      <c r="K46" s="3">
         <v>40103800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>49304300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>45967000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50502000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45745800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45270100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>48394000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>47953500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47241100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45633100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>46572300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46648100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45839800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>45304800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>44373100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>43863100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7758900</v>
+        <v>7541300</v>
       </c>
       <c r="E47" s="3">
-        <v>7737900</v>
+        <v>7300700</v>
       </c>
       <c r="F47" s="3">
-        <v>7677400</v>
+        <v>7281000</v>
       </c>
       <c r="G47" s="3">
-        <v>7522800</v>
+        <v>7224100</v>
       </c>
       <c r="H47" s="3">
-        <v>7840100</v>
+        <v>7078600</v>
       </c>
       <c r="I47" s="3">
-        <v>7085900</v>
+        <v>7377100</v>
       </c>
       <c r="J47" s="3">
+        <v>6667500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7063000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7699800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8113000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9074100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>12086600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11909900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12423900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12268900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12733300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12636400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13196900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13425300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13164700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12783700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12515200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13097300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19310600</v>
+        <v>18787000</v>
       </c>
       <c r="E48" s="3">
-        <v>18856600</v>
+        <v>18170300</v>
       </c>
       <c r="F48" s="3">
-        <v>18624300</v>
+        <v>17743200</v>
       </c>
       <c r="G48" s="3">
-        <v>18709100</v>
+        <v>17524500</v>
       </c>
       <c r="H48" s="3">
-        <v>18765200</v>
+        <v>17604300</v>
       </c>
       <c r="I48" s="3">
-        <v>16666100</v>
+        <v>17657100</v>
       </c>
       <c r="J48" s="3">
+        <v>15682000</v>
+      </c>
+      <c r="K48" s="3">
         <v>16694300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16517900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19076400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20106600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19703700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19759100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18803700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18389900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20003800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19357100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19208400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19232200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18881700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18246800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17725900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17662900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26570400</v>
+        <v>27311800</v>
       </c>
       <c r="E49" s="3">
-        <v>25296200</v>
+        <v>25001400</v>
       </c>
       <c r="F49" s="3">
-        <v>24965700</v>
+        <v>23802400</v>
       </c>
       <c r="G49" s="3">
-        <v>16552100</v>
+        <v>23491500</v>
       </c>
       <c r="H49" s="3">
-        <v>16561900</v>
+        <v>15574700</v>
       </c>
       <c r="I49" s="3">
-        <v>15082800</v>
+        <v>15583900</v>
       </c>
       <c r="J49" s="3">
+        <v>14192100</v>
+      </c>
+      <c r="K49" s="3">
         <v>15141300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9038200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9829500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10478300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8381100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8770800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9225800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9348100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9968300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9621800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9531500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10139000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10111900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8483100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8153300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8193600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3134100</v>
+        <v>2901500</v>
       </c>
       <c r="E52" s="3">
-        <v>3099700</v>
+        <v>2949100</v>
       </c>
       <c r="F52" s="3">
-        <v>2917500</v>
+        <v>2916700</v>
       </c>
       <c r="G52" s="3">
-        <v>2953500</v>
+        <v>2745200</v>
       </c>
       <c r="H52" s="3">
-        <v>2868300</v>
+        <v>2779100</v>
       </c>
       <c r="I52" s="3">
-        <v>3689900</v>
+        <v>2698900</v>
       </c>
       <c r="J52" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3696300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4109000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4498100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3502200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3405900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3442200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3664200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3546200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3512500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3057200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2854500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2728600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2784700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2792500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2951400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2691400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108183600</v>
+        <v>107033200</v>
       </c>
       <c r="E54" s="3">
-        <v>104572000</v>
+        <v>101795400</v>
       </c>
       <c r="F54" s="3">
-        <v>100331500</v>
+        <v>98397000</v>
       </c>
       <c r="G54" s="3">
-        <v>92699000</v>
+        <v>94406900</v>
       </c>
       <c r="H54" s="3">
-        <v>92333700</v>
+        <v>87225100</v>
       </c>
       <c r="I54" s="3">
-        <v>85233700</v>
+        <v>86881400</v>
       </c>
       <c r="J54" s="3">
+        <v>80200700</v>
+      </c>
+      <c r="K54" s="3">
         <v>82698800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>86669200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87484000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93663200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89323100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89152000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92511500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>91506600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93459000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>90305500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91363700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92173200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>90782700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>87610900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>85718900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>85508400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13668600</v>
+        <v>13164600</v>
       </c>
       <c r="E57" s="3">
-        <v>12425400</v>
+        <v>12861500</v>
       </c>
       <c r="F57" s="3">
-        <v>11655400</v>
+        <v>11691700</v>
       </c>
       <c r="G57" s="3">
-        <v>11811100</v>
+        <v>10967100</v>
       </c>
       <c r="H57" s="3">
-        <v>11809300</v>
+        <v>11113600</v>
       </c>
       <c r="I57" s="3">
-        <v>10425500</v>
+        <v>11111900</v>
       </c>
       <c r="J57" s="3">
+        <v>9809900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9797100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9368400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11194600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11828400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11275400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11927900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13511800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>12785400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12738900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12718200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13894300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13397100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12889700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12346100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12437800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>11908500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12234500</v>
+        <v>13575700</v>
       </c>
       <c r="E58" s="3">
-        <v>14787800</v>
+        <v>11512000</v>
       </c>
       <c r="F58" s="3">
-        <v>13059000</v>
+        <v>13914600</v>
       </c>
       <c r="G58" s="3">
-        <v>6941000</v>
+        <v>12287800</v>
       </c>
       <c r="H58" s="3">
-        <v>5383100</v>
+        <v>6531100</v>
       </c>
       <c r="I58" s="3">
-        <v>9646900</v>
+        <v>5065200</v>
       </c>
       <c r="J58" s="3">
+        <v>9077200</v>
+      </c>
+      <c r="K58" s="3">
         <v>12284200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12318200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3652100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6529700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5029300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4536800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2847300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5429700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4508500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4229900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2157200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3742700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3865500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4202800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3429100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3937900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19700100</v>
+        <v>18507600</v>
       </c>
       <c r="E59" s="3">
-        <v>17927200</v>
+        <v>18536800</v>
       </c>
       <c r="F59" s="3">
-        <v>17337400</v>
+        <v>16868600</v>
       </c>
       <c r="G59" s="3">
-        <v>17697500</v>
+        <v>16313600</v>
       </c>
       <c r="H59" s="3">
-        <v>18617700</v>
+        <v>16652400</v>
       </c>
       <c r="I59" s="3">
-        <v>16958000</v>
+        <v>17518300</v>
       </c>
       <c r="J59" s="3">
+        <v>15956700</v>
+      </c>
+      <c r="K59" s="3">
         <v>16120700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17854300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18042600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19847800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16505800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16298200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18290400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17134300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17568000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16763300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18258800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17693700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17628000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16719600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17137200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16265100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45603200</v>
+        <v>45248000</v>
       </c>
       <c r="E60" s="3">
-        <v>45140400</v>
+        <v>42910300</v>
       </c>
       <c r="F60" s="3">
-        <v>42051700</v>
+        <v>42474900</v>
       </c>
       <c r="G60" s="3">
-        <v>36449500</v>
+        <v>39568600</v>
       </c>
       <c r="H60" s="3">
-        <v>35810100</v>
+        <v>34297200</v>
       </c>
       <c r="I60" s="3">
-        <v>37030500</v>
+        <v>33695500</v>
       </c>
       <c r="J60" s="3">
+        <v>34843800</v>
+      </c>
+      <c r="K60" s="3">
         <v>38202100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39540800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32889300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38205800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32810500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32762900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34649400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>35349400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34815400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>33711400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34310400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34833500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34383200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33268500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33004000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>32111400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12122600</v>
+        <v>11785800</v>
       </c>
       <c r="E61" s="3">
-        <v>12607900</v>
+        <v>11406800</v>
       </c>
       <c r="F61" s="3">
-        <v>12754400</v>
+        <v>11863400</v>
       </c>
       <c r="G61" s="3">
-        <v>12783200</v>
+        <v>12001200</v>
       </c>
       <c r="H61" s="3">
-        <v>13292300</v>
+        <v>12028400</v>
       </c>
       <c r="I61" s="3">
-        <v>10610300</v>
+        <v>12507400</v>
       </c>
       <c r="J61" s="3">
+        <v>9983800</v>
+      </c>
+      <c r="K61" s="3">
         <v>7275300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8505400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9431100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7705500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7720200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8081000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6808600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7076600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6652500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6755400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7337400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7529400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7629600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7261000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7007400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7631500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8740300</v>
+        <v>8591400</v>
       </c>
       <c r="E62" s="3">
-        <v>8642000</v>
+        <v>8224100</v>
       </c>
       <c r="F62" s="3">
-        <v>8521000</v>
+        <v>8131600</v>
       </c>
       <c r="G62" s="3">
-        <v>8387000</v>
+        <v>8017900</v>
       </c>
       <c r="H62" s="3">
-        <v>8501700</v>
+        <v>7891800</v>
       </c>
       <c r="I62" s="3">
-        <v>9183500</v>
+        <v>7999700</v>
       </c>
       <c r="J62" s="3">
+        <v>8641200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9389500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7054800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7573600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8011800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7935100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7819600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8631100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8503900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8634300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8575800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8930400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9587400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9519400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9427600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9367200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9692000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74360700</v>
+        <v>73181800</v>
       </c>
       <c r="E66" s="3">
-        <v>73800300</v>
+        <v>69969700</v>
       </c>
       <c r="F66" s="3">
-        <v>70535600</v>
+        <v>69442400</v>
       </c>
       <c r="G66" s="3">
-        <v>64701700</v>
+        <v>66370400</v>
       </c>
       <c r="H66" s="3">
-        <v>64870100</v>
+        <v>60881100</v>
       </c>
       <c r="I66" s="3">
-        <v>62422100</v>
+        <v>61039500</v>
       </c>
       <c r="J66" s="3">
+        <v>58736000</v>
+      </c>
+      <c r="K66" s="3">
         <v>59983500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60767600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59644500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64242700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58617400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59031200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>61157900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61843400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61415400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59788500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61730400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>63059800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62347900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60372500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59400900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>59920500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24910300</v>
+        <v>23561100</v>
       </c>
       <c r="E72" s="3">
-        <v>23797600</v>
+        <v>23439300</v>
       </c>
       <c r="F72" s="3">
-        <v>23251600</v>
+        <v>22392400</v>
       </c>
       <c r="G72" s="3">
-        <v>21698600</v>
+        <v>21878600</v>
       </c>
       <c r="H72" s="3">
-        <v>21115600</v>
+        <v>20417300</v>
       </c>
       <c r="I72" s="3">
-        <v>19411100</v>
+        <v>19868700</v>
       </c>
       <c r="J72" s="3">
+        <v>18264800</v>
+      </c>
+      <c r="K72" s="3">
         <v>19425200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21120100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20229600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20621300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22424100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21711000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21983700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20149100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21201100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19948300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19032800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18040300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>17443200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>16664700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>15909000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15530900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33822900</v>
+        <v>33851400</v>
       </c>
       <c r="E76" s="3">
-        <v>30771700</v>
+        <v>31825700</v>
       </c>
       <c r="F76" s="3">
-        <v>29795900</v>
+        <v>28954600</v>
       </c>
       <c r="G76" s="3">
-        <v>27997300</v>
+        <v>28036500</v>
       </c>
       <c r="H76" s="3">
-        <v>27463700</v>
+        <v>26344000</v>
       </c>
       <c r="I76" s="3">
-        <v>22811700</v>
+        <v>25841900</v>
       </c>
       <c r="J76" s="3">
+        <v>21464600</v>
+      </c>
+      <c r="K76" s="3">
         <v>22715300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25901600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27839500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29420500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30705700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30120900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31353600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29663100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32043600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30517000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29633300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29113400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28434800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27238300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26318000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>25587900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1033600</v>
+        <v>272400</v>
       </c>
       <c r="E81" s="3">
-        <v>999800</v>
+        <v>972600</v>
       </c>
       <c r="F81" s="3">
-        <v>1559700</v>
+        <v>940700</v>
       </c>
       <c r="G81" s="3">
-        <v>952200</v>
+        <v>1467600</v>
       </c>
       <c r="H81" s="3">
-        <v>1509200</v>
+        <v>896000</v>
       </c>
       <c r="I81" s="3">
-        <v>445000</v>
+        <v>1420100</v>
       </c>
       <c r="J81" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K81" s="3">
         <v>214300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1904300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>285900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>634000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1102000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1344600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>815200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>956700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>943800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>885600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>773300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>678600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>354800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>689800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1109400</v>
+        <v>1039200</v>
       </c>
       <c r="E83" s="3">
-        <v>1050000</v>
+        <v>1043900</v>
       </c>
       <c r="F83" s="3">
-        <v>1029200</v>
+        <v>988000</v>
       </c>
       <c r="G83" s="3">
+        <v>968400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>959700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1030200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>918100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>992500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>839800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1027900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>989800</v>
+      </c>
+      <c r="O83" s="3">
+        <v>959000</v>
+      </c>
+      <c r="P83" s="3">
+        <v>947800</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>934400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>863000</v>
+      </c>
+      <c r="S83" s="3">
+        <v>828800</v>
+      </c>
+      <c r="T83" s="3">
+        <v>819700</v>
+      </c>
+      <c r="U83" s="3">
+        <v>836100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>833100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>836900</v>
+      </c>
+      <c r="X83" s="3">
+        <v>788400</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>836200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>793900</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1019900</v>
       </c>
-      <c r="H83" s="3">
-        <v>1094900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>975800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>992500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>839800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1027900</v>
-      </c>
-      <c r="M83" s="3">
-        <v>989800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>959000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>947800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>934400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>863000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>828800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>819700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>836100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>833100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>836900</v>
-      </c>
-      <c r="W83" s="3">
-        <v>788400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>836200</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>793900</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>1019900</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3683000</v>
+        <v>778100</v>
       </c>
       <c r="E89" s="3">
-        <v>745400</v>
+        <v>3465500</v>
       </c>
       <c r="F89" s="3">
-        <v>190100</v>
+        <v>701400</v>
       </c>
       <c r="G89" s="3">
-        <v>1067800</v>
+        <v>178800</v>
       </c>
       <c r="H89" s="3">
-        <v>2856800</v>
+        <v>1004700</v>
       </c>
       <c r="I89" s="3">
-        <v>1650800</v>
+        <v>2688100</v>
       </c>
       <c r="J89" s="3">
+        <v>1553300</v>
+      </c>
+      <c r="K89" s="3">
         <v>472800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1311900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2229600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>930700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1165500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>722400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3917700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-91000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>721300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1221300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2295800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1760400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1369900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1147500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2221100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>835800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-693000</v>
+        <v>-500600</v>
       </c>
       <c r="E91" s="3">
-        <v>-538900</v>
+        <v>-652100</v>
       </c>
       <c r="F91" s="3">
-        <v>-563300</v>
+        <v>-507000</v>
       </c>
       <c r="G91" s="3">
-        <v>-518200</v>
+        <v>-530000</v>
       </c>
       <c r="H91" s="3">
-        <v>-690300</v>
+        <v>-487600</v>
       </c>
       <c r="I91" s="3">
-        <v>-408900</v>
+        <v>-649600</v>
       </c>
       <c r="J91" s="3">
+        <v>-384800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-471300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-453200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-794100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-595900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-811800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-723700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-857900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-898800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-883000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-934700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-11900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-889100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164700</v>
+        <v>-527900</v>
       </c>
       <c r="E94" s="3">
-        <v>-594400</v>
+        <v>-154900</v>
       </c>
       <c r="F94" s="3">
-        <v>-7356700</v>
+        <v>-559300</v>
       </c>
       <c r="G94" s="3">
-        <v>-55000</v>
+        <v>-6922300</v>
       </c>
       <c r="H94" s="3">
-        <v>2393400</v>
+        <v>-51700</v>
       </c>
       <c r="I94" s="3">
-        <v>-484500</v>
+        <v>2252000</v>
       </c>
       <c r="J94" s="3">
+        <v>-455900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3049100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-297800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-937000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-962900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>121300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-311700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-357900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-944800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-721200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-945800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>141000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-461600</v>
+      </c>
+      <c r="E96" s="3">
         <v>600</v>
       </c>
-      <c r="E96" s="3">
-        <v>-452600</v>
-      </c>
       <c r="F96" s="3">
+        <v>-425900</v>
+      </c>
+      <c r="G96" s="3">
         <v>800</v>
       </c>
-      <c r="G96" s="3">
-        <v>-414700</v>
-      </c>
       <c r="H96" s="3">
+        <v>-390200</v>
+      </c>
+      <c r="I96" s="3">
         <v>600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-377600</v>
-      </c>
       <c r="J96" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="K96" s="3">
         <v>1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-412600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-397200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>1500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-442700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-365100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-351500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-305900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-305900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-257400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3952600</v>
+        <v>117300</v>
       </c>
       <c r="E100" s="3">
-        <v>495400</v>
+        <v>-3719200</v>
       </c>
       <c r="F100" s="3">
-        <v>4953200</v>
+        <v>466100</v>
       </c>
       <c r="G100" s="3">
-        <v>83300</v>
+        <v>4660700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4829900</v>
+        <v>78400</v>
       </c>
       <c r="I100" s="3">
-        <v>10500</v>
+        <v>-4544700</v>
       </c>
       <c r="J100" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-723400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4492600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-740400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>668100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-529700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-258300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>797900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-748700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-709100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>170400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-864900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>267700</v>
+        <v>442100</v>
       </c>
       <c r="E101" s="3">
-        <v>204500</v>
+        <v>251900</v>
       </c>
       <c r="F101" s="3">
-        <v>24300</v>
+        <v>192400</v>
       </c>
       <c r="G101" s="3">
-        <v>42000</v>
+        <v>22800</v>
       </c>
       <c r="H101" s="3">
-        <v>348200</v>
+        <v>39500</v>
       </c>
       <c r="I101" s="3">
-        <v>49000</v>
+        <v>327600</v>
       </c>
       <c r="J101" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K101" s="3">
         <v>18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-152900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>171200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-128000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-189700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-170600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-254800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>99500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>107600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>59800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-122100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>530100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166500</v>
+        <v>809700</v>
       </c>
       <c r="E102" s="3">
-        <v>850900</v>
+        <v>-156700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2189200</v>
+        <v>800700</v>
       </c>
       <c r="G102" s="3">
-        <v>1138100</v>
+        <v>-2059900</v>
       </c>
       <c r="H102" s="3">
-        <v>768500</v>
+        <v>1070900</v>
       </c>
       <c r="I102" s="3">
-        <v>1225800</v>
+        <v>723100</v>
       </c>
       <c r="J102" s="3">
+        <v>1153400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8860600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1038400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>74800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>237900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>949900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>104000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1058400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>390000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-405400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>431900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>16200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-781600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,360 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18836800</v>
+        <v>20185000</v>
       </c>
       <c r="E8" s="3">
-        <v>21388500</v>
+        <v>18220000</v>
       </c>
       <c r="F8" s="3">
-        <v>18427600</v>
+        <v>20688200</v>
       </c>
       <c r="G8" s="3">
-        <v>18070100</v>
+        <v>17824300</v>
       </c>
       <c r="H8" s="3">
-        <v>17353300</v>
+        <v>17478500</v>
       </c>
       <c r="I8" s="3">
-        <v>20158900</v>
+        <v>16785100</v>
       </c>
       <c r="J8" s="3">
+        <v>19498900</v>
+      </c>
+      <c r="K8" s="3">
         <v>16264900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16871400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13599200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21347400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19339200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20114600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18618500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>25924400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21628300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21607900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19688000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>24359100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20770000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20681700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>18881600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>23443000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19208300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14325300</v>
+        <v>15223800</v>
       </c>
       <c r="E9" s="3">
-        <v>15933700</v>
+        <v>13856300</v>
       </c>
       <c r="F9" s="3">
-        <v>13815800</v>
+        <v>15412000</v>
       </c>
       <c r="G9" s="3">
-        <v>13609700</v>
+        <v>13363500</v>
       </c>
       <c r="H9" s="3">
-        <v>13125600</v>
+        <v>13164100</v>
       </c>
       <c r="I9" s="3">
-        <v>15259500</v>
+        <v>12695900</v>
       </c>
       <c r="J9" s="3">
+        <v>14759900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12099600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12635200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10060500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15555900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14178700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14579000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13633700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19379600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15751100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15728800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>14420300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>17804700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15290000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15148400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>13830300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>17433900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>14170500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4511400</v>
+        <v>4961200</v>
       </c>
       <c r="E10" s="3">
-        <v>5454800</v>
+        <v>4363700</v>
       </c>
       <c r="F10" s="3">
-        <v>4611800</v>
+        <v>5276200</v>
       </c>
       <c r="G10" s="3">
-        <v>4460400</v>
+        <v>4460800</v>
       </c>
       <c r="H10" s="3">
-        <v>4227700</v>
+        <v>4314400</v>
       </c>
       <c r="I10" s="3">
-        <v>4899400</v>
+        <v>4089300</v>
       </c>
       <c r="J10" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4165300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4236200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3538700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5791400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5160500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5535500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4984800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6544800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5877200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5879200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5267700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6554300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5479900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5533300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5051300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6009100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5037800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,44 +1204,47 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>30800</v>
+        <v>-14500</v>
       </c>
       <c r="E14" s="3">
-        <v>194300</v>
+        <v>29800</v>
       </c>
       <c r="F14" s="3">
-        <v>58700</v>
+        <v>187900</v>
       </c>
       <c r="G14" s="3">
-        <v>-435200</v>
+        <v>56800</v>
       </c>
       <c r="H14" s="3">
-        <v>-245000</v>
+        <v>-420900</v>
       </c>
       <c r="I14" s="3">
-        <v>-882400</v>
+        <v>-237000</v>
       </c>
       <c r="J14" s="3">
+        <v>-853500</v>
+      </c>
+      <c r="K14" s="3">
         <v>256500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>325700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2389500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17976600</v>
+        <v>18730700</v>
       </c>
       <c r="E17" s="3">
-        <v>19722600</v>
+        <v>17388000</v>
       </c>
       <c r="F17" s="3">
-        <v>17208000</v>
+        <v>19076800</v>
       </c>
       <c r="G17" s="3">
-        <v>16318700</v>
+        <v>16644500</v>
       </c>
       <c r="H17" s="3">
-        <v>16151800</v>
+        <v>15784400</v>
       </c>
       <c r="I17" s="3">
-        <v>17969900</v>
+        <v>15623000</v>
       </c>
       <c r="J17" s="3">
+        <v>17381500</v>
+      </c>
+      <c r="K17" s="3">
         <v>15523600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16243500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10711800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19442200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17987000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18526400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17479100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23806000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19835200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19783000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18341400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>22188700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19221300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19132200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>17689700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>21707800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>18186600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>860200</v>
+        <v>1454300</v>
       </c>
       <c r="E18" s="3">
-        <v>1665900</v>
+        <v>832000</v>
       </c>
       <c r="F18" s="3">
-        <v>1219700</v>
+        <v>1611300</v>
       </c>
       <c r="G18" s="3">
-        <v>1751400</v>
+        <v>1179700</v>
       </c>
       <c r="H18" s="3">
-        <v>1201500</v>
+        <v>1694100</v>
       </c>
       <c r="I18" s="3">
-        <v>2189100</v>
+        <v>1162100</v>
       </c>
       <c r="J18" s="3">
+        <v>2117400</v>
+      </c>
+      <c r="K18" s="3">
         <v>741300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>628000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2887400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1905200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1352200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1588200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1139400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2118400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1793100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1824900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1346700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2170300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1548600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1549500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1191800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1735100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1021800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-230700</v>
+        <v>89400</v>
       </c>
       <c r="E20" s="3">
-        <v>193600</v>
+        <v>-223100</v>
       </c>
       <c r="F20" s="3">
-        <v>97100</v>
+        <v>187200</v>
       </c>
       <c r="G20" s="3">
-        <v>153000</v>
+        <v>93900</v>
       </c>
       <c r="H20" s="3">
-        <v>68900</v>
+        <v>148000</v>
       </c>
       <c r="I20" s="3">
-        <v>385600</v>
+        <v>66600</v>
       </c>
       <c r="J20" s="3">
+        <v>373000</v>
+      </c>
+      <c r="K20" s="3">
         <v>149700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-235800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-725600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-545700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>577900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-53600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-175700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>335400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-583700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>82700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-132600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>132400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-702400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>286900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1668700</v>
+        <v>2540700</v>
       </c>
       <c r="E21" s="3">
-        <v>2903400</v>
+        <v>1614100</v>
       </c>
       <c r="F21" s="3">
-        <v>2304700</v>
+        <v>2808300</v>
       </c>
       <c r="G21" s="3">
-        <v>2872900</v>
+        <v>2229300</v>
       </c>
       <c r="H21" s="3">
-        <v>2230100</v>
+        <v>2778800</v>
       </c>
       <c r="I21" s="3">
-        <v>3604900</v>
+        <v>2157000</v>
       </c>
       <c r="J21" s="3">
+        <v>3486900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1809100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1384600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3774700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2207500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2001500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2665100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2999300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>481600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2478000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2501800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2422700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2464400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2253700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2112600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1868900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2102600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68000</v>
+        <v>86400</v>
       </c>
       <c r="E22" s="3">
-        <v>55700</v>
+        <v>65700</v>
       </c>
       <c r="F22" s="3">
-        <v>47600</v>
+        <v>53900</v>
       </c>
       <c r="G22" s="3">
-        <v>48100</v>
+        <v>46000</v>
       </c>
       <c r="H22" s="3">
-        <v>47300</v>
+        <v>46500</v>
       </c>
       <c r="I22" s="3">
-        <v>42300</v>
+        <v>45800</v>
       </c>
       <c r="J22" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K22" s="3">
         <v>50200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>57400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>41700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>48500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>47200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>44600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>38100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>42000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>561500</v>
+        <v>1457300</v>
       </c>
       <c r="E23" s="3">
-        <v>1803700</v>
+        <v>543100</v>
       </c>
       <c r="F23" s="3">
-        <v>1269200</v>
+        <v>1744700</v>
       </c>
       <c r="G23" s="3">
-        <v>1856300</v>
+        <v>1227600</v>
       </c>
       <c r="H23" s="3">
-        <v>1223000</v>
+        <v>1795600</v>
       </c>
       <c r="I23" s="3">
-        <v>2532400</v>
+        <v>1183000</v>
       </c>
       <c r="J23" s="3">
+        <v>2449500</v>
+      </c>
+      <c r="K23" s="3">
         <v>840800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>347000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2897700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1129000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>984300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1665900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2015600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-435700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1602100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1640400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1541300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1582800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1369600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1279600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>994600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1266600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>216700</v>
+        <v>366900</v>
       </c>
       <c r="E24" s="3">
-        <v>641000</v>
+        <v>209600</v>
       </c>
       <c r="F24" s="3">
-        <v>185600</v>
+        <v>620000</v>
       </c>
       <c r="G24" s="3">
-        <v>189000</v>
+        <v>179500</v>
       </c>
       <c r="H24" s="3">
-        <v>219200</v>
+        <v>182800</v>
       </c>
       <c r="I24" s="3">
-        <v>1033800</v>
+        <v>212000</v>
       </c>
       <c r="J24" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K24" s="3">
         <v>347100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>186800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>962900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>762200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>454200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>377600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>469000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>422800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>407300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>444600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>137800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>394200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>340500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>318200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>339400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>295300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>344900</v>
+        <v>1090400</v>
       </c>
       <c r="E26" s="3">
-        <v>1162700</v>
+        <v>333600</v>
       </c>
       <c r="F26" s="3">
-        <v>1083600</v>
+        <v>1124600</v>
       </c>
       <c r="G26" s="3">
-        <v>1667300</v>
+        <v>1048100</v>
       </c>
       <c r="H26" s="3">
-        <v>1003800</v>
+        <v>1612700</v>
       </c>
       <c r="I26" s="3">
-        <v>1498600</v>
+        <v>971000</v>
       </c>
       <c r="J26" s="3">
+        <v>1449500</v>
+      </c>
+      <c r="K26" s="3">
         <v>493700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>160200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1934800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>366800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>530100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1288300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1546600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-858600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1194900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1195800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1403500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1188600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1029200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>961500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>655200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>971300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>272400</v>
+        <v>959700</v>
       </c>
       <c r="E27" s="3">
-        <v>972600</v>
+        <v>263500</v>
       </c>
       <c r="F27" s="3">
         <v>940700</v>
       </c>
       <c r="G27" s="3">
-        <v>1467600</v>
+        <v>909900</v>
       </c>
       <c r="H27" s="3">
-        <v>896000</v>
+        <v>1419500</v>
       </c>
       <c r="I27" s="3">
-        <v>1420100</v>
+        <v>866600</v>
       </c>
       <c r="J27" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="K27" s="3">
         <v>418700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1907200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>291100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>637600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1105700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1390100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>907000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>903300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1089500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>873200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>784200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>679200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>399800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>697700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,16 +2301,19 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2269,58 +2331,61 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-3600</v>
       </c>
       <c r="O29" s="3">
         <v>-3600</v>
       </c>
       <c r="P29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-45500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-91800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>53400</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-145700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>12400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-10900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-7900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>230700</v>
+        <v>-89400</v>
       </c>
       <c r="E32" s="3">
-        <v>-193600</v>
+        <v>223100</v>
       </c>
       <c r="F32" s="3">
-        <v>-97100</v>
+        <v>-187200</v>
       </c>
       <c r="G32" s="3">
-        <v>-153000</v>
+        <v>-93900</v>
       </c>
       <c r="H32" s="3">
-        <v>-68900</v>
+        <v>-148000</v>
       </c>
       <c r="I32" s="3">
-        <v>-385600</v>
+        <v>-66600</v>
       </c>
       <c r="J32" s="3">
+        <v>-373000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-149700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>235800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>725600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3452500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>545700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-577900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>53600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2174600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>175700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-335400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>583700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-82700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>132600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-132400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>702400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-286900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>272400</v>
+        <v>959700</v>
       </c>
       <c r="E33" s="3">
-        <v>972600</v>
+        <v>263500</v>
       </c>
       <c r="F33" s="3">
         <v>940700</v>
       </c>
       <c r="G33" s="3">
-        <v>1467600</v>
+        <v>909900</v>
       </c>
       <c r="H33" s="3">
-        <v>896000</v>
+        <v>1419500</v>
       </c>
       <c r="I33" s="3">
-        <v>1420100</v>
+        <v>866600</v>
       </c>
       <c r="J33" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="K33" s="3">
         <v>418700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>214300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1904300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>285900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>634000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1344600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>815200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>956700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>943800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>885600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>773300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>678600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>354800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>689800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>272400</v>
+        <v>959700</v>
       </c>
       <c r="E35" s="3">
-        <v>972600</v>
+        <v>263500</v>
       </c>
       <c r="F35" s="3">
         <v>940700</v>
       </c>
       <c r="G35" s="3">
-        <v>1467600</v>
+        <v>909900</v>
       </c>
       <c r="H35" s="3">
-        <v>896000</v>
+        <v>1419500</v>
       </c>
       <c r="I35" s="3">
-        <v>1420100</v>
+        <v>866600</v>
       </c>
       <c r="J35" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="K35" s="3">
         <v>418700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>214300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1904300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>285900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>634000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1344600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>815200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>956700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>943800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>885600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>773300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>678600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>354800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>689800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,153 +3008,157 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7911200</v>
+        <v>6140100</v>
       </c>
       <c r="E41" s="3">
-        <v>7101500</v>
+        <v>7652100</v>
       </c>
       <c r="F41" s="3">
-        <v>7258200</v>
+        <v>6869000</v>
       </c>
       <c r="G41" s="3">
-        <v>6457500</v>
+        <v>7020500</v>
       </c>
       <c r="H41" s="3">
-        <v>8517400</v>
+        <v>6246000</v>
       </c>
       <c r="I41" s="3">
-        <v>7446400</v>
+        <v>8238500</v>
       </c>
       <c r="J41" s="3">
+        <v>7202600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6723400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5919500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15789700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7156600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6326500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7735200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7635500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7761000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6690600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7669800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7402900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6309600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7334400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6944300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7349700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6787700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6771500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3023700</v>
+        <v>2361000</v>
       </c>
       <c r="E42" s="3">
-        <v>2758400</v>
+        <v>2924700</v>
       </c>
       <c r="F42" s="3">
-        <v>2196300</v>
+        <v>2668100</v>
       </c>
       <c r="G42" s="3">
-        <v>2479700</v>
+        <v>2124400</v>
       </c>
       <c r="H42" s="3">
-        <v>2409700</v>
+        <v>2398500</v>
       </c>
       <c r="I42" s="3">
-        <v>2405400</v>
+        <v>2330800</v>
       </c>
       <c r="J42" s="3">
+        <v>2326600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2238300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2240900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2179300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2466400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2925600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2532000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2731800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3037900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2792200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3453500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3374800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2939900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2708500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
@@ -3075,547 +3166,571 @@
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20260100</v>
+        <v>19852800</v>
       </c>
       <c r="E43" s="3">
-        <v>21829800</v>
+        <v>19596800</v>
       </c>
       <c r="F43" s="3">
-        <v>19658000</v>
+        <v>21115100</v>
       </c>
       <c r="G43" s="3">
-        <v>18780300</v>
+        <v>19014400</v>
       </c>
       <c r="H43" s="3">
-        <v>18272400</v>
+        <v>18165400</v>
       </c>
       <c r="I43" s="3">
-        <v>20043700</v>
+        <v>17674100</v>
       </c>
       <c r="J43" s="3">
+        <v>19387400</v>
+      </c>
+      <c r="K43" s="3">
         <v>17315500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17898000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14873600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19912400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19995800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19820500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19347400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>23063400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20887500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20792200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19477900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22612800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20017900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21216900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19871600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21957800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19728100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17077900</v>
+        <v>14080200</v>
       </c>
       <c r="E44" s="3">
-        <v>14971000</v>
+        <v>16518700</v>
       </c>
       <c r="F44" s="3">
-        <v>14813200</v>
+        <v>14480800</v>
       </c>
       <c r="G44" s="3">
-        <v>13599000</v>
+        <v>14328200</v>
       </c>
       <c r="H44" s="3">
-        <v>13175500</v>
+        <v>13153800</v>
       </c>
       <c r="I44" s="3">
-        <v>12119400</v>
+        <v>12744100</v>
       </c>
       <c r="J44" s="3">
+        <v>11722600</v>
+      </c>
+      <c r="K44" s="3">
         <v>12228700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12212600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12348200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12412700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>14707900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13615300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13569800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13038500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14975900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13820200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13141900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12432100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>14097600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12782800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12369500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>10873800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12655400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2218700</v>
+        <v>2109600</v>
       </c>
       <c r="E45" s="3">
-        <v>1713100</v>
+        <v>2146100</v>
       </c>
       <c r="F45" s="3">
-        <v>2728100</v>
+        <v>1657000</v>
       </c>
       <c r="G45" s="3">
-        <v>2105100</v>
+        <v>2638700</v>
       </c>
       <c r="H45" s="3">
-        <v>1813300</v>
+        <v>2036200</v>
       </c>
       <c r="I45" s="3">
-        <v>1549500</v>
+        <v>1754000</v>
       </c>
       <c r="J45" s="3">
+        <v>1498800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1681100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1832800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4113500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4018800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6546100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2042700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2117200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1799400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2361700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2166700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2156900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1842900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2258300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2187200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2212300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4753800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4708100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50491600</v>
+        <v>44543700</v>
       </c>
       <c r="E46" s="3">
-        <v>48373800</v>
+        <v>48838400</v>
       </c>
       <c r="F46" s="3">
-        <v>46653800</v>
+        <v>46790000</v>
       </c>
       <c r="G46" s="3">
-        <v>43421600</v>
+        <v>45126200</v>
       </c>
       <c r="H46" s="3">
-        <v>44188400</v>
+        <v>41999900</v>
       </c>
       <c r="I46" s="3">
-        <v>43564400</v>
+        <v>42741500</v>
       </c>
       <c r="J46" s="3">
+        <v>42138000</v>
+      </c>
+      <c r="K46" s="3">
         <v>40187000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40103800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49304300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>45967000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50502000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45745800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45270100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>48394000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>47953500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47241100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45633100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>46572300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46648100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>45839800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45304800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>44373100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>43863100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7541300</v>
+        <v>7916600</v>
       </c>
       <c r="E47" s="3">
-        <v>7300700</v>
+        <v>7294400</v>
       </c>
       <c r="F47" s="3">
-        <v>7281000</v>
+        <v>7061700</v>
       </c>
       <c r="G47" s="3">
-        <v>7224100</v>
+        <v>7042600</v>
       </c>
       <c r="H47" s="3">
-        <v>7078600</v>
+        <v>6987500</v>
       </c>
       <c r="I47" s="3">
-        <v>7377100</v>
+        <v>6846900</v>
       </c>
       <c r="J47" s="3">
+        <v>7135600</v>
+      </c>
+      <c r="K47" s="3">
         <v>6667500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7063000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7699800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8113000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9074100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>12086600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>11909900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12423900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12268900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12733300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12636400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13196900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13425300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13164700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12783700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12515200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13097300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18787000</v>
+        <v>14993100</v>
       </c>
       <c r="E48" s="3">
-        <v>18170300</v>
+        <v>18171900</v>
       </c>
       <c r="F48" s="3">
-        <v>17743200</v>
+        <v>17575400</v>
       </c>
       <c r="G48" s="3">
-        <v>17524500</v>
+        <v>17162200</v>
       </c>
       <c r="H48" s="3">
-        <v>17604300</v>
+        <v>16950700</v>
       </c>
       <c r="I48" s="3">
-        <v>17657100</v>
+        <v>17027900</v>
       </c>
       <c r="J48" s="3">
+        <v>17079000</v>
+      </c>
+      <c r="K48" s="3">
         <v>15682000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16694300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16517900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19076400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20106600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19703700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19759100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18803700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18389900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20003800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19357100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19208400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19232200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18881700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18246800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17725900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17662900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27311800</v>
+        <v>26477600</v>
       </c>
       <c r="E49" s="3">
-        <v>25001400</v>
+        <v>26417600</v>
       </c>
       <c r="F49" s="3">
-        <v>23802400</v>
+        <v>24182800</v>
       </c>
       <c r="G49" s="3">
-        <v>23491500</v>
+        <v>23023100</v>
       </c>
       <c r="H49" s="3">
-        <v>15574700</v>
+        <v>22722300</v>
       </c>
       <c r="I49" s="3">
-        <v>15583900</v>
+        <v>15064800</v>
       </c>
       <c r="J49" s="3">
+        <v>15073600</v>
+      </c>
+      <c r="K49" s="3">
         <v>14192100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15141300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9038200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9829500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10478300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8381100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8770800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9225800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9348100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9968300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9621800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9531500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10139000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10111900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8483100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8153300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8193600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2901500</v>
+        <v>2616000</v>
       </c>
       <c r="E52" s="3">
-        <v>2949100</v>
+        <v>2806500</v>
       </c>
       <c r="F52" s="3">
-        <v>2916700</v>
+        <v>2852500</v>
       </c>
       <c r="G52" s="3">
-        <v>2745200</v>
+        <v>2821200</v>
       </c>
       <c r="H52" s="3">
-        <v>2779100</v>
+        <v>2655300</v>
       </c>
       <c r="I52" s="3">
-        <v>2698900</v>
+        <v>2688100</v>
       </c>
       <c r="J52" s="3">
+        <v>2610500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3472000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3696300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4109000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4498100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3502200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3405900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3442200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3664200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3546200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3512500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3057200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2854500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2728600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2784700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2792500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2951400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2691400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107033200</v>
+        <v>96547000</v>
       </c>
       <c r="E54" s="3">
-        <v>101795400</v>
+        <v>103528700</v>
       </c>
       <c r="F54" s="3">
-        <v>98397000</v>
+        <v>98462400</v>
       </c>
       <c r="G54" s="3">
-        <v>94406900</v>
+        <v>95175300</v>
       </c>
       <c r="H54" s="3">
-        <v>87225100</v>
+        <v>91315800</v>
       </c>
       <c r="I54" s="3">
-        <v>86881400</v>
+        <v>84369200</v>
       </c>
       <c r="J54" s="3">
+        <v>84036700</v>
+      </c>
+      <c r="K54" s="3">
         <v>80200700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82698800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>86669200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87484000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93663200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89323100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89152000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92511500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>91506600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>93459000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>90305500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91363700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92173200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>90782700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>87610900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>85718900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>85508400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4188,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13164600</v>
+        <v>12088800</v>
       </c>
       <c r="E57" s="3">
-        <v>12861500</v>
+        <v>12733600</v>
       </c>
       <c r="F57" s="3">
-        <v>11691700</v>
+        <v>12440300</v>
       </c>
       <c r="G57" s="3">
-        <v>10967100</v>
+        <v>11308800</v>
       </c>
       <c r="H57" s="3">
-        <v>11113600</v>
+        <v>10608000</v>
       </c>
       <c r="I57" s="3">
-        <v>11111900</v>
+        <v>10749700</v>
       </c>
       <c r="J57" s="3">
+        <v>10748100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9809900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9797100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9368400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11194600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11828400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11275400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11927900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13511800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>12785400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12738900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12718200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13894300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13397100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12889700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12346100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12437800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>11908500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13575700</v>
+        <v>9585400</v>
       </c>
       <c r="E58" s="3">
-        <v>11512000</v>
+        <v>13131200</v>
       </c>
       <c r="F58" s="3">
-        <v>13914600</v>
+        <v>11135100</v>
       </c>
       <c r="G58" s="3">
-        <v>12287800</v>
+        <v>13459000</v>
       </c>
       <c r="H58" s="3">
-        <v>6531100</v>
+        <v>11885500</v>
       </c>
       <c r="I58" s="3">
-        <v>5065200</v>
+        <v>6317300</v>
       </c>
       <c r="J58" s="3">
+        <v>4899400</v>
+      </c>
+      <c r="K58" s="3">
         <v>9077200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12284200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12318200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3652100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6529700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5029300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4536800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2847300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5429700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4508500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4229900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2157200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3742700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3865500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4202800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3429100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3937900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18507600</v>
+        <v>19517500</v>
       </c>
       <c r="E59" s="3">
-        <v>18536800</v>
+        <v>17901700</v>
       </c>
       <c r="F59" s="3">
-        <v>16868600</v>
+        <v>17929900</v>
       </c>
       <c r="G59" s="3">
-        <v>16313600</v>
+        <v>16316300</v>
       </c>
       <c r="H59" s="3">
-        <v>16652400</v>
+        <v>15779500</v>
       </c>
       <c r="I59" s="3">
-        <v>17518300</v>
+        <v>16107200</v>
       </c>
       <c r="J59" s="3">
+        <v>16944700</v>
+      </c>
+      <c r="K59" s="3">
         <v>15956700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16120700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17854300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18042600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19847800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16505800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16298200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18290400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17134300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17568000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16763300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18258800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17693700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17628000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16719600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17137200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16265100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45248000</v>
+        <v>41191800</v>
       </c>
       <c r="E60" s="3">
-        <v>42910300</v>
+        <v>43766500</v>
       </c>
       <c r="F60" s="3">
-        <v>42474900</v>
+        <v>41505300</v>
       </c>
       <c r="G60" s="3">
-        <v>39568600</v>
+        <v>41084100</v>
       </c>
       <c r="H60" s="3">
-        <v>34297200</v>
+        <v>38273000</v>
       </c>
       <c r="I60" s="3">
-        <v>33695500</v>
+        <v>33174200</v>
       </c>
       <c r="J60" s="3">
+        <v>32592200</v>
+      </c>
+      <c r="K60" s="3">
         <v>34843800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38202100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39540800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32889300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38205800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32810500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32762900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34649400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>35349400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34815400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>33711400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34310400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34833500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34383200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33268500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33004000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>32111400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11785800</v>
+        <v>10300500</v>
       </c>
       <c r="E61" s="3">
-        <v>11406800</v>
+        <v>11399900</v>
       </c>
       <c r="F61" s="3">
-        <v>11863400</v>
+        <v>11033300</v>
       </c>
       <c r="G61" s="3">
-        <v>12001200</v>
+        <v>11474900</v>
       </c>
       <c r="H61" s="3">
-        <v>12028400</v>
+        <v>11608300</v>
       </c>
       <c r="I61" s="3">
-        <v>12507400</v>
+        <v>11634600</v>
       </c>
       <c r="J61" s="3">
+        <v>12097900</v>
+      </c>
+      <c r="K61" s="3">
         <v>9983800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7275300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8505400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9431100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7705500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7720200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8081000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6808600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7076600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6652500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6755400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7337400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7529400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7629600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7261000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7007400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7631500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8591400</v>
+        <v>5926300</v>
       </c>
       <c r="E62" s="3">
-        <v>8224100</v>
+        <v>8310100</v>
       </c>
       <c r="F62" s="3">
-        <v>8131600</v>
+        <v>7954900</v>
       </c>
       <c r="G62" s="3">
-        <v>8017900</v>
+        <v>7865400</v>
       </c>
       <c r="H62" s="3">
-        <v>7891800</v>
+        <v>7755400</v>
       </c>
       <c r="I62" s="3">
-        <v>7999700</v>
+        <v>7633400</v>
       </c>
       <c r="J62" s="3">
+        <v>7737800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8641200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9389500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7054800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7573600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8011800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7935100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7819600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8631100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8503900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8634300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8575800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8930400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9587400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9519400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9427600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9367200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9692000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>73181800</v>
+        <v>62152800</v>
       </c>
       <c r="E66" s="3">
-        <v>69969700</v>
+        <v>70785700</v>
       </c>
       <c r="F66" s="3">
-        <v>69442400</v>
+        <v>67678800</v>
       </c>
       <c r="G66" s="3">
-        <v>66370400</v>
+        <v>67168700</v>
       </c>
       <c r="H66" s="3">
-        <v>60881100</v>
+        <v>64197300</v>
       </c>
       <c r="I66" s="3">
-        <v>61039500</v>
+        <v>58887700</v>
       </c>
       <c r="J66" s="3">
+        <v>59040900</v>
+      </c>
+      <c r="K66" s="3">
         <v>58736000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59983500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>60767600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59644500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64242700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58617400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59031200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>61157900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61843400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61415400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59788500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61730400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>63059800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62347900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60372500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>59400900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>59920500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23561100</v>
+        <v>23810500</v>
       </c>
       <c r="E72" s="3">
-        <v>23439300</v>
+        <v>22789700</v>
       </c>
       <c r="F72" s="3">
-        <v>22392400</v>
+        <v>22671900</v>
       </c>
       <c r="G72" s="3">
-        <v>21878600</v>
+        <v>21659200</v>
       </c>
       <c r="H72" s="3">
-        <v>20417300</v>
+        <v>21162200</v>
       </c>
       <c r="I72" s="3">
-        <v>19868700</v>
+        <v>19748800</v>
       </c>
       <c r="J72" s="3">
+        <v>19218200</v>
+      </c>
+      <c r="K72" s="3">
         <v>18264800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19425200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>21120100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>20229600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20621300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22424100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21711000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21983700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20149100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21201100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19948300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19032800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>18040300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>17443200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>16664700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>15909000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15530900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33851400</v>
+        <v>34394200</v>
       </c>
       <c r="E76" s="3">
-        <v>31825700</v>
+        <v>32743000</v>
       </c>
       <c r="F76" s="3">
-        <v>28954600</v>
+        <v>30783600</v>
       </c>
       <c r="G76" s="3">
-        <v>28036500</v>
+        <v>28006600</v>
       </c>
       <c r="H76" s="3">
-        <v>26344000</v>
+        <v>27118500</v>
       </c>
       <c r="I76" s="3">
-        <v>25841900</v>
+        <v>25481500</v>
       </c>
       <c r="J76" s="3">
+        <v>24995800</v>
+      </c>
+      <c r="K76" s="3">
         <v>21464600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22715300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25901600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27839500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29420500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30705700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30120900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31353600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29663100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32043600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30517000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29633300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29113400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28434800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27238300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>26318000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>25587900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>272400</v>
+        <v>959700</v>
       </c>
       <c r="E81" s="3">
-        <v>972600</v>
+        <v>263500</v>
       </c>
       <c r="F81" s="3">
         <v>940700</v>
       </c>
       <c r="G81" s="3">
-        <v>1467600</v>
+        <v>909900</v>
       </c>
       <c r="H81" s="3">
-        <v>896000</v>
+        <v>1419500</v>
       </c>
       <c r="I81" s="3">
-        <v>1420100</v>
+        <v>866600</v>
       </c>
       <c r="J81" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="K81" s="3">
         <v>418700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>214300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1904300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>285900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>634000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1344600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>815200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>956700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>943800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>885600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>773300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>678600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>354800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>689800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1039200</v>
+        <v>997100</v>
       </c>
       <c r="E83" s="3">
-        <v>1043900</v>
+        <v>1005200</v>
       </c>
       <c r="F83" s="3">
-        <v>988000</v>
+        <v>1009800</v>
       </c>
       <c r="G83" s="3">
-        <v>968400</v>
+        <v>955600</v>
       </c>
       <c r="H83" s="3">
-        <v>959700</v>
+        <v>936700</v>
       </c>
       <c r="I83" s="3">
-        <v>1030200</v>
+        <v>928300</v>
       </c>
       <c r="J83" s="3">
+        <v>996500</v>
+      </c>
+      <c r="K83" s="3">
         <v>918100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>992500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>839800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1027900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>989800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>959000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>947800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>934400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>863000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>828800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>819700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>836100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>833100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>836900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>788400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>836200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>793900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>778100</v>
+        <v>904000</v>
       </c>
       <c r="E89" s="3">
-        <v>3465500</v>
+        <v>752600</v>
       </c>
       <c r="F89" s="3">
-        <v>701400</v>
+        <v>3352100</v>
       </c>
       <c r="G89" s="3">
-        <v>178800</v>
+        <v>678400</v>
       </c>
       <c r="H89" s="3">
-        <v>1004700</v>
+        <v>173000</v>
       </c>
       <c r="I89" s="3">
-        <v>2688100</v>
+        <v>971800</v>
       </c>
       <c r="J89" s="3">
+        <v>2600100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1553300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>472800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1311900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2229600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>930700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1165500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>722400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3917700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-91000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>721300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1221300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2295800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1760400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1369900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1147500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2221100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>835800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500600</v>
+        <v>-493400</v>
       </c>
       <c r="E91" s="3">
-        <v>-652100</v>
+        <v>-484200</v>
       </c>
       <c r="F91" s="3">
-        <v>-507000</v>
+        <v>-630800</v>
       </c>
       <c r="G91" s="3">
-        <v>-530000</v>
+        <v>-490400</v>
       </c>
       <c r="H91" s="3">
-        <v>-487600</v>
+        <v>-512700</v>
       </c>
       <c r="I91" s="3">
-        <v>-649600</v>
+        <v>-471600</v>
       </c>
       <c r="J91" s="3">
+        <v>-628300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-384800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-471300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-453200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-794100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-595900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-811800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-723700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-857900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-898800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-883000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-934700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-889100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-527900</v>
+        <v>-2300</v>
       </c>
       <c r="E94" s="3">
-        <v>-154900</v>
+        <v>-510600</v>
       </c>
       <c r="F94" s="3">
-        <v>-559300</v>
+        <v>-149900</v>
       </c>
       <c r="G94" s="3">
-        <v>-6922300</v>
+        <v>-541000</v>
       </c>
       <c r="H94" s="3">
-        <v>-51700</v>
+        <v>-6695600</v>
       </c>
       <c r="I94" s="3">
-        <v>2252000</v>
+        <v>-50000</v>
       </c>
       <c r="J94" s="3">
+        <v>2178300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-455900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3049100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-297800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-937000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-962900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>121300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-311700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-357900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-944800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-721200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-945800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>141000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-461600</v>
+        <v>1700</v>
       </c>
       <c r="E96" s="3">
+        <v>-446500</v>
+      </c>
+      <c r="F96" s="3">
         <v>600</v>
       </c>
-      <c r="F96" s="3">
-        <v>-425900</v>
-      </c>
       <c r="G96" s="3">
+        <v>-412000</v>
+      </c>
+      <c r="H96" s="3">
         <v>800</v>
       </c>
-      <c r="H96" s="3">
-        <v>-390200</v>
-      </c>
       <c r="I96" s="3">
+        <v>-377400</v>
+      </c>
+      <c r="J96" s="3">
         <v>600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-355300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>1100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-412600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-397200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>1500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-442700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-365100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-351500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-305900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-257400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>117300</v>
+        <v>-2513200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3719200</v>
+        <v>113500</v>
       </c>
       <c r="F100" s="3">
-        <v>466100</v>
+        <v>-3597400</v>
       </c>
       <c r="G100" s="3">
-        <v>4660700</v>
+        <v>450900</v>
       </c>
       <c r="H100" s="3">
-        <v>78400</v>
+        <v>4508100</v>
       </c>
       <c r="I100" s="3">
-        <v>-4544700</v>
+        <v>75800</v>
       </c>
       <c r="J100" s="3">
+        <v>-4395900</v>
+      </c>
+      <c r="K100" s="3">
         <v>9900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-723400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4492600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-740400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>668100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-529700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-258300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>797900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-748700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-709100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>170400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-864900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>442100</v>
+        <v>99500</v>
       </c>
       <c r="E101" s="3">
-        <v>251900</v>
+        <v>427700</v>
       </c>
       <c r="F101" s="3">
-        <v>192400</v>
+        <v>243700</v>
       </c>
       <c r="G101" s="3">
-        <v>22800</v>
+        <v>186100</v>
       </c>
       <c r="H101" s="3">
-        <v>39500</v>
+        <v>22100</v>
       </c>
       <c r="I101" s="3">
-        <v>327600</v>
+        <v>38200</v>
       </c>
       <c r="J101" s="3">
+        <v>316900</v>
+      </c>
+      <c r="K101" s="3">
         <v>46100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-152900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>171200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-128000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-189700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-170600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-254800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>99500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>107600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>59800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-122100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>530100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>809700</v>
+        <v>-1512100</v>
       </c>
       <c r="E102" s="3">
-        <v>-156700</v>
+        <v>783100</v>
       </c>
       <c r="F102" s="3">
-        <v>800700</v>
+        <v>-151500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2059900</v>
+        <v>774500</v>
       </c>
       <c r="H102" s="3">
-        <v>1070900</v>
+        <v>-1992500</v>
       </c>
       <c r="I102" s="3">
-        <v>723100</v>
+        <v>1035900</v>
       </c>
       <c r="J102" s="3">
+        <v>699400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1153400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8860600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1038400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>74800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>237900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>949900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>104000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1058400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>390000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-405400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>431900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-781600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,359 +666,370 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20185000</v>
+        <v>19786300</v>
       </c>
       <c r="E8" s="3">
-        <v>18220000</v>
+        <v>20925200</v>
       </c>
       <c r="F8" s="3">
-        <v>20688200</v>
+        <v>18888100</v>
       </c>
       <c r="G8" s="3">
-        <v>17824300</v>
+        <v>21446800</v>
       </c>
       <c r="H8" s="3">
-        <v>17478500</v>
+        <v>18477900</v>
       </c>
       <c r="I8" s="3">
-        <v>16785100</v>
+        <v>18119400</v>
       </c>
       <c r="J8" s="3">
+        <v>17400700</v>
+      </c>
+      <c r="K8" s="3">
         <v>19498900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16264900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16871400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13599200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21347400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19339200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20114600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18618500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25924400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21628300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21607900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19688000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>24359100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20770000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20681700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>18881600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>23443000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19208300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15223800</v>
+        <v>14864400</v>
       </c>
       <c r="E9" s="3">
-        <v>13856300</v>
+        <v>15782000</v>
       </c>
       <c r="F9" s="3">
-        <v>15412000</v>
+        <v>14364400</v>
       </c>
       <c r="G9" s="3">
-        <v>13363500</v>
+        <v>15977200</v>
       </c>
       <c r="H9" s="3">
-        <v>13164100</v>
+        <v>13853500</v>
       </c>
       <c r="I9" s="3">
-        <v>12695900</v>
+        <v>13646800</v>
       </c>
       <c r="J9" s="3">
+        <v>13161400</v>
+      </c>
+      <c r="K9" s="3">
         <v>14759900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12099600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12635200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10060500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>15555900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>14178700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14579000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13633700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19379600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15751100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15728800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>14420300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>17804700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15290000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15148400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13830300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>17433900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>14170500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4961200</v>
+        <v>4921900</v>
       </c>
       <c r="E10" s="3">
-        <v>4363700</v>
+        <v>5143100</v>
       </c>
       <c r="F10" s="3">
-        <v>5276200</v>
+        <v>4523700</v>
       </c>
       <c r="G10" s="3">
-        <v>4460800</v>
+        <v>5469700</v>
       </c>
       <c r="H10" s="3">
-        <v>4314400</v>
+        <v>4624400</v>
       </c>
       <c r="I10" s="3">
-        <v>4089300</v>
+        <v>4472600</v>
       </c>
       <c r="J10" s="3">
+        <v>4239200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4739000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4165300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4236200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3538700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5791400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5160500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5535500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4984800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6544800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5877200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5879200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5267700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6554300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5479900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5533300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5051300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6009100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5037800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,47 +1222,50 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-14500</v>
+        <v>49600</v>
       </c>
       <c r="E14" s="3">
-        <v>29800</v>
+        <v>-15000</v>
       </c>
       <c r="F14" s="3">
-        <v>187900</v>
+        <v>30900</v>
       </c>
       <c r="G14" s="3">
-        <v>56800</v>
+        <v>194800</v>
       </c>
       <c r="H14" s="3">
-        <v>-420900</v>
+        <v>58900</v>
       </c>
       <c r="I14" s="3">
-        <v>-237000</v>
+        <v>-436300</v>
       </c>
       <c r="J14" s="3">
+        <v>-245700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-853500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>256500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>325700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2389500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1287,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18730700</v>
+        <v>18344900</v>
       </c>
       <c r="E17" s="3">
-        <v>17388000</v>
+        <v>19417600</v>
       </c>
       <c r="F17" s="3">
-        <v>19076800</v>
+        <v>18025600</v>
       </c>
       <c r="G17" s="3">
-        <v>16644500</v>
+        <v>19776400</v>
       </c>
       <c r="H17" s="3">
-        <v>15784400</v>
+        <v>17254900</v>
       </c>
       <c r="I17" s="3">
-        <v>15623000</v>
+        <v>16363200</v>
       </c>
       <c r="J17" s="3">
+        <v>16195900</v>
+      </c>
+      <c r="K17" s="3">
         <v>17381500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15523600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16243500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10711800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19442200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17987000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18526400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17479100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23806000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19835200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19783000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18341400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>22188700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19221300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19132200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17689700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>21707800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>18186600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1454300</v>
+        <v>1441500</v>
       </c>
       <c r="E18" s="3">
-        <v>832000</v>
+        <v>1507600</v>
       </c>
       <c r="F18" s="3">
-        <v>1611300</v>
+        <v>862500</v>
       </c>
       <c r="G18" s="3">
-        <v>1179700</v>
+        <v>1670400</v>
       </c>
       <c r="H18" s="3">
-        <v>1694100</v>
+        <v>1223000</v>
       </c>
       <c r="I18" s="3">
-        <v>1162100</v>
+        <v>1756200</v>
       </c>
       <c r="J18" s="3">
+        <v>1204700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2117400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>741300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>628000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2887400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1905200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1352200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1588200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1139400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2118400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1793100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1824900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1346700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2170300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1548600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1549500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1191800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1735100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1021800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,408 +1615,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>89400</v>
+        <v>-55600</v>
       </c>
       <c r="E20" s="3">
-        <v>-223100</v>
+        <v>92600</v>
       </c>
       <c r="F20" s="3">
-        <v>187200</v>
+        <v>-231300</v>
       </c>
       <c r="G20" s="3">
-        <v>93900</v>
+        <v>194100</v>
       </c>
       <c r="H20" s="3">
-        <v>148000</v>
+        <v>97400</v>
       </c>
       <c r="I20" s="3">
-        <v>66600</v>
+        <v>153500</v>
       </c>
       <c r="J20" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K20" s="3">
         <v>373000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>149700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-235800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-725600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-545700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>577900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-53600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-175700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>335400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-583700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>82700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-132600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>132400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-702400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>286900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2540700</v>
+        <v>2294100</v>
       </c>
       <c r="E21" s="3">
-        <v>1614100</v>
+        <v>2633900</v>
       </c>
       <c r="F21" s="3">
-        <v>2808300</v>
+        <v>1673300</v>
       </c>
       <c r="G21" s="3">
-        <v>2229300</v>
+        <v>2911300</v>
       </c>
       <c r="H21" s="3">
-        <v>2778800</v>
+        <v>2311000</v>
       </c>
       <c r="I21" s="3">
-        <v>2157000</v>
+        <v>2880700</v>
       </c>
       <c r="J21" s="3">
+        <v>2236100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3486900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1809100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1384600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3774700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2207500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2001500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2665100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2999300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>481600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2478000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2501800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2422700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2464400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2253700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2112600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1868900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2102600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>86400</v>
+        <v>102000</v>
       </c>
       <c r="E22" s="3">
-        <v>65700</v>
+        <v>89500</v>
       </c>
       <c r="F22" s="3">
-        <v>53900</v>
+        <v>68200</v>
       </c>
       <c r="G22" s="3">
-        <v>46000</v>
+        <v>55900</v>
       </c>
       <c r="H22" s="3">
-        <v>46500</v>
+        <v>47700</v>
       </c>
       <c r="I22" s="3">
-        <v>45800</v>
+        <v>48300</v>
       </c>
       <c r="J22" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K22" s="3">
         <v>40900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>45100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>57400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>41700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>48500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>47200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>44600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>38100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>42000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1457300</v>
+        <v>1283900</v>
       </c>
       <c r="E23" s="3">
-        <v>543100</v>
+        <v>1510700</v>
       </c>
       <c r="F23" s="3">
-        <v>1744700</v>
+        <v>563100</v>
       </c>
       <c r="G23" s="3">
-        <v>1227600</v>
+        <v>1808700</v>
       </c>
       <c r="H23" s="3">
-        <v>1795600</v>
+        <v>1272600</v>
       </c>
       <c r="I23" s="3">
-        <v>1183000</v>
+        <v>1861400</v>
       </c>
       <c r="J23" s="3">
+        <v>1226400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2449500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>840800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>347000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2897700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1129000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>984300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1665900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2015600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-435700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1602100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1640400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1541300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1582800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1369600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1279600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>994600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1266600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>366900</v>
+        <v>306200</v>
       </c>
       <c r="E24" s="3">
-        <v>209600</v>
+        <v>380300</v>
       </c>
       <c r="F24" s="3">
-        <v>620000</v>
+        <v>217200</v>
       </c>
       <c r="G24" s="3">
-        <v>179500</v>
+        <v>642800</v>
       </c>
       <c r="H24" s="3">
-        <v>182800</v>
+        <v>186100</v>
       </c>
       <c r="I24" s="3">
-        <v>212000</v>
+        <v>189500</v>
       </c>
       <c r="J24" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>347100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>186800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>962900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>762200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>454200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>377600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>469000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>422800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>407300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>444600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>137800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>394200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>340500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>318200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>339400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>295300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1090400</v>
+        <v>977600</v>
       </c>
       <c r="E26" s="3">
-        <v>333600</v>
+        <v>1130400</v>
       </c>
       <c r="F26" s="3">
-        <v>1124600</v>
+        <v>345800</v>
       </c>
       <c r="G26" s="3">
-        <v>1048100</v>
+        <v>1165900</v>
       </c>
       <c r="H26" s="3">
-        <v>1612700</v>
+        <v>1086500</v>
       </c>
       <c r="I26" s="3">
-        <v>971000</v>
+        <v>1671900</v>
       </c>
       <c r="J26" s="3">
+        <v>1006600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1449500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>493700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>160200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1934800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>366800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>530100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1288300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1546600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-858600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1194900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1195800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1403500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1188600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1029200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>961500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>655200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>971300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>959700</v>
+        <v>879900</v>
       </c>
       <c r="E27" s="3">
-        <v>263500</v>
+        <v>994900</v>
       </c>
       <c r="F27" s="3">
-        <v>940700</v>
+        <v>273100</v>
       </c>
       <c r="G27" s="3">
-        <v>909900</v>
+        <v>975200</v>
       </c>
       <c r="H27" s="3">
-        <v>1419500</v>
+        <v>943300</v>
       </c>
       <c r="I27" s="3">
-        <v>866600</v>
+        <v>1471600</v>
       </c>
       <c r="J27" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1373600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>418700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1907200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>291100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>637600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1105700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1390100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>907000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>903300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1089500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>873200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>784200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>679200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>399800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>697700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2315,8 +2374,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2334,58 +2393,61 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-2900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-3600</v>
       </c>
       <c r="P29" s="3">
         <v>-3600</v>
       </c>
       <c r="Q29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-45500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-3800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-91800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>53400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-145700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>12400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-45100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-7900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-89400</v>
+        <v>55600</v>
       </c>
       <c r="E32" s="3">
-        <v>223100</v>
+        <v>-92600</v>
       </c>
       <c r="F32" s="3">
-        <v>-187200</v>
+        <v>231300</v>
       </c>
       <c r="G32" s="3">
-        <v>-93900</v>
+        <v>-194100</v>
       </c>
       <c r="H32" s="3">
-        <v>-148000</v>
+        <v>-97400</v>
       </c>
       <c r="I32" s="3">
-        <v>-66600</v>
+        <v>-153500</v>
       </c>
       <c r="J32" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-373000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-149700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>235800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>725600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3452500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>545700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-577900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>53600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2174600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>175700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-335400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>583700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-82700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>132600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-132400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>702400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-286900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>959700</v>
+        <v>879900</v>
       </c>
       <c r="E33" s="3">
-        <v>263500</v>
+        <v>994900</v>
       </c>
       <c r="F33" s="3">
-        <v>940700</v>
+        <v>273100</v>
       </c>
       <c r="G33" s="3">
-        <v>909900</v>
+        <v>975200</v>
       </c>
       <c r="H33" s="3">
-        <v>1419500</v>
+        <v>943300</v>
       </c>
       <c r="I33" s="3">
-        <v>866600</v>
+        <v>1471600</v>
       </c>
       <c r="J33" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1373600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>418700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1904300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>285900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>634000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1102000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1344600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>815200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>956700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>943800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>885600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>773300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>678600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>354800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>689800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>959700</v>
+        <v>879900</v>
       </c>
       <c r="E35" s="3">
-        <v>263500</v>
+        <v>994900</v>
       </c>
       <c r="F35" s="3">
-        <v>940700</v>
+        <v>273100</v>
       </c>
       <c r="G35" s="3">
-        <v>909900</v>
+        <v>975200</v>
       </c>
       <c r="H35" s="3">
-        <v>1419500</v>
+        <v>943300</v>
       </c>
       <c r="I35" s="3">
-        <v>866600</v>
+        <v>1471600</v>
       </c>
       <c r="J35" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1373600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>418700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1904300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>285900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>634000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1102000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1344600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>815200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>956700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>943800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>885600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>773300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>678600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>354800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>689800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,159 +3093,163 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6140100</v>
+        <v>6171100</v>
       </c>
       <c r="E41" s="3">
-        <v>7652100</v>
+        <v>6365200</v>
       </c>
       <c r="F41" s="3">
-        <v>6869000</v>
+        <v>7932700</v>
       </c>
       <c r="G41" s="3">
-        <v>7020500</v>
+        <v>7120900</v>
       </c>
       <c r="H41" s="3">
-        <v>6246000</v>
+        <v>7278000</v>
       </c>
       <c r="I41" s="3">
-        <v>8238500</v>
+        <v>6475100</v>
       </c>
       <c r="J41" s="3">
+        <v>8540600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7202600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6723400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5919500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15789700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7156600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6326500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7735200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7635500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7761000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6690600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7669800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7402900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6309600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7334400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6944300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7349700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6787700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6771500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2361000</v>
+        <v>2002500</v>
       </c>
       <c r="E42" s="3">
-        <v>2924700</v>
+        <v>2447500</v>
       </c>
       <c r="F42" s="3">
-        <v>2668100</v>
+        <v>3031900</v>
       </c>
       <c r="G42" s="3">
-        <v>2124400</v>
+        <v>2765900</v>
       </c>
       <c r="H42" s="3">
-        <v>2398500</v>
+        <v>2202300</v>
       </c>
       <c r="I42" s="3">
-        <v>2330800</v>
+        <v>2486500</v>
       </c>
       <c r="J42" s="3">
+        <v>2416300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2326600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2238300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2240900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2179300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2466400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2925600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2532000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2600300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2731800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3037900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2792200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3453500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3374800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2939900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2708500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
@@ -3169,568 +3257,592 @@
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19852800</v>
+        <v>18880800</v>
       </c>
       <c r="E43" s="3">
-        <v>19596800</v>
+        <v>20580800</v>
       </c>
       <c r="F43" s="3">
-        <v>21115100</v>
+        <v>20315400</v>
       </c>
       <c r="G43" s="3">
-        <v>19014400</v>
+        <v>21889400</v>
       </c>
       <c r="H43" s="3">
-        <v>18165400</v>
+        <v>19711700</v>
       </c>
       <c r="I43" s="3">
-        <v>17674100</v>
+        <v>18831500</v>
       </c>
       <c r="J43" s="3">
+        <v>18322300</v>
+      </c>
+      <c r="K43" s="3">
         <v>19387400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17315500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17898000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14873600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19912400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19995800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19820500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19347400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>23063400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20887500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20792200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19477900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22612800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20017900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21216900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19871600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21957800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19728100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14080200</v>
+        <v>12955800</v>
       </c>
       <c r="E44" s="3">
-        <v>16518700</v>
+        <v>14596600</v>
       </c>
       <c r="F44" s="3">
-        <v>14480800</v>
+        <v>17124500</v>
       </c>
       <c r="G44" s="3">
-        <v>14328200</v>
+        <v>15011900</v>
       </c>
       <c r="H44" s="3">
-        <v>13153800</v>
+        <v>14853600</v>
       </c>
       <c r="I44" s="3">
-        <v>12744100</v>
+        <v>13636100</v>
       </c>
       <c r="J44" s="3">
+        <v>13211400</v>
+      </c>
+      <c r="K44" s="3">
         <v>11722600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12228700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12212600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12348200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12412700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>14707900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13615300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13569800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13038500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>14975900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13820200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13141900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12432100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>14097600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12782800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12369500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>10873800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12655400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2109600</v>
+        <v>10982700</v>
       </c>
       <c r="E45" s="3">
-        <v>2146100</v>
+        <v>2187000</v>
       </c>
       <c r="F45" s="3">
-        <v>1657000</v>
+        <v>2224800</v>
       </c>
       <c r="G45" s="3">
-        <v>2638700</v>
+        <v>1717800</v>
       </c>
       <c r="H45" s="3">
-        <v>2036200</v>
+        <v>2735500</v>
       </c>
       <c r="I45" s="3">
-        <v>1754000</v>
+        <v>2110800</v>
       </c>
       <c r="J45" s="3">
+        <v>1818300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1498800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1681100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1832800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4113500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4018800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6546100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2042700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2117200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1799400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2361700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2166700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2156900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1842900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2258300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2187200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2212300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4753800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4708100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>44543700</v>
+        <v>50992900</v>
       </c>
       <c r="E46" s="3">
-        <v>48838400</v>
+        <v>46177200</v>
       </c>
       <c r="F46" s="3">
-        <v>46790000</v>
+        <v>50629300</v>
       </c>
       <c r="G46" s="3">
-        <v>45126200</v>
+        <v>48505800</v>
       </c>
       <c r="H46" s="3">
-        <v>41999900</v>
+        <v>46781100</v>
       </c>
       <c r="I46" s="3">
-        <v>42741500</v>
+        <v>43540000</v>
       </c>
       <c r="J46" s="3">
+        <v>44308900</v>
+      </c>
+      <c r="K46" s="3">
         <v>42138000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40187000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40103800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49304300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>45967000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50502000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45745800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45270100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>48394000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47953500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47241100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>45633100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>46572300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46648100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45839800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45304800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>44373100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>43863100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7916600</v>
+        <v>7064100</v>
       </c>
       <c r="E47" s="3">
-        <v>7294400</v>
+        <v>8206900</v>
       </c>
       <c r="F47" s="3">
-        <v>7061700</v>
+        <v>7561900</v>
       </c>
       <c r="G47" s="3">
-        <v>7042600</v>
+        <v>7320700</v>
       </c>
       <c r="H47" s="3">
-        <v>6987500</v>
+        <v>7300800</v>
       </c>
       <c r="I47" s="3">
-        <v>6846900</v>
+        <v>7243800</v>
       </c>
       <c r="J47" s="3">
+        <v>7097900</v>
+      </c>
+      <c r="K47" s="3">
         <v>7135600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6667500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7063000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7699800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8113000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9074100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>12086600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>11909900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12423900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12268900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12733300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12636400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13196900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13425300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13164700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>12783700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12515200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>13097300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14993100</v>
+        <v>12492400</v>
       </c>
       <c r="E48" s="3">
-        <v>18171900</v>
+        <v>15542900</v>
       </c>
       <c r="F48" s="3">
-        <v>17575400</v>
+        <v>18838300</v>
       </c>
       <c r="G48" s="3">
-        <v>17162200</v>
+        <v>18219900</v>
       </c>
       <c r="H48" s="3">
-        <v>16950700</v>
+        <v>17791600</v>
       </c>
       <c r="I48" s="3">
-        <v>17027900</v>
+        <v>17572400</v>
       </c>
       <c r="J48" s="3">
+        <v>17652400</v>
+      </c>
+      <c r="K48" s="3">
         <v>17079000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15682000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16694300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16517900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19076400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20106600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19703700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19759100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18803700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18389900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20003800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19357100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19208400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19232200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18881700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18246800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17725900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17662900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26477600</v>
+        <v>24574700</v>
       </c>
       <c r="E49" s="3">
-        <v>26417600</v>
+        <v>27448600</v>
       </c>
       <c r="F49" s="3">
-        <v>24182800</v>
+        <v>27386400</v>
       </c>
       <c r="G49" s="3">
-        <v>23023100</v>
+        <v>25069600</v>
       </c>
       <c r="H49" s="3">
-        <v>22722300</v>
+        <v>23867400</v>
       </c>
       <c r="I49" s="3">
-        <v>15064800</v>
+        <v>23555600</v>
       </c>
       <c r="J49" s="3">
+        <v>15617200</v>
+      </c>
+      <c r="K49" s="3">
         <v>15073600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14192100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15141300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9038200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9829500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10478300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8381100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8770800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9225800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9348100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9968300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9621800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9531500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10139000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10111900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8483100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8153300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8193600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2616000</v>
+        <v>2491300</v>
       </c>
       <c r="E52" s="3">
-        <v>2806500</v>
+        <v>2711900</v>
       </c>
       <c r="F52" s="3">
-        <v>2852500</v>
+        <v>2909400</v>
       </c>
       <c r="G52" s="3">
-        <v>2821200</v>
+        <v>2957100</v>
       </c>
       <c r="H52" s="3">
-        <v>2655300</v>
+        <v>2924700</v>
       </c>
       <c r="I52" s="3">
-        <v>2688100</v>
+        <v>2752700</v>
       </c>
       <c r="J52" s="3">
+        <v>2786600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2610500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3472000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3696300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4109000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4498100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3502200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3405900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3442200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3664200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3546200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3512500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3057200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2854500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2728600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2784700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2792500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2951400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2691400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>96547000</v>
+        <v>97615400</v>
       </c>
       <c r="E54" s="3">
-        <v>103528700</v>
+        <v>100087500</v>
       </c>
       <c r="F54" s="3">
-        <v>98462400</v>
+        <v>107325300</v>
       </c>
       <c r="G54" s="3">
-        <v>95175300</v>
+        <v>102073100</v>
       </c>
       <c r="H54" s="3">
-        <v>91315800</v>
+        <v>98665500</v>
       </c>
       <c r="I54" s="3">
-        <v>84369200</v>
+        <v>94664500</v>
       </c>
       <c r="J54" s="3">
+        <v>87463100</v>
+      </c>
+      <c r="K54" s="3">
         <v>84036700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>80200700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82698800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>86669200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87484000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>93663200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89323100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89152000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92511500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>91506600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>93459000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>90305500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91363700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92173200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>90782700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>87610900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>85718900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>85508400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12088800</v>
+        <v>10868800</v>
       </c>
       <c r="E57" s="3">
-        <v>12733600</v>
+        <v>12532100</v>
       </c>
       <c r="F57" s="3">
-        <v>12440300</v>
+        <v>13200500</v>
       </c>
       <c r="G57" s="3">
-        <v>11308800</v>
+        <v>12896600</v>
       </c>
       <c r="H57" s="3">
-        <v>10608000</v>
+        <v>11723600</v>
       </c>
       <c r="I57" s="3">
-        <v>10749700</v>
+        <v>10997000</v>
       </c>
       <c r="J57" s="3">
+        <v>11144000</v>
+      </c>
+      <c r="K57" s="3">
         <v>10748100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9809900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9797100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9368400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11194600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11828400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11275400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11927900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13511800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>12785400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12738900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12718200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13894300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13397100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12889700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12346100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12437800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>11908500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9585400</v>
+        <v>12845400</v>
       </c>
       <c r="E58" s="3">
-        <v>13131200</v>
+        <v>9937000</v>
       </c>
       <c r="F58" s="3">
-        <v>11135100</v>
+        <v>13612800</v>
       </c>
       <c r="G58" s="3">
-        <v>13459000</v>
+        <v>11543400</v>
       </c>
       <c r="H58" s="3">
-        <v>11885500</v>
+        <v>13952600</v>
       </c>
       <c r="I58" s="3">
-        <v>6317300</v>
+        <v>12321400</v>
       </c>
       <c r="J58" s="3">
+        <v>6548900</v>
+      </c>
+      <c r="K58" s="3">
         <v>4899400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9077200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12284200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12318200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3652100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6529700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5029300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4536800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2847300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5429700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4508500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4229900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2157200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3742700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3865500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4202800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3429100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3937900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19517500</v>
+        <v>20988900</v>
       </c>
       <c r="E59" s="3">
-        <v>17901700</v>
+        <v>20233300</v>
       </c>
       <c r="F59" s="3">
-        <v>17929900</v>
+        <v>18558100</v>
       </c>
       <c r="G59" s="3">
-        <v>16316300</v>
+        <v>18587400</v>
       </c>
       <c r="H59" s="3">
-        <v>15779500</v>
+        <v>16914600</v>
       </c>
       <c r="I59" s="3">
-        <v>16107200</v>
+        <v>16358100</v>
       </c>
       <c r="J59" s="3">
+        <v>16697900</v>
+      </c>
+      <c r="K59" s="3">
         <v>16944700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15956700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16120700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17854300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18042600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19847800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16505800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16298200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18290400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17134300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17568000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16763300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>18258800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17693700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17628000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>16719600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17137200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16265100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41191800</v>
+        <v>44703200</v>
       </c>
       <c r="E60" s="3">
-        <v>43766500</v>
+        <v>42702300</v>
       </c>
       <c r="F60" s="3">
-        <v>41505300</v>
+        <v>45371400</v>
       </c>
       <c r="G60" s="3">
-        <v>41084100</v>
+        <v>43027400</v>
       </c>
       <c r="H60" s="3">
-        <v>38273000</v>
+        <v>42590800</v>
       </c>
       <c r="I60" s="3">
-        <v>33174200</v>
+        <v>39676500</v>
       </c>
       <c r="J60" s="3">
+        <v>34390800</v>
+      </c>
+      <c r="K60" s="3">
         <v>32592200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34843800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38202100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39540800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32889300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38205800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32810500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32762900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34649400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>35349400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34815400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>33711400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34310400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34833500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>34383200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>33268500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33004000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>32111400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10300500</v>
+        <v>9606900</v>
       </c>
       <c r="E61" s="3">
-        <v>11399900</v>
+        <v>10678200</v>
       </c>
       <c r="F61" s="3">
-        <v>11033300</v>
+        <v>11818000</v>
       </c>
       <c r="G61" s="3">
-        <v>11474900</v>
+        <v>11437900</v>
       </c>
       <c r="H61" s="3">
-        <v>11608300</v>
+        <v>11895700</v>
       </c>
       <c r="I61" s="3">
-        <v>11634600</v>
+        <v>12034000</v>
       </c>
       <c r="J61" s="3">
+        <v>12061200</v>
+      </c>
+      <c r="K61" s="3">
         <v>12097900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9983800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7275300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8505400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9431100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7705500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7720200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8081000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6808600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7076600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6652500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6755400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7337400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7529400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7629600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7261000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7007400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7631500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5926300</v>
+        <v>5301400</v>
       </c>
       <c r="E62" s="3">
-        <v>8310100</v>
+        <v>6143600</v>
       </c>
       <c r="F62" s="3">
-        <v>7954900</v>
+        <v>8614800</v>
       </c>
       <c r="G62" s="3">
-        <v>7865400</v>
+        <v>8246600</v>
       </c>
       <c r="H62" s="3">
-        <v>7755400</v>
+        <v>8153800</v>
       </c>
       <c r="I62" s="3">
-        <v>7633400</v>
+        <v>8039800</v>
       </c>
       <c r="J62" s="3">
+        <v>7913300</v>
+      </c>
+      <c r="K62" s="3">
         <v>7737800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8641200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9389500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7054800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7573600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8011800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7935100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7819600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8631100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8503900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8634300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8575800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8930400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9587400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9519400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9427600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9367200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9692000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62152800</v>
+        <v>64362700</v>
       </c>
       <c r="E66" s="3">
-        <v>70785700</v>
+        <v>64432000</v>
       </c>
       <c r="F66" s="3">
-        <v>67678800</v>
+        <v>73381500</v>
       </c>
       <c r="G66" s="3">
-        <v>67168700</v>
+        <v>70160600</v>
       </c>
       <c r="H66" s="3">
-        <v>64197300</v>
+        <v>69631900</v>
       </c>
       <c r="I66" s="3">
-        <v>58887700</v>
+        <v>66551500</v>
       </c>
       <c r="J66" s="3">
+        <v>61047200</v>
+      </c>
+      <c r="K66" s="3">
         <v>59040900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58736000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59983500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>60767600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59644500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64242700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>58617400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59031200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>61157900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61843400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61415400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59788500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61730400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>63059800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62347900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>60372500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>59400900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>59920500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23810500</v>
+        <v>23964600</v>
       </c>
       <c r="E72" s="3">
-        <v>22789700</v>
+        <v>24683700</v>
       </c>
       <c r="F72" s="3">
-        <v>22671900</v>
+        <v>23625400</v>
       </c>
       <c r="G72" s="3">
-        <v>21659200</v>
+        <v>23503300</v>
       </c>
       <c r="H72" s="3">
-        <v>21162200</v>
+        <v>22453500</v>
       </c>
       <c r="I72" s="3">
-        <v>19748800</v>
+        <v>21938300</v>
       </c>
       <c r="J72" s="3">
+        <v>20473000</v>
+      </c>
+      <c r="K72" s="3">
         <v>19218200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18264800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19425200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>21120100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>20229600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20621300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22424100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21711000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21983700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>20149100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21201100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19948300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19032800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18040300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>17443200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>16664700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>15909000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15530900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34394200</v>
+        <v>33252600</v>
       </c>
       <c r="E76" s="3">
-        <v>32743000</v>
+        <v>35655500</v>
       </c>
       <c r="F76" s="3">
-        <v>30783600</v>
+        <v>33943800</v>
       </c>
       <c r="G76" s="3">
-        <v>28006600</v>
+        <v>31912500</v>
       </c>
       <c r="H76" s="3">
-        <v>27118500</v>
+        <v>29033600</v>
       </c>
       <c r="I76" s="3">
-        <v>25481500</v>
+        <v>28112900</v>
       </c>
       <c r="J76" s="3">
+        <v>26415900</v>
+      </c>
+      <c r="K76" s="3">
         <v>24995800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21464600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22715300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>25901600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27839500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29420500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30705700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30120900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31353600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29663100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32043600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30517000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29633300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29113400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28434800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27238300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26318000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>25587900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>959700</v>
+        <v>879900</v>
       </c>
       <c r="E81" s="3">
-        <v>263500</v>
+        <v>994900</v>
       </c>
       <c r="F81" s="3">
-        <v>940700</v>
+        <v>273100</v>
       </c>
       <c r="G81" s="3">
-        <v>909900</v>
+        <v>975200</v>
       </c>
       <c r="H81" s="3">
-        <v>1419500</v>
+        <v>943300</v>
       </c>
       <c r="I81" s="3">
-        <v>866600</v>
+        <v>1471600</v>
       </c>
       <c r="J81" s="3">
+        <v>898400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1373600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>418700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1904300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>285900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>634000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1102000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1344600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>815200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>956700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>943800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>885600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>773300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>678600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>354800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>689800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>997100</v>
+        <v>908200</v>
       </c>
       <c r="E83" s="3">
-        <v>1005200</v>
+        <v>1033700</v>
       </c>
       <c r="F83" s="3">
-        <v>1009800</v>
+        <v>1042100</v>
       </c>
       <c r="G83" s="3">
-        <v>955600</v>
+        <v>1046800</v>
       </c>
       <c r="H83" s="3">
-        <v>936700</v>
+        <v>990700</v>
       </c>
       <c r="I83" s="3">
-        <v>928300</v>
+        <v>971100</v>
       </c>
       <c r="J83" s="3">
+        <v>962300</v>
+      </c>
+      <c r="K83" s="3">
         <v>996500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>918100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>992500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>839800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1027900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>989800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>959000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>947800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>934400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>863000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>828800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>819700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>836100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>833100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>836900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>788400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>836200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>793900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>904000</v>
+        <v>1076300</v>
       </c>
       <c r="E89" s="3">
-        <v>752600</v>
+        <v>937100</v>
       </c>
       <c r="F89" s="3">
-        <v>3352100</v>
+        <v>780200</v>
       </c>
       <c r="G89" s="3">
-        <v>678400</v>
+        <v>3475000</v>
       </c>
       <c r="H89" s="3">
-        <v>173000</v>
+        <v>703300</v>
       </c>
       <c r="I89" s="3">
-        <v>971800</v>
+        <v>179300</v>
       </c>
       <c r="J89" s="3">
+        <v>1007500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2600100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1553300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>472800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1311900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2229600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>930700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1165500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>722400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3917700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-91000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>721300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1221300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2295800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1760400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1369900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1147500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2221100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>835800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-493400</v>
+        <v>-431800</v>
       </c>
       <c r="E91" s="3">
-        <v>-484200</v>
+        <v>-511500</v>
       </c>
       <c r="F91" s="3">
-        <v>-630800</v>
+        <v>-502000</v>
       </c>
       <c r="G91" s="3">
-        <v>-490400</v>
+        <v>-653900</v>
       </c>
       <c r="H91" s="3">
-        <v>-512700</v>
+        <v>-508400</v>
       </c>
       <c r="I91" s="3">
-        <v>-471600</v>
+        <v>-531500</v>
       </c>
       <c r="J91" s="3">
+        <v>-488900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-628300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-384800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-471300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-453200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-794100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-595900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-811800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-723700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-857900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-898800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-883000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-934700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-889100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2300</v>
+        <v>-536100</v>
       </c>
       <c r="E94" s="3">
-        <v>-510600</v>
+        <v>-2400</v>
       </c>
       <c r="F94" s="3">
-        <v>-149900</v>
+        <v>-529300</v>
       </c>
       <c r="G94" s="3">
-        <v>-541000</v>
+        <v>-155400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6695600</v>
+        <v>-560800</v>
       </c>
       <c r="I94" s="3">
-        <v>-50000</v>
+        <v>-6941200</v>
       </c>
       <c r="J94" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="K94" s="3">
         <v>2178300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-455900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3049100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-297800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-937000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-962900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>121300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-311700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-357900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-944800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-721200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-945800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>141000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,88 +7185,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>1700</v>
+        <v>-487900</v>
       </c>
       <c r="E96" s="3">
-        <v>-446500</v>
+        <v>1800</v>
       </c>
       <c r="F96" s="3">
+        <v>-462800</v>
+      </c>
+      <c r="G96" s="3">
         <v>600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-412000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-427100</v>
+      </c>
+      <c r="I96" s="3">
         <v>800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-377400</v>
-      </c>
       <c r="J96" s="3">
+        <v>-391300</v>
+      </c>
+      <c r="K96" s="3">
         <v>600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-355300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>1100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-412600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-397200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>1500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-442700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-365100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-351500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-305900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-257400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2513200</v>
+        <v>570500</v>
       </c>
       <c r="E100" s="3">
-        <v>113500</v>
+        <v>-2605400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3597400</v>
+        <v>117600</v>
       </c>
       <c r="G100" s="3">
-        <v>450900</v>
+        <v>-3729300</v>
       </c>
       <c r="H100" s="3">
-        <v>4508100</v>
+        <v>467400</v>
       </c>
       <c r="I100" s="3">
-        <v>75800</v>
+        <v>4673400</v>
       </c>
       <c r="J100" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4395900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-723400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4492600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-740400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>668100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-529700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-258300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>797900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-748700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-709100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>170400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-864900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-425100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>103100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>443300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>252600</v>
+      </c>
+      <c r="H101" s="3">
+        <v>193000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>316900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>46100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>18000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>171200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-189700</v>
+      </c>
+      <c r="S101" s="3">
+        <v>27200</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-170600</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-254800</v>
+      </c>
+      <c r="X101" s="3">
         <v>99500</v>
       </c>
-      <c r="E101" s="3">
-        <v>427700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>243700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>186100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>22100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>38200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>316900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>46100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>18000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>7000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-152900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>171200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-128000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-189700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>27200</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-170600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-254800</v>
-      </c>
-      <c r="W101" s="3">
-        <v>99500</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>107600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>59800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-122100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>530100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1512100</v>
+        <v>685600</v>
       </c>
       <c r="E102" s="3">
-        <v>783100</v>
+        <v>-1567500</v>
       </c>
       <c r="F102" s="3">
-        <v>-151500</v>
+        <v>811900</v>
       </c>
       <c r="G102" s="3">
-        <v>774500</v>
+        <v>-157100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1992500</v>
+        <v>802900</v>
       </c>
       <c r="I102" s="3">
-        <v>1035900</v>
+        <v>-2065500</v>
       </c>
       <c r="J102" s="3">
+        <v>1073900</v>
+      </c>
+      <c r="K102" s="3">
         <v>699400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1153400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8860600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1038400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>74800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>237900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>949900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>104000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1058400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>390000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-405400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>431900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-781600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,383 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19786300</v>
+        <v>19988700</v>
       </c>
       <c r="E8" s="3">
-        <v>20925200</v>
+        <v>19409400</v>
       </c>
       <c r="F8" s="3">
-        <v>18888100</v>
+        <v>20526600</v>
       </c>
       <c r="G8" s="3">
-        <v>21446800</v>
+        <v>18528400</v>
       </c>
       <c r="H8" s="3">
-        <v>18477900</v>
+        <v>21038300</v>
       </c>
       <c r="I8" s="3">
-        <v>18119400</v>
+        <v>18125900</v>
       </c>
       <c r="J8" s="3">
+        <v>17774300</v>
+      </c>
+      <c r="K8" s="3">
         <v>17400700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19498900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16264900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16871400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13599200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>21347400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19339200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20114600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18618500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25924400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>21628300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21607900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19688000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>24359100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20770000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20681700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18881600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>23443000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>19208300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14864400</v>
+        <v>14911300</v>
       </c>
       <c r="E9" s="3">
-        <v>15782000</v>
+        <v>14581200</v>
       </c>
       <c r="F9" s="3">
-        <v>14364400</v>
+        <v>15481400</v>
       </c>
       <c r="G9" s="3">
-        <v>15977200</v>
+        <v>14090800</v>
       </c>
       <c r="H9" s="3">
-        <v>13853500</v>
+        <v>15672800</v>
       </c>
       <c r="I9" s="3">
-        <v>13646800</v>
+        <v>13589700</v>
       </c>
       <c r="J9" s="3">
+        <v>13386900</v>
+      </c>
+      <c r="K9" s="3">
         <v>13161400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14759900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12099600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12635200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10060500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>15555900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>14178700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14579000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13633700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19379600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>15751100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15728800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>14420300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>17804700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>15290000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15148400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13830300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>17433900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>14170500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4921900</v>
+        <v>5077400</v>
       </c>
       <c r="E10" s="3">
-        <v>5143100</v>
+        <v>4828200</v>
       </c>
       <c r="F10" s="3">
-        <v>4523700</v>
+        <v>5045200</v>
       </c>
       <c r="G10" s="3">
-        <v>5469700</v>
+        <v>4437600</v>
       </c>
       <c r="H10" s="3">
-        <v>4624400</v>
+        <v>5365500</v>
       </c>
       <c r="I10" s="3">
-        <v>4472600</v>
+        <v>4536300</v>
       </c>
       <c r="J10" s="3">
+        <v>4387400</v>
+      </c>
+      <c r="K10" s="3">
         <v>4239200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4739000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4165300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4236200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3538700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5791400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5160500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5535500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4984800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6544800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5877200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5879200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5267700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6554300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5479900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5533300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5051300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6009100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5037800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,50 +1241,53 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>49600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-15000</v>
+        <v>48700</v>
       </c>
       <c r="F14" s="3">
-        <v>30900</v>
+        <v>-14700</v>
       </c>
       <c r="G14" s="3">
-        <v>194800</v>
+        <v>30300</v>
       </c>
       <c r="H14" s="3">
-        <v>58900</v>
+        <v>191100</v>
       </c>
       <c r="I14" s="3">
-        <v>-436300</v>
+        <v>57800</v>
       </c>
       <c r="J14" s="3">
+        <v>-428000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-245700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-853500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>256500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>325700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2389500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18344900</v>
+        <v>18397800</v>
       </c>
       <c r="E17" s="3">
-        <v>19417600</v>
+        <v>17995400</v>
       </c>
       <c r="F17" s="3">
-        <v>18025600</v>
+        <v>19047700</v>
       </c>
       <c r="G17" s="3">
-        <v>19776400</v>
+        <v>17682300</v>
       </c>
       <c r="H17" s="3">
-        <v>17254900</v>
+        <v>19399700</v>
       </c>
       <c r="I17" s="3">
-        <v>16363200</v>
+        <v>16926300</v>
       </c>
       <c r="J17" s="3">
+        <v>16051500</v>
+      </c>
+      <c r="K17" s="3">
         <v>16195900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17381500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15523600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16243500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10711800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19442200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17987000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18526400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17479100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23806000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19835200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19783000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18341400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>22188700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>19221300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19132200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17689700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>21707800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>18186600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1441500</v>
+        <v>1590900</v>
       </c>
       <c r="E18" s="3">
-        <v>1507600</v>
+        <v>1414000</v>
       </c>
       <c r="F18" s="3">
-        <v>862500</v>
+        <v>1478900</v>
       </c>
       <c r="G18" s="3">
-        <v>1670400</v>
+        <v>846100</v>
       </c>
       <c r="H18" s="3">
-        <v>1223000</v>
+        <v>1638600</v>
       </c>
       <c r="I18" s="3">
-        <v>1756200</v>
+        <v>1199700</v>
       </c>
       <c r="J18" s="3">
+        <v>1722800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1204700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2117400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>741300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>628000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2887400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1905200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1352200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1588200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1139400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2118400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1793100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1824900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1346700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2170300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1548600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1549500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1191800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1735100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1021800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,423 +1648,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-55600</v>
+        <v>1142700</v>
       </c>
       <c r="E20" s="3">
-        <v>92600</v>
+        <v>-54500</v>
       </c>
       <c r="F20" s="3">
-        <v>-231300</v>
+        <v>90900</v>
       </c>
       <c r="G20" s="3">
-        <v>194100</v>
+        <v>-226900</v>
       </c>
       <c r="H20" s="3">
-        <v>97400</v>
+        <v>190400</v>
       </c>
       <c r="I20" s="3">
-        <v>153500</v>
+        <v>95500</v>
       </c>
       <c r="J20" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K20" s="3">
         <v>69100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>373000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>149700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-235800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-725600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-545700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>577900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-53600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-175700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>335400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-583700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>82700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-132600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>132400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-702400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>286900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2294100</v>
+        <v>3601100</v>
       </c>
       <c r="E21" s="3">
-        <v>2633900</v>
+        <v>2250400</v>
       </c>
       <c r="F21" s="3">
-        <v>1673300</v>
+        <v>2583700</v>
       </c>
       <c r="G21" s="3">
-        <v>2911300</v>
+        <v>1641400</v>
       </c>
       <c r="H21" s="3">
-        <v>2311000</v>
+        <v>2855900</v>
       </c>
       <c r="I21" s="3">
-        <v>2880700</v>
+        <v>2267000</v>
       </c>
       <c r="J21" s="3">
+        <v>2825900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2236100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3486900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1809100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1384600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3774700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2207500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2001500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2665100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2999300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>481600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2478000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2501800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2422700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2464400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2253700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2112600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1868900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2102600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102000</v>
+        <v>115200</v>
       </c>
       <c r="E22" s="3">
-        <v>89500</v>
+        <v>100100</v>
       </c>
       <c r="F22" s="3">
-        <v>68200</v>
+        <v>87800</v>
       </c>
       <c r="G22" s="3">
-        <v>55900</v>
+        <v>66900</v>
       </c>
       <c r="H22" s="3">
-        <v>47700</v>
+        <v>54800</v>
       </c>
       <c r="I22" s="3">
-        <v>48300</v>
+        <v>46800</v>
       </c>
       <c r="J22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K22" s="3">
         <v>47400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>40900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>57400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>54300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>47100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>41700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>45400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>48500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>47200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>44600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>38100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>42000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1283900</v>
+        <v>2618300</v>
       </c>
       <c r="E23" s="3">
-        <v>1510700</v>
+        <v>1259400</v>
       </c>
       <c r="F23" s="3">
-        <v>563100</v>
+        <v>1481900</v>
       </c>
       <c r="G23" s="3">
-        <v>1808700</v>
+        <v>552300</v>
       </c>
       <c r="H23" s="3">
-        <v>1272600</v>
+        <v>1774200</v>
       </c>
       <c r="I23" s="3">
-        <v>1861400</v>
+        <v>1248400</v>
       </c>
       <c r="J23" s="3">
+        <v>1825900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1226400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2449500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>840800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>347000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2897700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1129000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>984300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1665900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2015600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-435700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1602100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1640400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1541300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1582800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1369600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1279600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>994600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1266600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>306200</v>
+        <v>-49500</v>
       </c>
       <c r="E24" s="3">
-        <v>380300</v>
+        <v>300400</v>
       </c>
       <c r="F24" s="3">
-        <v>217200</v>
+        <v>373100</v>
       </c>
       <c r="G24" s="3">
-        <v>642800</v>
+        <v>213100</v>
       </c>
       <c r="H24" s="3">
-        <v>186100</v>
+        <v>630500</v>
       </c>
       <c r="I24" s="3">
-        <v>189500</v>
+        <v>182600</v>
       </c>
       <c r="J24" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K24" s="3">
         <v>219800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>347100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>186800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>962900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>762200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>454200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>377600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>469000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>422800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>407300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>444600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>137800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>394200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>340500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>318200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>339400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>295300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>977600</v>
+        <v>2667800</v>
       </c>
       <c r="E26" s="3">
-        <v>1130400</v>
+        <v>959000</v>
       </c>
       <c r="F26" s="3">
-        <v>345800</v>
+        <v>1108900</v>
       </c>
       <c r="G26" s="3">
-        <v>1165900</v>
+        <v>339200</v>
       </c>
       <c r="H26" s="3">
-        <v>1086500</v>
+        <v>1143700</v>
       </c>
       <c r="I26" s="3">
-        <v>1671900</v>
+        <v>1065800</v>
       </c>
       <c r="J26" s="3">
+        <v>1640000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1006600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1449500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>493700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>160200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1934800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>366800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>530100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1288300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1546600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-858600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1194900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1195800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1403500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1188600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1029200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>961500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>655200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>971300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>879900</v>
+        <v>2573200</v>
       </c>
       <c r="E27" s="3">
-        <v>994900</v>
+        <v>863200</v>
       </c>
       <c r="F27" s="3">
-        <v>273100</v>
+        <v>975900</v>
       </c>
       <c r="G27" s="3">
-        <v>975200</v>
+        <v>267900</v>
       </c>
       <c r="H27" s="3">
-        <v>943300</v>
+        <v>956700</v>
       </c>
       <c r="I27" s="3">
-        <v>1471600</v>
+        <v>925300</v>
       </c>
       <c r="J27" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="K27" s="3">
         <v>898400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1373600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>418700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>217000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1907200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>291100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>637600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1105700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1390100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>907000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>903300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1089500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>873200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>784200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>679200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>399800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>697700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2377,8 +2437,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2396,58 +2456,61 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-2900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-3600</v>
       </c>
       <c r="Q29" s="3">
         <v>-3600</v>
       </c>
       <c r="R29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-45500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-91800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>53400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-145700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>12400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-45100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-7900</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>55600</v>
+        <v>-1142700</v>
       </c>
       <c r="E32" s="3">
-        <v>-92600</v>
+        <v>54500</v>
       </c>
       <c r="F32" s="3">
-        <v>231300</v>
+        <v>-90900</v>
       </c>
       <c r="G32" s="3">
-        <v>-194100</v>
+        <v>226900</v>
       </c>
       <c r="H32" s="3">
-        <v>-97400</v>
+        <v>-190400</v>
       </c>
       <c r="I32" s="3">
-        <v>-153500</v>
+        <v>-95500</v>
       </c>
       <c r="J32" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-69100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-373000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-149700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>235800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>725600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3452500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>545700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-577900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>53600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2174600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>175700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-335400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>583700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-82700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>132600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-132400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>702400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-286900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>879900</v>
+        <v>2573200</v>
       </c>
       <c r="E33" s="3">
-        <v>994900</v>
+        <v>863200</v>
       </c>
       <c r="F33" s="3">
-        <v>273100</v>
+        <v>975900</v>
       </c>
       <c r="G33" s="3">
-        <v>975200</v>
+        <v>267900</v>
       </c>
       <c r="H33" s="3">
-        <v>943300</v>
+        <v>956700</v>
       </c>
       <c r="I33" s="3">
-        <v>1471600</v>
+        <v>925300</v>
       </c>
       <c r="J33" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="K33" s="3">
         <v>898400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1373600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>418700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1904300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>285900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>634000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1102000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1344600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>815200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>956700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>943800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>885600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>773300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>678600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>354800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>689800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>879900</v>
+        <v>2573200</v>
       </c>
       <c r="E35" s="3">
-        <v>994900</v>
+        <v>863200</v>
       </c>
       <c r="F35" s="3">
-        <v>273100</v>
+        <v>975900</v>
       </c>
       <c r="G35" s="3">
-        <v>975200</v>
+        <v>267900</v>
       </c>
       <c r="H35" s="3">
-        <v>943300</v>
+        <v>956700</v>
       </c>
       <c r="I35" s="3">
-        <v>1471600</v>
+        <v>925300</v>
       </c>
       <c r="J35" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="K35" s="3">
         <v>898400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1373600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>418700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1904300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>285900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>634000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1102000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1344600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>815200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>956700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>943800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>885600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>773300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>678600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>354800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>689800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,165 +3179,169 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6171100</v>
+        <v>6008000</v>
       </c>
       <c r="E41" s="3">
-        <v>6365200</v>
+        <v>6053600</v>
       </c>
       <c r="F41" s="3">
-        <v>7932700</v>
+        <v>6244000</v>
       </c>
       <c r="G41" s="3">
-        <v>7120900</v>
+        <v>7781600</v>
       </c>
       <c r="H41" s="3">
-        <v>7278000</v>
+        <v>6985200</v>
       </c>
       <c r="I41" s="3">
-        <v>6475100</v>
+        <v>7139400</v>
       </c>
       <c r="J41" s="3">
+        <v>6351800</v>
+      </c>
+      <c r="K41" s="3">
         <v>8540600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7202600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6723400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5919500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15789700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7156600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6326500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7735200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7635500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7761000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6690600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7669800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7402900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6309600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7334400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6944300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7349700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6787700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6771500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2002500</v>
+        <v>2501300</v>
       </c>
       <c r="E42" s="3">
-        <v>2447500</v>
+        <v>1964400</v>
       </c>
       <c r="F42" s="3">
-        <v>3031900</v>
+        <v>2400900</v>
       </c>
       <c r="G42" s="3">
-        <v>2765900</v>
+        <v>2974200</v>
       </c>
       <c r="H42" s="3">
-        <v>2202300</v>
+        <v>2713200</v>
       </c>
       <c r="I42" s="3">
-        <v>2486500</v>
+        <v>2160400</v>
       </c>
       <c r="J42" s="3">
+        <v>2439100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2416300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2326600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2238300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2240900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2179300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2466400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2925600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2532000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2600300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2731800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3037900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2792200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3453500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3374800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2939900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2708500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
@@ -3260,589 +3349,613 @@
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18880800</v>
+        <v>20728700</v>
       </c>
       <c r="E43" s="3">
-        <v>20580800</v>
+        <v>18521100</v>
       </c>
       <c r="F43" s="3">
-        <v>20315400</v>
+        <v>20188800</v>
       </c>
       <c r="G43" s="3">
-        <v>21889400</v>
+        <v>19928500</v>
       </c>
       <c r="H43" s="3">
-        <v>19711700</v>
+        <v>21472500</v>
       </c>
       <c r="I43" s="3">
-        <v>18831500</v>
+        <v>19336200</v>
       </c>
       <c r="J43" s="3">
+        <v>18472800</v>
+      </c>
+      <c r="K43" s="3">
         <v>18322300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19387400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17315500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17898000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14873600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19912400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19995800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19820500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19347400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>23063400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20887500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20792200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19477900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22612800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20017900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>21216900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>19871600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21957800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19728100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12955800</v>
+        <v>11869000</v>
       </c>
       <c r="E44" s="3">
-        <v>14596600</v>
+        <v>12709100</v>
       </c>
       <c r="F44" s="3">
-        <v>17124500</v>
+        <v>14318500</v>
       </c>
       <c r="G44" s="3">
-        <v>15011900</v>
+        <v>16798300</v>
       </c>
       <c r="H44" s="3">
-        <v>14853600</v>
+        <v>14725900</v>
       </c>
       <c r="I44" s="3">
-        <v>13636100</v>
+        <v>14570700</v>
       </c>
       <c r="J44" s="3">
+        <v>13376400</v>
+      </c>
+      <c r="K44" s="3">
         <v>13211400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11722600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12228700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12212600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12348200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12412700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>14707900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13615300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13569800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13038500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>14975900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13820200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13141900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12432100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>14097600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12782800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12369500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>10873800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>12655400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10982700</v>
+        <v>1637800</v>
       </c>
       <c r="E45" s="3">
-        <v>2187000</v>
+        <v>10773500</v>
       </c>
       <c r="F45" s="3">
-        <v>2224800</v>
+        <v>2145300</v>
       </c>
       <c r="G45" s="3">
-        <v>1717800</v>
+        <v>2182400</v>
       </c>
       <c r="H45" s="3">
-        <v>2735500</v>
+        <v>1685000</v>
       </c>
       <c r="I45" s="3">
-        <v>2110800</v>
+        <v>2683400</v>
       </c>
       <c r="J45" s="3">
+        <v>2070600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1818300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1498800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1681100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1832800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4113500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4018800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6546100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2042700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2117200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1799400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2361700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2166700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2156900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1842900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2258300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2187200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2212300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4753800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4708100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>50992900</v>
+        <v>42744700</v>
       </c>
       <c r="E46" s="3">
-        <v>46177200</v>
+        <v>50021600</v>
       </c>
       <c r="F46" s="3">
-        <v>50629300</v>
+        <v>45297600</v>
       </c>
       <c r="G46" s="3">
-        <v>48505800</v>
+        <v>49665000</v>
       </c>
       <c r="H46" s="3">
-        <v>46781100</v>
+        <v>47581900</v>
       </c>
       <c r="I46" s="3">
-        <v>43540000</v>
+        <v>45890000</v>
       </c>
       <c r="J46" s="3">
+        <v>42710700</v>
+      </c>
+      <c r="K46" s="3">
         <v>44308900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42138000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40187000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40103800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>49304300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>45967000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50502000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45745800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45270100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>48394000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>47953500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47241100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>45633100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>46572300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46648100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>45839800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>45304800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>44373100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>43863100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7064100</v>
+        <v>7033500</v>
       </c>
       <c r="E47" s="3">
-        <v>8206900</v>
+        <v>6929500</v>
       </c>
       <c r="F47" s="3">
-        <v>7561900</v>
+        <v>8050600</v>
       </c>
       <c r="G47" s="3">
-        <v>7320700</v>
+        <v>7417900</v>
       </c>
       <c r="H47" s="3">
-        <v>7300800</v>
+        <v>7181200</v>
       </c>
       <c r="I47" s="3">
-        <v>7243800</v>
+        <v>7161800</v>
       </c>
       <c r="J47" s="3">
+        <v>7105800</v>
+      </c>
+      <c r="K47" s="3">
         <v>7097900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7135600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6667500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7063000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7699800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8113000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>9074100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>12086600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11909900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12423900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12268900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12733300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12636400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>13196900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13425300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13164700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>12783700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12515200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>13097300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12492400</v>
+        <v>12260400</v>
       </c>
       <c r="E48" s="3">
-        <v>15542900</v>
+        <v>12254500</v>
       </c>
       <c r="F48" s="3">
-        <v>18838300</v>
+        <v>15246800</v>
       </c>
       <c r="G48" s="3">
-        <v>18219900</v>
+        <v>18479400</v>
       </c>
       <c r="H48" s="3">
-        <v>17791600</v>
+        <v>17872900</v>
       </c>
       <c r="I48" s="3">
-        <v>17572400</v>
+        <v>17452700</v>
       </c>
       <c r="J48" s="3">
+        <v>17237600</v>
+      </c>
+      <c r="K48" s="3">
         <v>17652400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17079000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15682000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16694300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16517900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19076400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20106600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19703700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19759100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18803700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18389900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20003800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19357100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19208400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19232200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18881700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18246800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17725900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17662900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24574700</v>
+        <v>24586400</v>
       </c>
       <c r="E49" s="3">
-        <v>27448600</v>
+        <v>24106600</v>
       </c>
       <c r="F49" s="3">
-        <v>27386400</v>
+        <v>26925800</v>
       </c>
       <c r="G49" s="3">
-        <v>25069600</v>
+        <v>26864700</v>
       </c>
       <c r="H49" s="3">
-        <v>23867400</v>
+        <v>24592100</v>
       </c>
       <c r="I49" s="3">
-        <v>23555600</v>
+        <v>23412800</v>
       </c>
       <c r="J49" s="3">
+        <v>23106900</v>
+      </c>
+      <c r="K49" s="3">
         <v>15617200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15073600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14192100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15141300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9038200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9829500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10478300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8381100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8770800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9225800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9348100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9968300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9621800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9531500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10139000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10111900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8483100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8153300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8193600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2491300</v>
+        <v>3510200</v>
       </c>
       <c r="E52" s="3">
-        <v>2711900</v>
+        <v>2443800</v>
       </c>
       <c r="F52" s="3">
-        <v>2909400</v>
+        <v>2660300</v>
       </c>
       <c r="G52" s="3">
-        <v>2957100</v>
+        <v>2854000</v>
       </c>
       <c r="H52" s="3">
-        <v>2924700</v>
+        <v>2900800</v>
       </c>
       <c r="I52" s="3">
-        <v>2752700</v>
+        <v>2869000</v>
       </c>
       <c r="J52" s="3">
+        <v>2700300</v>
+      </c>
+      <c r="K52" s="3">
         <v>2786600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2610500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3472000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3696300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4109000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4498100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3502200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3405900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3442200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3664200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3546200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3512500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3057200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2854500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2728600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2784700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2792500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2951400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2691400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>97615400</v>
+        <v>90135200</v>
       </c>
       <c r="E54" s="3">
-        <v>100087500</v>
+        <v>95756100</v>
       </c>
       <c r="F54" s="3">
-        <v>107325300</v>
+        <v>98181100</v>
       </c>
       <c r="G54" s="3">
-        <v>102073100</v>
+        <v>105281000</v>
       </c>
       <c r="H54" s="3">
-        <v>98665500</v>
+        <v>100128900</v>
       </c>
       <c r="I54" s="3">
-        <v>94664500</v>
+        <v>96786100</v>
       </c>
       <c r="J54" s="3">
+        <v>92861400</v>
+      </c>
+      <c r="K54" s="3">
         <v>87463100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84036700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>80200700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82698800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86669200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87484000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>93663200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89323100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89152000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92511500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>91506600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>93459000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>90305500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>91363700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92173200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>90782700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>87610900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>85718900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>85508400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4447,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10868800</v>
+        <v>11164700</v>
       </c>
       <c r="E57" s="3">
-        <v>12532100</v>
+        <v>10661800</v>
       </c>
       <c r="F57" s="3">
-        <v>13200500</v>
+        <v>12293400</v>
       </c>
       <c r="G57" s="3">
-        <v>12896600</v>
+        <v>12949100</v>
       </c>
       <c r="H57" s="3">
-        <v>11723600</v>
+        <v>12650900</v>
       </c>
       <c r="I57" s="3">
-        <v>10997000</v>
+        <v>11500200</v>
       </c>
       <c r="J57" s="3">
+        <v>10787600</v>
+      </c>
+      <c r="K57" s="3">
         <v>11144000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10748100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9809900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9797100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9368400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11194600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11828400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11275400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11927900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13511800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>12785400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12738900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12718200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13894300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13397100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>12889700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12346100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12437800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>11908500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12845400</v>
+        <v>6629700</v>
       </c>
       <c r="E58" s="3">
-        <v>9937000</v>
+        <v>12600700</v>
       </c>
       <c r="F58" s="3">
-        <v>13612800</v>
+        <v>9747700</v>
       </c>
       <c r="G58" s="3">
-        <v>11543400</v>
+        <v>13353500</v>
       </c>
       <c r="H58" s="3">
-        <v>13952600</v>
+        <v>11323600</v>
       </c>
       <c r="I58" s="3">
-        <v>12321400</v>
+        <v>13686800</v>
       </c>
       <c r="J58" s="3">
+        <v>12086700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6548900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4899400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9077200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12284200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12318200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3652100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6529700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5029300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4536800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2847300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5429700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4508500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4229900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2157200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3742700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3865500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4202800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3429100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3937900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20988900</v>
+        <v>19453800</v>
       </c>
       <c r="E59" s="3">
-        <v>20233300</v>
+        <v>20589100</v>
       </c>
       <c r="F59" s="3">
-        <v>18558100</v>
+        <v>19847900</v>
       </c>
       <c r="G59" s="3">
-        <v>18587400</v>
+        <v>18204700</v>
       </c>
       <c r="H59" s="3">
-        <v>16914600</v>
+        <v>18233300</v>
       </c>
       <c r="I59" s="3">
-        <v>16358100</v>
+        <v>16592400</v>
       </c>
       <c r="J59" s="3">
+        <v>16046600</v>
+      </c>
+      <c r="K59" s="3">
         <v>16697900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16944700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15956700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16120700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17854300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18042600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19847800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16505800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16298200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>18290400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>17134300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17568000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>16763300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18258800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>17693700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17628000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>16719600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17137200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>16265100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44703200</v>
+        <v>37248100</v>
       </c>
       <c r="E60" s="3">
-        <v>42702300</v>
+        <v>43851700</v>
       </c>
       <c r="F60" s="3">
-        <v>45371400</v>
+        <v>41888900</v>
       </c>
       <c r="G60" s="3">
-        <v>43027400</v>
+        <v>44507200</v>
       </c>
       <c r="H60" s="3">
-        <v>42590800</v>
+        <v>42207800</v>
       </c>
       <c r="I60" s="3">
-        <v>39676500</v>
+        <v>41779500</v>
       </c>
       <c r="J60" s="3">
+        <v>38920800</v>
+      </c>
+      <c r="K60" s="3">
         <v>34390800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32592200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34843800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38202100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39540800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>32889300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38205800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32810500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32762900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>34649400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>35349400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34815400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>33711400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34310400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>34833500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34383200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>33268500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>33004000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>32111400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9606900</v>
+        <v>9328600</v>
       </c>
       <c r="E61" s="3">
-        <v>10678200</v>
+        <v>9423900</v>
       </c>
       <c r="F61" s="3">
-        <v>11818000</v>
+        <v>10474800</v>
       </c>
       <c r="G61" s="3">
-        <v>11437900</v>
+        <v>11592900</v>
       </c>
       <c r="H61" s="3">
-        <v>11895700</v>
+        <v>11220000</v>
       </c>
       <c r="I61" s="3">
-        <v>12034000</v>
+        <v>11669200</v>
       </c>
       <c r="J61" s="3">
+        <v>11804800</v>
+      </c>
+      <c r="K61" s="3">
         <v>12061200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12097900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9983800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7275300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8505400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9431100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7705500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7720200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8081000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6808600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7076600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6652500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6755400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7337400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7529400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7629600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7261000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7007400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7631500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5301400</v>
+        <v>5089000</v>
       </c>
       <c r="E62" s="3">
-        <v>6143600</v>
+        <v>5200400</v>
       </c>
       <c r="F62" s="3">
-        <v>8614800</v>
+        <v>6026600</v>
       </c>
       <c r="G62" s="3">
-        <v>8246600</v>
+        <v>8450700</v>
       </c>
       <c r="H62" s="3">
-        <v>8153800</v>
+        <v>8089500</v>
       </c>
       <c r="I62" s="3">
-        <v>8039800</v>
+        <v>7998500</v>
       </c>
       <c r="J62" s="3">
+        <v>7886600</v>
+      </c>
+      <c r="K62" s="3">
         <v>7913300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7737800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8641200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9389500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7054800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7573600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8011800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7935100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7819600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8631100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8503900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8634300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8575800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8930400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9587400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9519400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9427600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9367200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9692000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>64362700</v>
+        <v>54497200</v>
       </c>
       <c r="E66" s="3">
-        <v>64432000</v>
+        <v>63136800</v>
       </c>
       <c r="F66" s="3">
-        <v>73381500</v>
+        <v>63204700</v>
       </c>
       <c r="G66" s="3">
-        <v>70160600</v>
+        <v>71983800</v>
       </c>
       <c r="H66" s="3">
-        <v>69631900</v>
+        <v>68824300</v>
       </c>
       <c r="I66" s="3">
-        <v>66551500</v>
+        <v>68305500</v>
       </c>
       <c r="J66" s="3">
+        <v>65283900</v>
+      </c>
+      <c r="K66" s="3">
         <v>61047200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59040900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>58736000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59983500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60767600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59644500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64242700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>58617400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59031200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>61157900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61843400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61415400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>59788500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>61730400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>63059800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62347900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>60372500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>59400900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>59920500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23964600</v>
+        <v>26224100</v>
       </c>
       <c r="E72" s="3">
-        <v>24683700</v>
+        <v>23508100</v>
       </c>
       <c r="F72" s="3">
-        <v>23625400</v>
+        <v>24213500</v>
       </c>
       <c r="G72" s="3">
-        <v>23503300</v>
+        <v>23175400</v>
       </c>
       <c r="H72" s="3">
-        <v>22453500</v>
+        <v>23055600</v>
       </c>
       <c r="I72" s="3">
-        <v>21938300</v>
+        <v>22025800</v>
       </c>
       <c r="J72" s="3">
+        <v>21520400</v>
+      </c>
+      <c r="K72" s="3">
         <v>20473000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19218200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18264800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19425200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21120100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>20229600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20621300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22424100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21711000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21983700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>20149100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21201100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19948300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19032800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18040300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>17443200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>16664700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>15909000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15530900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33252600</v>
+        <v>35638000</v>
       </c>
       <c r="E76" s="3">
-        <v>35655500</v>
+        <v>32619300</v>
       </c>
       <c r="F76" s="3">
-        <v>33943800</v>
+        <v>34976300</v>
       </c>
       <c r="G76" s="3">
-        <v>31912500</v>
+        <v>33297200</v>
       </c>
       <c r="H76" s="3">
-        <v>29033600</v>
+        <v>31304600</v>
       </c>
       <c r="I76" s="3">
-        <v>28112900</v>
+        <v>28480600</v>
       </c>
       <c r="J76" s="3">
+        <v>27577500</v>
+      </c>
+      <c r="K76" s="3">
         <v>26415900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24995800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21464600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22715300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>25901600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27839500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29420500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30705700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30120900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31353600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29663100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>32043600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30517000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29633300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>29113400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28434800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27238300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>26318000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>25587900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>879900</v>
+        <v>2573200</v>
       </c>
       <c r="E81" s="3">
-        <v>994900</v>
+        <v>863200</v>
       </c>
       <c r="F81" s="3">
-        <v>273100</v>
+        <v>975900</v>
       </c>
       <c r="G81" s="3">
-        <v>975200</v>
+        <v>267900</v>
       </c>
       <c r="H81" s="3">
-        <v>943300</v>
+        <v>956700</v>
       </c>
       <c r="I81" s="3">
-        <v>1471600</v>
+        <v>925300</v>
       </c>
       <c r="J81" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="K81" s="3">
         <v>898400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1373600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>418700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1904300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>285900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>634000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1102000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1344600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>815200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>956700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>943800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>885600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>773300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>678600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>354800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>689800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>908200</v>
+        <v>867600</v>
       </c>
       <c r="E83" s="3">
-        <v>1033700</v>
+        <v>890900</v>
       </c>
       <c r="F83" s="3">
-        <v>1042100</v>
+        <v>1014000</v>
       </c>
       <c r="G83" s="3">
-        <v>1046800</v>
+        <v>1022200</v>
       </c>
       <c r="H83" s="3">
-        <v>990700</v>
+        <v>1026800</v>
       </c>
       <c r="I83" s="3">
-        <v>971100</v>
+        <v>971800</v>
       </c>
       <c r="J83" s="3">
+        <v>952600</v>
+      </c>
+      <c r="K83" s="3">
         <v>962300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>996500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>918100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>992500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>839800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1027900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>989800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>959000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>947800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>934400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>863000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>828800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>819700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>836100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>833100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>836900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>788400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>836200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>793900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1076300</v>
+        <v>3222500</v>
       </c>
       <c r="E89" s="3">
-        <v>937100</v>
+        <v>1055800</v>
       </c>
       <c r="F89" s="3">
-        <v>780200</v>
+        <v>919300</v>
       </c>
       <c r="G89" s="3">
-        <v>3475000</v>
+        <v>765400</v>
       </c>
       <c r="H89" s="3">
-        <v>703300</v>
+        <v>3408800</v>
       </c>
       <c r="I89" s="3">
-        <v>179300</v>
+        <v>689900</v>
       </c>
       <c r="J89" s="3">
+        <v>175900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1007500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1553300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>472800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1311900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2229600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>930700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1165500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>722400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3917700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-91000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>721300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1221300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2295800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1760400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1369900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1147500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2221100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>835800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-431800</v>
+        <v>-105408000</v>
       </c>
       <c r="E91" s="3">
-        <v>-511500</v>
+        <v>-96150000</v>
       </c>
       <c r="F91" s="3">
-        <v>-502000</v>
+        <v>-108272000</v>
       </c>
       <c r="G91" s="3">
-        <v>-653900</v>
+        <v>-100755000</v>
       </c>
       <c r="H91" s="3">
-        <v>-508400</v>
+        <v>-134149000</v>
       </c>
       <c r="I91" s="3">
-        <v>-531500</v>
+        <v>-100626000</v>
       </c>
       <c r="J91" s="3">
+        <v>-107573000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-488900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-628300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-384800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-471300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-453200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-794100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-595900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-811800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-723700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-857900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-898800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-883000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-934700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-889100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-536100</v>
+        <v>2136600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2400</v>
+        <v>-525900</v>
       </c>
       <c r="F94" s="3">
-        <v>-529300</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>-155400</v>
+        <v>-519300</v>
       </c>
       <c r="H94" s="3">
-        <v>-560800</v>
+        <v>-152400</v>
       </c>
       <c r="I94" s="3">
-        <v>-6941200</v>
+        <v>-550100</v>
       </c>
       <c r="J94" s="3">
+        <v>-6808900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-51800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2178300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-455900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3049100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-297800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-937000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-962900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>121300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-311700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-357900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-944800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-721200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-945800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>141000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7418,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-487900</v>
+        <v>700</v>
       </c>
       <c r="E96" s="3">
+        <v>-478600</v>
+      </c>
+      <c r="F96" s="3">
         <v>1800</v>
       </c>
-      <c r="F96" s="3">
-        <v>-462800</v>
-      </c>
       <c r="G96" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="H96" s="3">
         <v>600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-427100</v>
-      </c>
       <c r="I96" s="3">
+        <v>-418900</v>
+      </c>
+      <c r="J96" s="3">
         <v>800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-391300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-355300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>1100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-412600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-397200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>1500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-442700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-365100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-351500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-305900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-257400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>570500</v>
+        <v>-6360000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2605400</v>
+        <v>559600</v>
       </c>
       <c r="F100" s="3">
-        <v>117600</v>
+        <v>-2555800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3729300</v>
+        <v>115400</v>
       </c>
       <c r="H100" s="3">
-        <v>467400</v>
+        <v>-3658300</v>
       </c>
       <c r="I100" s="3">
-        <v>4673400</v>
+        <v>458500</v>
       </c>
       <c r="J100" s="3">
+        <v>4584400</v>
+      </c>
+      <c r="K100" s="3">
         <v>78600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4395900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-723400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4492600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-740400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>668100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-529700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-258300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>797900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-748700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-709100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>170400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-864900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-425100</v>
+        <v>92300</v>
       </c>
       <c r="E101" s="3">
-        <v>103100</v>
+        <v>-417000</v>
       </c>
       <c r="F101" s="3">
-        <v>443300</v>
+        <v>101200</v>
       </c>
       <c r="G101" s="3">
-        <v>252600</v>
+        <v>434900</v>
       </c>
       <c r="H101" s="3">
-        <v>193000</v>
+        <v>247800</v>
       </c>
       <c r="I101" s="3">
-        <v>22900</v>
+        <v>189300</v>
       </c>
       <c r="J101" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K101" s="3">
         <v>39600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>316900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>46100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-152900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>171200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-128000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-189700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-170600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-16000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-254800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>99500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>107600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>59800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-122100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>530100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>685600</v>
+        <v>-908600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1567500</v>
+        <v>672600</v>
       </c>
       <c r="F102" s="3">
-        <v>811900</v>
+        <v>-1537700</v>
       </c>
       <c r="G102" s="3">
-        <v>-157100</v>
+        <v>796400</v>
       </c>
       <c r="H102" s="3">
-        <v>802900</v>
+        <v>-154100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2065500</v>
+        <v>787600</v>
       </c>
       <c r="J102" s="3">
+        <v>-2026200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1073900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>699400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1153400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8860600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1038400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>74800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>237900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>949900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>104000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1058400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>390000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-405400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>431900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>16200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-781600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,396 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19988700</v>
+        <v>15955500</v>
       </c>
       <c r="E8" s="3">
-        <v>19409400</v>
+        <v>19046100</v>
       </c>
       <c r="F8" s="3">
-        <v>20526600</v>
+        <v>18494200</v>
       </c>
       <c r="G8" s="3">
-        <v>18528400</v>
+        <v>19558600</v>
       </c>
       <c r="H8" s="3">
-        <v>21038300</v>
+        <v>17654600</v>
       </c>
       <c r="I8" s="3">
-        <v>18125900</v>
+        <v>20046200</v>
       </c>
       <c r="J8" s="3">
+        <v>17271200</v>
+      </c>
+      <c r="K8" s="3">
         <v>17774300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17400700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19498900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16264900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16871400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13599200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21347400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19339200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20114600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18618500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>25924400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>21628300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21607900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19688000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>24359100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>20770000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20681700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>18881600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>23443000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>19208300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14911300</v>
+        <v>12009000</v>
       </c>
       <c r="E9" s="3">
-        <v>14581200</v>
+        <v>14208100</v>
       </c>
       <c r="F9" s="3">
-        <v>15481400</v>
+        <v>13893600</v>
       </c>
       <c r="G9" s="3">
-        <v>14090800</v>
+        <v>14751400</v>
       </c>
       <c r="H9" s="3">
-        <v>15672800</v>
+        <v>13426300</v>
       </c>
       <c r="I9" s="3">
-        <v>13589700</v>
+        <v>14933800</v>
       </c>
       <c r="J9" s="3">
+        <v>12948800</v>
+      </c>
+      <c r="K9" s="3">
         <v>13386900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13161400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14759900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12099600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12635200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10060500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15555900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>14178700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14579000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13633700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19379600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>15751100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15728800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>14420300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>17804700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>15290000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>15148400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>13830300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>17433900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>14170500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5077400</v>
+        <v>3946500</v>
       </c>
       <c r="E10" s="3">
-        <v>4828200</v>
+        <v>4837900</v>
       </c>
       <c r="F10" s="3">
-        <v>5045200</v>
+        <v>4600500</v>
       </c>
       <c r="G10" s="3">
-        <v>4437600</v>
+        <v>4807300</v>
       </c>
       <c r="H10" s="3">
-        <v>5365500</v>
+        <v>4228300</v>
       </c>
       <c r="I10" s="3">
-        <v>4536300</v>
+        <v>5112500</v>
       </c>
       <c r="J10" s="3">
+        <v>4322400</v>
+      </c>
+      <c r="K10" s="3">
         <v>4387400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4239200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4739000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4165300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4236200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3538700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5791400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5160500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5535500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4984800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6544800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5877200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5879200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5267700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6554300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5479900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5533300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5051300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6009100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5037800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,53 +1261,56 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1129100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>46400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>182100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-428000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-245700</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-853500</v>
+      </c>
+      <c r="N14" s="3">
+        <v>256500</v>
+      </c>
+      <c r="O14" s="3">
+        <v>325700</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-2389500</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>48700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="G14" s="3">
-        <v>30300</v>
-      </c>
-      <c r="H14" s="3">
-        <v>191100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>57800</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-428000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-245700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-853500</v>
-      </c>
-      <c r="M14" s="3">
-        <v>256500</v>
-      </c>
-      <c r="N14" s="3">
-        <v>325700</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-2389500</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1330,8 +1350,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1471,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18397800</v>
+        <v>15115100</v>
       </c>
       <c r="E17" s="3">
-        <v>17995400</v>
+        <v>16401200</v>
       </c>
       <c r="F17" s="3">
-        <v>19047700</v>
+        <v>17146800</v>
       </c>
       <c r="G17" s="3">
-        <v>17682300</v>
+        <v>18149500</v>
       </c>
       <c r="H17" s="3">
-        <v>19399700</v>
+        <v>16848400</v>
       </c>
       <c r="I17" s="3">
-        <v>16926300</v>
+        <v>18484900</v>
       </c>
       <c r="J17" s="3">
+        <v>16128100</v>
+      </c>
+      <c r="K17" s="3">
         <v>16051500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16195900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17381500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15523600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16243500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10711800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19442200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17987000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18526400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17479100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23806000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19835200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19783000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18341400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>22188700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>19221300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19132200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17689700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>21707800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>18186600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1590900</v>
+        <v>840400</v>
       </c>
       <c r="E18" s="3">
-        <v>1414000</v>
+        <v>2644900</v>
       </c>
       <c r="F18" s="3">
-        <v>1478900</v>
+        <v>1347300</v>
       </c>
       <c r="G18" s="3">
-        <v>846100</v>
+        <v>1409100</v>
       </c>
       <c r="H18" s="3">
-        <v>1638600</v>
+        <v>806200</v>
       </c>
       <c r="I18" s="3">
-        <v>1199700</v>
+        <v>1561300</v>
       </c>
       <c r="J18" s="3">
+        <v>1143100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1722800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1204700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2117400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>741300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>628000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2887400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1905200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1352200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1588200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1139400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2118400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1793100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1824900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1346700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2170300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1548600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1549500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1191800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1735100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1021800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,438 +1682,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1142700</v>
+        <v>74000</v>
       </c>
       <c r="E20" s="3">
-        <v>-54500</v>
+        <v>-40300</v>
       </c>
       <c r="F20" s="3">
-        <v>90900</v>
+        <v>-51900</v>
       </c>
       <c r="G20" s="3">
-        <v>-226900</v>
+        <v>86600</v>
       </c>
       <c r="H20" s="3">
-        <v>190400</v>
+        <v>-216200</v>
       </c>
       <c r="I20" s="3">
-        <v>95500</v>
+        <v>181400</v>
       </c>
       <c r="J20" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K20" s="3">
         <v>150500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>69100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>373000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>149700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-235800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-725600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-545700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>577900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-53600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-175700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>335400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-583700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>82700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-132600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>132400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-702400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>286900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3601100</v>
+        <v>1748200</v>
       </c>
       <c r="E21" s="3">
-        <v>2250400</v>
+        <v>3431300</v>
       </c>
       <c r="F21" s="3">
-        <v>2583700</v>
+        <v>2144300</v>
       </c>
       <c r="G21" s="3">
-        <v>1641400</v>
+        <v>2461900</v>
       </c>
       <c r="H21" s="3">
-        <v>2855900</v>
+        <v>1564000</v>
       </c>
       <c r="I21" s="3">
-        <v>2267000</v>
+        <v>2721200</v>
       </c>
       <c r="J21" s="3">
+        <v>2160100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2825900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2236100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3486900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1809100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1384600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3774700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2207500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2001500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2665100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2999300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>481600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2478000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2501800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2422700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2464400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2253700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2112600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1868900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2102600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>115200</v>
+        <v>121100</v>
       </c>
       <c r="E22" s="3">
-        <v>100100</v>
+        <v>109800</v>
       </c>
       <c r="F22" s="3">
-        <v>87800</v>
+        <v>95400</v>
       </c>
       <c r="G22" s="3">
-        <v>66900</v>
+        <v>83700</v>
       </c>
       <c r="H22" s="3">
-        <v>54800</v>
+        <v>63700</v>
       </c>
       <c r="I22" s="3">
-        <v>46800</v>
+        <v>52200</v>
       </c>
       <c r="J22" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K22" s="3">
         <v>47300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>40900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>37200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>50600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>57400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>54300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>47100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>41700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>45400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>48500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>47200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>44600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>38100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>42000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2618300</v>
+        <v>793400</v>
       </c>
       <c r="E23" s="3">
-        <v>1259400</v>
+        <v>2494900</v>
       </c>
       <c r="F23" s="3">
-        <v>1481900</v>
+        <v>1200000</v>
       </c>
       <c r="G23" s="3">
-        <v>552300</v>
+        <v>1412100</v>
       </c>
       <c r="H23" s="3">
-        <v>1774200</v>
+        <v>526300</v>
       </c>
       <c r="I23" s="3">
-        <v>1248400</v>
+        <v>1690500</v>
       </c>
       <c r="J23" s="3">
+        <v>1189500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1825900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1226400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2449500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>840800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>347000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2897700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1129000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>984300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1665900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2015600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-435700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1602100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1640400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1541300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1582800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1369600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1279600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>994600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1266600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-49500</v>
+        <v>232300</v>
       </c>
       <c r="E24" s="3">
-        <v>300400</v>
+        <v>-47100</v>
       </c>
       <c r="F24" s="3">
-        <v>373100</v>
+        <v>286200</v>
       </c>
       <c r="G24" s="3">
-        <v>213100</v>
+        <v>355500</v>
       </c>
       <c r="H24" s="3">
-        <v>630500</v>
+        <v>203100</v>
       </c>
       <c r="I24" s="3">
-        <v>182600</v>
+        <v>600800</v>
       </c>
       <c r="J24" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K24" s="3">
         <v>185900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>219800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>347100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>186800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>962900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>762200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>454200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>377600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>469000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>422800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>407300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>444600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>137800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>394200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>340500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>318200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>339400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>295300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,180 +2214,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2667800</v>
+        <v>561100</v>
       </c>
       <c r="E26" s="3">
-        <v>959000</v>
+        <v>2542000</v>
       </c>
       <c r="F26" s="3">
-        <v>1108900</v>
+        <v>913800</v>
       </c>
       <c r="G26" s="3">
-        <v>339200</v>
+        <v>1056600</v>
       </c>
       <c r="H26" s="3">
-        <v>1143700</v>
+        <v>323200</v>
       </c>
       <c r="I26" s="3">
-        <v>1065800</v>
+        <v>1089700</v>
       </c>
       <c r="J26" s="3">
+        <v>1015600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1640000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1006600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1449500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>493700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>160200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1934800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>366800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>530100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1288300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1546600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-858600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1194900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1195800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1403500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1188600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1029200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>961500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>655200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>971300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2573200</v>
+        <v>481000</v>
       </c>
       <c r="E27" s="3">
-        <v>863200</v>
+        <v>2451800</v>
       </c>
       <c r="F27" s="3">
-        <v>975900</v>
+        <v>822500</v>
       </c>
       <c r="G27" s="3">
-        <v>267900</v>
+        <v>929900</v>
       </c>
       <c r="H27" s="3">
-        <v>956700</v>
+        <v>255300</v>
       </c>
       <c r="I27" s="3">
-        <v>925300</v>
+        <v>911500</v>
       </c>
       <c r="J27" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1443500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>898400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1373600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>418700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>217000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1907200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>291100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>637600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1105700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1390100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>907000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>903300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1089500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>873200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>784200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>679200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>399800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>697700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2440,8 +2501,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2459,58 +2520,61 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-3600</v>
       </c>
       <c r="R29" s="3">
         <v>-3600</v>
       </c>
       <c r="S29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="T29" s="3">
         <v>-3700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-45500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-91800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>53400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-145700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>12400</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-45100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-7900</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2748,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1142700</v>
+        <v>-74000</v>
       </c>
       <c r="E32" s="3">
-        <v>54500</v>
+        <v>40300</v>
       </c>
       <c r="F32" s="3">
-        <v>-90900</v>
+        <v>51900</v>
       </c>
       <c r="G32" s="3">
-        <v>226900</v>
+        <v>-86600</v>
       </c>
       <c r="H32" s="3">
-        <v>-190400</v>
+        <v>216200</v>
       </c>
       <c r="I32" s="3">
-        <v>-95500</v>
+        <v>-181400</v>
       </c>
       <c r="J32" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-150500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-69100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-373000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-149700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>235800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>725600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3452500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>545700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-577900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>53600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2174600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>175700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-335400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>583700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-82700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>132600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-132400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>702400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-286900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2573200</v>
+        <v>481000</v>
       </c>
       <c r="E33" s="3">
-        <v>863200</v>
+        <v>2451800</v>
       </c>
       <c r="F33" s="3">
-        <v>975900</v>
+        <v>822500</v>
       </c>
       <c r="G33" s="3">
-        <v>267900</v>
+        <v>929900</v>
       </c>
       <c r="H33" s="3">
+        <v>255300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>911500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>898400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>418700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>214300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>285900</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>634000</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="W33" s="3">
+        <v>815200</v>
+      </c>
+      <c r="X33" s="3">
         <v>956700</v>
       </c>
-      <c r="I33" s="3">
-        <v>925300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1443500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>898400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1373600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>418700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>214300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1904300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>285900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1222100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>634000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1102000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1344600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1041900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>815200</v>
-      </c>
-      <c r="W33" s="3">
-        <v>956700</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>943800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>885600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>773300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>678600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>354800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>689800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3015,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2573200</v>
+        <v>481000</v>
       </c>
       <c r="E35" s="3">
-        <v>863200</v>
+        <v>2451800</v>
       </c>
       <c r="F35" s="3">
-        <v>975900</v>
+        <v>822500</v>
       </c>
       <c r="G35" s="3">
-        <v>267900</v>
+        <v>929900</v>
       </c>
       <c r="H35" s="3">
+        <v>255300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>911500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>898400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>418700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>214300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>285900</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>634000</v>
+      </c>
+      <c r="T35" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="W35" s="3">
+        <v>815200</v>
+      </c>
+      <c r="X35" s="3">
         <v>956700</v>
       </c>
-      <c r="I35" s="3">
-        <v>925300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1443500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>898400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1373600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>418700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>214300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1904300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>285900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1222100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>634000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1102000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1344600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1041900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>815200</v>
-      </c>
-      <c r="W35" s="3">
-        <v>956700</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>943800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>885600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>773300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>678600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>354800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>689800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,171 +3266,175 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6008000</v>
+        <v>6357800</v>
       </c>
       <c r="E41" s="3">
-        <v>6053600</v>
+        <v>5724700</v>
       </c>
       <c r="F41" s="3">
-        <v>6244000</v>
+        <v>5768100</v>
       </c>
       <c r="G41" s="3">
-        <v>7781600</v>
+        <v>5949500</v>
       </c>
       <c r="H41" s="3">
-        <v>6985200</v>
+        <v>7414700</v>
       </c>
       <c r="I41" s="3">
-        <v>7139400</v>
+        <v>6655800</v>
       </c>
       <c r="J41" s="3">
+        <v>6802700</v>
+      </c>
+      <c r="K41" s="3">
         <v>6351800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8540600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7202600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6723400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5919500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15789700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7156600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6326500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7735200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7635500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7761000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6690600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7669800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7402900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6309600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>7334400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6944300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7349700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6787700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6771500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2501300</v>
+        <v>2763500</v>
       </c>
       <c r="E42" s="3">
-        <v>1964400</v>
+        <v>2383300</v>
       </c>
       <c r="F42" s="3">
-        <v>2400900</v>
+        <v>1871800</v>
       </c>
       <c r="G42" s="3">
-        <v>2974200</v>
+        <v>2287700</v>
       </c>
       <c r="H42" s="3">
-        <v>2713200</v>
+        <v>2833900</v>
       </c>
       <c r="I42" s="3">
-        <v>2160400</v>
+        <v>2585300</v>
       </c>
       <c r="J42" s="3">
+        <v>2058500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2439100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2416300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2326600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2238300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2240900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2179300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2466400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2925600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2532000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2600300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2731800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3037900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2792200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3453500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3374800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2939900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2708500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>8</v>
@@ -3352,610 +3442,634 @@
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20728700</v>
+        <v>18831000</v>
       </c>
       <c r="E43" s="3">
-        <v>18521100</v>
+        <v>19751200</v>
       </c>
       <c r="F43" s="3">
-        <v>20188800</v>
+        <v>17647700</v>
       </c>
       <c r="G43" s="3">
-        <v>19928500</v>
+        <v>19236800</v>
       </c>
       <c r="H43" s="3">
-        <v>21472500</v>
+        <v>18988700</v>
       </c>
       <c r="I43" s="3">
-        <v>19336200</v>
+        <v>20459900</v>
       </c>
       <c r="J43" s="3">
+        <v>18424400</v>
+      </c>
+      <c r="K43" s="3">
         <v>18472800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18322300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19387400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17315500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17898000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14873600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19912400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19995800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19820500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19347400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>23063400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20887500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20792200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19477900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>22612800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20017900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>21216900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19871600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>21957800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>19728100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11869000</v>
+        <v>12567300</v>
       </c>
       <c r="E44" s="3">
-        <v>12709100</v>
+        <v>11309300</v>
       </c>
       <c r="F44" s="3">
-        <v>14318500</v>
+        <v>12109700</v>
       </c>
       <c r="G44" s="3">
-        <v>16798300</v>
+        <v>13643300</v>
       </c>
       <c r="H44" s="3">
-        <v>14725900</v>
+        <v>16006100</v>
       </c>
       <c r="I44" s="3">
-        <v>14570700</v>
+        <v>14031500</v>
       </c>
       <c r="J44" s="3">
+        <v>13883600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13376400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13211400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11722600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12228700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12212600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12348200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12412700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>14707900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13615300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13569800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13038500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>14975900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13820200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>13141900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12432100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>14097600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12782800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12369500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>10873800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>12655400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1637800</v>
+        <v>2427600</v>
       </c>
       <c r="E45" s="3">
-        <v>10773500</v>
+        <v>1560600</v>
       </c>
       <c r="F45" s="3">
-        <v>2145300</v>
+        <v>10265400</v>
       </c>
       <c r="G45" s="3">
-        <v>2182400</v>
+        <v>2044200</v>
       </c>
       <c r="H45" s="3">
-        <v>1685000</v>
+        <v>2079500</v>
       </c>
       <c r="I45" s="3">
-        <v>2683400</v>
+        <v>1605600</v>
       </c>
       <c r="J45" s="3">
+        <v>2556900</v>
+      </c>
+      <c r="K45" s="3">
         <v>2070600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1818300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1498800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1681100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1832800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4113500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4018800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6546100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2042700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2117200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1799400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2361700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2166700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2156900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1842900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2258300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2187200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2212300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4753800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4708100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42744700</v>
+        <v>42947200</v>
       </c>
       <c r="E46" s="3">
-        <v>50021600</v>
+        <v>40729000</v>
       </c>
       <c r="F46" s="3">
-        <v>45297600</v>
+        <v>47662800</v>
       </c>
       <c r="G46" s="3">
-        <v>49665000</v>
+        <v>43161500</v>
       </c>
       <c r="H46" s="3">
-        <v>47581900</v>
+        <v>47322900</v>
       </c>
       <c r="I46" s="3">
-        <v>45890000</v>
+        <v>45338100</v>
       </c>
       <c r="J46" s="3">
+        <v>43726000</v>
+      </c>
+      <c r="K46" s="3">
         <v>42710700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44308900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>42138000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40187000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40103800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>49304300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>45967000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>50502000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>45745800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45270100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>48394000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>47953500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47241100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>45633100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>46572300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>46648100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>45839800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>45304800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>44373100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>43863100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7033500</v>
+        <v>7127700</v>
       </c>
       <c r="E47" s="3">
-        <v>6929500</v>
+        <v>6701800</v>
       </c>
       <c r="F47" s="3">
-        <v>8050600</v>
+        <v>6602800</v>
       </c>
       <c r="G47" s="3">
-        <v>7417900</v>
+        <v>7670900</v>
       </c>
       <c r="H47" s="3">
-        <v>7181200</v>
+        <v>7068100</v>
       </c>
       <c r="I47" s="3">
-        <v>7161800</v>
+        <v>6842600</v>
       </c>
       <c r="J47" s="3">
+        <v>6824000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7105800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7097900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7135600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6667500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7063000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7699800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8113000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9074100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>12086600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11909900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>12423900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12268900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12733300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12636400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>13196900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13425300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13164700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>12783700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12515200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>13097300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12260400</v>
+        <v>12074000</v>
       </c>
       <c r="E48" s="3">
-        <v>12254500</v>
+        <v>11682200</v>
       </c>
       <c r="F48" s="3">
-        <v>15246800</v>
+        <v>11676600</v>
       </c>
       <c r="G48" s="3">
-        <v>18479400</v>
+        <v>14527800</v>
       </c>
       <c r="H48" s="3">
-        <v>17872900</v>
+        <v>17608000</v>
       </c>
       <c r="I48" s="3">
-        <v>17452700</v>
+        <v>17030000</v>
       </c>
       <c r="J48" s="3">
+        <v>16629700</v>
+      </c>
+      <c r="K48" s="3">
         <v>17237600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17652400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17079000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15682000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16694300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16517900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19076400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20106600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19703700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19759100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18803700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18389900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20003800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>19357100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19208400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19232200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18881700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18246800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>17725900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17662900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24586400</v>
+        <v>25135400</v>
       </c>
       <c r="E49" s="3">
-        <v>24106600</v>
+        <v>23427000</v>
       </c>
       <c r="F49" s="3">
-        <v>26925800</v>
+        <v>22969800</v>
       </c>
       <c r="G49" s="3">
-        <v>26864700</v>
+        <v>25656100</v>
       </c>
       <c r="H49" s="3">
-        <v>24592100</v>
+        <v>25597900</v>
       </c>
       <c r="I49" s="3">
-        <v>23412800</v>
+        <v>23432400</v>
       </c>
       <c r="J49" s="3">
+        <v>22308700</v>
+      </c>
+      <c r="K49" s="3">
         <v>23106900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15617200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15073600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14192100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15141300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9038200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9829500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10478300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8381100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8770800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9225800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9348100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9968300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9621800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9531500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10139000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10111900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8483100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8153300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>8193600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4243,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3510200</v>
+        <v>3093000</v>
       </c>
       <c r="E52" s="3">
-        <v>2443800</v>
+        <v>3344700</v>
       </c>
       <c r="F52" s="3">
-        <v>2660300</v>
+        <v>2328600</v>
       </c>
       <c r="G52" s="3">
-        <v>2854000</v>
+        <v>2534800</v>
       </c>
       <c r="H52" s="3">
-        <v>2900800</v>
+        <v>2719400</v>
       </c>
       <c r="I52" s="3">
-        <v>2869000</v>
+        <v>2764000</v>
       </c>
       <c r="J52" s="3">
+        <v>2733700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2700300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2786600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2610500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3472000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3696300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4109000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4498100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3502200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3405900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3442200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3664200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3546200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3512500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3057200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2854500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2728600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2784700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2792500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2951400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2691400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90135200</v>
+        <v>90377400</v>
       </c>
       <c r="E54" s="3">
-        <v>95756100</v>
+        <v>85884700</v>
       </c>
       <c r="F54" s="3">
-        <v>98181100</v>
+        <v>91240500</v>
       </c>
       <c r="G54" s="3">
-        <v>105281000</v>
+        <v>93551200</v>
       </c>
       <c r="H54" s="3">
-        <v>100128900</v>
+        <v>100316300</v>
       </c>
       <c r="I54" s="3">
-        <v>96786100</v>
+        <v>95407100</v>
       </c>
       <c r="J54" s="3">
+        <v>92222000</v>
+      </c>
+      <c r="K54" s="3">
         <v>92861400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87463100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84036700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>80200700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82698800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86669200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>87484000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>93663200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89323100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89152000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92511500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>91506600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>93459000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>90305500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>91363700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92173200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>90782700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>87610900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>85718900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>85508400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,524 +4578,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11164700</v>
+        <v>10783100</v>
       </c>
       <c r="E57" s="3">
-        <v>10661800</v>
+        <v>10638200</v>
       </c>
       <c r="F57" s="3">
-        <v>12293400</v>
+        <v>10159000</v>
       </c>
       <c r="G57" s="3">
-        <v>12949100</v>
+        <v>11713700</v>
       </c>
       <c r="H57" s="3">
-        <v>12650900</v>
+        <v>12338500</v>
       </c>
       <c r="I57" s="3">
-        <v>11500200</v>
+        <v>12054300</v>
       </c>
       <c r="J57" s="3">
+        <v>10957900</v>
+      </c>
+      <c r="K57" s="3">
         <v>10787600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11144000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10748100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9809900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9797100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9368400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11194600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11828400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11275400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11927900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13511800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>12785400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12738900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12718200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13894300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13397100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>12889700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12346100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>12437800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>11908500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6629700</v>
+        <v>7464000</v>
       </c>
       <c r="E58" s="3">
-        <v>12600700</v>
+        <v>6317000</v>
       </c>
       <c r="F58" s="3">
-        <v>9747700</v>
+        <v>12006500</v>
       </c>
       <c r="G58" s="3">
-        <v>13353500</v>
+        <v>9288000</v>
       </c>
       <c r="H58" s="3">
-        <v>11323600</v>
+        <v>12723800</v>
       </c>
       <c r="I58" s="3">
-        <v>13686800</v>
+        <v>10789600</v>
       </c>
       <c r="J58" s="3">
+        <v>13041400</v>
+      </c>
+      <c r="K58" s="3">
         <v>12086700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6548900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4899400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9077200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12284200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12318200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3652100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6529700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5029300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4536800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2847300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5429700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4508500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4229900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2157200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3742700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3865500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4202800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3429100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3937900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19453800</v>
+        <v>19306000</v>
       </c>
       <c r="E59" s="3">
-        <v>20589100</v>
+        <v>18536400</v>
       </c>
       <c r="F59" s="3">
-        <v>19847900</v>
+        <v>19618200</v>
       </c>
       <c r="G59" s="3">
-        <v>18204700</v>
+        <v>18911900</v>
       </c>
       <c r="H59" s="3">
-        <v>18233300</v>
+        <v>17346200</v>
       </c>
       <c r="I59" s="3">
-        <v>16592400</v>
+        <v>17373500</v>
       </c>
       <c r="J59" s="3">
+        <v>15810000</v>
+      </c>
+      <c r="K59" s="3">
         <v>16046600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16697900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16944700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15956700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16120700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17854300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18042600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19847800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16505800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16298200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>18290400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>17134300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17568000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>16763300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18258800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>17693700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17628000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>16719600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>17137200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>16265100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37248100</v>
+        <v>37553100</v>
       </c>
       <c r="E60" s="3">
-        <v>43851700</v>
+        <v>35491600</v>
       </c>
       <c r="F60" s="3">
-        <v>41888900</v>
+        <v>41783800</v>
       </c>
       <c r="G60" s="3">
-        <v>44507200</v>
+        <v>39913600</v>
       </c>
       <c r="H60" s="3">
-        <v>42207800</v>
+        <v>42408400</v>
       </c>
       <c r="I60" s="3">
-        <v>41779500</v>
+        <v>40217400</v>
       </c>
       <c r="J60" s="3">
+        <v>39809300</v>
+      </c>
+      <c r="K60" s="3">
         <v>38920800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>34390800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32592200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>34843800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38202100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39540800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32889300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38205800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32810500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32762900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>34649400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>35349400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>34815400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>33711400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>34310400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34833500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>34383200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>33268500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>33004000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>32111400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9328600</v>
+        <v>9155500</v>
       </c>
       <c r="E61" s="3">
-        <v>9423900</v>
+        <v>8888700</v>
       </c>
       <c r="F61" s="3">
-        <v>10474800</v>
+        <v>8979500</v>
       </c>
       <c r="G61" s="3">
-        <v>11592900</v>
+        <v>9980900</v>
       </c>
       <c r="H61" s="3">
-        <v>11220000</v>
+        <v>11046200</v>
       </c>
       <c r="I61" s="3">
-        <v>11669200</v>
+        <v>10690900</v>
       </c>
       <c r="J61" s="3">
+        <v>11118900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11804800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12061200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12097900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9983800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7275300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8505400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9431100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7705500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7720200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8081000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6808600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7076600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6652500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6755400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7337400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7529400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7629600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7261000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7007400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7631500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5089000</v>
+        <v>4931800</v>
       </c>
       <c r="E62" s="3">
-        <v>5200400</v>
+        <v>4849100</v>
       </c>
       <c r="F62" s="3">
-        <v>6026600</v>
+        <v>4955200</v>
       </c>
       <c r="G62" s="3">
-        <v>8450700</v>
+        <v>5742400</v>
       </c>
       <c r="H62" s="3">
-        <v>8089500</v>
+        <v>8052200</v>
       </c>
       <c r="I62" s="3">
-        <v>7998500</v>
+        <v>7708000</v>
       </c>
       <c r="J62" s="3">
+        <v>7621300</v>
+      </c>
+      <c r="K62" s="3">
         <v>7886600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7913300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7737800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8641200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9389500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7054800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7573600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8011800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7935100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7819600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8631100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8503900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8634300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8575800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8930400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9587400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9519400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9427600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9367200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9692000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54497200</v>
+        <v>54343400</v>
       </c>
       <c r="E66" s="3">
-        <v>63136800</v>
+        <v>51927300</v>
       </c>
       <c r="F66" s="3">
-        <v>63204700</v>
+        <v>60159500</v>
       </c>
       <c r="G66" s="3">
-        <v>71983800</v>
+        <v>60224200</v>
       </c>
       <c r="H66" s="3">
-        <v>68824300</v>
+        <v>68589200</v>
       </c>
       <c r="I66" s="3">
-        <v>68305500</v>
+        <v>65578700</v>
       </c>
       <c r="J66" s="3">
+        <v>65084500</v>
+      </c>
+      <c r="K66" s="3">
         <v>65283900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>61047200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59040900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58736000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>59983500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60767600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59644500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>64242700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58617400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>59031200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>61157900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61843400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61415400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>59788500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>61730400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>63059800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62347900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>60372500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>59400900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>59920500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5766,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26224100</v>
+        <v>25023800</v>
       </c>
       <c r="E72" s="3">
-        <v>23508100</v>
+        <v>24987500</v>
       </c>
       <c r="F72" s="3">
-        <v>24213500</v>
+        <v>22399600</v>
       </c>
       <c r="G72" s="3">
-        <v>23175400</v>
+        <v>23071700</v>
       </c>
       <c r="H72" s="3">
-        <v>23055600</v>
+        <v>22082500</v>
       </c>
       <c r="I72" s="3">
-        <v>22025800</v>
+        <v>21968400</v>
       </c>
       <c r="J72" s="3">
+        <v>20987100</v>
+      </c>
+      <c r="K72" s="3">
         <v>21520400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20473000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19218200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18264800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19425200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21120100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>20229600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20621300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22424100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21711000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21983700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>20149100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>21201100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19948300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19032800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18040300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>17443200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16664700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>15909000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15530900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35638000</v>
+        <v>36033900</v>
       </c>
       <c r="E76" s="3">
-        <v>32619300</v>
+        <v>33957400</v>
       </c>
       <c r="F76" s="3">
-        <v>34976300</v>
+        <v>31081000</v>
       </c>
       <c r="G76" s="3">
-        <v>33297200</v>
+        <v>33327000</v>
       </c>
       <c r="H76" s="3">
-        <v>31304600</v>
+        <v>31727000</v>
       </c>
       <c r="I76" s="3">
-        <v>28480600</v>
+        <v>29828400</v>
       </c>
       <c r="J76" s="3">
+        <v>27137600</v>
+      </c>
+      <c r="K76" s="3">
         <v>27577500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26415900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24995800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21464600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22715300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25901600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27839500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29420500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30705700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30120900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31353600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29663100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>32043600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30517000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>29633300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>29113400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>28434800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27238300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>26318000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>25587900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6389,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2573200</v>
+        <v>481000</v>
       </c>
       <c r="E81" s="3">
-        <v>863200</v>
+        <v>2451800</v>
       </c>
       <c r="F81" s="3">
-        <v>975900</v>
+        <v>822500</v>
       </c>
       <c r="G81" s="3">
-        <v>267900</v>
+        <v>929900</v>
       </c>
       <c r="H81" s="3">
+        <v>255300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>911500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1443500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>898400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1373600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>418700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>214300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>1904300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>285900</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>634000</v>
+      </c>
+      <c r="T81" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>1344600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-1041900</v>
+      </c>
+      <c r="W81" s="3">
+        <v>815200</v>
+      </c>
+      <c r="X81" s="3">
         <v>956700</v>
       </c>
-      <c r="I81" s="3">
-        <v>925300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1443500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>898400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1373600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>418700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>214300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1904300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>285900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1222100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>634000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1102000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1344600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1041900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>815200</v>
-      </c>
-      <c r="W81" s="3">
-        <v>956700</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>943800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>885600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>773300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>678600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>354800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>689800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6607,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>867600</v>
+        <v>833700</v>
       </c>
       <c r="E83" s="3">
-        <v>890900</v>
+        <v>826700</v>
       </c>
       <c r="F83" s="3">
-        <v>1014000</v>
+        <v>848900</v>
       </c>
       <c r="G83" s="3">
-        <v>1022200</v>
+        <v>966200</v>
       </c>
       <c r="H83" s="3">
-        <v>1026800</v>
+        <v>974000</v>
       </c>
       <c r="I83" s="3">
-        <v>971800</v>
+        <v>978400</v>
       </c>
       <c r="J83" s="3">
+        <v>926000</v>
+      </c>
+      <c r="K83" s="3">
         <v>952600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>962300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>996500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>918100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>992500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>839800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1027900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>989800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>959000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>947800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>934400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>863000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>828800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>819700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>836100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>833100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>836900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>788400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>836200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>793900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7139,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3222500</v>
+        <v>811800</v>
       </c>
       <c r="E89" s="3">
-        <v>1055800</v>
+        <v>3070600</v>
       </c>
       <c r="F89" s="3">
-        <v>919300</v>
+        <v>1006000</v>
       </c>
       <c r="G89" s="3">
-        <v>765400</v>
+        <v>875900</v>
       </c>
       <c r="H89" s="3">
-        <v>3408800</v>
+        <v>729300</v>
       </c>
       <c r="I89" s="3">
-        <v>689900</v>
+        <v>3248000</v>
       </c>
       <c r="J89" s="3">
+        <v>657400</v>
+      </c>
+      <c r="K89" s="3">
         <v>175900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1007500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1553300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>472800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1311900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2229600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>930700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1165500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>722400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3917700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-91000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>721300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1221300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2295800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1760400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1369900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1147500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2221100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>835800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7263,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89091000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-105408000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-96150000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-108272000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100755000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-134149000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100626000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-107573000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-488900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-628300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-384800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-471300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-453200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-794100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-595900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-811800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-723700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-857900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-898800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-883000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-934700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-889100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7528,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2136600</v>
+        <v>-273900</v>
       </c>
       <c r="E94" s="3">
-        <v>-525900</v>
+        <v>2035900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2300</v>
+        <v>-501100</v>
       </c>
       <c r="G94" s="3">
-        <v>-519300</v>
+        <v>-2200</v>
       </c>
       <c r="H94" s="3">
-        <v>-152400</v>
+        <v>-494800</v>
       </c>
       <c r="I94" s="3">
-        <v>-550100</v>
+        <v>-145200</v>
       </c>
       <c r="J94" s="3">
+        <v>-524200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6808900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2178300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-455900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3049100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-297800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-937000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-962900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>121300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-311700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-357900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-944800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-721200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-945800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>141000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,94 +7652,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-483400</v>
+      </c>
+      <c r="E96" s="3">
         <v>700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-478600</v>
-      </c>
       <c r="F96" s="3">
-        <v>1800</v>
+        <v>-456000</v>
       </c>
       <c r="G96" s="3">
-        <v>-454000</v>
+        <v>1700</v>
       </c>
       <c r="H96" s="3">
+        <v>-432600</v>
+      </c>
+      <c r="I96" s="3">
         <v>600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-418900</v>
-      </c>
       <c r="J96" s="3">
+        <v>-399200</v>
+      </c>
+      <c r="K96" s="3">
         <v>800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-391300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-355300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>1100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-412600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-397200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>1500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-442700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-365100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-351500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-305900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-305900</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>400</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-257400</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8006,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6360000</v>
+        <v>-190100</v>
       </c>
       <c r="E100" s="3">
-        <v>559600</v>
+        <v>-6060100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2555800</v>
+        <v>533200</v>
       </c>
       <c r="G100" s="3">
-        <v>115400</v>
+        <v>-2435300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3658300</v>
+        <v>110000</v>
       </c>
       <c r="I100" s="3">
-        <v>458500</v>
+        <v>-3485800</v>
       </c>
       <c r="J100" s="3">
+        <v>436900</v>
+      </c>
+      <c r="K100" s="3">
         <v>4584400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>78600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4395900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-723400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4492600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-740400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>668100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-529700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-258300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>797900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-748700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-709100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>170400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-864900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>92300</v>
+        <v>285300</v>
       </c>
       <c r="E101" s="3">
-        <v>-417000</v>
+        <v>87900</v>
       </c>
       <c r="F101" s="3">
-        <v>101200</v>
+        <v>-397300</v>
       </c>
       <c r="G101" s="3">
-        <v>434900</v>
+        <v>96400</v>
       </c>
       <c r="H101" s="3">
-        <v>247800</v>
+        <v>414400</v>
       </c>
       <c r="I101" s="3">
-        <v>189300</v>
+        <v>236100</v>
       </c>
       <c r="J101" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K101" s="3">
         <v>22500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>39600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>316900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>46100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-152900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>171200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-128000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-189700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-170600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-254800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>99500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>107600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>59800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-122100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>530100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-908600</v>
+        <v>633200</v>
       </c>
       <c r="E102" s="3">
-        <v>672600</v>
+        <v>-865700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1537700</v>
+        <v>640900</v>
       </c>
       <c r="G102" s="3">
-        <v>796400</v>
+        <v>-1465200</v>
       </c>
       <c r="H102" s="3">
-        <v>-154100</v>
+        <v>758800</v>
       </c>
       <c r="I102" s="3">
-        <v>787600</v>
+        <v>-146800</v>
       </c>
       <c r="J102" s="3">
+        <v>750500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2026200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1073900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>699400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1153400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8860600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1038400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>74800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>237900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>949900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>104000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1058400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>390000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-405400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>431900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>16200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-781600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HTHIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>HTHIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,396 +665,409 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15955500</v>
+        <v>17513500</v>
       </c>
       <c r="E8" s="3">
-        <v>19046100</v>
+        <v>15421300</v>
       </c>
       <c r="F8" s="3">
-        <v>18494200</v>
+        <v>18408400</v>
       </c>
       <c r="G8" s="3">
-        <v>19558600</v>
+        <v>17875000</v>
       </c>
       <c r="H8" s="3">
-        <v>17654600</v>
+        <v>18903800</v>
       </c>
       <c r="I8" s="3">
-        <v>20046200</v>
+        <v>17063600</v>
       </c>
       <c r="J8" s="3">
+        <v>19375100</v>
+      </c>
+      <c r="K8" s="3">
         <v>17271200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17774300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17400700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19498900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16264900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16871400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13599200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21347400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19339200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20114600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>18618500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>25924400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>21628300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>21607900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19688000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>24359100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>20770000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>20681700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>18881600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>23443000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>19208300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>19720700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12009000</v>
+        <v>13163600</v>
       </c>
       <c r="E9" s="3">
-        <v>14208100</v>
+        <v>11606900</v>
       </c>
       <c r="F9" s="3">
-        <v>13893600</v>
+        <v>13732500</v>
       </c>
       <c r="G9" s="3">
-        <v>14751400</v>
+        <v>13428500</v>
       </c>
       <c r="H9" s="3">
-        <v>13426300</v>
+        <v>14257500</v>
       </c>
       <c r="I9" s="3">
-        <v>14933800</v>
+        <v>12976800</v>
       </c>
       <c r="J9" s="3">
+        <v>14433800</v>
+      </c>
+      <c r="K9" s="3">
         <v>12948800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13386900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13161400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14759900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12099600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12635200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10060500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15555900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>14178700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>14579000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>13633700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19379600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>15751100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>15728800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>14420300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>17804700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>15290000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>15148400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>13830300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>17433900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>14170500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>14505800</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3946500</v>
+        <v>4349900</v>
       </c>
       <c r="E10" s="3">
-        <v>4837900</v>
+        <v>3814400</v>
       </c>
       <c r="F10" s="3">
-        <v>4600500</v>
+        <v>4676000</v>
       </c>
       <c r="G10" s="3">
-        <v>4807300</v>
+        <v>4446500</v>
       </c>
       <c r="H10" s="3">
-        <v>4228300</v>
+        <v>4646300</v>
       </c>
       <c r="I10" s="3">
-        <v>5112500</v>
+        <v>4086700</v>
       </c>
       <c r="J10" s="3">
+        <v>4941300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4322400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4387400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4239200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4739000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4165300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4236200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3538700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5791400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5160500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5535500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4984800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6544800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5877200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5879200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5267700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6554300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5479900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5533300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5051300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6009100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5037800</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>5214900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,56 +1281,59 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>56400</v>
+        <v>-50000</v>
       </c>
       <c r="E14" s="3">
-        <v>-1129100</v>
+        <v>54600</v>
       </c>
       <c r="F14" s="3">
-        <v>46400</v>
+        <v>-1091300</v>
       </c>
       <c r="G14" s="3">
-        <v>-14000</v>
+        <v>44800</v>
       </c>
       <c r="H14" s="3">
-        <v>28900</v>
+        <v>-13500</v>
       </c>
       <c r="I14" s="3">
-        <v>182100</v>
+        <v>27900</v>
       </c>
       <c r="J14" s="3">
+        <v>176000</v>
+      </c>
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-428000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-245700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-853500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>256500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>325700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2389500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1353,8 +1373,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,186 +1498,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15115100</v>
+        <v>16169200</v>
       </c>
       <c r="E17" s="3">
-        <v>16401200</v>
+        <v>14609000</v>
       </c>
       <c r="F17" s="3">
-        <v>17146800</v>
+        <v>15852100</v>
       </c>
       <c r="G17" s="3">
-        <v>18149500</v>
+        <v>16572800</v>
       </c>
       <c r="H17" s="3">
-        <v>16848400</v>
+        <v>17541900</v>
       </c>
       <c r="I17" s="3">
-        <v>18484900</v>
+        <v>16284400</v>
       </c>
       <c r="J17" s="3">
+        <v>17866000</v>
+      </c>
+      <c r="K17" s="3">
         <v>16128100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16051500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16195900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17381500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15523600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16243500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10711800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19442200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17987000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18526400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17479100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>23806000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19835200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>19783000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>18341400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>22188700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>19221300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>19132200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>17689700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>21707800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>18186600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>18780900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>840400</v>
+        <v>1344400</v>
       </c>
       <c r="E18" s="3">
-        <v>2644900</v>
+        <v>812300</v>
       </c>
       <c r="F18" s="3">
-        <v>1347300</v>
+        <v>2556300</v>
       </c>
       <c r="G18" s="3">
-        <v>1409100</v>
+        <v>1302200</v>
       </c>
       <c r="H18" s="3">
-        <v>806200</v>
+        <v>1362000</v>
       </c>
       <c r="I18" s="3">
-        <v>1561300</v>
+        <v>779200</v>
       </c>
       <c r="J18" s="3">
+        <v>1509100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1143100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1722800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1204700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2117400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>741300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>628000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2887400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1905200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1352200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1588200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1139400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2118400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1793100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1824900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1346700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2170300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1548600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1549500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1191800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1735100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1021800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>939800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,453 +1716,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74000</v>
+        <v>159600</v>
       </c>
       <c r="E20" s="3">
-        <v>-40300</v>
+        <v>71600</v>
       </c>
       <c r="F20" s="3">
-        <v>-51900</v>
+        <v>-38900</v>
       </c>
       <c r="G20" s="3">
-        <v>86600</v>
+        <v>-50200</v>
       </c>
       <c r="H20" s="3">
-        <v>-216200</v>
+        <v>83700</v>
       </c>
       <c r="I20" s="3">
-        <v>181400</v>
+        <v>-209000</v>
       </c>
       <c r="J20" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K20" s="3">
         <v>91000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>150500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>69100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>373000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>149700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-235800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-725600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3452500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-545700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>577900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-53600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2174600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-175700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>335400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-583700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>82700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-132600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>132400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-702400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>286900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1748200</v>
+        <v>2338300</v>
       </c>
       <c r="E21" s="3">
-        <v>3431300</v>
+        <v>1689600</v>
       </c>
       <c r="F21" s="3">
-        <v>2144300</v>
+        <v>3316400</v>
       </c>
       <c r="G21" s="3">
-        <v>2461900</v>
+        <v>2072500</v>
       </c>
       <c r="H21" s="3">
-        <v>1564000</v>
+        <v>2379500</v>
       </c>
       <c r="I21" s="3">
-        <v>2721200</v>
+        <v>1511600</v>
       </c>
       <c r="J21" s="3">
+        <v>2630100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2160100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2825900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2236100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3486900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1809100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1384600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3774700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2207500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1110500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2001500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2665100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2999300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>481600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2478000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2501800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2422700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2464400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2253700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2112600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1868900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2102600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1987900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>121100</v>
+        <v>132400</v>
       </c>
       <c r="E22" s="3">
-        <v>109800</v>
+        <v>117000</v>
       </c>
       <c r="F22" s="3">
-        <v>95400</v>
+        <v>106100</v>
       </c>
       <c r="G22" s="3">
-        <v>83700</v>
+        <v>92200</v>
       </c>
       <c r="H22" s="3">
-        <v>63700</v>
+        <v>80900</v>
       </c>
       <c r="I22" s="3">
-        <v>52200</v>
+        <v>61600</v>
       </c>
       <c r="J22" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K22" s="3">
         <v>44600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>40900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>37200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>50600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>57400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>51300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>54300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>47100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>41700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>45400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>48500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>47200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>44600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>38100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>42000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>41800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>793400</v>
+        <v>1371600</v>
       </c>
       <c r="E23" s="3">
-        <v>2494900</v>
+        <v>766800</v>
       </c>
       <c r="F23" s="3">
-        <v>1200000</v>
+        <v>2411300</v>
       </c>
       <c r="G23" s="3">
-        <v>1412100</v>
+        <v>1159800</v>
       </c>
       <c r="H23" s="3">
-        <v>526300</v>
+        <v>1364800</v>
       </c>
       <c r="I23" s="3">
-        <v>1690500</v>
+        <v>508700</v>
       </c>
       <c r="J23" s="3">
+        <v>1634000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1189500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1825900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1226400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2449500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>840800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>347000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2897700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1129000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2157700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>984300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1665900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2015600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-435700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1602100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1640400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1541300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1582800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1369600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1279600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>994600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1266600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>926100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>232300</v>
+        <v>371200</v>
       </c>
       <c r="E24" s="3">
-        <v>-47100</v>
+        <v>224500</v>
       </c>
       <c r="F24" s="3">
-        <v>286200</v>
+        <v>-45600</v>
       </c>
       <c r="G24" s="3">
-        <v>355500</v>
+        <v>276600</v>
       </c>
       <c r="H24" s="3">
-        <v>203100</v>
+        <v>343600</v>
       </c>
       <c r="I24" s="3">
-        <v>600800</v>
+        <v>196300</v>
       </c>
       <c r="J24" s="3">
+        <v>580700</v>
+      </c>
+      <c r="K24" s="3">
         <v>174000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>185900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>347100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>186800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>962900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>762200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1147100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>454200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>377600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>469000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>422800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>407300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>444600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>137800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>394200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>340500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>318200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>339400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>295300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>179000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,186 +2266,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>561100</v>
+        <v>1000400</v>
       </c>
       <c r="E26" s="3">
-        <v>2542000</v>
+        <v>542300</v>
       </c>
       <c r="F26" s="3">
-        <v>913800</v>
+        <v>2456900</v>
       </c>
       <c r="G26" s="3">
-        <v>1056600</v>
+        <v>883200</v>
       </c>
       <c r="H26" s="3">
-        <v>323200</v>
+        <v>1021200</v>
       </c>
       <c r="I26" s="3">
-        <v>1089700</v>
+        <v>312400</v>
       </c>
       <c r="J26" s="3">
+        <v>1053300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1015600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1640000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1006600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1449500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>493700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>160200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1934800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>366800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1010700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>530100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1288300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1546600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-858600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1194900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1195800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1403500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1188600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1029200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>961500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>655200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>971300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>747200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>481000</v>
+        <v>923500</v>
       </c>
       <c r="E27" s="3">
-        <v>2451800</v>
+        <v>464900</v>
       </c>
       <c r="F27" s="3">
-        <v>822500</v>
+        <v>2369800</v>
       </c>
       <c r="G27" s="3">
-        <v>929900</v>
+        <v>794900</v>
       </c>
       <c r="H27" s="3">
-        <v>255300</v>
+        <v>898800</v>
       </c>
       <c r="I27" s="3">
-        <v>911500</v>
+        <v>246700</v>
       </c>
       <c r="J27" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K27" s="3">
         <v>881700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1443500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>898400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1373600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>418700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>217000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1907200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>291100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1218500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>637600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1105700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1390100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1038100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>907000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>903300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1089500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>873200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>784200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>679200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>399800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>697700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>509700</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2504,8 +2565,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2523,58 +2584,61 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5200</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-3600</v>
       </c>
       <c r="S29" s="3">
         <v>-3600</v>
       </c>
       <c r="T29" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-45500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-91800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>53400</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-145700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>12400</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-45100</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-7900</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,186 +2818,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74000</v>
+        <v>-159600</v>
       </c>
       <c r="E32" s="3">
-        <v>40300</v>
+        <v>-71600</v>
       </c>
       <c r="F32" s="3">
-        <v>51900</v>
+        <v>38900</v>
       </c>
       <c r="G32" s="3">
-        <v>-86600</v>
+        <v>50200</v>
       </c>
       <c r="H32" s="3">
-        <v>216200</v>
+        <v>-83700</v>
       </c>
       <c r="I32" s="3">
-        <v>-181400</v>
+        <v>209000</v>
       </c>
       <c r="J32" s="3">
+        <v>-175400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-91000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-150500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-69100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-373000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-149700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>235800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>725600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3452500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>545700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-577900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>53600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2174600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>175700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-335400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>583700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-82700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>132600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-132400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>702400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-286900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-28100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>481000</v>
+        <v>923500</v>
       </c>
       <c r="E33" s="3">
-        <v>2451800</v>
+        <v>464900</v>
       </c>
       <c r="F33" s="3">
-        <v>822500</v>
+        <v>2369800</v>
       </c>
       <c r="G33" s="3">
-        <v>929900</v>
+        <v>794900</v>
       </c>
       <c r="H33" s="3">
-        <v>255300</v>
+        <v>898800</v>
       </c>
       <c r="I33" s="3">
-        <v>911500</v>
+        <v>246700</v>
       </c>
       <c r="J33" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K33" s="3">
         <v>881700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1443500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>898400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1373600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>418700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1904300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>285900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1222100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>634000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1102000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1344600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1041900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>815200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>956700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>943800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>885600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>773300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>678600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>354800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>689800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,191 +3094,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>481000</v>
+        <v>923500</v>
       </c>
       <c r="E35" s="3">
-        <v>2451800</v>
+        <v>464900</v>
       </c>
       <c r="F35" s="3">
-        <v>822500</v>
+        <v>2369800</v>
       </c>
       <c r="G35" s="3">
-        <v>929900</v>
+        <v>794900</v>
       </c>
       <c r="H35" s="3">
-        <v>255300</v>
+        <v>898800</v>
       </c>
       <c r="I35" s="3">
-        <v>911500</v>
+        <v>246700</v>
       </c>
       <c r="J35" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K35" s="3">
         <v>881700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1443500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>898400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1373600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>418700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1904300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>285900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1222100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>634000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1102000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1344600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1041900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>815200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>956700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>943800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>885600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>773300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>678600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>354800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>689800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,177 +3353,181 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6357800</v>
+        <v>6014800</v>
       </c>
       <c r="E41" s="3">
-        <v>5724700</v>
+        <v>6145000</v>
       </c>
       <c r="F41" s="3">
-        <v>5768100</v>
+        <v>5533000</v>
       </c>
       <c r="G41" s="3">
-        <v>5949500</v>
+        <v>5575000</v>
       </c>
       <c r="H41" s="3">
-        <v>7414700</v>
+        <v>5750300</v>
       </c>
       <c r="I41" s="3">
-        <v>6655800</v>
+        <v>7166500</v>
       </c>
       <c r="J41" s="3">
+        <v>6433000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6802700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6351800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8540600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7202600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6723400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5919500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15789700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7156600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6326500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7735200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7635500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7761000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6690600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7669800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7402900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6309600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>7334400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6944300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7349700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6787700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6771500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>7553100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2763500</v>
+        <v>2155700</v>
       </c>
       <c r="E42" s="3">
-        <v>2383300</v>
+        <v>2671000</v>
       </c>
       <c r="F42" s="3">
-        <v>1871800</v>
+        <v>2303500</v>
       </c>
       <c r="G42" s="3">
-        <v>2287700</v>
+        <v>1809100</v>
       </c>
       <c r="H42" s="3">
-        <v>2833900</v>
+        <v>2211100</v>
       </c>
       <c r="I42" s="3">
-        <v>2585300</v>
+        <v>2739000</v>
       </c>
       <c r="J42" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2058500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2439100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2416300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2326600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2238300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2240900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2179300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2466400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2925600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2532000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2600300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2731800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3037900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2792200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3453500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3374800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2939900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2708500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>3501600</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
@@ -3445,631 +3535,655 @@
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18831000</v>
+        <v>19886400</v>
       </c>
       <c r="E43" s="3">
-        <v>19751200</v>
+        <v>18200600</v>
       </c>
       <c r="F43" s="3">
-        <v>17647700</v>
+        <v>19089900</v>
       </c>
       <c r="G43" s="3">
-        <v>19236800</v>
+        <v>17056900</v>
       </c>
       <c r="H43" s="3">
-        <v>18988700</v>
+        <v>18592700</v>
       </c>
       <c r="I43" s="3">
-        <v>20459900</v>
+        <v>18353000</v>
       </c>
       <c r="J43" s="3">
+        <v>19774900</v>
+      </c>
+      <c r="K43" s="3">
         <v>18424400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18472800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18322300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19387400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17315500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17898000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14873600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19912400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19995800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19820500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19347400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>23063400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20887500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20792200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19477900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>22612800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20017900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>21216900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19871600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>21957800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>19728100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>25974400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12567300</v>
+        <v>12376800</v>
       </c>
       <c r="E44" s="3">
-        <v>11309300</v>
+        <v>12146500</v>
       </c>
       <c r="F44" s="3">
-        <v>12109700</v>
+        <v>10930700</v>
       </c>
       <c r="G44" s="3">
-        <v>13643300</v>
+        <v>11704300</v>
       </c>
       <c r="H44" s="3">
-        <v>16006100</v>
+        <v>13186600</v>
       </c>
       <c r="I44" s="3">
-        <v>14031500</v>
+        <v>15470300</v>
       </c>
       <c r="J44" s="3">
+        <v>13561700</v>
+      </c>
+      <c r="K44" s="3">
         <v>13883600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13376400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13211400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11722600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12228700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12212600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12348200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12412700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>14707900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13615300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13569800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13038500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>14975900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>13820200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>13141900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>12432100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>14097600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12782800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>12369500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>10873800</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>12655400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>11737600</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2427600</v>
+        <v>2278200</v>
       </c>
       <c r="E45" s="3">
-        <v>1560600</v>
+        <v>2346300</v>
       </c>
       <c r="F45" s="3">
-        <v>10265400</v>
+        <v>1508300</v>
       </c>
       <c r="G45" s="3">
-        <v>2044200</v>
+        <v>9921800</v>
       </c>
       <c r="H45" s="3">
-        <v>2079500</v>
+        <v>1975700</v>
       </c>
       <c r="I45" s="3">
-        <v>1605600</v>
+        <v>2009900</v>
       </c>
       <c r="J45" s="3">
+        <v>1551800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2556900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2070600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1818300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1498800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1681100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1832800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4113500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4018800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6546100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2042700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2117200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1799400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2361700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2166700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2156900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1842900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2258300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2187200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>2212300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4753800</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4708100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>4654500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>42947200</v>
+        <v>42711800</v>
       </c>
       <c r="E46" s="3">
-        <v>40729000</v>
+        <v>41509400</v>
       </c>
       <c r="F46" s="3">
-        <v>47662800</v>
+        <v>39365500</v>
       </c>
       <c r="G46" s="3">
-        <v>43161500</v>
+        <v>46067100</v>
       </c>
       <c r="H46" s="3">
-        <v>47322900</v>
+        <v>41716500</v>
       </c>
       <c r="I46" s="3">
-        <v>45338100</v>
+        <v>45738600</v>
       </c>
       <c r="J46" s="3">
+        <v>43820200</v>
+      </c>
+      <c r="K46" s="3">
         <v>43726000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>42710700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44308900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>42138000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40187000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40103800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>49304300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>45967000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>50502000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>45745800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>45270100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>48394000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47953500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47241100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>45633100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>46572300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>46648100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>45839800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>45304800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>44373100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>43863100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>49919500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7127700</v>
+        <v>6888000</v>
       </c>
       <c r="E47" s="3">
-        <v>6701800</v>
+        <v>6889100</v>
       </c>
       <c r="F47" s="3">
-        <v>6602800</v>
+        <v>6477400</v>
       </c>
       <c r="G47" s="3">
-        <v>7670900</v>
+        <v>6381700</v>
       </c>
       <c r="H47" s="3">
-        <v>7068100</v>
+        <v>7414100</v>
       </c>
       <c r="I47" s="3">
-        <v>6842600</v>
+        <v>6831400</v>
       </c>
       <c r="J47" s="3">
+        <v>6613500</v>
+      </c>
+      <c r="K47" s="3">
         <v>6824000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7105800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7097900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7135600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6667500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7063000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7699800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8113000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9074100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>12086600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11909900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>12423900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>12268900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>12733300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>12636400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13196900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13425300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>13164700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>12783700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>12515200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>13097300</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>16937400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12074000</v>
+        <v>11774700</v>
       </c>
       <c r="E48" s="3">
-        <v>11682200</v>
+        <v>11669800</v>
       </c>
       <c r="F48" s="3">
-        <v>11676600</v>
+        <v>11291100</v>
       </c>
       <c r="G48" s="3">
-        <v>14527800</v>
+        <v>11285700</v>
       </c>
       <c r="H48" s="3">
-        <v>17608000</v>
+        <v>14041500</v>
       </c>
       <c r="I48" s="3">
-        <v>17030000</v>
+        <v>17018500</v>
       </c>
       <c r="J48" s="3">
+        <v>16459900</v>
+      </c>
+      <c r="K48" s="3">
         <v>16629700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17237600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17652400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17079000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15682000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16694300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16517900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19076400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20106600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19703700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19759100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18803700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18389900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20003800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>19357100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>19208400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>19232200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>18881700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>18246800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17725900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17662900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>20069600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25135400</v>
+        <v>24870200</v>
       </c>
       <c r="E49" s="3">
-        <v>23427000</v>
+        <v>24293900</v>
       </c>
       <c r="F49" s="3">
-        <v>22969800</v>
+        <v>22642700</v>
       </c>
       <c r="G49" s="3">
-        <v>25656100</v>
+        <v>22200800</v>
       </c>
       <c r="H49" s="3">
-        <v>25597900</v>
+        <v>24797100</v>
       </c>
       <c r="I49" s="3">
-        <v>23432400</v>
+        <v>24740900</v>
       </c>
       <c r="J49" s="3">
+        <v>22647900</v>
+      </c>
+      <c r="K49" s="3">
         <v>22308700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23106900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15617200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15073600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14192100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15141300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9038200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9829500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10478300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8381100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8770800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9225800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9348100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9968300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9621800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9531500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10139000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>10111900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8483100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>8153300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>8193600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>8309100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,97 +4363,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3093000</v>
+        <v>3230600</v>
       </c>
       <c r="E52" s="3">
-        <v>3344700</v>
+        <v>2989500</v>
       </c>
       <c r="F52" s="3">
-        <v>2328600</v>
+        <v>3232700</v>
       </c>
       <c r="G52" s="3">
-        <v>2534800</v>
+        <v>2250600</v>
       </c>
       <c r="H52" s="3">
-        <v>2719400</v>
+        <v>2450000</v>
       </c>
       <c r="I52" s="3">
-        <v>2764000</v>
+        <v>2628300</v>
       </c>
       <c r="J52" s="3">
+        <v>2671500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2733700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2700300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2786600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2610500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3472000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3696300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4109000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4498100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3502200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3405900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3442200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3664200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3546200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3512500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3057200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2854500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2728600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2784700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2792500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2951400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2691400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>9247200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90377400</v>
+        <v>89475400</v>
       </c>
       <c r="E54" s="3">
-        <v>85884700</v>
+        <v>87351600</v>
       </c>
       <c r="F54" s="3">
-        <v>91240500</v>
+        <v>83009400</v>
       </c>
       <c r="G54" s="3">
-        <v>93551200</v>
+        <v>88185900</v>
       </c>
       <c r="H54" s="3">
-        <v>100316300</v>
+        <v>90419200</v>
       </c>
       <c r="I54" s="3">
-        <v>95407100</v>
+        <v>96957800</v>
       </c>
       <c r="J54" s="3">
+        <v>92213000</v>
+      </c>
+      <c r="K54" s="3">
         <v>92222000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92861400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87463100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84036700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>80200700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82698800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86669200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>87484000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>93663200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89323100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89152000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92511500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>91506600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>93459000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>90305500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>91363700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92173200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>90782700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>87610900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>85718900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>85508400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>104482800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,542 +4709,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10783100</v>
+        <v>10466100</v>
       </c>
       <c r="E57" s="3">
-        <v>10638200</v>
+        <v>10422100</v>
       </c>
       <c r="F57" s="3">
-        <v>10159000</v>
+        <v>10282000</v>
       </c>
       <c r="G57" s="3">
-        <v>11713700</v>
+        <v>9818900</v>
       </c>
       <c r="H57" s="3">
-        <v>12338500</v>
+        <v>11321500</v>
       </c>
       <c r="I57" s="3">
-        <v>12054300</v>
+        <v>11925400</v>
       </c>
       <c r="J57" s="3">
+        <v>11650800</v>
+      </c>
+      <c r="K57" s="3">
         <v>10957900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10787600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11144000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10748100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9809900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9797100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9368400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11194600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11828400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11275400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>11927900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13511800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>12785400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>12738900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>12718200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>13894300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>13397100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>12889700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>12346100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>12437800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>11908500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>11654900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7464000</v>
+        <v>6872400</v>
       </c>
       <c r="E58" s="3">
-        <v>6317000</v>
+        <v>7214100</v>
       </c>
       <c r="F58" s="3">
-        <v>12006500</v>
+        <v>6105600</v>
       </c>
       <c r="G58" s="3">
-        <v>9288000</v>
+        <v>11604500</v>
       </c>
       <c r="H58" s="3">
-        <v>12723800</v>
+        <v>8977100</v>
       </c>
       <c r="I58" s="3">
-        <v>10789600</v>
+        <v>12297800</v>
       </c>
       <c r="J58" s="3">
+        <v>10428400</v>
+      </c>
+      <c r="K58" s="3">
         <v>13041400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12086700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6548900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4899400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9077200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12284200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12318200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3652100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6529700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5029300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4536800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2847300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5429700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4508500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4229900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2157200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3742700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3865500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4202800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3429100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3937900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>12512300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19306000</v>
+        <v>19684200</v>
       </c>
       <c r="E59" s="3">
-        <v>18536400</v>
+        <v>18659700</v>
       </c>
       <c r="F59" s="3">
-        <v>19618200</v>
+        <v>17915800</v>
       </c>
       <c r="G59" s="3">
-        <v>18911900</v>
+        <v>18961400</v>
       </c>
       <c r="H59" s="3">
-        <v>17346200</v>
+        <v>18278800</v>
       </c>
       <c r="I59" s="3">
-        <v>17373500</v>
+        <v>16765400</v>
       </c>
       <c r="J59" s="3">
+        <v>16791900</v>
+      </c>
+      <c r="K59" s="3">
         <v>15810000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16046600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16697900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16944700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15956700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16120700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17854300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18042600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19847800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16505800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16298200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>18290400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>17134300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>17568000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>16763300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18258800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>17693700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>17628000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>16719600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>17137200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>16265100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>16240700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37553100</v>
+        <v>37022700</v>
       </c>
       <c r="E60" s="3">
-        <v>35491600</v>
+        <v>36295900</v>
       </c>
       <c r="F60" s="3">
-        <v>41783800</v>
+        <v>34303400</v>
       </c>
       <c r="G60" s="3">
-        <v>39913600</v>
+        <v>40384900</v>
       </c>
       <c r="H60" s="3">
-        <v>42408400</v>
+        <v>38577300</v>
       </c>
       <c r="I60" s="3">
-        <v>40217400</v>
+        <v>40988600</v>
       </c>
       <c r="J60" s="3">
+        <v>38871000</v>
+      </c>
+      <c r="K60" s="3">
         <v>39809300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38920800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34390800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32592200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34843800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38202100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39540800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32889300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38205800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32810500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32762900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>34649400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>35349400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>34815400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>33711400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>34310400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>34833500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>34383200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>33268500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>33004000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>32111400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>40407900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9155500</v>
+        <v>8903200</v>
       </c>
       <c r="E61" s="3">
-        <v>8888700</v>
+        <v>8849000</v>
       </c>
       <c r="F61" s="3">
-        <v>8979500</v>
+        <v>8591100</v>
       </c>
       <c r="G61" s="3">
-        <v>9980900</v>
+        <v>8678900</v>
       </c>
       <c r="H61" s="3">
-        <v>11046200</v>
+        <v>9646700</v>
       </c>
       <c r="I61" s="3">
-        <v>10690900</v>
+        <v>10676400</v>
       </c>
       <c r="J61" s="3">
+        <v>10333000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11118900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11804800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12061200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12097900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9983800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7275300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8505400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9431100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7705500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7720200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8081000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6808600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7076600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6652500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6755400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7337400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7529400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7629600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7261000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7007400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7631500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>19851800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4931800</v>
+        <v>4866400</v>
       </c>
       <c r="E62" s="3">
-        <v>4849100</v>
+        <v>4766700</v>
       </c>
       <c r="F62" s="3">
-        <v>4955200</v>
+        <v>4686700</v>
       </c>
       <c r="G62" s="3">
-        <v>5742400</v>
+        <v>4789300</v>
       </c>
       <c r="H62" s="3">
-        <v>8052200</v>
+        <v>5550200</v>
       </c>
       <c r="I62" s="3">
-        <v>7708000</v>
+        <v>7782600</v>
       </c>
       <c r="J62" s="3">
+        <v>7450000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7621300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7886600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7913300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7737800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8641200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9389500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7054800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7573600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8011800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7935100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7819600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8631100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8503900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>8634300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>8575800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>8930400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9587400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>9519400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9427600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9367200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>9692000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>9942400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54343400</v>
+        <v>53514400</v>
       </c>
       <c r="E66" s="3">
-        <v>51927300</v>
+        <v>52524100</v>
       </c>
       <c r="F66" s="3">
-        <v>60159500</v>
+        <v>50188800</v>
       </c>
       <c r="G66" s="3">
-        <v>60224200</v>
+        <v>58145400</v>
       </c>
       <c r="H66" s="3">
-        <v>68589200</v>
+        <v>58208000</v>
       </c>
       <c r="I66" s="3">
-        <v>65578700</v>
+        <v>66292900</v>
       </c>
       <c r="J66" s="3">
+        <v>63383200</v>
+      </c>
+      <c r="K66" s="3">
         <v>65084500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65283900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>61047200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59040900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58736000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>59983500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60767600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59644500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>64242700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>58617400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>59031200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>61157900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>61843400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>61415400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>59788500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>61730400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>63059800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62347900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>60372500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>59400900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>59920500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>81205500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5769,8 +5937,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25023800</v>
+        <v>25117300</v>
       </c>
       <c r="E72" s="3">
-        <v>24987500</v>
+        <v>24186000</v>
       </c>
       <c r="F72" s="3">
-        <v>22399600</v>
+        <v>24150900</v>
       </c>
       <c r="G72" s="3">
-        <v>23071700</v>
+        <v>21649600</v>
       </c>
       <c r="H72" s="3">
-        <v>22082500</v>
+        <v>22299200</v>
       </c>
       <c r="I72" s="3">
-        <v>21968400</v>
+        <v>21343200</v>
       </c>
       <c r="J72" s="3">
+        <v>21232900</v>
+      </c>
+      <c r="K72" s="3">
         <v>20987100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21520400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20473000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19218200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18264800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19425200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21120100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>20229600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>20621300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22424100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21711000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>21983700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>20149100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21201100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>19948300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19032800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18040300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>17443200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16664700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>15909000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>15530900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>15048500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36033900</v>
+        <v>35961000</v>
       </c>
       <c r="E76" s="3">
-        <v>33957400</v>
+        <v>34827600</v>
       </c>
       <c r="F76" s="3">
-        <v>31081000</v>
+        <v>32820600</v>
       </c>
       <c r="G76" s="3">
-        <v>33327000</v>
+        <v>30040500</v>
       </c>
       <c r="H76" s="3">
-        <v>31727000</v>
+        <v>32211200</v>
       </c>
       <c r="I76" s="3">
-        <v>29828400</v>
+        <v>30664800</v>
       </c>
       <c r="J76" s="3">
+        <v>28829800</v>
+      </c>
+      <c r="K76" s="3">
         <v>27137600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27577500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26415900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24995800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21464600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22715300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25901600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27839500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29420500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30705700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30120900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31353600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29663100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>32043600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>30517000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>29633300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>29113400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>28434800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>27238300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>26318000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>25587900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>23277400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,191 +6581,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>481000</v>
+        <v>923500</v>
       </c>
       <c r="E81" s="3">
-        <v>2451800</v>
+        <v>464900</v>
       </c>
       <c r="F81" s="3">
-        <v>822500</v>
+        <v>2369800</v>
       </c>
       <c r="G81" s="3">
-        <v>929900</v>
+        <v>794900</v>
       </c>
       <c r="H81" s="3">
-        <v>255300</v>
+        <v>898800</v>
       </c>
       <c r="I81" s="3">
-        <v>911500</v>
+        <v>246700</v>
       </c>
       <c r="J81" s="3">
+        <v>881000</v>
+      </c>
+      <c r="K81" s="3">
         <v>881700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1443500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>898400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1373600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>418700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1904300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>285900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1222100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>634000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1102000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1344600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1041900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>815200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>956700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>943800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>885600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>773300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>678600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>354800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>689800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>506000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,97 +6806,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>833700</v>
+        <v>834300</v>
       </c>
       <c r="E83" s="3">
-        <v>826700</v>
+        <v>805800</v>
       </c>
       <c r="F83" s="3">
-        <v>848900</v>
+        <v>799000</v>
       </c>
       <c r="G83" s="3">
-        <v>966200</v>
+        <v>820400</v>
       </c>
       <c r="H83" s="3">
-        <v>974000</v>
+        <v>933800</v>
       </c>
       <c r="I83" s="3">
-        <v>978400</v>
+        <v>941400</v>
       </c>
       <c r="J83" s="3">
+        <v>945700</v>
+      </c>
+      <c r="K83" s="3">
         <v>926000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>952600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>962300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>996500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>918100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>992500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>839800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1027900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>989800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>959000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>947800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>934400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>863000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>828800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>819700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>836100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>833100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>836900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>788400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>836200</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>793900</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1019900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,97 +7356,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>811800</v>
+        <v>1319800</v>
       </c>
       <c r="E89" s="3">
-        <v>3070600</v>
+        <v>784600</v>
       </c>
       <c r="F89" s="3">
-        <v>1006000</v>
+        <v>2967800</v>
       </c>
       <c r="G89" s="3">
-        <v>875900</v>
+        <v>972300</v>
       </c>
       <c r="H89" s="3">
-        <v>729300</v>
+        <v>846600</v>
       </c>
       <c r="I89" s="3">
-        <v>3248000</v>
+        <v>704900</v>
       </c>
       <c r="J89" s="3">
+        <v>3139300</v>
+      </c>
+      <c r="K89" s="3">
         <v>657400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>175900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1007500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2600100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1553300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>472800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1311900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2229600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>930700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1165500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>722400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3917700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-91000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>721300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1221300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2295800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1760400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1369900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1147500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2221100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>835800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1773600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,97 +7484,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-106661000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89091000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-105408000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-96150000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-108272000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100755000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-134149000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100626000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-107573000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-488900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-628300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-384800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-471300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-453200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-794100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-595900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-811800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-723700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-857900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-898800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-883000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-934700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1277100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-889100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2139000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,97 +7758,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-273900</v>
+        <v>-467600</v>
       </c>
       <c r="E94" s="3">
-        <v>2035900</v>
+        <v>-264700</v>
       </c>
       <c r="F94" s="3">
-        <v>-501100</v>
+        <v>1967700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2200</v>
+        <v>-484300</v>
       </c>
       <c r="H94" s="3">
-        <v>-494800</v>
+        <v>-2100</v>
       </c>
       <c r="I94" s="3">
-        <v>-145200</v>
+        <v>-478200</v>
       </c>
       <c r="J94" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-524200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6808900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2178300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-455900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8267800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3049100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-297800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2595800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-937000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-962900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>121300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-311700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-357900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-944800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1447200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-721200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1173700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-945800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1217900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>141000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1198700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,97 +7886,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-483400</v>
+        <v>800</v>
       </c>
       <c r="E96" s="3">
+        <v>-467200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-440700</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-418100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>600</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-399200</v>
+      </c>
+      <c r="L96" s="3">
+        <v>800</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-391300</v>
+      </c>
+      <c r="N96" s="3">
+        <v>600</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-355300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="R96" s="3">
+        <v>600</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-397200</v>
+      </c>
+      <c r="T96" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-442700</v>
+      </c>
+      <c r="V96" s="3">
         <v>700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-456000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-432600</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="W96" s="3">
+        <v>-365100</v>
+      </c>
+      <c r="X96" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-351500</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="AB96" s="3">
         <v>600</v>
       </c>
-      <c r="J96" s="3">
-        <v>-399200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-391300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>600</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-355300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-412600</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>600</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-397200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>1500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-442700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>700</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-365100</v>
-      </c>
-      <c r="W96" s="3">
-        <v>700</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-351500</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="AC96" s="3">
+        <v>-305900</v>
+      </c>
+      <c r="AD96" s="3">
         <v>400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>600</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-305900</v>
-      </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="AF96" s="3">
         <v>400</v>
       </c>
-      <c r="AD96" s="3">
-        <v>-257400</v>
-      </c>
-      <c r="AE96" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,271 +8252,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-190100</v>
+        <v>-1106600</v>
       </c>
       <c r="E100" s="3">
-        <v>-6060100</v>
+        <v>-183700</v>
       </c>
       <c r="F100" s="3">
-        <v>533200</v>
+        <v>-5857200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2435300</v>
+        <v>515400</v>
       </c>
       <c r="H100" s="3">
-        <v>110000</v>
+        <v>-2353700</v>
       </c>
       <c r="I100" s="3">
-        <v>-3485800</v>
+        <v>106300</v>
       </c>
       <c r="J100" s="3">
+        <v>-3369100</v>
+      </c>
+      <c r="K100" s="3">
         <v>436900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4584400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>78600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4395900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-723400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4492600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-740400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>152600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-25700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>668100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3116400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-529700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-258300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>797900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1618500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-748700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-709100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>170400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-864900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-2288400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>989900</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>285300</v>
+        <v>124300</v>
       </c>
       <c r="E101" s="3">
-        <v>87900</v>
+        <v>275800</v>
       </c>
       <c r="F101" s="3">
-        <v>-397300</v>
+        <v>85000</v>
       </c>
       <c r="G101" s="3">
-        <v>96400</v>
+        <v>-384000</v>
       </c>
       <c r="H101" s="3">
-        <v>414400</v>
+        <v>93200</v>
       </c>
       <c r="I101" s="3">
-        <v>236100</v>
+        <v>400500</v>
       </c>
       <c r="J101" s="3">
+        <v>228200</v>
+      </c>
+      <c r="K101" s="3">
         <v>180400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>39600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>316900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>46100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-152900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>171200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-128000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-189700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-170600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-254800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>99500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>107600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>59800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-122100</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>530100</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-69300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>633200</v>
+        <v>-130200</v>
       </c>
       <c r="E102" s="3">
-        <v>-865700</v>
+        <v>612000</v>
       </c>
       <c r="F102" s="3">
-        <v>640900</v>
+        <v>-836700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1465200</v>
+        <v>619400</v>
       </c>
       <c r="H102" s="3">
-        <v>758800</v>
+        <v>-1416100</v>
       </c>
       <c r="I102" s="3">
-        <v>-146800</v>
+        <v>733400</v>
       </c>
       <c r="J102" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K102" s="3">
         <v>750500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2026200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1073900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>699400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1153400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8500500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8860600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1038400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1341400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>74800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>237900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>949900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1103100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>104000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1058400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1024800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>390000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-405400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>431900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>16200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-781600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1495500</v>
       </c>
     </row>
